--- a/Assets/06.Table/FoxFire.xlsx
+++ b/Assets/06.Table/FoxFire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A20DBF1-36AE-4D81-A768-7E1F372EF739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD8D231-2C4B-4FFE-9B18-E5C01D817F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
   <dimension ref="A1:I750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A720" workbookViewId="0">
-      <selection activeCell="L743" sqref="L743"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="E531" sqref="E531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="G551">
         <f>IF(C551=1,VLOOKUP(FoxFire!B551,balance!$U:$Z,2,FALSE),IF(C551=2,VLOOKUP(B551,balance!$U:$Z,3,FALSE),IF(C551=3,VLOOKUP(B551,balance!$U:$Z,4,FALSE),IF(C551=4,VLOOKUP(B551,balance!$U:$Z,5,FALSE),IF(C551=5,VLOOKUP(B551-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>84.547700000000006</v>
+        <v>78.397999999999996</v>
       </c>
       <c r="H551">
         <v>2</v>
@@ -19554,7 +19554,7 @@
       </c>
       <c r="G556">
         <f>IF(C556=1,VLOOKUP(FoxFire!B556,balance!$U:$Z,2,FALSE),IF(C556=2,VLOOKUP(B556,balance!$U:$Z,3,FALSE),IF(C556=3,VLOOKUP(B556,balance!$U:$Z,4,FALSE),IF(C556=4,VLOOKUP(B556,balance!$U:$Z,5,FALSE),IF(C556=5,VLOOKUP(B556-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>93.448300000000003</v>
+        <v>80.348600000000005</v>
       </c>
       <c r="H556">
         <v>2</v>
@@ -19724,7 +19724,7 @@
       </c>
       <c r="G561">
         <f>IF(C561=1,VLOOKUP(FoxFire!B561,balance!$U:$Z,2,FALSE),IF(C561=2,VLOOKUP(B561,balance!$U:$Z,3,FALSE),IF(C561=3,VLOOKUP(B561,balance!$U:$Z,4,FALSE),IF(C561=4,VLOOKUP(B561,balance!$U:$Z,5,FALSE),IF(C561=5,VLOOKUP(B561-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>103.2835</v>
+        <v>82.345799999999997</v>
       </c>
       <c r="H561">
         <v>2</v>
@@ -19894,7 +19894,7 @@
       </c>
       <c r="G566">
         <f>IF(C566=1,VLOOKUP(FoxFire!B566,balance!$U:$Z,2,FALSE),IF(C566=2,VLOOKUP(B566,balance!$U:$Z,3,FALSE),IF(C566=3,VLOOKUP(B566,balance!$U:$Z,4,FALSE),IF(C566=4,VLOOKUP(B566,balance!$U:$Z,5,FALSE),IF(C566=5,VLOOKUP(B566-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>114.1511</v>
+        <v>84.390799999999999</v>
       </c>
       <c r="H566">
         <v>2</v>
@@ -20064,7 +20064,7 @@
       </c>
       <c r="G571">
         <f>IF(C571=1,VLOOKUP(FoxFire!B571,balance!$U:$Z,2,FALSE),IF(C571=2,VLOOKUP(B571,balance!$U:$Z,3,FALSE),IF(C571=3,VLOOKUP(B571,balance!$U:$Z,4,FALSE),IF(C571=4,VLOOKUP(B571,balance!$U:$Z,5,FALSE),IF(C571=5,VLOOKUP(B571-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>126.15940000000001</v>
+        <v>86.484699999999989</v>
       </c>
       <c r="H571">
         <v>2</v>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="G576">
         <f>IF(C576=1,VLOOKUP(FoxFire!B576,balance!$U:$Z,2,FALSE),IF(C576=2,VLOOKUP(B576,balance!$U:$Z,3,FALSE),IF(C576=3,VLOOKUP(B576,balance!$U:$Z,4,FALSE),IF(C576=4,VLOOKUP(B576,balance!$U:$Z,5,FALSE),IF(C576=5,VLOOKUP(B576-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>139.42770000000002</v>
+        <v>88.628500000000003</v>
       </c>
       <c r="H576">
         <v>2</v>
@@ -20404,7 +20404,7 @@
       </c>
       <c r="G581">
         <f>IF(C581=1,VLOOKUP(FoxFire!B581,balance!$U:$Z,2,FALSE),IF(C581=2,VLOOKUP(B581,balance!$U:$Z,3,FALSE),IF(C581=3,VLOOKUP(B581,balance!$U:$Z,4,FALSE),IF(C581=4,VLOOKUP(B581,balance!$U:$Z,5,FALSE),IF(C581=5,VLOOKUP(B581-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>154.08800000000002</v>
+        <v>90.82350000000001</v>
       </c>
       <c r="H581">
         <v>2</v>
@@ -20574,7 +20574,7 @@
       </c>
       <c r="G586">
         <f>IF(C586=1,VLOOKUP(FoxFire!B586,balance!$U:$Z,2,FALSE),IF(C586=2,VLOOKUP(B586,balance!$U:$Z,3,FALSE),IF(C586=3,VLOOKUP(B586,balance!$U:$Z,4,FALSE),IF(C586=4,VLOOKUP(B586,balance!$U:$Z,5,FALSE),IF(C586=5,VLOOKUP(B586-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>170.28599999999997</v>
+        <v>93.070899999999995</v>
       </c>
       <c r="H586">
         <v>2</v>
@@ -20744,7 +20744,7 @@
       </c>
       <c r="G591">
         <f>IF(C591=1,VLOOKUP(FoxFire!B591,balance!$U:$Z,2,FALSE),IF(C591=2,VLOOKUP(B591,balance!$U:$Z,3,FALSE),IF(C591=3,VLOOKUP(B591,balance!$U:$Z,4,FALSE),IF(C591=4,VLOOKUP(B591,balance!$U:$Z,5,FALSE),IF(C591=5,VLOOKUP(B591-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>188.18269999999995</v>
+        <v>95.371800000000007</v>
       </c>
       <c r="H591">
         <v>2</v>
@@ -20914,7 +20914,7 @@
       </c>
       <c r="G596">
         <f>IF(C596=1,VLOOKUP(FoxFire!B596,balance!$U:$Z,2,FALSE),IF(C596=2,VLOOKUP(B596,balance!$U:$Z,3,FALSE),IF(C596=3,VLOOKUP(B596,balance!$U:$Z,4,FALSE),IF(C596=4,VLOOKUP(B596,balance!$U:$Z,5,FALSE),IF(C596=5,VLOOKUP(B596-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>207.95570000000001</v>
+        <v>97.727500000000006</v>
       </c>
       <c r="H596">
         <v>2</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="G601">
         <f>IF(C601=1,VLOOKUP(FoxFire!B601,balance!$U:$Z,2,FALSE),IF(C601=2,VLOOKUP(B601,balance!$U:$Z,3,FALSE),IF(C601=3,VLOOKUP(B601,balance!$U:$Z,4,FALSE),IF(C601=4,VLOOKUP(B601,balance!$U:$Z,5,FALSE),IF(C601=5,VLOOKUP(B601-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>229.80149999999998</v>
+        <v>100.13930000000001</v>
       </c>
       <c r="H601">
         <v>2</v>
@@ -21254,7 +21254,7 @@
       </c>
       <c r="G606">
         <f>IF(C606=1,VLOOKUP(FoxFire!B606,balance!$U:$Z,2,FALSE),IF(C606=2,VLOOKUP(B606,balance!$U:$Z,3,FALSE),IF(C606=3,VLOOKUP(B606,balance!$U:$Z,4,FALSE),IF(C606=4,VLOOKUP(B606,balance!$U:$Z,5,FALSE),IF(C606=5,VLOOKUP(B606-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>253.93679999999998</v>
+        <v>102.60850000000001</v>
       </c>
       <c r="H606">
         <v>2</v>
@@ -21424,7 +21424,7 @@
       </c>
       <c r="G611">
         <f>IF(C611=1,VLOOKUP(FoxFire!B611,balance!$U:$Z,2,FALSE),IF(C611=2,VLOOKUP(B611,balance!$U:$Z,3,FALSE),IF(C611=3,VLOOKUP(B611,balance!$U:$Z,4,FALSE),IF(C611=4,VLOOKUP(B611,balance!$U:$Z,5,FALSE),IF(C611=5,VLOOKUP(B611-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>280.601</v>
+        <v>105.13639999999999</v>
       </c>
       <c r="H611">
         <v>2</v>
@@ -21594,7 +21594,7 @@
       </c>
       <c r="G616">
         <f>IF(C616=1,VLOOKUP(FoxFire!B616,balance!$U:$Z,2,FALSE),IF(C616=2,VLOOKUP(B616,balance!$U:$Z,3,FALSE),IF(C616=3,VLOOKUP(B616,balance!$U:$Z,4,FALSE),IF(C616=4,VLOOKUP(B616,balance!$U:$Z,5,FALSE),IF(C616=5,VLOOKUP(B616-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>310.05869999999999</v>
+        <v>107.7244</v>
       </c>
       <c r="H616">
         <v>2</v>
@@ -21764,7 +21764,7 @@
       </c>
       <c r="G621">
         <f>IF(C621=1,VLOOKUP(FoxFire!B621,balance!$U:$Z,2,FALSE),IF(C621=2,VLOOKUP(B621,balance!$U:$Z,3,FALSE),IF(C621=3,VLOOKUP(B621,balance!$U:$Z,4,FALSE),IF(C621=4,VLOOKUP(B621,balance!$U:$Z,5,FALSE),IF(C621=5,VLOOKUP(B621-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>342.60180000000003</v>
+        <v>110.37380000000002</v>
       </c>
       <c r="H621">
         <v>2</v>
@@ -21934,7 +21934,7 @@
       </c>
       <c r="G626">
         <f>IF(C626=1,VLOOKUP(FoxFire!B626,balance!$U:$Z,2,FALSE),IF(C626=2,VLOOKUP(B626,balance!$U:$Z,3,FALSE),IF(C626=3,VLOOKUP(B626,balance!$U:$Z,4,FALSE),IF(C626=4,VLOOKUP(B626,balance!$U:$Z,5,FALSE),IF(C626=5,VLOOKUP(B626-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>378.55279999999999</v>
+        <v>113.0861</v>
       </c>
       <c r="H626">
         <v>2</v>
@@ -22104,7 +22104,7 @@
       </c>
       <c r="G631">
         <f>IF(C631=1,VLOOKUP(FoxFire!B631,balance!$U:$Z,2,FALSE),IF(C631=2,VLOOKUP(B631,balance!$U:$Z,3,FALSE),IF(C631=3,VLOOKUP(B631,balance!$U:$Z,4,FALSE),IF(C631=4,VLOOKUP(B631,balance!$U:$Z,5,FALSE),IF(C631=5,VLOOKUP(B631-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>418.2679</v>
+        <v>115.86280000000001</v>
       </c>
       <c r="H631">
         <v>2</v>
@@ -22274,7 +22274,7 @@
       </c>
       <c r="G636">
         <f>IF(C636=1,VLOOKUP(FoxFire!B636,balance!$U:$Z,2,FALSE),IF(C636=2,VLOOKUP(B636,balance!$U:$Z,3,FALSE),IF(C636=3,VLOOKUP(B636,balance!$U:$Z,4,FALSE),IF(C636=4,VLOOKUP(B636,balance!$U:$Z,5,FALSE),IF(C636=5,VLOOKUP(B636-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>462.14050000000003</v>
+        <v>118.70530000000001</v>
       </c>
       <c r="H636">
         <v>2</v>
@@ -22444,7 +22444,7 @@
       </c>
       <c r="G641">
         <f>IF(C641=1,VLOOKUP(FoxFire!B641,balance!$U:$Z,2,FALSE),IF(C641=2,VLOOKUP(B641,balance!$U:$Z,3,FALSE),IF(C641=3,VLOOKUP(B641,balance!$U:$Z,4,FALSE),IF(C641=4,VLOOKUP(B641,balance!$U:$Z,5,FALSE),IF(C641=5,VLOOKUP(B641-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>510.60480000000001</v>
+        <v>121.6152</v>
       </c>
       <c r="H641">
         <v>2</v>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="G646">
         <f>IF(C646=1,VLOOKUP(FoxFire!B646,balance!$U:$Z,2,FALSE),IF(C646=2,VLOOKUP(B646,balance!$U:$Z,3,FALSE),IF(C646=3,VLOOKUP(B646,balance!$U:$Z,4,FALSE),IF(C646=4,VLOOKUP(B646,balance!$U:$Z,5,FALSE),IF(C646=5,VLOOKUP(B646-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>564.14049999999997</v>
+        <v>124.59389999999999</v>
       </c>
       <c r="H646">
         <v>2</v>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="G651">
         <f>IF(C651=1,VLOOKUP(FoxFire!B651,balance!$U:$Z,2,FALSE),IF(C651=2,VLOOKUP(B651,balance!$U:$Z,3,FALSE),IF(C651=3,VLOOKUP(B651,balance!$U:$Z,4,FALSE),IF(C651=4,VLOOKUP(B651,balance!$U:$Z,5,FALSE),IF(C651=5,VLOOKUP(B651-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>623.27719999999999</v>
+        <v>127.64319999999999</v>
       </c>
       <c r="H651">
         <v>2</v>
@@ -22954,7 +22954,7 @@
       </c>
       <c r="G656">
         <f>IF(C656=1,VLOOKUP(FoxFire!B656,balance!$U:$Z,2,FALSE),IF(C656=2,VLOOKUP(B656,balance!$U:$Z,3,FALSE),IF(C656=3,VLOOKUP(B656,balance!$U:$Z,4,FALSE),IF(C656=4,VLOOKUP(B656,balance!$U:$Z,5,FALSE),IF(C656=5,VLOOKUP(B656-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>688.59969999999998</v>
+        <v>130.7646</v>
       </c>
       <c r="H656">
         <v>2</v>
@@ -23124,7 +23124,7 @@
       </c>
       <c r="G661">
         <f>IF(C661=1,VLOOKUP(FoxFire!B661,balance!$U:$Z,2,FALSE),IF(C661=2,VLOOKUP(B661,balance!$U:$Z,3,FALSE),IF(C661=3,VLOOKUP(B661,balance!$U:$Z,4,FALSE),IF(C661=4,VLOOKUP(B661,balance!$U:$Z,5,FALSE),IF(C661=5,VLOOKUP(B661-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>760.75390000000004</v>
+        <v>133.9598</v>
       </c>
       <c r="H661">
         <v>2</v>
@@ -23294,7 +23294,7 @@
       </c>
       <c r="G666">
         <f>IF(C666=1,VLOOKUP(FoxFire!B666,balance!$U:$Z,2,FALSE),IF(C666=2,VLOOKUP(B666,balance!$U:$Z,3,FALSE),IF(C666=3,VLOOKUP(B666,balance!$U:$Z,4,FALSE),IF(C666=4,VLOOKUP(B666,balance!$U:$Z,5,FALSE),IF(C666=5,VLOOKUP(B666-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>840.45280000000002</v>
+        <v>137.23050000000001</v>
       </c>
       <c r="H666">
         <v>2</v>
@@ -23464,7 +23464,7 @@
       </c>
       <c r="G671">
         <f>IF(C671=1,VLOOKUP(FoxFire!B671,balance!$U:$Z,2,FALSE),IF(C671=2,VLOOKUP(B671,balance!$U:$Z,3,FALSE),IF(C671=3,VLOOKUP(B671,balance!$U:$Z,4,FALSE),IF(C671=4,VLOOKUP(B671,balance!$U:$Z,5,FALSE),IF(C671=5,VLOOKUP(B671-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>928.48399999999992</v>
+        <v>140.57849999999999</v>
       </c>
       <c r="H671">
         <v>2</v>
@@ -23634,7 +23634,7 @@
       </c>
       <c r="G676">
         <f>IF(C676=1,VLOOKUP(FoxFire!B676,balance!$U:$Z,2,FALSE),IF(C676=2,VLOOKUP(B676,balance!$U:$Z,3,FALSE),IF(C676=3,VLOOKUP(B676,balance!$U:$Z,4,FALSE),IF(C676=4,VLOOKUP(B676,balance!$U:$Z,5,FALSE),IF(C676=5,VLOOKUP(B676-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>1025.7166999999999</v>
+        <v>144.00540000000001</v>
       </c>
       <c r="H676">
         <v>2</v>
@@ -23804,7 +23804,7 @@
       </c>
       <c r="G681">
         <f>IF(C681=1,VLOOKUP(FoxFire!B681,balance!$U:$Z,2,FALSE),IF(C681=2,VLOOKUP(B681,balance!$U:$Z,3,FALSE),IF(C681=3,VLOOKUP(B681,balance!$U:$Z,4,FALSE),IF(C681=4,VLOOKUP(B681,balance!$U:$Z,5,FALSE),IF(C681=5,VLOOKUP(B681-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>1133.1109999999999</v>
+        <v>147.51329999999999</v>
       </c>
       <c r="H681">
         <v>2</v>
@@ -23974,7 +23974,7 @@
       </c>
       <c r="G686">
         <f>IF(C686=1,VLOOKUP(FoxFire!B686,balance!$U:$Z,2,FALSE),IF(C686=2,VLOOKUP(B686,balance!$U:$Z,3,FALSE),IF(C686=3,VLOOKUP(B686,balance!$U:$Z,4,FALSE),IF(C686=4,VLOOKUP(B686,balance!$U:$Z,5,FALSE),IF(C686=5,VLOOKUP(B686-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>1251.7269999999999</v>
+        <v>151.10380000000001</v>
       </c>
       <c r="H686">
         <v>2</v>
@@ -24144,7 +24144,7 @@
       </c>
       <c r="G691">
         <f>IF(C691=1,VLOOKUP(FoxFire!B691,balance!$U:$Z,2,FALSE),IF(C691=2,VLOOKUP(B691,balance!$U:$Z,3,FALSE),IF(C691=3,VLOOKUP(B691,balance!$U:$Z,4,FALSE),IF(C691=4,VLOOKUP(B691,balance!$U:$Z,5,FALSE),IF(C691=5,VLOOKUP(B691-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>1382.7349999999999</v>
+        <v>154.779</v>
       </c>
       <c r="H691">
         <v>2</v>
@@ -24314,7 +24314,7 @@
       </c>
       <c r="G696">
         <f>IF(C696=1,VLOOKUP(FoxFire!B696,balance!$U:$Z,2,FALSE),IF(C696=2,VLOOKUP(B696,balance!$U:$Z,3,FALSE),IF(C696=3,VLOOKUP(B696,balance!$U:$Z,4,FALSE),IF(C696=4,VLOOKUP(B696,balance!$U:$Z,5,FALSE),IF(C696=5,VLOOKUP(B696-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>1527.4272000000001</v>
+        <v>158.54069999999999</v>
       </c>
       <c r="H696">
         <v>2</v>
@@ -24484,7 +24484,7 @@
       </c>
       <c r="G701">
         <f>IF(C701=1,VLOOKUP(FoxFire!B701,balance!$U:$Z,2,FALSE),IF(C701=2,VLOOKUP(B701,balance!$U:$Z,3,FALSE),IF(C701=3,VLOOKUP(B701,balance!$U:$Z,4,FALSE),IF(C701=4,VLOOKUP(B701,balance!$U:$Z,5,FALSE),IF(C701=5,VLOOKUP(B701-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>1687.2304000000001</v>
+        <v>162.39089999999999</v>
       </c>
       <c r="H701">
         <v>2</v>
@@ -24654,7 +24654,7 @@
       </c>
       <c r="G706">
         <f>IF(C706=1,VLOOKUP(FoxFire!B706,balance!$U:$Z,2,FALSE),IF(C706=2,VLOOKUP(B706,balance!$U:$Z,3,FALSE),IF(C706=3,VLOOKUP(B706,balance!$U:$Z,4,FALSE),IF(C706=4,VLOOKUP(B706,balance!$U:$Z,5,FALSE),IF(C706=5,VLOOKUP(B706-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>1863.7198000000001</v>
+        <v>166.33179999999996</v>
       </c>
       <c r="H706">
         <v>2</v>
@@ -24824,7 +24824,7 @@
       </c>
       <c r="G711">
         <f>IF(C711=1,VLOOKUP(FoxFire!B711,balance!$U:$Z,2,FALSE),IF(C711=2,VLOOKUP(B711,balance!$U:$Z,3,FALSE),IF(C711=3,VLOOKUP(B711,balance!$U:$Z,4,FALSE),IF(C711=4,VLOOKUP(B711,balance!$U:$Z,5,FALSE),IF(C711=5,VLOOKUP(B711-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>2058.6348000000003</v>
+        <v>170.36539999999997</v>
       </c>
       <c r="H711">
         <v>2</v>
@@ -24994,7 +24994,7 @@
       </c>
       <c r="G716">
         <f>IF(C716=1,VLOOKUP(FoxFire!B716,balance!$U:$Z,2,FALSE),IF(C716=2,VLOOKUP(B716,balance!$U:$Z,3,FALSE),IF(C716=3,VLOOKUP(B716,balance!$U:$Z,4,FALSE),IF(C716=4,VLOOKUP(B716,balance!$U:$Z,5,FALSE),IF(C716=5,VLOOKUP(B716-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>2273.8955000000001</v>
+        <v>174.49369999999999</v>
       </c>
       <c r="H716">
         <v>2</v>
@@ -25164,7 +25164,7 @@
       </c>
       <c r="G721">
         <f>IF(C721=1,VLOOKUP(FoxFire!B721,balance!$U:$Z,2,FALSE),IF(C721=2,VLOOKUP(B721,balance!$U:$Z,3,FALSE),IF(C721=3,VLOOKUP(B721,balance!$U:$Z,4,FALSE),IF(C721=4,VLOOKUP(B721,balance!$U:$Z,5,FALSE),IF(C721=5,VLOOKUP(B721-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>2511.6220000000003</v>
+        <v>178.7191</v>
       </c>
       <c r="H721">
         <v>2</v>
@@ -25334,7 +25334,7 @@
       </c>
       <c r="G726">
         <f>IF(C726=1,VLOOKUP(FoxFire!B726,balance!$U:$Z,2,FALSE),IF(C726=2,VLOOKUP(B726,balance!$U:$Z,3,FALSE),IF(C726=3,VLOOKUP(B726,balance!$U:$Z,4,FALSE),IF(C726=4,VLOOKUP(B726,balance!$U:$Z,5,FALSE),IF(C726=5,VLOOKUP(B726-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>2774.1546000000003</v>
+        <v>183.04359999999997</v>
       </c>
       <c r="H726">
         <v>2</v>
@@ -25504,7 +25504,7 @@
       </c>
       <c r="G731">
         <f>IF(C731=1,VLOOKUP(FoxFire!B731,balance!$U:$Z,2,FALSE),IF(C731=2,VLOOKUP(B731,balance!$U:$Z,3,FALSE),IF(C731=3,VLOOKUP(B731,balance!$U:$Z,4,FALSE),IF(C731=4,VLOOKUP(B731,balance!$U:$Z,5,FALSE),IF(C731=5,VLOOKUP(B731-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>3064.0774999999999</v>
+        <v>187.46969999999999</v>
       </c>
       <c r="H731">
         <v>2</v>
@@ -25674,7 +25674,7 @@
       </c>
       <c r="G736">
         <f>IF(C736=1,VLOOKUP(FoxFire!B736,balance!$U:$Z,2,FALSE),IF(C736=2,VLOOKUP(B736,balance!$U:$Z,3,FALSE),IF(C736=3,VLOOKUP(B736,balance!$U:$Z,4,FALSE),IF(C736=4,VLOOKUP(B736,balance!$U:$Z,5,FALSE),IF(C736=5,VLOOKUP(B736-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>3384.2433000000001</v>
+        <v>191.99949999999998</v>
       </c>
       <c r="H736">
         <v>2</v>
@@ -25844,7 +25844,7 @@
       </c>
       <c r="G741">
         <f>IF(C741=1,VLOOKUP(FoxFire!B741,balance!$U:$Z,2,FALSE),IF(C741=2,VLOOKUP(B741,balance!$U:$Z,3,FALSE),IF(C741=3,VLOOKUP(B741,balance!$U:$Z,4,FALSE),IF(C741=4,VLOOKUP(B741,balance!$U:$Z,5,FALSE),IF(C741=5,VLOOKUP(B741-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>3737.8014000000003</v>
+        <v>196.63559999999998</v>
       </c>
       <c r="H741">
         <v>2</v>
@@ -26014,7 +26014,7 @@
       </c>
       <c r="G746">
         <f>IF(C746=1,VLOOKUP(FoxFire!B746,balance!$U:$Z,2,FALSE),IF(C746=2,VLOOKUP(B746,balance!$U:$Z,3,FALSE),IF(C746=3,VLOOKUP(B746,balance!$U:$Z,4,FALSE),IF(C746=4,VLOOKUP(B746,balance!$U:$Z,5,FALSE),IF(C746=5,VLOOKUP(B746-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
-        <v>4128.2285999999995</v>
+        <v>201.38039999999998</v>
       </c>
       <c r="H746">
         <v>2</v>
@@ -26170,10 +26170,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E49ABD-1971-4E3F-A720-5325F2244383}">
   <dimension ref="A1:AQ204"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="T106" sqref="T106:T204"/>
+      <selection pane="topRight" activeCell="AA114" sqref="AA114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26189,8 +26189,9 @@
     <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="21" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -37369,11 +37370,11 @@
         <f t="shared" si="52"/>
         <v>0.188</v>
       </c>
-      <c r="Z93">
+      <c r="Z93" s="4">
         <f t="shared" si="42"/>
         <v>1027.06</v>
       </c>
-      <c r="AA93">
+      <c r="AA93" s="4">
         <f t="shared" si="29"/>
         <v>1365.7591622120192</v>
       </c>
@@ -37490,11 +37491,11 @@
         <f t="shared" si="52"/>
         <v>0.189</v>
       </c>
-      <c r="Z94">
+      <c r="Z94" s="4">
         <f t="shared" si="42"/>
         <v>1135.8499999999999</v>
       </c>
-      <c r="AA94">
+      <c r="AA94" s="4">
         <f t="shared" si="29"/>
         <v>1502.4350784332212</v>
       </c>
@@ -37611,11 +37612,11 @@
         <f t="shared" si="52"/>
         <v>0.19</v>
       </c>
-      <c r="Z95">
+      <c r="Z95" s="4">
         <f t="shared" si="42"/>
         <v>1256.1199999999999</v>
       </c>
-      <c r="AA95">
+      <c r="AA95" s="4">
         <f t="shared" si="29"/>
         <v>1652.7785862765434</v>
       </c>
@@ -37732,11 +37733,11 @@
         <f t="shared" si="52"/>
         <v>0.191</v>
       </c>
-      <c r="Z96">
+      <c r="Z96" s="4">
         <f t="shared" si="42"/>
         <v>1389.08</v>
       </c>
-      <c r="AA96">
+      <c r="AA96" s="4">
         <f t="shared" si="29"/>
         <v>1818.1564449041978</v>
       </c>
@@ -37853,11 +37854,11 @@
         <f t="shared" si="52"/>
         <v>0.192</v>
       </c>
-      <c r="Z97">
+      <c r="Z97" s="4">
         <f t="shared" si="42"/>
         <v>1536.06</v>
       </c>
-      <c r="AA97">
+      <c r="AA97" s="4">
         <f t="shared" si="29"/>
         <v>2000.0720893946177</v>
       </c>
@@ -37974,11 +37975,11 @@
         <f t="shared" si="52"/>
         <v>0.193</v>
       </c>
-      <c r="Z98">
+      <c r="Z98" s="4">
         <f t="shared" si="42"/>
         <v>1698.54</v>
       </c>
-      <c r="AA98">
+      <c r="AA98" s="4">
         <f t="shared" si="29"/>
         <v>2200.1792983340797</v>
       </c>
@@ -38095,11 +38096,11 @@
         <f t="shared" si="52"/>
         <v>0.19400000000000001</v>
       </c>
-      <c r="Z99">
+      <c r="Z99" s="4">
         <f t="shared" si="42"/>
         <v>1878.16</v>
       </c>
-      <c r="AA99">
+      <c r="AA99" s="4">
         <f t="shared" si="29"/>
         <v>2420.2972281674879</v>
       </c>
@@ -38216,11 +38217,11 @@
         <f t="shared" si="52"/>
         <v>0.19500000000000001</v>
       </c>
-      <c r="Z100">
+      <c r="Z100" s="4">
         <f t="shared" si="42"/>
         <v>2076.7000000000003</v>
       </c>
-      <c r="AA100">
+      <c r="AA100" s="4">
         <f t="shared" si="29"/>
         <v>2662.426950984237</v>
       </c>
@@ -38337,11 +38338,11 @@
         <f t="shared" si="52"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="Z101">
+      <c r="Z101" s="4">
         <f t="shared" si="42"/>
         <v>2296.1600000000003</v>
       </c>
-      <c r="AA101">
+      <c r="AA101" s="4">
         <f t="shared" si="29"/>
         <v>2928.769646082661</v>
       </c>
@@ -38458,11 +38459,11 @@
         <f t="shared" si="52"/>
         <v>0.19700000000000001</v>
       </c>
-      <c r="Z102">
+      <c r="Z102" s="4">
         <f t="shared" si="42"/>
         <v>2538.7400000000002</v>
       </c>
-      <c r="AA102">
+      <c r="AA102" s="4">
         <f t="shared" ref="AA102:AA165" si="54">AA101*1.1+0.1</f>
         <v>3221.7466106909274</v>
       </c>
@@ -38579,11 +38580,11 @@
         <f t="shared" si="52"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="Z103">
+      <c r="Z103" s="4">
         <f t="shared" si="42"/>
         <v>2806.8700000000003</v>
       </c>
-      <c r="AA103">
+      <c r="AA103" s="4">
         <f t="shared" si="54"/>
         <v>3544.0212717600202</v>
       </c>
@@ -38704,11 +38705,11 @@
         <f t="shared" si="52"/>
         <v>0.19900000000000001</v>
       </c>
-      <c r="Z104">
+      <c r="Z104" s="4">
         <f t="shared" si="42"/>
         <v>3103.23</v>
       </c>
-      <c r="AA104">
+      <c r="AA104" s="4">
         <f t="shared" si="54"/>
         <v>3898.5233989360227</v>
       </c>
@@ -38825,11 +38826,11 @@
         <f t="shared" ref="Y105:Y168" si="62">V105</f>
         <v>0.2</v>
       </c>
-      <c r="Z105">
+      <c r="Z105" s="4">
         <f t="shared" ref="Z105:Z168" si="63">ROUNDUP((SUM(V105:Y105)*(AA105)),2)</f>
         <v>3430.7900000000004</v>
       </c>
-      <c r="AA105">
+      <c r="AA105" s="4">
         <f t="shared" si="54"/>
         <v>4288.4757388296257</v>
       </c>
@@ -38946,11 +38947,11 @@
         <f t="shared" si="62"/>
         <v>0.20100000000000001</v>
       </c>
-      <c r="Z106">
+      <c r="Z106" s="4">
         <f t="shared" si="63"/>
         <v>3792.8100000000004</v>
       </c>
-      <c r="AA106">
+      <c r="AA106" s="4">
         <f t="shared" si="54"/>
         <v>4717.423312712589</v>
       </c>
@@ -39067,11 +39068,11 @@
         <f t="shared" si="62"/>
         <v>0.20200000000000001</v>
       </c>
-      <c r="Z107">
+      <c r="Z107" s="4">
         <f t="shared" si="63"/>
         <v>4192.93</v>
       </c>
-      <c r="AA107">
+      <c r="AA107" s="4">
         <f t="shared" si="54"/>
         <v>5189.2656439838483</v>
       </c>
@@ -39188,11 +39189,11 @@
         <f t="shared" si="62"/>
         <v>0.20300000000000001</v>
       </c>
-      <c r="Z108">
+      <c r="Z108" s="4">
         <f t="shared" si="63"/>
         <v>4635.1400000000003</v>
       </c>
-      <c r="AA108">
+      <c r="AA108" s="4">
         <f t="shared" si="54"/>
         <v>5708.2922083822341</v>
       </c>
@@ -39309,11 +39310,11 @@
         <f t="shared" si="62"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="Z109">
+      <c r="Z109" s="4">
         <f t="shared" si="63"/>
         <v>5123.8500000000004</v>
       </c>
-      <c r="AA109">
+      <c r="AA109" s="4">
         <f t="shared" si="54"/>
         <v>6279.221429220458</v>
       </c>
@@ -39430,11 +39431,11 @@
         <f t="shared" si="62"/>
         <v>0.20499999999999999</v>
       </c>
-      <c r="Z110">
+      <c r="Z110" s="4">
         <f t="shared" si="63"/>
         <v>5663.9400000000005</v>
       </c>
-      <c r="AA110">
+      <c r="AA110" s="4">
         <f t="shared" si="54"/>
         <v>6907.2435721425045</v>
       </c>
@@ -39551,11 +39552,11 @@
         <f t="shared" si="62"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="Z111">
+      <c r="Z111" s="4">
         <f t="shared" si="63"/>
         <v>6260.81</v>
       </c>
-      <c r="AA111">
+      <c r="AA111" s="4">
         <f t="shared" si="54"/>
         <v>7598.0679293567555</v>
       </c>
@@ -39672,11 +39673,11 @@
         <f t="shared" si="62"/>
         <v>0.20699999999999999</v>
       </c>
-      <c r="Z112">
+      <c r="Z112" s="4">
         <f t="shared" si="63"/>
         <v>6920.41</v>
       </c>
-      <c r="AA112">
+      <c r="AA112" s="4">
         <f t="shared" si="54"/>
         <v>8357.9747222924325</v>
       </c>
@@ -39793,11 +39794,11 @@
         <f t="shared" si="62"/>
         <v>0.20799999999999999</v>
       </c>
-      <c r="Z113">
+      <c r="Z113" s="4">
         <f t="shared" si="63"/>
         <v>7649.31</v>
       </c>
-      <c r="AA113">
+      <c r="AA113" s="4">
         <f t="shared" si="54"/>
         <v>9193.8721945216766</v>
       </c>
@@ -39914,25 +39915,25 @@
         <f t="shared" si="62"/>
         <v>0.20899999999999999</v>
       </c>
-      <c r="Z114">
+      <c r="Z114" s="4">
         <f t="shared" si="63"/>
-        <v>8454.77</v>
-      </c>
-      <c r="AA114">
-        <f t="shared" si="54"/>
-        <v>10113.359413973845</v>
+        <v>7839.8</v>
+      </c>
+      <c r="AA114" s="4">
+        <f>AA113*1.02</f>
+        <v>9377.7496384121096</v>
       </c>
       <c r="AB114" s="4">
         <f t="shared" si="64"/>
-        <v>8455.6059999999998</v>
+        <v>7840.6360000000004</v>
       </c>
       <c r="AC114" s="4">
         <f>SUM($AB$5:AB114)</f>
-        <v>88589.02</v>
+        <v>87974.05</v>
       </c>
       <c r="AD114">
         <f t="shared" si="65"/>
-        <v>10.551910342918871</v>
+        <v>9.7844776711996797</v>
       </c>
       <c r="AE114">
         <f t="shared" si="66"/>
@@ -40035,25 +40036,25 @@
         <f t="shared" si="62"/>
         <v>0.21</v>
       </c>
-      <c r="Z115">
+      <c r="Z115" s="4">
         <f t="shared" si="63"/>
-        <v>9344.83</v>
-      </c>
-      <c r="AA115">
-        <f t="shared" si="54"/>
-        <v>11124.79535537123</v>
+        <v>8034.8600000000006</v>
+      </c>
+      <c r="AA115" s="4">
+        <f t="shared" ref="AA115:AA178" si="74">AA114*1.02</f>
+        <v>9565.3046311803519</v>
       </c>
       <c r="AB115" s="4">
         <f t="shared" si="64"/>
-        <v>9345.67</v>
+        <v>8035.7000000000007</v>
       </c>
       <c r="AC115" s="4">
         <f>SUM($AB$5:AB115)</f>
-        <v>97934.69</v>
+        <v>96009.75</v>
       </c>
       <c r="AD115">
         <f t="shared" si="65"/>
-        <v>10.549467642829775</v>
+        <v>9.1341708151437793</v>
       </c>
       <c r="AE115">
         <f t="shared" si="66"/>
@@ -40156,25 +40157,25 @@
         <f t="shared" si="62"/>
         <v>0.21099999999999999</v>
       </c>
-      <c r="Z116">
+      <c r="Z116" s="4">
         <f t="shared" si="63"/>
-        <v>10328.35</v>
-      </c>
-      <c r="AA116">
-        <f t="shared" si="54"/>
-        <v>12237.374890908355</v>
+        <v>8234.58</v>
+      </c>
+      <c r="AA116" s="4">
+        <f t="shared" si="74"/>
+        <v>9756.6107238039585</v>
       </c>
       <c r="AB116" s="4">
         <f t="shared" si="64"/>
-        <v>10329.194</v>
+        <v>8235.4239999999991</v>
       </c>
       <c r="AC116" s="4">
         <f>SUM($AB$5:AB116)</f>
-        <v>108263.88400000001</v>
+        <v>104245.174</v>
       </c>
       <c r="AD116">
         <f t="shared" si="65"/>
-        <v>10.547022714831693</v>
+        <v>8.5776954944680082</v>
       </c>
       <c r="AE116">
         <f t="shared" si="66"/>
@@ -40277,25 +40278,25 @@
         <f t="shared" si="62"/>
         <v>0.21199999999999999</v>
       </c>
-      <c r="Z117">
+      <c r="Z117" s="4">
         <f t="shared" si="63"/>
-        <v>11415.11</v>
-      </c>
-      <c r="AA117">
-        <f t="shared" si="54"/>
-        <v>13461.212379999191</v>
+        <v>8439.08</v>
+      </c>
+      <c r="AA117" s="4">
+        <f t="shared" si="74"/>
+        <v>9951.7429382800383</v>
       </c>
       <c r="AB117" s="4">
         <f t="shared" si="64"/>
-        <v>11415.958000000001</v>
+        <v>8439.9279999999999</v>
       </c>
       <c r="AC117" s="4">
         <f>SUM($AB$5:AB117)</f>
-        <v>119679.842</v>
+        <v>112685.102</v>
       </c>
       <c r="AD117">
         <f t="shared" si="65"/>
-        <v>10.544567198420479</v>
+        <v>8.096228991857215</v>
       </c>
       <c r="AE117">
         <f t="shared" si="66"/>
@@ -40398,25 +40399,25 @@
         <f t="shared" si="62"/>
         <v>0.21299999999999999</v>
       </c>
-      <c r="Z118">
+      <c r="Z118" s="4">
         <f t="shared" si="63"/>
-        <v>12615.94</v>
-      </c>
-      <c r="AA118">
-        <f t="shared" si="54"/>
-        <v>14807.433617999111</v>
+        <v>8648.4699999999993</v>
+      </c>
+      <c r="AA118" s="4">
+        <f t="shared" si="74"/>
+        <v>10150.777797045639</v>
       </c>
       <c r="AB118" s="4">
         <f t="shared" si="64"/>
-        <v>12616.792000000001</v>
+        <v>8649.3220000000001</v>
       </c>
       <c r="AC118" s="4">
         <f>SUM($AB$5:AB118)</f>
-        <v>132296.63400000002</v>
+        <v>121334.424</v>
       </c>
       <c r="AD118">
         <f t="shared" si="65"/>
-        <v>10.542119532544183</v>
+        <v>7.6756570713313987</v>
       </c>
       <c r="AE118">
         <f t="shared" si="66"/>
@@ -40470,7 +40471,7 @@
         <v>115</v>
       </c>
       <c r="L119" s="1">
-        <f t="shared" ref="L119:L182" si="74">L118+25</f>
+        <f t="shared" ref="L119:L182" si="75">L118+25</f>
         <v>3100</v>
       </c>
       <c r="M119" s="1">
@@ -40519,25 +40520,25 @@
         <f t="shared" si="62"/>
         <v>0.214</v>
       </c>
-      <c r="Z119">
+      <c r="Z119" s="4">
         <f t="shared" si="63"/>
-        <v>13942.77</v>
-      </c>
-      <c r="AA119">
-        <f t="shared" si="54"/>
-        <v>16288.276979799024</v>
+        <v>8862.85</v>
+      </c>
+      <c r="AA119" s="4">
+        <f t="shared" si="74"/>
+        <v>10353.793352986551</v>
       </c>
       <c r="AB119" s="4">
         <f t="shared" si="64"/>
-        <v>13943.626</v>
+        <v>8863.7060000000001</v>
       </c>
       <c r="AC119" s="4">
         <f>SUM($AB$5:AB119)</f>
-        <v>146240.26</v>
+        <v>130198.13</v>
       </c>
       <c r="AD119">
         <f t="shared" si="65"/>
-        <v>10.539668000925849</v>
+        <v>7.305186531400194</v>
       </c>
       <c r="AE119">
         <f t="shared" si="66"/>
@@ -40591,7 +40592,7 @@
         <v>116</v>
       </c>
       <c r="L120" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3125</v>
       </c>
       <c r="M120" s="1">
@@ -40640,25 +40641,25 @@
         <f t="shared" si="62"/>
         <v>0.215</v>
       </c>
-      <c r="Z120">
+      <c r="Z120" s="4">
         <f t="shared" si="63"/>
-        <v>15408.800000000001</v>
-      </c>
-      <c r="AA120">
-        <f t="shared" si="54"/>
-        <v>17917.204677778926</v>
+        <v>9082.35</v>
+      </c>
+      <c r="AA120" s="4">
+        <f t="shared" si="74"/>
+        <v>10560.869220046283</v>
       </c>
       <c r="AB120" s="4">
         <f t="shared" si="64"/>
-        <v>15409.660000000002</v>
+        <v>9083.2100000000009</v>
       </c>
       <c r="AC120" s="4">
         <f>SUM($AB$5:AB120)</f>
-        <v>161649.92000000001</v>
+        <v>139281.34</v>
       </c>
       <c r="AD120">
         <f t="shared" si="65"/>
-        <v>10.537221419053825</v>
+        <v>6.9764519659383666</v>
       </c>
       <c r="AE120">
         <f t="shared" si="66"/>
@@ -40712,7 +40713,7 @@
         <v>117</v>
       </c>
       <c r="L121" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3150</v>
       </c>
       <c r="M121" s="1">
@@ -40761,25 +40762,25 @@
         <f t="shared" si="62"/>
         <v>0.216</v>
       </c>
-      <c r="Z121">
+      <c r="Z121" s="4">
         <f t="shared" si="63"/>
-        <v>17028.599999999999</v>
-      </c>
-      <c r="AA121">
-        <f t="shared" si="54"/>
-        <v>19709.025145556818</v>
+        <v>9307.09</v>
+      </c>
+      <c r="AA121" s="4">
+        <f t="shared" si="74"/>
+        <v>10772.08660444721</v>
       </c>
       <c r="AB121" s="4">
         <f t="shared" si="64"/>
-        <v>17029.464</v>
+        <v>9307.9539999999997</v>
       </c>
       <c r="AC121" s="4">
         <f>SUM($AB$5:AB121)</f>
-        <v>178679.38400000002</v>
+        <v>148589.29399999999</v>
       </c>
       <c r="AD121">
         <f t="shared" si="65"/>
-        <v>10.534780345081524</v>
+        <v>6.682843516583052</v>
       </c>
       <c r="AE121">
         <f t="shared" si="66"/>
@@ -40833,7 +40834,7 @@
         <v>118</v>
       </c>
       <c r="L122" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3175</v>
       </c>
       <c r="M122" s="1">
@@ -40882,25 +40883,25 @@
         <f t="shared" si="62"/>
         <v>0.217</v>
       </c>
-      <c r="Z122">
+      <c r="Z122" s="4">
         <f t="shared" si="63"/>
-        <v>18818.269999999997</v>
-      </c>
-      <c r="AA122">
-        <f t="shared" si="54"/>
-        <v>21680.027660112501</v>
+        <v>9537.18</v>
+      </c>
+      <c r="AA122" s="4">
+        <f t="shared" si="74"/>
+        <v>10987.528336536154</v>
       </c>
       <c r="AB122" s="4">
         <f t="shared" si="64"/>
-        <v>18819.137999999995</v>
+        <v>9538.0480000000007</v>
       </c>
       <c r="AC122" s="4">
         <f>SUM($AB$5:AB122)</f>
-        <v>197498.52200000003</v>
+        <v>158127.342</v>
       </c>
       <c r="AD122">
         <f t="shared" si="65"/>
-        <v>10.532349943628642</v>
+        <v>6.4190681194030095</v>
       </c>
       <c r="AE122">
         <f t="shared" si="66"/>
@@ -40954,7 +40955,7 @@
         <v>119</v>
       </c>
       <c r="L123" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3200</v>
       </c>
       <c r="M123" s="1">
@@ -41003,25 +41004,25 @@
         <f t="shared" si="62"/>
         <v>0.218</v>
       </c>
-      <c r="Z123">
+      <c r="Z123" s="4">
         <f t="shared" si="63"/>
-        <v>20795.57</v>
-      </c>
-      <c r="AA123">
-        <f t="shared" si="54"/>
-        <v>23848.130426123753</v>
+        <v>9772.75</v>
+      </c>
+      <c r="AA123" s="4">
+        <f t="shared" si="74"/>
+        <v>11207.278903266877</v>
       </c>
       <c r="AB123" s="4">
         <f t="shared" si="64"/>
-        <v>20796.441999999999</v>
+        <v>9773.6219999999994</v>
       </c>
       <c r="AC123" s="4">
         <f>SUM($AB$5:AB123)</f>
-        <v>218294.96400000004</v>
+        <v>167900.96400000001</v>
       </c>
       <c r="AD123">
         <f t="shared" si="65"/>
-        <v>10.529922851777092</v>
+        <v>6.1808551743062896</v>
       </c>
       <c r="AE123">
         <f t="shared" si="66"/>
@@ -41075,7 +41076,7 @@
         <v>120</v>
       </c>
       <c r="L124" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3225</v>
       </c>
       <c r="M124" s="1">
@@ -41124,25 +41125,25 @@
         <f t="shared" si="62"/>
         <v>0.219</v>
       </c>
-      <c r="Z124">
+      <c r="Z124" s="4">
         <f t="shared" si="63"/>
-        <v>22980.149999999998</v>
-      </c>
-      <c r="AA124">
-        <f t="shared" si="54"/>
-        <v>26233.04346873613</v>
+        <v>10013.93</v>
+      </c>
+      <c r="AA124" s="4">
+        <f t="shared" si="74"/>
+        <v>11431.424481332215</v>
       </c>
       <c r="AB124" s="4">
         <f t="shared" si="64"/>
-        <v>22981.025999999998</v>
+        <v>10014.806</v>
       </c>
       <c r="AC124" s="4">
         <f>SUM($AB$5:AB124)</f>
-        <v>241275.99000000005</v>
+        <v>177915.77000000002</v>
       </c>
       <c r="AD124">
         <f t="shared" si="65"/>
-        <v>10.527510840790633</v>
+        <v>5.9647102443080735</v>
       </c>
       <c r="AE124">
         <f t="shared" si="66"/>
@@ -41196,7 +41197,7 @@
         <v>121</v>
       </c>
       <c r="L125" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3250</v>
       </c>
       <c r="M125" s="1">
@@ -41245,25 +41246,25 @@
         <f t="shared" si="62"/>
         <v>0.22</v>
       </c>
-      <c r="Z125">
+      <c r="Z125" s="4">
         <f t="shared" si="63"/>
-        <v>25393.679999999997</v>
-      </c>
-      <c r="AA125">
-        <f t="shared" si="54"/>
-        <v>28856.447815609743</v>
+        <v>10260.85</v>
+      </c>
+      <c r="AA125" s="4">
+        <f t="shared" si="74"/>
+        <v>11660.052970958859</v>
       </c>
       <c r="AB125" s="4">
         <f t="shared" si="64"/>
-        <v>25394.559999999998</v>
+        <v>10261.73</v>
       </c>
       <c r="AC125" s="4">
         <f>SUM($AB$5:AB125)</f>
-        <v>266670.55000000005</v>
+        <v>188177.50000000003</v>
       </c>
       <c r="AD125">
         <f t="shared" si="65"/>
-        <v>10.525108611097188</v>
+        <v>5.7677461643788011</v>
       </c>
       <c r="AE125">
         <f t="shared" si="66"/>
@@ -41317,7 +41318,7 @@
         <v>122</v>
       </c>
       <c r="L126" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3275</v>
       </c>
       <c r="M126" s="1">
@@ -41366,25 +41367,25 @@
         <f t="shared" si="62"/>
         <v>0.221</v>
       </c>
-      <c r="Z126">
+      <c r="Z126" s="4">
         <f t="shared" si="63"/>
-        <v>28060.1</v>
-      </c>
-      <c r="AA126">
-        <f t="shared" si="54"/>
-        <v>31742.192597170717</v>
+        <v>10513.64</v>
+      </c>
+      <c r="AA126" s="4">
+        <f t="shared" si="74"/>
+        <v>11893.254030378037</v>
       </c>
       <c r="AB126" s="4">
         <f t="shared" si="64"/>
-        <v>28060.983999999997</v>
+        <v>10514.523999999999</v>
       </c>
       <c r="AC126" s="4">
         <f>SUM($AB$5:AB126)</f>
-        <v>294731.53400000004</v>
+        <v>198692.02400000003</v>
       </c>
       <c r="AD126">
         <f t="shared" si="65"/>
-        <v>10.5227157629517</v>
+        <v>5.5875564294349767</v>
       </c>
       <c r="AE126">
         <f t="shared" si="66"/>
@@ -41438,7 +41439,7 @@
         <v>123</v>
       </c>
       <c r="L127" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3300</v>
       </c>
       <c r="M127" s="1">
@@ -41487,25 +41488,25 @@
         <f t="shared" si="62"/>
         <v>0.222</v>
       </c>
-      <c r="Z127">
+      <c r="Z127" s="4">
         <f t="shared" si="63"/>
-        <v>31005.87</v>
-      </c>
-      <c r="AA127">
-        <f t="shared" si="54"/>
-        <v>34916.511856887788</v>
+        <v>10772.44</v>
+      </c>
+      <c r="AA127" s="4">
+        <f t="shared" si="74"/>
+        <v>12131.119110985597</v>
       </c>
       <c r="AB127" s="4">
         <f t="shared" si="64"/>
-        <v>31006.757999999998</v>
+        <v>10773.328000000001</v>
       </c>
       <c r="AC127" s="4">
         <f>SUM($AB$5:AB127)</f>
-        <v>325738.29200000002</v>
+        <v>209465.35200000004</v>
       </c>
       <c r="AD127">
         <f t="shared" si="65"/>
-        <v>10.520339503271463</v>
+        <v>5.4221240405704494</v>
       </c>
       <c r="AE127">
         <f t="shared" si="66"/>
@@ -41559,7 +41560,7 @@
         <v>124</v>
       </c>
       <c r="L128" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3325</v>
       </c>
       <c r="M128" s="1">
@@ -41608,25 +41609,25 @@
         <f t="shared" si="62"/>
         <v>0.223</v>
       </c>
-      <c r="Z128">
+      <c r="Z128" s="4">
         <f t="shared" si="63"/>
-        <v>34260.18</v>
-      </c>
-      <c r="AA128">
-        <f t="shared" si="54"/>
-        <v>38408.263042576567</v>
+        <v>11037.380000000001</v>
+      </c>
+      <c r="AA128" s="4">
+        <f t="shared" si="74"/>
+        <v>12373.741493205309</v>
       </c>
       <c r="AB128" s="4">
         <f t="shared" si="64"/>
-        <v>34261.072</v>
+        <v>11038.272000000001</v>
       </c>
       <c r="AC128" s="4">
         <f>SUM($AB$5:AB128)</f>
-        <v>359999.364</v>
+        <v>220503.62400000004</v>
       </c>
       <c r="AD128">
         <f t="shared" si="65"/>
-        <v>10.517974963778585</v>
+        <v>5.2697364478684738</v>
       </c>
       <c r="AE128">
         <f t="shared" si="66"/>
@@ -41680,7 +41681,7 @@
         <v>125</v>
       </c>
       <c r="L129" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3350</v>
       </c>
       <c r="M129" s="1">
@@ -41729,25 +41730,25 @@
         <f t="shared" si="62"/>
         <v>0.224</v>
       </c>
-      <c r="Z129">
+      <c r="Z129" s="4">
         <f t="shared" si="63"/>
-        <v>37855.279999999999</v>
-      </c>
-      <c r="AA129">
-        <f t="shared" si="54"/>
-        <v>42249.189346834224</v>
+        <v>11308.61</v>
+      </c>
+      <c r="AA129" s="4">
+        <f t="shared" si="74"/>
+        <v>12621.216323069415</v>
       </c>
       <c r="AB129" s="4">
         <f t="shared" si="64"/>
-        <v>37856.175999999999</v>
+        <v>11309.506000000001</v>
       </c>
       <c r="AC129" s="4">
         <f>SUM($AB$5:AB129)</f>
-        <v>397855.54</v>
+        <v>231813.13000000003</v>
       </c>
       <c r="AD129">
         <f t="shared" si="65"/>
-        <v>10.51562302204511</v>
+        <v>5.1289433682958387</v>
       </c>
       <c r="AE129">
         <f t="shared" si="66"/>
@@ -41801,7 +41802,7 @@
         <v>126</v>
       </c>
       <c r="L130" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3375</v>
       </c>
       <c r="M130" s="1">
@@ -41850,25 +41851,25 @@
         <f t="shared" si="62"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="Z130">
+      <c r="Z130" s="4">
         <f t="shared" si="63"/>
-        <v>41826.79</v>
-      </c>
-      <c r="AA130">
-        <f t="shared" si="54"/>
-        <v>46474.208281517647</v>
+        <v>11586.28</v>
+      </c>
+      <c r="AA130" s="4">
+        <f t="shared" si="74"/>
+        <v>12873.640649530804</v>
       </c>
       <c r="AB130" s="4">
         <f t="shared" si="64"/>
-        <v>41827.69</v>
+        <v>11587.18</v>
       </c>
       <c r="AC130" s="4">
         <f>SUM($AB$5:AB130)</f>
-        <v>439683.23</v>
+        <v>243400.31000000003</v>
       </c>
       <c r="AD130">
         <f t="shared" si="65"/>
-        <v>10.51328580217835</v>
+        <v>4.9985003006516457</v>
       </c>
       <c r="AE130">
         <f t="shared" si="66"/>
@@ -41922,7 +41923,7 @@
         <v>127</v>
       </c>
       <c r="L131" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3400</v>
       </c>
       <c r="M131" s="1">
@@ -41971,25 +41972,25 @@
         <f t="shared" si="62"/>
         <v>0.22600000000000001</v>
       </c>
-      <c r="Z131">
+      <c r="Z131" s="4">
         <f t="shared" si="63"/>
-        <v>46214.05</v>
-      </c>
-      <c r="AA131">
-        <f t="shared" si="54"/>
-        <v>51121.729109669417</v>
+        <v>11870.53</v>
+      </c>
+      <c r="AA131" s="4">
+        <f t="shared" si="74"/>
+        <v>13131.11346252142</v>
       </c>
       <c r="AB131" s="4">
         <f t="shared" si="64"/>
-        <v>46214.954000000005</v>
+        <v>11871.434000000001</v>
       </c>
       <c r="AC131" s="4">
         <f>SUM($AB$5:AB131)</f>
-        <v>485898.18400000001</v>
+        <v>255271.74400000004</v>
       </c>
       <c r="AD131">
         <f t="shared" si="65"/>
-        <v>10.510965815093751</v>
+        <v>4.8773290387345885</v>
       </c>
       <c r="AE131">
         <f t="shared" si="66"/>
@@ -42043,7 +42044,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3425</v>
       </c>
       <c r="M132" s="1">
@@ -42092,25 +42093,25 @@
         <f t="shared" si="62"/>
         <v>0.22700000000000001</v>
       </c>
-      <c r="Z132">
+      <c r="Z132" s="4">
         <f t="shared" si="63"/>
-        <v>51060.480000000003</v>
-      </c>
-      <c r="AA132">
-        <f t="shared" si="54"/>
-        <v>56234.002020636362</v>
+        <v>12161.52</v>
+      </c>
+      <c r="AA132" s="4">
+        <f t="shared" si="74"/>
+        <v>13393.735731771849</v>
       </c>
       <c r="AB132" s="4">
         <f t="shared" si="64"/>
-        <v>51061.388000000006</v>
+        <v>12162.428</v>
       </c>
       <c r="AC132" s="4">
         <f>SUM($AB$5:AB132)</f>
-        <v>536959.57200000004</v>
+        <v>267434.17200000002</v>
       </c>
       <c r="AD132">
         <f t="shared" si="65"/>
-        <v>10.508659978856812</v>
+        <v>4.7645022552907319</v>
       </c>
       <c r="AE132">
         <f t="shared" si="66"/>
@@ -42164,7 +42165,7 @@
         <v>129</v>
       </c>
       <c r="L133" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3450</v>
       </c>
       <c r="M133" s="1">
@@ -42213,25 +42214,25 @@
         <f t="shared" si="62"/>
         <v>0.22800000000000001</v>
       </c>
-      <c r="Z133">
+      <c r="Z133" s="4">
         <f t="shared" si="63"/>
-        <v>56414.05</v>
-      </c>
-      <c r="AA133">
-        <f t="shared" si="54"/>
-        <v>61857.502222700001</v>
+        <v>12459.39</v>
+      </c>
+      <c r="AA133" s="4">
+        <f t="shared" si="74"/>
+        <v>13661.610446407287</v>
       </c>
       <c r="AB133" s="4">
         <f t="shared" si="64"/>
-        <v>56414.962</v>
+        <v>12460.302</v>
       </c>
       <c r="AC133" s="4">
         <f>SUM($AB$5:AB133)</f>
-        <v>593374.53399999999</v>
+        <v>279894.47400000005</v>
       </c>
       <c r="AD133">
         <f t="shared" si="65"/>
-        <v>10.506370487050361</v>
+        <v>4.6592033870675378</v>
       </c>
       <c r="AE133">
         <f t="shared" si="66"/>
@@ -42285,7 +42286,7 @@
         <v>130</v>
       </c>
       <c r="L134" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3475</v>
       </c>
       <c r="M134" s="1">
@@ -42334,25 +42335,25 @@
         <f t="shared" si="62"/>
         <v>0.22900000000000001</v>
       </c>
-      <c r="Z134">
+      <c r="Z134" s="4">
         <f t="shared" si="63"/>
-        <v>62327.72</v>
-      </c>
-      <c r="AA134">
-        <f t="shared" si="54"/>
-        <v>68043.352444970005</v>
+        <v>12764.32</v>
+      </c>
+      <c r="AA134" s="4">
+        <f t="shared" si="74"/>
+        <v>13934.842655335433</v>
       </c>
       <c r="AB134" s="4">
         <f t="shared" si="64"/>
-        <v>62328.635999999999</v>
+        <v>12765.235999999999</v>
       </c>
       <c r="AC134" s="4">
         <f>SUM($AB$5:AB134)</f>
-        <v>655703.16999999993</v>
+        <v>292659.71000000002</v>
       </c>
       <c r="AD134">
         <f t="shared" si="65"/>
-        <v>10.504096894727866</v>
+        <v>4.560731699190308</v>
       </c>
       <c r="AE134">
         <f t="shared" si="66"/>
@@ -42406,7 +42407,7 @@
         <v>131</v>
       </c>
       <c r="L135" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3500</v>
       </c>
       <c r="M135" s="1">
@@ -42455,25 +42456,25 @@
         <f t="shared" si="62"/>
         <v>0.23</v>
       </c>
-      <c r="Z135">
+      <c r="Z135" s="4">
         <f t="shared" si="63"/>
-        <v>68859.97</v>
-      </c>
-      <c r="AA135">
-        <f t="shared" si="54"/>
-        <v>74847.787689467019</v>
+        <v>13076.460000000001</v>
+      </c>
+      <c r="AA135" s="4">
+        <f t="shared" si="74"/>
+        <v>14213.539508442142</v>
       </c>
       <c r="AB135" s="4">
         <f t="shared" si="64"/>
-        <v>68860.89</v>
+        <v>13077.380000000001</v>
       </c>
       <c r="AC135" s="4">
         <f>SUM($AB$5:AB135)</f>
-        <v>724564.05999999994</v>
+        <v>305737.09000000003</v>
       </c>
       <c r="AD135">
         <f t="shared" si="65"/>
-        <v>10.501838812217427</v>
+        <v>4.4684592901428095</v>
       </c>
       <c r="AE135">
         <f t="shared" si="66"/>
@@ -42527,7 +42528,7 @@
         <v>132</v>
       </c>
       <c r="L136" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3525</v>
       </c>
       <c r="M136" s="1">
@@ -42576,25 +42577,25 @@
         <f t="shared" si="62"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="Z136">
+      <c r="Z136" s="4">
         <f t="shared" si="63"/>
-        <v>76075.39</v>
-      </c>
-      <c r="AA136">
-        <f t="shared" si="54"/>
-        <v>82332.666458413732</v>
+        <v>13395.98</v>
+      </c>
+      <c r="AA136" s="4">
+        <f t="shared" si="74"/>
+        <v>14497.810298610984</v>
       </c>
       <c r="AB136" s="4">
         <f t="shared" si="64"/>
-        <v>76076.313999999998</v>
+        <v>13396.904</v>
       </c>
       <c r="AC136" s="4">
         <f>SUM($AB$5:AB136)</f>
-        <v>800640.37399999995</v>
+        <v>319133.99400000001</v>
       </c>
       <c r="AD136">
         <f t="shared" si="65"/>
-        <v>10.499598061764203</v>
+        <v>4.3818380033642566</v>
       </c>
       <c r="AE136">
         <f t="shared" si="66"/>
@@ -42648,7 +42649,7 @@
         <v>133</v>
       </c>
       <c r="L137" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3550</v>
       </c>
       <c r="M137" s="1">
@@ -42697,25 +42698,25 @@
         <f t="shared" si="62"/>
         <v>0.23200000000000001</v>
       </c>
-      <c r="Z137">
+      <c r="Z137" s="4">
         <f t="shared" si="63"/>
-        <v>84045.28</v>
-      </c>
-      <c r="AA137">
-        <f t="shared" si="54"/>
-        <v>90566.033104255126</v>
+        <v>13723.050000000001</v>
+      </c>
+      <c r="AA137" s="4">
+        <f t="shared" si="74"/>
+        <v>14787.766504583204</v>
       </c>
       <c r="AB137" s="4">
         <f t="shared" si="64"/>
-        <v>84046.207999999999</v>
+        <v>13723.978000000001</v>
       </c>
       <c r="AC137" s="4">
         <f>SUM($AB$5:AB137)</f>
-        <v>884686.58199999994</v>
+        <v>332857.97200000001</v>
       </c>
       <c r="AD137">
         <f t="shared" si="65"/>
-        <v>10.497373193922892</v>
+        <v>4.3003811120165416</v>
       </c>
       <c r="AE137">
         <f t="shared" si="66"/>
@@ -42769,7 +42770,7 @@
         <v>134</v>
       </c>
       <c r="L138" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3575</v>
       </c>
       <c r="M138" s="1">
@@ -42818,25 +42819,25 @@
         <f t="shared" si="62"/>
         <v>0.23300000000000001</v>
       </c>
-      <c r="Z138">
+      <c r="Z138" s="4">
         <f t="shared" si="63"/>
-        <v>92848.4</v>
-      </c>
-      <c r="AA138">
-        <f t="shared" si="54"/>
-        <v>99622.73641468065</v>
+        <v>14057.85</v>
+      </c>
+      <c r="AA138" s="4">
+        <f t="shared" si="74"/>
+        <v>15083.521834674868</v>
       </c>
       <c r="AB138" s="4">
         <f t="shared" si="64"/>
-        <v>92849.331999999995</v>
+        <v>14058.782000000001</v>
       </c>
       <c r="AC138" s="4">
         <f>SUM($AB$5:AB138)</f>
-        <v>977535.91399999987</v>
+        <v>346916.75400000002</v>
       </c>
       <c r="AD138">
         <f t="shared" si="65"/>
-        <v>10.495166750477509</v>
+        <v>4.2236578909397453</v>
       </c>
       <c r="AE138">
         <f t="shared" si="66"/>
@@ -42890,7 +42891,7 @@
         <v>135</v>
       </c>
       <c r="L139" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3600</v>
       </c>
       <c r="M139" s="1">
@@ -42939,25 +42940,25 @@
         <f t="shared" si="62"/>
         <v>0.23400000000000001</v>
       </c>
-      <c r="Z139">
+      <c r="Z139" s="4">
         <f t="shared" si="63"/>
-        <v>102571.67</v>
-      </c>
-      <c r="AA139">
-        <f t="shared" si="54"/>
-        <v>109585.11005614873</v>
+        <v>14400.54</v>
+      </c>
+      <c r="AA139" s="4">
+        <f t="shared" si="74"/>
+        <v>15385.192271368365</v>
       </c>
       <c r="AB139" s="4">
         <f t="shared" si="64"/>
-        <v>102572.606</v>
+        <v>14401.476000000001</v>
       </c>
       <c r="AC139" s="4">
         <f>SUM($AB$5:AB139)</f>
-        <v>1080108.5199999998</v>
+        <v>361318.23000000004</v>
       </c>
       <c r="AD139">
         <f t="shared" si="65"/>
-        <v>10.492975708716511</v>
+        <v>4.151277167778419</v>
       </c>
       <c r="AE139">
         <f t="shared" si="66"/>
@@ -43011,7 +43012,7 @@
         <v>136</v>
       </c>
       <c r="L140" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3625</v>
       </c>
       <c r="M140" s="1">
@@ -43060,25 +43061,25 @@
         <f t="shared" si="62"/>
         <v>0.23499999999999999</v>
       </c>
-      <c r="Z140">
+      <c r="Z140" s="4">
         <f t="shared" si="63"/>
-        <v>113311.09999999999</v>
-      </c>
-      <c r="AA140">
-        <f t="shared" si="54"/>
-        <v>120543.72106176362</v>
+        <v>14751.33</v>
+      </c>
+      <c r="AA140" s="4">
+        <f t="shared" si="74"/>
+        <v>15692.896116795733</v>
       </c>
       <c r="AB140" s="4">
         <f t="shared" si="64"/>
-        <v>113312.04</v>
+        <v>14752.27</v>
       </c>
       <c r="AC140" s="4">
         <f>SUM($AB$5:AB140)</f>
-        <v>1193420.5599999998</v>
+        <v>376070.50000000006</v>
       </c>
       <c r="AD140">
         <f t="shared" si="65"/>
-        <v>10.49080142428652</v>
+        <v>4.082902210608089</v>
       </c>
       <c r="AE140">
         <f t="shared" si="66"/>
@@ -43132,7 +43133,7 @@
         <v>137</v>
       </c>
       <c r="L141" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3650</v>
       </c>
       <c r="M141" s="1">
@@ -43181,25 +43182,25 @@
         <f t="shared" si="62"/>
         <v>0.23599999999999999</v>
       </c>
-      <c r="Z141">
+      <c r="Z141" s="4">
         <f t="shared" si="63"/>
-        <v>125172.7</v>
-      </c>
-      <c r="AA141">
-        <f t="shared" si="54"/>
-        <v>132598.19316793999</v>
+        <v>15110.380000000001</v>
+      </c>
+      <c r="AA141" s="4">
+        <f t="shared" si="74"/>
+        <v>16006.754039131649</v>
       </c>
       <c r="AB141" s="4">
         <f t="shared" si="64"/>
-        <v>125173.644</v>
+        <v>15111.324000000001</v>
       </c>
       <c r="AC141" s="4">
         <f>SUM($AB$5:AB141)</f>
-        <v>1318594.2039999999</v>
+        <v>391181.82400000008</v>
       </c>
       <c r="AD141">
         <f t="shared" si="65"/>
-        <v>10.48864484117821</v>
+        <v>4.018215733486147</v>
       </c>
       <c r="AE141">
         <f t="shared" si="66"/>
@@ -43253,7 +43254,7 @@
         <v>138</v>
       </c>
       <c r="L142" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3675</v>
       </c>
       <c r="M142" s="1">
@@ -43302,25 +43303,25 @@
         <f t="shared" si="62"/>
         <v>0.23699999999999999</v>
       </c>
-      <c r="Z142">
+      <c r="Z142" s="4">
         <f t="shared" si="63"/>
-        <v>138273.5</v>
-      </c>
-      <c r="AA142">
-        <f t="shared" si="54"/>
-        <v>145858.11248473401</v>
+        <v>15477.9</v>
+      </c>
+      <c r="AA142" s="4">
+        <f t="shared" si="74"/>
+        <v>16326.889119914282</v>
       </c>
       <c r="AB142" s="4">
         <f t="shared" si="64"/>
-        <v>138274.448</v>
+        <v>15478.848</v>
       </c>
       <c r="AC142" s="4">
         <f>SUM($AB$5:AB142)</f>
-        <v>1456868.652</v>
+        <v>406660.67200000008</v>
       </c>
       <c r="AD142">
         <f t="shared" si="65"/>
-        <v>10.486505065814782</v>
+        <v>3.9569445844191358</v>
       </c>
       <c r="AE142">
         <f t="shared" si="66"/>
@@ -43374,7 +43375,7 @@
         <v>139</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3700</v>
       </c>
       <c r="M143" s="1">
@@ -43423,25 +43424,25 @@
         <f t="shared" si="62"/>
         <v>0.23799999999999999</v>
       </c>
-      <c r="Z143">
+      <c r="Z143" s="4">
         <f t="shared" si="63"/>
-        <v>152742.72</v>
-      </c>
-      <c r="AA143">
-        <f t="shared" si="54"/>
-        <v>160444.02373320743</v>
+        <v>15854.07</v>
+      </c>
+      <c r="AA143" s="4">
+        <f t="shared" si="74"/>
+        <v>16653.426902312567</v>
       </c>
       <c r="AB143" s="4">
         <f t="shared" si="64"/>
-        <v>152743.67199999999</v>
+        <v>15855.021999999999</v>
       </c>
       <c r="AC143" s="4">
         <f>SUM($AB$5:AB143)</f>
-        <v>1609612.324</v>
+        <v>422515.69400000008</v>
       </c>
       <c r="AD143">
         <f t="shared" si="65"/>
-        <v>10.484381813714805</v>
+        <v>3.8988333742781975</v>
       </c>
       <c r="AE143">
         <f t="shared" si="66"/>
@@ -43495,7 +43496,7 @@
         <v>140</v>
       </c>
       <c r="L144" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3725</v>
       </c>
       <c r="M144" s="1">
@@ -43544,25 +43545,25 @@
         <f t="shared" si="62"/>
         <v>0.23899999999999999</v>
       </c>
-      <c r="Z144">
+      <c r="Z144" s="4">
         <f t="shared" si="63"/>
-        <v>168723.04</v>
-      </c>
-      <c r="AA144">
-        <f t="shared" si="54"/>
-        <v>176488.52610652818</v>
+        <v>16239.09</v>
+      </c>
+      <c r="AA144" s="4">
+        <f t="shared" si="74"/>
+        <v>16986.49544035882</v>
       </c>
       <c r="AB144" s="4">
         <f t="shared" si="64"/>
-        <v>168723.99600000001</v>
+        <v>16240.046</v>
       </c>
       <c r="AC144" s="4">
         <f>SUM($AB$5:AB144)</f>
-        <v>1778336.32</v>
+        <v>438755.74000000005</v>
       </c>
       <c r="AD144">
         <f t="shared" si="65"/>
-        <v>10.482275358125305</v>
+        <v>3.8436550950933368</v>
       </c>
       <c r="AE144">
         <f t="shared" si="66"/>
@@ -43616,7 +43617,7 @@
         <v>141</v>
       </c>
       <c r="L145" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3750</v>
       </c>
       <c r="M145" s="1">
@@ -43665,25 +43666,25 @@
         <f t="shared" si="62"/>
         <v>0.24</v>
       </c>
-      <c r="Z145">
+      <c r="Z145" s="4">
         <f t="shared" si="63"/>
-        <v>186371.98</v>
-      </c>
-      <c r="AA145">
-        <f t="shared" si="54"/>
-        <v>194137.47871718102</v>
+        <v>16633.179999999997</v>
+      </c>
+      <c r="AA145" s="4">
+        <f t="shared" si="74"/>
+        <v>17326.225349165998</v>
       </c>
       <c r="AB145" s="4">
         <f t="shared" si="64"/>
-        <v>186372.94</v>
+        <v>16634.139999999996</v>
       </c>
       <c r="AC145" s="4">
         <f>SUM($AB$5:AB145)</f>
-        <v>1964709.26</v>
+        <v>455389.88000000006</v>
       </c>
       <c r="AD145">
         <f t="shared" si="65"/>
-        <v>10.480185210410589</v>
+        <v>3.7912073811273697</v>
       </c>
       <c r="AE145">
         <f t="shared" si="66"/>
@@ -43737,7 +43738,7 @@
         <v>142</v>
       </c>
       <c r="L146" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3775</v>
       </c>
       <c r="M146" s="1">
@@ -43786,25 +43787,25 @@
         <f t="shared" si="62"/>
         <v>0.24099999999999999</v>
       </c>
-      <c r="Z146">
+      <c r="Z146" s="4">
         <f t="shared" si="63"/>
-        <v>205863.48</v>
-      </c>
-      <c r="AA146">
-        <f t="shared" si="54"/>
-        <v>213551.32658889913</v>
+        <v>17036.539999999997</v>
+      </c>
+      <c r="AA146" s="4">
+        <f t="shared" si="74"/>
+        <v>17672.749856149319</v>
       </c>
       <c r="AB146" s="4">
         <f t="shared" si="64"/>
-        <v>205864.44400000002</v>
+        <v>17037.503999999997</v>
       </c>
       <c r="AC146" s="4">
         <f>SUM($AB$5:AB146)</f>
-        <v>2170573.7039999999</v>
+        <v>472427.38400000008</v>
       </c>
       <c r="AD146">
         <f t="shared" si="65"/>
-        <v>10.478112369664299</v>
+        <v>3.741300531316158</v>
       </c>
       <c r="AE146">
         <f t="shared" si="66"/>
@@ -43858,7 +43859,7 @@
         <v>143</v>
       </c>
       <c r="L147" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3800</v>
       </c>
       <c r="M147" s="1">
@@ -43907,25 +43908,25 @@
         <f t="shared" si="62"/>
         <v>0.24199999999999999</v>
       </c>
-      <c r="Z147">
+      <c r="Z147" s="4">
         <f t="shared" si="63"/>
-        <v>227389.55000000002</v>
-      </c>
-      <c r="AA147">
-        <f t="shared" si="54"/>
-        <v>234906.55924778906</v>
+        <v>17449.37</v>
+      </c>
+      <c r="AA147" s="4">
+        <f t="shared" si="74"/>
+        <v>18026.204853272306</v>
       </c>
       <c r="AB147" s="4">
         <f t="shared" si="64"/>
-        <v>227390.51800000001</v>
+        <v>17450.338</v>
       </c>
       <c r="AC147" s="4">
         <f>SUM($AB$5:AB147)</f>
-        <v>2397964.2220000001</v>
+        <v>489877.72200000007</v>
       </c>
       <c r="AD147">
         <f t="shared" si="65"/>
-        <v>10.47605605748185</v>
+        <v>3.6937609018870901</v>
       </c>
       <c r="AE147">
         <f t="shared" si="66"/>
@@ -43979,7 +43980,7 @@
         <v>144</v>
       </c>
       <c r="L148" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3825</v>
       </c>
       <c r="M148" s="1">
@@ -44028,25 +44029,25 @@
         <f t="shared" si="62"/>
         <v>0.24299999999999999</v>
       </c>
-      <c r="Z148">
+      <c r="Z148" s="4">
         <f t="shared" si="63"/>
-        <v>251162.2</v>
-      </c>
-      <c r="AA148">
-        <f t="shared" si="54"/>
-        <v>258397.31517256799</v>
+        <v>17871.91</v>
+      </c>
+      <c r="AA148" s="4">
+        <f t="shared" si="74"/>
+        <v>18386.728950337751</v>
       </c>
       <c r="AB148" s="4">
         <f t="shared" si="64"/>
-        <v>251163.17200000002</v>
+        <v>17872.882000000001</v>
       </c>
       <c r="AC148" s="4">
         <f>SUM($AB$5:AB148)</f>
-        <v>2649127.3940000003</v>
+        <v>507750.60400000005</v>
       </c>
       <c r="AD148">
         <f t="shared" si="65"/>
-        <v>10.474016655282702</v>
+        <v>3.6484373951587825</v>
       </c>
       <c r="AE148">
         <f t="shared" si="66"/>
@@ -44100,7 +44101,7 @@
         <v>145</v>
       </c>
       <c r="L149" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3850</v>
       </c>
       <c r="M149" s="1">
@@ -44149,25 +44150,25 @@
         <f t="shared" si="62"/>
         <v>0.24399999999999999</v>
       </c>
-      <c r="Z149">
+      <c r="Z149" s="4">
         <f t="shared" si="63"/>
-        <v>277415.46000000002</v>
-      </c>
-      <c r="AA149">
-        <f t="shared" si="54"/>
-        <v>284237.14668982482</v>
+        <v>18304.359999999997</v>
+      </c>
+      <c r="AA149" s="4">
+        <f t="shared" si="74"/>
+        <v>18754.463529344506</v>
       </c>
       <c r="AB149" s="4">
         <f t="shared" si="64"/>
-        <v>277416.43600000005</v>
+        <v>18305.335999999996</v>
       </c>
       <c r="AC149" s="4">
         <f>SUM($AB$5:AB149)</f>
-        <v>2926543.8300000005</v>
+        <v>526055.94000000006</v>
       </c>
       <c r="AD149">
         <f t="shared" si="65"/>
-        <v>10.471993027904954</v>
+        <v>3.6051825159424151</v>
       </c>
       <c r="AE149">
         <f t="shared" si="66"/>
@@ -44221,7 +44222,7 @@
         <v>146</v>
       </c>
       <c r="L150" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3875</v>
       </c>
       <c r="M150" s="1">
@@ -44270,25 +44271,25 @@
         <f t="shared" si="62"/>
         <v>0.245</v>
       </c>
-      <c r="Z150">
+      <c r="Z150" s="4">
         <f t="shared" si="63"/>
-        <v>306407.75</v>
-      </c>
-      <c r="AA150">
-        <f t="shared" si="54"/>
-        <v>312660.96135880728</v>
+        <v>18746.969999999998</v>
+      </c>
+      <c r="AA150" s="4">
+        <f t="shared" si="74"/>
+        <v>19129.552799931396</v>
       </c>
       <c r="AB150" s="4">
         <f t="shared" si="64"/>
-        <v>306408.73</v>
+        <v>18747.949999999997</v>
       </c>
       <c r="AC150" s="4">
         <f>SUM($AB$5:AB150)</f>
-        <v>3232952.5600000005</v>
+        <v>544803.89</v>
       </c>
       <c r="AD150">
         <f t="shared" si="65"/>
-        <v>10.469986024436201</v>
+        <v>3.563870032529231</v>
       </c>
       <c r="AE150">
         <f t="shared" si="66"/>
@@ -44342,7 +44343,7 @@
         <v>147</v>
       </c>
       <c r="L151" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3900</v>
       </c>
       <c r="M151" s="1">
@@ -44391,25 +44392,25 @@
         <f t="shared" si="62"/>
         <v>0.246</v>
       </c>
-      <c r="Z151">
+      <c r="Z151" s="4">
         <f t="shared" si="63"/>
-        <v>338424.33</v>
-      </c>
-      <c r="AA151">
-        <f t="shared" si="54"/>
-        <v>343927.157494688</v>
+        <v>19199.949999999997</v>
+      </c>
+      <c r="AA151" s="4">
+        <f t="shared" si="74"/>
+        <v>19512.143855930026</v>
       </c>
       <c r="AB151" s="4">
         <f t="shared" si="64"/>
-        <v>338425.31400000001</v>
+        <v>19200.933999999997</v>
       </c>
       <c r="AC151" s="4">
         <f>SUM($AB$5:AB151)</f>
-        <v>3571377.8740000008</v>
+        <v>564004.82400000002</v>
       </c>
       <c r="AD151">
         <f t="shared" si="65"/>
-        <v>10.467995051557459</v>
+        <v>3.5243753490820353</v>
       </c>
       <c r="AE151">
         <f t="shared" si="66"/>
@@ -44463,7 +44464,7 @@
         <v>148</v>
       </c>
       <c r="L152" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3925</v>
       </c>
       <c r="M152" s="1">
@@ -44512,25 +44513,25 @@
         <f t="shared" si="62"/>
         <v>0.247</v>
       </c>
-      <c r="Z152">
+      <c r="Z152" s="4">
         <f t="shared" si="63"/>
-        <v>373780.14</v>
-      </c>
-      <c r="AA152">
-        <f t="shared" si="54"/>
-        <v>378319.9732441568</v>
+        <v>19663.559999999998</v>
+      </c>
+      <c r="AA152" s="4">
+        <f t="shared" si="74"/>
+        <v>19902.386733048628</v>
       </c>
       <c r="AB152" s="4">
         <f t="shared" si="64"/>
-        <v>373781.12800000003</v>
+        <v>19664.547999999999</v>
       </c>
       <c r="AC152" s="4">
         <f>SUM($AB$5:AB152)</f>
-        <v>3945159.0020000008</v>
+        <v>583669.37199999997</v>
       </c>
       <c r="AD152">
         <f t="shared" si="65"/>
-        <v>10.466020152086543</v>
+        <v>3.4865921643251676</v>
       </c>
       <c r="AE152">
         <f t="shared" si="66"/>
@@ -44584,7 +44585,7 @@
         <v>149</v>
       </c>
       <c r="L153" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3950</v>
       </c>
       <c r="M153" s="1">
@@ -44633,25 +44634,25 @@
         <f t="shared" si="62"/>
         <v>0.248</v>
       </c>
-      <c r="Z153">
+      <c r="Z153" s="4">
         <f t="shared" si="63"/>
-        <v>412822.86</v>
-      </c>
-      <c r="AA153">
-        <f t="shared" si="54"/>
-        <v>416152.0705685725</v>
+        <v>20138.039999999997</v>
+      </c>
+      <c r="AA153" s="4">
+        <f t="shared" si="74"/>
+        <v>20300.434467709601</v>
       </c>
       <c r="AB153" s="4">
         <f t="shared" si="64"/>
-        <v>412823.85200000001</v>
+        <v>20139.031999999996</v>
       </c>
       <c r="AC153" s="4">
         <f>SUM($AB$5:AB153)</f>
-        <v>4357982.8540000012</v>
+        <v>603808.40399999998</v>
       </c>
       <c r="AD153">
         <f t="shared" si="65"/>
-        <v>10.464061189693979</v>
+        <v>3.4504178163386663</v>
       </c>
       <c r="AE153">
         <f t="shared" si="66"/>
@@ -44705,7 +44706,7 @@
         <v>150</v>
       </c>
       <c r="L154" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3975</v>
       </c>
       <c r="M154" s="1">
@@ -44754,25 +44755,25 @@
         <f t="shared" si="62"/>
         <v>0.249</v>
       </c>
-      <c r="Z154">
+      <c r="Z154" s="4">
         <f t="shared" si="63"/>
-        <v>455936.31</v>
-      </c>
-      <c r="AA154">
-        <f t="shared" si="54"/>
-        <v>457767.37762542977</v>
+        <v>20623.62</v>
+      </c>
+      <c r="AA154" s="4">
+        <f t="shared" si="74"/>
+        <v>20706.443157063793</v>
       </c>
       <c r="AB154" s="4">
         <f t="shared" si="64"/>
-        <v>455937.30599999998</v>
+        <v>20624.615999999998</v>
       </c>
       <c r="AC154" s="4">
         <f>SUM($AB$5:AB154)</f>
-        <v>4813920.1600000011</v>
+        <v>624433.02</v>
       </c>
       <c r="AD154">
         <f t="shared" si="65"/>
-        <v>10.462117940218949</v>
+        <v>3.4157550413955544</v>
       </c>
       <c r="AE154">
         <f t="shared" si="66"/>
@@ -44826,7 +44827,7 @@
         <v>151</v>
       </c>
       <c r="L155" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4000</v>
       </c>
       <c r="M155" s="1">
@@ -44875,25 +44876,25 @@
         <f t="shared" si="62"/>
         <v>0.25</v>
       </c>
-      <c r="Z155">
+      <c r="Z155" s="4">
         <f t="shared" si="63"/>
-        <v>503544.22000000003</v>
-      </c>
-      <c r="AA155">
-        <f t="shared" si="54"/>
-        <v>503544.21538797277</v>
+        <v>21120.579999999998</v>
+      </c>
+      <c r="AA155" s="4">
+        <f t="shared" si="74"/>
+        <v>21120.572020205069</v>
       </c>
       <c r="AB155" s="4">
         <f t="shared" si="64"/>
-        <v>503545.22000000003</v>
+        <v>21121.579999999998</v>
       </c>
       <c r="AC155" s="4">
         <f>SUM($AB$5:AB155)</f>
-        <v>5317465.3800000008</v>
+        <v>645554.6</v>
       </c>
       <c r="AD155">
         <f t="shared" si="65"/>
-        <v>10.460190515498695</v>
+        <v>3.3825213150963664</v>
       </c>
       <c r="AE155">
         <f t="shared" si="66"/>
@@ -44947,7 +44948,7 @@
         <v>152</v>
       </c>
       <c r="L156" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4025</v>
       </c>
       <c r="M156" s="1">
@@ -44996,25 +44997,25 @@
         <f t="shared" si="62"/>
         <v>0.251</v>
       </c>
-      <c r="Z156">
+      <c r="Z156" s="4">
         <f t="shared" si="63"/>
-        <v>556114.34</v>
-      </c>
-      <c r="AA156">
-        <f t="shared" si="54"/>
-        <v>553898.73692677007</v>
+        <v>21629.16</v>
+      </c>
+      <c r="AA156" s="4">
+        <f t="shared" si="74"/>
+        <v>21542.983460609172</v>
       </c>
       <c r="AB156" s="4">
         <f t="shared" si="64"/>
-        <v>556115.34399999992</v>
+        <v>21630.164000000001</v>
       </c>
       <c r="AC156" s="4">
         <f>SUM($AB$5:AB156)</f>
-        <v>5873580.7240000004</v>
+        <v>667184.76399999997</v>
       </c>
       <c r="AD156">
         <f t="shared" si="65"/>
-        <v>10.458278601900357</v>
+        <v>3.350632773742142</v>
       </c>
       <c r="AE156">
         <f t="shared" si="66"/>
@@ -45068,7 +45069,7 @@
         <v>153</v>
       </c>
       <c r="L157" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4050</v>
       </c>
       <c r="M157" s="1">
@@ -45117,25 +45118,25 @@
         <f t="shared" si="62"/>
         <v>0.252</v>
       </c>
-      <c r="Z157">
+      <c r="Z157" s="4">
         <f t="shared" si="63"/>
-        <v>614163.03</v>
-      </c>
-      <c r="AA157">
-        <f t="shared" si="54"/>
-        <v>609288.71061944705</v>
+        <v>22149.64</v>
+      </c>
+      <c r="AA157" s="4">
+        <f t="shared" si="74"/>
+        <v>21973.843129821355</v>
       </c>
       <c r="AB157" s="4">
         <f t="shared" si="64"/>
-        <v>614164.03800000006</v>
+        <v>22150.648000000001</v>
       </c>
       <c r="AC157" s="4">
         <f>SUM($AB$5:AB157)</f>
-        <v>6487744.7620000001</v>
+        <v>689335.41200000001</v>
       </c>
       <c r="AD157">
         <f t="shared" si="65"/>
-        <v>10.456382007153966</v>
+        <v>3.3200170620203258</v>
       </c>
       <c r="AE157">
         <f t="shared" si="66"/>
@@ -45189,7 +45190,7 @@
         <v>154</v>
       </c>
       <c r="L158" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4075</v>
       </c>
       <c r="M158" s="1">
@@ -45238,25 +45239,25 @@
         <f t="shared" si="62"/>
         <v>0.253</v>
       </c>
-      <c r="Z158">
+      <c r="Z158" s="4">
         <f t="shared" si="63"/>
-        <v>678260.3</v>
-      </c>
-      <c r="AA158">
-        <f t="shared" si="54"/>
-        <v>670217.68168139178</v>
+        <v>22682.28</v>
+      </c>
+      <c r="AA158" s="4">
+        <f t="shared" si="74"/>
+        <v>22413.319992417782</v>
       </c>
       <c r="AB158" s="4">
         <f t="shared" si="64"/>
-        <v>678261.31200000003</v>
+        <v>22683.291999999998</v>
       </c>
       <c r="AC158" s="4">
         <f>SUM($AB$5:AB158)</f>
-        <v>7166006.074</v>
+        <v>712018.70400000003</v>
       </c>
       <c r="AD158">
         <f t="shared" si="65"/>
-        <v>10.454500552683733</v>
+        <v>3.2906030366535144</v>
       </c>
       <c r="AE158">
         <f t="shared" si="66"/>
@@ -45310,7 +45311,7 @@
         <v>155</v>
       </c>
       <c r="L159" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4100</v>
       </c>
       <c r="M159" s="1">
@@ -45359,25 +45360,25 @@
         <f t="shared" si="62"/>
         <v>0.254</v>
       </c>
-      <c r="Z159">
+      <c r="Z159" s="4">
         <f t="shared" si="63"/>
-        <v>749035.39</v>
-      </c>
-      <c r="AA159">
-        <f t="shared" si="54"/>
-        <v>737239.54984953103</v>
+        <v>23227.379999999997</v>
+      </c>
+      <c r="AA159" s="4">
+        <f t="shared" si="74"/>
+        <v>22861.586392266137</v>
       </c>
       <c r="AB159" s="4">
         <f t="shared" si="64"/>
-        <v>749036.40599999996</v>
+        <v>23228.395999999997</v>
       </c>
       <c r="AC159" s="4">
         <f>SUM($AB$5:AB159)</f>
-        <v>7915042.4800000004</v>
+        <v>735247.1</v>
       </c>
       <c r="AD159">
         <f t="shared" si="65"/>
-        <v>10.452634260493936</v>
+        <v>3.2623294682438493</v>
       </c>
       <c r="AE159">
         <f t="shared" si="66"/>
@@ -45431,7 +45432,7 @@
         <v>156</v>
       </c>
       <c r="L160" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4125</v>
       </c>
       <c r="M160" s="1">
@@ -45480,25 +45481,25 @@
         <f t="shared" si="62"/>
         <v>0.255</v>
       </c>
-      <c r="Z160">
+      <c r="Z160" s="4">
         <f t="shared" si="63"/>
-        <v>827182.88</v>
-      </c>
-      <c r="AA160">
-        <f t="shared" si="54"/>
-        <v>810963.60483448417</v>
+        <v>23785.199999999997</v>
+      </c>
+      <c r="AA160" s="4">
+        <f t="shared" si="74"/>
+        <v>23318.81812011146</v>
       </c>
       <c r="AB160" s="4">
         <f t="shared" si="64"/>
-        <v>827183.9</v>
+        <v>23786.219999999998</v>
       </c>
       <c r="AC160" s="4">
         <f>SUM($AB$5:AB160)</f>
-        <v>8742226.3800000008</v>
+        <v>759033.32</v>
       </c>
       <c r="AD160">
         <f t="shared" si="65"/>
-        <v>10.450782823846581</v>
+        <v>3.2351327873309494</v>
       </c>
       <c r="AE160">
         <f t="shared" si="66"/>
@@ -45552,7 +45553,7 @@
         <v>157</v>
       </c>
       <c r="L161" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4150</v>
       </c>
       <c r="M161" s="1">
@@ -45601,25 +45602,25 @@
         <f t="shared" si="62"/>
         <v>0.25600000000000001</v>
       </c>
-      <c r="Z161">
+      <c r="Z161" s="4">
         <f t="shared" si="63"/>
-        <v>913469.51</v>
-      </c>
-      <c r="AA161">
-        <f t="shared" si="54"/>
-        <v>892060.06531793263</v>
+        <v>24356.039999999997</v>
+      </c>
+      <c r="AA161" s="4">
+        <f t="shared" si="74"/>
+        <v>23785.194482513689</v>
       </c>
       <c r="AB161" s="4">
         <f t="shared" si="64"/>
-        <v>913470.53399999999</v>
+        <v>24357.063999999998</v>
       </c>
       <c r="AC161" s="4">
         <f>SUM($AB$5:AB161)</f>
-        <v>9655696.9140000008</v>
+        <v>783390.38399999996</v>
       </c>
       <c r="AD161">
         <f t="shared" si="65"/>
-        <v>10.448946232847382</v>
+        <v>3.2089584683844992</v>
       </c>
       <c r="AE161">
         <f t="shared" si="66"/>
@@ -45673,7 +45674,7 @@
         <v>158</v>
       </c>
       <c r="L162" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4175</v>
       </c>
       <c r="M162" s="1">
@@ -45722,25 +45723,25 @@
         <f t="shared" si="62"/>
         <v>0.25700000000000001</v>
       </c>
-      <c r="Z162">
+      <c r="Z162" s="4">
         <f t="shared" si="63"/>
-        <v>1008741.63</v>
-      </c>
-      <c r="AA162">
-        <f t="shared" si="54"/>
-        <v>981266.171849726</v>
+        <v>24940.21</v>
+      </c>
+      <c r="AA162" s="4">
+        <f t="shared" si="74"/>
+        <v>24260.898372163963</v>
       </c>
       <c r="AB162" s="4">
         <f t="shared" si="64"/>
-        <v>1008742.6580000001</v>
+        <v>24941.237999999998</v>
       </c>
       <c r="AC162" s="4">
         <f>SUM($AB$5:AB162)</f>
-        <v>10664439.572000001</v>
+        <v>808331.62199999997</v>
       </c>
       <c r="AD162">
         <f t="shared" si="65"/>
-        <v>10.447124293404471</v>
+        <v>3.1837559548088623</v>
       </c>
       <c r="AE162">
         <f t="shared" si="66"/>
@@ -45794,7 +45795,7 @@
         <v>159</v>
       </c>
       <c r="L163" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4200</v>
       </c>
       <c r="M163" s="1">
@@ -45818,7 +45819,7 @@
         <v>153720</v>
       </c>
       <c r="R163">
-        <f t="shared" ref="R163:R204" si="75">R162+0.05</f>
+        <f t="shared" ref="R163:R204" si="76">R162+0.05</f>
         <v>8.1499999999999808</v>
       </c>
       <c r="S163" s="1">
@@ -45843,25 +45844,25 @@
         <f t="shared" si="62"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="Z163">
+      <c r="Z163" s="4">
         <f t="shared" si="63"/>
-        <v>1113933.47</v>
-      </c>
-      <c r="AA163">
-        <f t="shared" si="54"/>
-        <v>1079392.8890346987</v>
+        <v>25538</v>
+      </c>
+      <c r="AA163" s="4">
+        <f t="shared" si="74"/>
+        <v>24746.116339607244</v>
       </c>
       <c r="AB163" s="4">
         <f t="shared" si="64"/>
-        <v>1113934.5019999999</v>
+        <v>25539.031999999999</v>
       </c>
       <c r="AC163" s="4">
         <f>SUM($AB$5:AB163)</f>
-        <v>11778374.074000001</v>
+        <v>833870.65399999998</v>
       </c>
       <c r="AD163">
         <f t="shared" si="65"/>
-        <v>10.445316835257701</v>
+        <v>3.1594745652546061</v>
       </c>
       <c r="AE163">
         <f t="shared" si="66"/>
@@ -45915,7 +45916,7 @@
         <v>160</v>
       </c>
       <c r="L164" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4225</v>
       </c>
       <c r="M164" s="1">
@@ -45939,7 +45940,7 @@
         <v>155480</v>
       </c>
       <c r="R164">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.1999999999999815</v>
       </c>
       <c r="S164" s="1">
@@ -45964,25 +45965,25 @@
         <f t="shared" si="62"/>
         <v>0.25900000000000001</v>
       </c>
-      <c r="Z164">
+      <c r="Z164" s="4">
         <f t="shared" si="63"/>
-        <v>1230076.24</v>
-      </c>
-      <c r="AA164">
-        <f t="shared" si="54"/>
-        <v>1187332.2779381687</v>
+        <v>26149.719999999998</v>
+      </c>
+      <c r="AA164" s="4">
+        <f t="shared" si="74"/>
+        <v>25241.038666399389</v>
       </c>
       <c r="AB164" s="4">
         <f t="shared" si="64"/>
-        <v>1230077.2760000001</v>
+        <v>26150.755999999998</v>
       </c>
       <c r="AC164" s="4">
         <f>SUM($AB$5:AB164)</f>
-        <v>13008451.350000001</v>
+        <v>860021.41</v>
       </c>
       <c r="AD164">
         <f t="shared" si="65"/>
-        <v>10.443523599028124</v>
+        <v>3.1360686306152288</v>
       </c>
       <c r="AE164">
         <f t="shared" si="66"/>
@@ -46036,7 +46037,7 @@
         <v>161</v>
       </c>
       <c r="L165" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4250</v>
       </c>
       <c r="M165" s="1">
@@ -46060,7 +46061,7 @@
         <v>157250</v>
       </c>
       <c r="R165">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.2499999999999822</v>
       </c>
       <c r="S165" s="1">
@@ -46085,25 +46086,25 @@
         <f t="shared" si="62"/>
         <v>0.26</v>
       </c>
-      <c r="Z165">
+      <c r="Z165" s="4">
         <f t="shared" si="63"/>
-        <v>1358308.23</v>
-      </c>
-      <c r="AA165">
-        <f t="shared" si="54"/>
-        <v>1306065.6057319858</v>
+        <v>26775.699999999997</v>
+      </c>
+      <c r="AA165" s="4">
+        <f t="shared" si="74"/>
+        <v>25745.859439727377</v>
       </c>
       <c r="AB165" s="4">
         <f t="shared" si="64"/>
-        <v>1358309.27</v>
+        <v>26776.739999999998</v>
       </c>
       <c r="AC165" s="4">
         <f>SUM($AB$5:AB165)</f>
-        <v>14366760.620000001</v>
+        <v>886798.15</v>
       </c>
       <c r="AD165">
         <f t="shared" si="65"/>
-        <v>10.441744627810746</v>
+        <v>3.113496907013046</v>
       </c>
       <c r="AE165">
         <f t="shared" si="66"/>
@@ -46157,7 +46158,7 @@
         <v>162</v>
       </c>
       <c r="L166" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4275</v>
       </c>
       <c r="M166" s="1">
@@ -46181,7 +46182,7 @@
         <v>159030</v>
       </c>
       <c r="R166">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.2999999999999829</v>
       </c>
       <c r="S166" s="1">
@@ -46206,25 +46207,25 @@
         <f t="shared" si="62"/>
         <v>0.26100000000000001</v>
       </c>
-      <c r="Z166">
+      <c r="Z166" s="4">
         <f t="shared" si="63"/>
-        <v>1499885.85</v>
-      </c>
-      <c r="AA166">
-        <f t="shared" ref="AA166:AA204" si="76">AA165*1.1+0.1</f>
-        <v>1436672.2663051845</v>
+        <v>27416.26</v>
+      </c>
+      <c r="AA166" s="4">
+        <f t="shared" si="74"/>
+        <v>26260.776628521926</v>
       </c>
       <c r="AB166" s="4">
         <f t="shared" si="64"/>
-        <v>1499886.8940000001</v>
+        <v>27417.304</v>
       </c>
       <c r="AC166" s="4">
         <f>SUM($AB$5:AB166)</f>
-        <v>15866647.514</v>
+        <v>914215.45400000003</v>
       </c>
       <c r="AD166">
         <f t="shared" si="65"/>
-        <v>10.439979712002742</v>
+        <v>3.091718673522267</v>
       </c>
       <c r="AE166">
         <f t="shared" si="66"/>
@@ -46278,7 +46279,7 @@
         <v>163</v>
       </c>
       <c r="L167" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4300</v>
       </c>
       <c r="M167" s="1">
@@ -46302,7 +46303,7 @@
         <v>160820</v>
       </c>
       <c r="R167">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.3499999999999837</v>
       </c>
       <c r="S167" s="1">
@@ -46327,25 +46328,25 @@
         <f t="shared" si="62"/>
         <v>0.26200000000000001</v>
       </c>
-      <c r="Z167">
+      <c r="Z167" s="4">
         <f t="shared" si="63"/>
-        <v>1656195.9</v>
-      </c>
-      <c r="AA167">
-        <f t="shared" si="76"/>
-        <v>1580339.5929357032</v>
+        <v>28071.719999999998</v>
+      </c>
+      <c r="AA167" s="4">
+        <f t="shared" si="74"/>
+        <v>26785.992161092367</v>
       </c>
       <c r="AB167" s="4">
         <f t="shared" si="64"/>
-        <v>1656196.9479999999</v>
+        <v>28072.767999999996</v>
       </c>
       <c r="AC167" s="4">
         <f>SUM($AB$5:AB167)</f>
-        <v>17522844.462000001</v>
+        <v>942288.22200000007</v>
       </c>
       <c r="AD167">
         <f t="shared" si="65"/>
-        <v>10.438228658818121</v>
+        <v>3.0706949742724476</v>
       </c>
       <c r="AE167">
         <f t="shared" si="66"/>
@@ -46399,7 +46400,7 @@
         <v>164</v>
       </c>
       <c r="L168" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4325</v>
       </c>
       <c r="M168" s="1">
@@ -46423,7 +46424,7 @@
         <v>162620</v>
       </c>
       <c r="R168">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.3999999999999844</v>
       </c>
       <c r="S168" s="1">
@@ -46448,25 +46449,25 @@
         <f t="shared" si="62"/>
         <v>0.26300000000000001</v>
       </c>
-      <c r="Z168">
+      <c r="Z168" s="4">
         <f t="shared" si="63"/>
-        <v>1828769.09</v>
-      </c>
-      <c r="AA168">
-        <f t="shared" si="76"/>
-        <v>1738373.6522292737</v>
+        <v>28742.449999999997</v>
+      </c>
+      <c r="AA168" s="4">
+        <f t="shared" si="74"/>
+        <v>27321.712004314213</v>
       </c>
       <c r="AB168" s="4">
         <f t="shared" si="64"/>
-        <v>1828770.142</v>
+        <v>28743.501999999997</v>
       </c>
       <c r="AC168" s="4">
         <f>SUM($AB$5:AB168)</f>
-        <v>19351614.604000002</v>
+        <v>971031.72400000005</v>
       </c>
       <c r="AD168">
         <f t="shared" si="65"/>
-        <v>10.436491324030568</v>
+        <v>3.050393852848134</v>
       </c>
       <c r="AE168">
         <f t="shared" si="66"/>
@@ -46520,7 +46521,7 @@
         <v>165</v>
       </c>
       <c r="L169" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4350</v>
       </c>
       <c r="M169" s="1">
@@ -46544,7 +46545,7 @@
         <v>164430</v>
       </c>
       <c r="R169">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.4499999999999851</v>
       </c>
       <c r="S169" s="1">
@@ -46569,25 +46570,25 @@
         <f t="shared" ref="Y169:Y204" si="84">V169</f>
         <v>0.26400000000000001</v>
       </c>
-      <c r="Z169">
+      <c r="Z169" s="4">
         <f t="shared" ref="Z169:Z204" si="85">ROUNDUP((SUM(V169:Y169)*(AA169)),2)</f>
-        <v>2019294.95</v>
-      </c>
-      <c r="AA169">
-        <f t="shared" si="76"/>
-        <v>1912211.1174522012</v>
+        <v>29428.769999999997</v>
+      </c>
+      <c r="AA169" s="4">
+        <f t="shared" si="74"/>
+        <v>27868.146244400497</v>
       </c>
       <c r="AB169" s="4">
         <f t="shared" ref="AB169:AB204" si="86">SUM(V169:Z169)</f>
-        <v>2019296.0060000001</v>
+        <v>29429.825999999997</v>
       </c>
       <c r="AC169" s="4">
         <f>SUM($AB$5:AB169)</f>
-        <v>21370910.610000003</v>
+        <v>1000461.55</v>
       </c>
       <c r="AD169">
         <f t="shared" ref="AD169:AD204" si="87">((AC169-AC168)/AC168)*100</f>
-        <v>10.434767575324749</v>
+        <v>3.0307790438368829</v>
       </c>
       <c r="AE169">
         <f t="shared" ref="AE169:AE204" si="88">ROUNDUP((AQ169-60),2)</f>
@@ -46641,7 +46642,7 @@
         <v>166</v>
       </c>
       <c r="L170" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4375</v>
       </c>
       <c r="M170" s="1">
@@ -46665,7 +46666,7 @@
         <v>166250</v>
       </c>
       <c r="R170">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.4999999999999858</v>
       </c>
       <c r="S170" s="1">
@@ -46690,25 +46691,25 @@
         <f t="shared" si="84"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="Z170">
+      <c r="Z170" s="4">
         <f t="shared" si="85"/>
-        <v>2229638.2699999996</v>
-      </c>
-      <c r="AA170">
-        <f t="shared" si="76"/>
-        <v>2103432.3291974217</v>
+        <v>30131.039999999997</v>
+      </c>
+      <c r="AA170" s="4">
+        <f t="shared" si="74"/>
+        <v>28425.509169288507</v>
       </c>
       <c r="AB170" s="4">
         <f t="shared" si="86"/>
-        <v>2229639.3299999996</v>
+        <v>30132.1</v>
       </c>
       <c r="AC170" s="4">
         <f>SUM($AB$5:AB170)</f>
-        <v>23600549.940000001</v>
+        <v>1030593.65</v>
       </c>
       <c r="AD170">
         <f t="shared" si="87"/>
-        <v>10.433057208880431</v>
+        <v>3.0118198945276782</v>
       </c>
       <c r="AE170">
         <f t="shared" si="88"/>
@@ -46762,7 +46763,7 @@
         <v>167</v>
       </c>
       <c r="L171" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4400</v>
       </c>
       <c r="M171" s="1">
@@ -46786,7 +46787,7 @@
         <v>168080</v>
       </c>
       <c r="R171">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.5499999999999865</v>
       </c>
       <c r="S171" s="1">
@@ -46811,25 +46812,25 @@
         <f t="shared" si="84"/>
         <v>0.26600000000000001</v>
       </c>
-      <c r="Z171">
+      <c r="Z171" s="4">
         <f t="shared" si="85"/>
-        <v>2461857.3099999996</v>
-      </c>
-      <c r="AA171">
-        <f t="shared" si="76"/>
-        <v>2313775.6621171641</v>
+        <v>30849.64</v>
+      </c>
+      <c r="AA171" s="4">
+        <f t="shared" si="74"/>
+        <v>28994.019352674277</v>
       </c>
       <c r="AB171" s="4">
         <f t="shared" si="86"/>
-        <v>2461858.3739999994</v>
+        <v>30850.703999999998</v>
       </c>
       <c r="AC171" s="4">
         <f>SUM($AB$5:AB171)</f>
-        <v>26062408.313999999</v>
+        <v>1061444.3540000001</v>
       </c>
       <c r="AD171">
         <f t="shared" si="87"/>
-        <v>10.431360202447884</v>
+        <v>2.9934886557859177</v>
       </c>
       <c r="AE171">
         <f t="shared" si="88"/>
@@ -46883,7 +46884,7 @@
         <v>168</v>
       </c>
       <c r="L172" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4425</v>
       </c>
       <c r="M172" s="1">
@@ -46907,7 +46908,7 @@
         <v>169920</v>
       </c>
       <c r="R172">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.5999999999999872</v>
       </c>
       <c r="S172" s="1">
@@ -46932,25 +46933,25 @@
         <f t="shared" si="84"/>
         <v>0.26700000000000002</v>
       </c>
-      <c r="Z172">
+      <c r="Z172" s="4">
         <f t="shared" si="85"/>
-        <v>2718223.76</v>
-      </c>
-      <c r="AA172">
-        <f t="shared" si="76"/>
-        <v>2545153.3283288809</v>
+        <v>31584.929999999997</v>
+      </c>
+      <c r="AA172" s="4">
+        <f t="shared" si="74"/>
+        <v>29573.899739727764</v>
       </c>
       <c r="AB172" s="4">
         <f t="shared" si="86"/>
-        <v>2718224.8279999997</v>
+        <v>31585.997999999996</v>
       </c>
       <c r="AC172" s="4">
         <f>SUM($AB$5:AB172)</f>
-        <v>28780633.141999997</v>
+        <v>1093030.352</v>
       </c>
       <c r="AD172">
         <f t="shared" si="87"/>
-        <v>10.42967631866869</v>
+        <v>2.9757563720575315</v>
       </c>
       <c r="AE172">
         <f t="shared" si="88"/>
@@ -47004,7 +47005,7 @@
         <v>169</v>
       </c>
       <c r="L173" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4450</v>
       </c>
       <c r="M173" s="1">
@@ -47028,7 +47029,7 @@
         <v>171770</v>
       </c>
       <c r="R173">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.6499999999999879</v>
       </c>
       <c r="S173" s="1">
@@ -47053,25 +47054,25 @@
         <f t="shared" si="84"/>
         <v>0.26800000000000002</v>
       </c>
-      <c r="Z173">
+      <c r="Z173" s="4">
         <f t="shared" si="85"/>
-        <v>3001244.92</v>
-      </c>
-      <c r="AA173">
-        <f t="shared" si="76"/>
-        <v>2799668.7611617693</v>
+        <v>32337.289999999997</v>
+      </c>
+      <c r="AA173" s="4">
+        <f t="shared" si="74"/>
+        <v>30165.377734522321</v>
       </c>
       <c r="AB173" s="4">
         <f t="shared" si="86"/>
-        <v>3001245.9920000001</v>
+        <v>32338.361999999997</v>
       </c>
       <c r="AC173" s="4">
         <f>SUM($AB$5:AB173)</f>
-        <v>31781879.133999996</v>
+        <v>1125368.7139999999</v>
       </c>
       <c r="AD173">
         <f t="shared" si="87"/>
-        <v>10.428005447942134</v>
+        <v>2.9585968899059414</v>
       </c>
       <c r="AE173">
         <f t="shared" si="88"/>
@@ -47125,7 +47126,7 @@
         <v>170</v>
       </c>
       <c r="L174" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4475</v>
       </c>
       <c r="M174" s="1">
@@ -47149,7 +47150,7 @@
         <v>173630</v>
       </c>
       <c r="R174">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.6999999999999886</v>
       </c>
       <c r="S174" s="1">
@@ -47174,25 +47175,25 @@
         <f t="shared" si="84"/>
         <v>0.26900000000000002</v>
       </c>
-      <c r="Z174">
+      <c r="Z174" s="4">
         <f t="shared" si="85"/>
-        <v>3313688.0599999996</v>
-      </c>
-      <c r="AA174">
-        <f t="shared" si="76"/>
-        <v>3079635.7372779464</v>
+        <v>33107.11</v>
+      </c>
+      <c r="AA174" s="4">
+        <f t="shared" si="74"/>
+        <v>30768.685289212768</v>
       </c>
       <c r="AB174" s="4">
         <f t="shared" si="86"/>
-        <v>3313689.1359999995</v>
+        <v>33108.186000000002</v>
       </c>
       <c r="AC174" s="4">
         <f>SUM($AB$5:AB174)</f>
-        <v>35095568.269999996</v>
+        <v>1158476.8999999999</v>
       </c>
       <c r="AD174">
         <f t="shared" si="87"/>
-        <v>10.426347422783577</v>
+        <v>2.9419856432937932</v>
       </c>
       <c r="AE174">
         <f t="shared" si="88"/>
@@ -47246,7 +47247,7 @@
         <v>171</v>
       </c>
       <c r="L175" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4500</v>
       </c>
       <c r="M175" s="1">
@@ -47270,7 +47271,7 @@
         <v>175500</v>
       </c>
       <c r="R175">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.7499999999999893</v>
       </c>
       <c r="S175" s="1">
@@ -47295,25 +47296,25 @@
         <f t="shared" si="84"/>
         <v>0.27</v>
       </c>
-      <c r="Z175">
+      <c r="Z175" s="4">
         <f t="shared" si="85"/>
-        <v>3658607.3699999996</v>
-      </c>
-      <c r="AA175">
-        <f t="shared" si="76"/>
-        <v>3387599.4110057415</v>
+        <v>33894.79</v>
+      </c>
+      <c r="AA175" s="4">
+        <f t="shared" si="74"/>
+        <v>31384.058994997024</v>
       </c>
       <c r="AB175" s="4">
         <f t="shared" si="86"/>
-        <v>3658608.4499999997</v>
+        <v>33895.870000000003</v>
       </c>
       <c r="AC175" s="4">
         <f>SUM($AB$5:AB175)</f>
-        <v>38754176.719999999</v>
+        <v>1192372.77</v>
       </c>
       <c r="AD175">
         <f t="shared" si="87"/>
-        <v>10.42470212151377</v>
+        <v>2.9258995151306091</v>
       </c>
       <c r="AE175">
         <f t="shared" si="88"/>
@@ -47367,7 +47368,7 @@
         <v>172</v>
       </c>
       <c r="L176" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4525</v>
       </c>
       <c r="M176" s="1">
@@ -47391,7 +47392,7 @@
         <v>177380</v>
       </c>
       <c r="R176">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.7999999999999901</v>
       </c>
       <c r="S176" s="1">
@@ -47416,25 +47417,25 @@
         <f t="shared" si="84"/>
         <v>0.27100000000000002</v>
       </c>
-      <c r="Z176">
+      <c r="Z176" s="4">
         <f t="shared" si="85"/>
-        <v>4039373.65</v>
-      </c>
-      <c r="AA176">
-        <f t="shared" si="76"/>
-        <v>3726359.4521063161</v>
+        <v>34700.730000000003</v>
+      </c>
+      <c r="AA176" s="4">
+        <f t="shared" si="74"/>
+        <v>32011.740174896964</v>
       </c>
       <c r="AB176" s="4">
         <f t="shared" si="86"/>
-        <v>4039374.7339999997</v>
+        <v>34701.814000000006</v>
       </c>
       <c r="AC176" s="4">
         <f>SUM($AB$5:AB176)</f>
-        <v>42793551.453999996</v>
+        <v>1227074.584</v>
       </c>
       <c r="AD176">
         <f t="shared" si="87"/>
-        <v>10.423069397615107</v>
+        <v>2.9103158737850086</v>
       </c>
       <c r="AE176">
         <f t="shared" si="88"/>
@@ -47488,7 +47489,7 @@
         <v>173</v>
       </c>
       <c r="L177" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4550</v>
       </c>
       <c r="M177" s="1">
@@ -47512,7 +47513,7 @@
         <v>179270</v>
       </c>
       <c r="R177">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.8499999999999908</v>
       </c>
       <c r="S177" s="1">
@@ -47537,25 +47538,25 @@
         <f t="shared" si="84"/>
         <v>0.27200000000000002</v>
       </c>
-      <c r="Z177">
+      <c r="Z177" s="4">
         <f t="shared" si="85"/>
-        <v>4459707.1099999994</v>
-      </c>
-      <c r="AA177">
-        <f t="shared" si="76"/>
-        <v>4098995.4973169481</v>
+        <v>35525.35</v>
+      </c>
+      <c r="AA177" s="4">
+        <f t="shared" si="74"/>
+        <v>32651.974978394905</v>
       </c>
       <c r="AB177" s="4">
         <f t="shared" si="86"/>
-        <v>4459708.1979999999</v>
+        <v>35526.438000000002</v>
       </c>
       <c r="AC177" s="4">
         <f>SUM($AB$5:AB177)</f>
-        <v>47253259.651999995</v>
+        <v>1262601.0220000001</v>
       </c>
       <c r="AD177">
         <f t="shared" si="87"/>
-        <v>10.421449135377012</v>
+        <v>2.8952142325523127</v>
       </c>
       <c r="AE177">
         <f t="shared" si="88"/>
@@ -47609,7 +47610,7 @@
         <v>174</v>
       </c>
       <c r="L178" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4575</v>
       </c>
       <c r="M178" s="1">
@@ -47633,7 +47634,7 @@
         <v>181170</v>
       </c>
       <c r="R178">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.8999999999999915</v>
       </c>
       <c r="S178" s="1">
@@ -47658,25 +47659,25 @@
         <f t="shared" si="84"/>
         <v>0.27300000000000002</v>
       </c>
-      <c r="Z178">
+      <c r="Z178" s="4">
         <f t="shared" si="85"/>
-        <v>4923713.51</v>
-      </c>
-      <c r="AA178">
-        <f t="shared" si="76"/>
-        <v>4508895.1470486429</v>
+        <v>36369.08</v>
+      </c>
+      <c r="AA178" s="4">
+        <f t="shared" si="74"/>
+        <v>33305.014477962803</v>
       </c>
       <c r="AB178" s="4">
         <f t="shared" si="86"/>
-        <v>4923714.602</v>
+        <v>36370.171999999999</v>
       </c>
       <c r="AC178" s="4">
         <f>SUM($AB$5:AB178)</f>
-        <v>52176974.253999993</v>
+        <v>1298971.1940000001</v>
       </c>
       <c r="AD178">
         <f t="shared" si="87"/>
-        <v>10.419841167066664</v>
+        <v>2.8805752067575958</v>
       </c>
       <c r="AE178">
         <f t="shared" si="88"/>
@@ -47730,7 +47731,7 @@
         <v>175</v>
       </c>
       <c r="L179" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4600</v>
       </c>
       <c r="M179" s="1">
@@ -47754,7 +47755,7 @@
         <v>183080</v>
       </c>
       <c r="R179">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.9499999999999922</v>
       </c>
       <c r="S179" s="1">
@@ -47779,25 +47780,25 @@
         <f t="shared" si="84"/>
         <v>0.27400000000000002</v>
       </c>
-      <c r="Z179">
+      <c r="Z179" s="4">
         <f t="shared" si="85"/>
-        <v>5435924.0999999996</v>
-      </c>
-      <c r="AA179">
-        <f t="shared" si="76"/>
-        <v>4959784.761753507</v>
+        <v>37232.35</v>
+      </c>
+      <c r="AA179" s="4">
+        <f t="shared" ref="AA179:AA204" si="96">AA178*1.02</f>
+        <v>33971.114767522056</v>
       </c>
       <c r="AB179" s="4">
         <f t="shared" si="86"/>
-        <v>5435925.1959999995</v>
+        <v>37233.445999999996</v>
       </c>
       <c r="AC179" s="4">
         <f>SUM($AB$5:AB179)</f>
-        <v>57612899.449999996</v>
+        <v>1336204.6400000001</v>
       </c>
       <c r="AD179">
         <f t="shared" si="87"/>
-        <v>10.418245353856014</v>
+        <v>2.8663796527577188</v>
       </c>
       <c r="AE179">
         <f t="shared" si="88"/>
@@ -47851,7 +47852,7 @@
         <v>176</v>
       </c>
       <c r="L180" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4625</v>
       </c>
       <c r="M180" s="1">
@@ -47875,7 +47876,7 @@
         <v>185000</v>
       </c>
       <c r="R180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.9999999999999929</v>
       </c>
       <c r="S180" s="1">
@@ -47900,25 +47901,25 @@
         <f t="shared" si="84"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="Z180">
+      <c r="Z180" s="4">
         <f t="shared" si="85"/>
-        <v>6001339.6799999997</v>
-      </c>
-      <c r="AA180">
-        <f t="shared" si="76"/>
-        <v>5455763.3379288577</v>
+        <v>38115.599999999999</v>
+      </c>
+      <c r="AA180" s="4">
+        <f t="shared" si="96"/>
+        <v>34650.5370628725</v>
       </c>
       <c r="AB180" s="4">
         <f t="shared" si="86"/>
-        <v>6001340.7799999993</v>
+        <v>38116.699999999997</v>
       </c>
       <c r="AC180" s="4">
         <f>SUM($AB$5:AB180)</f>
-        <v>63614240.229999997</v>
+        <v>1374321.34</v>
       </c>
       <c r="AD180">
         <f t="shared" si="87"/>
-        <v>10.416661611013577</v>
+        <v>2.8526094625745313</v>
       </c>
       <c r="AE180">
         <f t="shared" si="88"/>
@@ -47972,7 +47973,7 @@
         <v>177</v>
       </c>
       <c r="L181" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4650</v>
       </c>
       <c r="M181" s="1">
@@ -47996,7 +47997,7 @@
         <v>186930</v>
       </c>
       <c r="R181">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.0499999999999936</v>
       </c>
       <c r="S181" s="1">
@@ -48021,25 +48022,25 @@
         <f t="shared" si="84"/>
         <v>0.27600000000000002</v>
       </c>
-      <c r="Z181">
+      <c r="Z181" s="4">
         <f t="shared" si="85"/>
-        <v>6625479.1099999994</v>
-      </c>
-      <c r="AA181">
-        <f t="shared" si="76"/>
-        <v>6001339.771721744</v>
+        <v>39019.279999999999</v>
+      </c>
+      <c r="AA181" s="4">
+        <f t="shared" si="96"/>
+        <v>35343.54780412995</v>
       </c>
       <c r="AB181" s="4">
         <f t="shared" si="86"/>
-        <v>6625480.2139999997</v>
+        <v>39020.383999999998</v>
       </c>
       <c r="AC181" s="4">
         <f>SUM($AB$5:AB181)</f>
-        <v>70239720.443999991</v>
+        <v>1413341.7240000002</v>
       </c>
       <c r="AD181">
         <f t="shared" si="87"/>
-        <v>10.415089750416398</v>
+        <v>2.8392474790502833</v>
       </c>
       <c r="AE181">
         <f t="shared" si="88"/>
@@ -48093,7 +48094,7 @@
         <v>178</v>
       </c>
       <c r="L182" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4675</v>
       </c>
       <c r="M182" s="1">
@@ -48117,7 +48118,7 @@
         <v>188870</v>
       </c>
       <c r="R182">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.0999999999999943</v>
       </c>
       <c r="S182" s="1">
@@ -48142,25 +48143,25 @@
         <f t="shared" si="84"/>
         <v>0.27700000000000002</v>
       </c>
-      <c r="Z182">
+      <c r="Z182" s="4">
         <f t="shared" si="85"/>
-        <v>7314433.0299999993</v>
-      </c>
-      <c r="AA182">
-        <f t="shared" si="76"/>
-        <v>6601473.8488939181</v>
+        <v>39943.870000000003</v>
+      </c>
+      <c r="AA182" s="4">
+        <f t="shared" si="96"/>
+        <v>36050.418760212553</v>
       </c>
       <c r="AB182" s="4">
         <f t="shared" si="86"/>
-        <v>7314434.1379999993</v>
+        <v>39944.978000000003</v>
       </c>
       <c r="AC182" s="4">
         <f>SUM($AB$5:AB182)</f>
-        <v>77554154.581999987</v>
+        <v>1453286.702</v>
       </c>
       <c r="AD182">
         <f t="shared" si="87"/>
-        <v>10.413529683438268</v>
+        <v>2.8262788341766867</v>
       </c>
       <c r="AE182">
         <f t="shared" si="88"/>
@@ -48214,7 +48215,7 @@
         <v>179</v>
       </c>
       <c r="L183" s="1">
-        <f t="shared" ref="L183:L204" si="96">L182+25</f>
+        <f t="shared" ref="L183:L204" si="97">L182+25</f>
         <v>4700</v>
       </c>
       <c r="M183" s="1">
@@ -48238,7 +48239,7 @@
         <v>190820</v>
       </c>
       <c r="R183">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.149999999999995</v>
       </c>
       <c r="S183" s="1">
@@ -48263,25 +48264,25 @@
         <f t="shared" si="84"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="Z183">
+      <c r="Z183" s="4">
         <f t="shared" si="85"/>
-        <v>8074922.9299999997</v>
-      </c>
-      <c r="AA183">
-        <f t="shared" si="76"/>
-        <v>7261621.3337833099</v>
+        <v>40889.83</v>
+      </c>
+      <c r="AA183" s="4">
+        <f t="shared" si="96"/>
+        <v>36771.427135416801</v>
       </c>
       <c r="AB183" s="4">
         <f t="shared" si="86"/>
-        <v>8074924.0419999994</v>
+        <v>40890.942000000003</v>
       </c>
       <c r="AC183" s="4">
         <f>SUM($AB$5:AB183)</f>
-        <v>85629078.623999983</v>
+        <v>1494177.6440000001</v>
       </c>
       <c r="AD183">
         <f t="shared" si="87"/>
-        <v>10.411981260735907</v>
+        <v>2.8136872059536699</v>
       </c>
       <c r="AE183">
         <f t="shared" si="88"/>
@@ -48335,7 +48336,7 @@
         <v>180</v>
       </c>
       <c r="L184" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4725</v>
       </c>
       <c r="M184" s="1">
@@ -48359,7 +48360,7 @@
         <v>192780</v>
       </c>
       <c r="R184">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.1999999999999957</v>
       </c>
       <c r="S184" s="1">
@@ -48384,25 +48385,25 @@
         <f t="shared" si="84"/>
         <v>0.27900000000000003</v>
       </c>
-      <c r="Z184">
+      <c r="Z184" s="4">
         <f t="shared" si="85"/>
-        <v>8914366.4700000007</v>
-      </c>
-      <c r="AA184">
-        <f t="shared" si="76"/>
-        <v>7987783.5671616411</v>
+        <v>41857.660000000003</v>
+      </c>
+      <c r="AA184" s="4">
+        <f t="shared" si="96"/>
+        <v>37506.855678125139</v>
       </c>
       <c r="AB184" s="4">
         <f t="shared" si="86"/>
-        <v>8914367.5860000011</v>
+        <v>41858.776000000005</v>
       </c>
       <c r="AC184" s="4">
         <f>SUM($AB$5:AB184)</f>
-        <v>94543446.209999979</v>
+        <v>1536036.4200000002</v>
       </c>
       <c r="AD184">
         <f t="shared" si="87"/>
-        <v>10.410444359845641</v>
+        <v>2.8014591282427235</v>
       </c>
       <c r="AE184">
         <f t="shared" si="88"/>
@@ -48456,7 +48457,7 @@
         <v>181</v>
       </c>
       <c r="L185" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4750</v>
       </c>
       <c r="M185" s="1">
@@ -48480,7 +48481,7 @@
         <v>194750</v>
       </c>
       <c r="R185">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.2499999999999964</v>
       </c>
       <c r="S185" s="1">
@@ -48505,25 +48506,25 @@
         <f t="shared" si="84"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="Z185">
+      <c r="Z185" s="4">
         <f t="shared" si="85"/>
-        <v>9840949.4700000007</v>
-      </c>
-      <c r="AA185">
-        <f t="shared" si="76"/>
-        <v>8786562.0238778051</v>
+        <v>42847.840000000004</v>
+      </c>
+      <c r="AA185" s="4">
+        <f t="shared" si="96"/>
+        <v>38256.99279168764</v>
       </c>
       <c r="AB185" s="4">
         <f t="shared" si="86"/>
-        <v>9840950.5899999999</v>
+        <v>42848.960000000006</v>
       </c>
       <c r="AC185" s="4">
         <f>SUM($AB$5:AB185)</f>
-        <v>104384396.79999998</v>
+        <v>1578885.3800000001</v>
       </c>
       <c r="AD185">
         <f t="shared" si="87"/>
-        <v>10.40891884577729</v>
+        <v>2.7895796897836549</v>
       </c>
       <c r="AE185">
         <f t="shared" si="88"/>
@@ -48577,7 +48578,7 @@
         <v>182</v>
       </c>
       <c r="L186" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4775</v>
       </c>
       <c r="M186" s="1">
@@ -48601,7 +48602,7 @@
         <v>196730</v>
       </c>
       <c r="R186">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.2999999999999972</v>
       </c>
       <c r="S186" s="1">
@@ -48626,25 +48627,25 @@
         <f t="shared" si="84"/>
         <v>0.28100000000000003</v>
       </c>
-      <c r="Z186">
+      <c r="Z186" s="4">
         <f t="shared" si="85"/>
-        <v>10863705.4</v>
-      </c>
-      <c r="AA186">
-        <f t="shared" si="76"/>
-        <v>9665218.3262655865</v>
+        <v>43860.880000000005</v>
+      </c>
+      <c r="AA186" s="4">
+        <f t="shared" si="96"/>
+        <v>39022.132647521394</v>
       </c>
       <c r="AB186" s="4">
         <f t="shared" si="86"/>
-        <v>10863706.524</v>
+        <v>43862.004000000008</v>
       </c>
       <c r="AC186" s="4">
         <f>SUM($AB$5:AB186)</f>
-        <v>115248103.32399999</v>
+        <v>1622747.3840000001</v>
       </c>
       <c r="AD186">
         <f t="shared" si="87"/>
-        <v>10.407404609344837</v>
+        <v>2.7780359838406987</v>
       </c>
       <c r="AE186">
         <f t="shared" si="88"/>
@@ -48698,7 +48699,7 @@
         <v>183</v>
       </c>
       <c r="L187" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4800</v>
       </c>
       <c r="M187" s="1">
@@ -48722,7 +48723,7 @@
         <v>198720</v>
       </c>
       <c r="R187">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.3499999999999979</v>
       </c>
       <c r="S187" s="1">
@@ -48747,25 +48748,25 @@
         <f t="shared" si="84"/>
         <v>0.28199999999999997</v>
       </c>
-      <c r="Z187">
+      <c r="Z187" s="4">
         <f t="shared" si="85"/>
-        <v>11992603.02</v>
-      </c>
-      <c r="AA187">
-        <f t="shared" si="76"/>
-        <v>10631740.258892145</v>
+        <v>44897.310000000005</v>
+      </c>
+      <c r="AA187" s="4">
+        <f t="shared" si="96"/>
+        <v>39802.575300471821</v>
       </c>
       <c r="AB187" s="4">
         <f t="shared" si="86"/>
-        <v>11992604.148</v>
+        <v>44898.438000000002</v>
       </c>
       <c r="AC187" s="4">
         <f>SUM($AB$5:AB187)</f>
-        <v>127240707.47199999</v>
+        <v>1667645.8220000002</v>
       </c>
       <c r="AD187">
         <f t="shared" si="87"/>
-        <v>10.405901530791255</v>
+        <v>2.766816230467581</v>
       </c>
       <c r="AE187">
         <f t="shared" si="88"/>
@@ -48819,7 +48820,7 @@
         <v>184</v>
       </c>
       <c r="L188" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4825</v>
       </c>
       <c r="M188" s="1">
@@ -48843,7 +48844,7 @@
         <v>200720</v>
       </c>
       <c r="R188">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.3999999999999986</v>
       </c>
       <c r="S188" s="1">
@@ -48868,25 +48869,25 @@
         <f t="shared" si="84"/>
         <v>0.28299999999999997</v>
       </c>
-      <c r="Z188">
+      <c r="Z188" s="4">
         <f t="shared" si="85"/>
-        <v>13238643.09</v>
-      </c>
-      <c r="AA188">
-        <f t="shared" si="76"/>
-        <v>11694914.384781361</v>
+        <v>45957.65</v>
+      </c>
+      <c r="AA188" s="4">
+        <f t="shared" si="96"/>
+        <v>40598.626806481261</v>
       </c>
       <c r="AB188" s="4">
         <f t="shared" si="86"/>
-        <v>13238644.221999999</v>
+        <v>45958.781999999999</v>
       </c>
       <c r="AC188" s="4">
         <f>SUM($AB$5:AB188)</f>
-        <v>140479351.69399998</v>
+        <v>1713604.6040000001</v>
       </c>
       <c r="AD188">
         <f t="shared" si="87"/>
-        <v>10.404409473212985</v>
+        <v>2.7559078428824728</v>
       </c>
       <c r="AE188">
         <f t="shared" si="88"/>
@@ -48940,7 +48941,7 @@
         <v>185</v>
       </c>
       <c r="L189" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4850</v>
       </c>
       <c r="M189" s="1">
@@ -48964,7 +48965,7 @@
         <v>202730</v>
       </c>
       <c r="R189">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="S189" s="1">
@@ -48989,25 +48990,25 @@
         <f t="shared" si="84"/>
         <v>0.28399999999999997</v>
       </c>
-      <c r="Z189">
+      <c r="Z189" s="4">
         <f t="shared" si="85"/>
-        <v>14613965.129999999</v>
-      </c>
-      <c r="AA189">
-        <f t="shared" si="76"/>
-        <v>12864405.923259497</v>
+        <v>47042.450000000004</v>
+      </c>
+      <c r="AA189" s="4">
+        <f t="shared" si="96"/>
+        <v>41410.599342610883</v>
       </c>
       <c r="AB189" s="4">
         <f t="shared" si="86"/>
-        <v>14613966.265999999</v>
+        <v>47043.586000000003</v>
       </c>
       <c r="AC189" s="4">
         <f>SUM($AB$5:AB189)</f>
-        <v>155093317.95999998</v>
+        <v>1760648.19</v>
       </c>
       <c r="AD189">
         <f t="shared" si="87"/>
-        <v>10.402928323468466</v>
+        <v>2.7452999303449523</v>
       </c>
       <c r="AE189">
         <f t="shared" si="88"/>
@@ -49061,7 +49062,7 @@
         <v>186</v>
       </c>
       <c r="L190" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4875</v>
       </c>
       <c r="M190" s="1">
@@ -49085,7 +49086,7 @@
         <v>204750</v>
       </c>
       <c r="R190">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.5</v>
       </c>
       <c r="S190" s="1">
@@ -49110,25 +49111,25 @@
         <f t="shared" si="84"/>
         <v>0.28499999999999998</v>
       </c>
-      <c r="Z190">
+      <c r="Z190" s="4">
         <f t="shared" si="85"/>
-        <v>16131965.15</v>
-      </c>
-      <c r="AA190">
-        <f t="shared" si="76"/>
-        <v>14150846.615585446</v>
+        <v>48152.25</v>
+      </c>
+      <c r="AA190" s="4">
+        <f t="shared" si="96"/>
+        <v>42238.811329463104</v>
       </c>
       <c r="AB190" s="4">
         <f t="shared" si="86"/>
-        <v>16131966.290000001</v>
+        <v>48153.39</v>
       </c>
       <c r="AC190" s="4">
         <f>SUM($AB$5:AB190)</f>
-        <v>171225284.24999997</v>
+        <v>1808801.5799999998</v>
       </c>
       <c r="AD190">
         <f t="shared" si="87"/>
-        <v>10.401457975230485</v>
+        <v>2.7349808027235643</v>
       </c>
       <c r="AE190">
         <f t="shared" si="88"/>
@@ -49182,7 +49183,7 @@
         <v>187</v>
       </c>
       <c r="L191" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4900</v>
       </c>
       <c r="M191" s="1">
@@ -49206,7 +49207,7 @@
         <v>206780</v>
       </c>
       <c r="R191">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.5500000000000007</v>
       </c>
       <c r="S191" s="1">
@@ -49231,25 +49232,25 @@
         <f t="shared" si="84"/>
         <v>0.28599999999999998</v>
       </c>
-      <c r="Z191">
+      <c r="Z191" s="4">
         <f t="shared" si="85"/>
-        <v>17807425.5</v>
-      </c>
-      <c r="AA191">
-        <f t="shared" si="76"/>
-        <v>15565931.377143992</v>
+        <v>49287.630000000005</v>
+      </c>
+      <c r="AA191" s="4">
+        <f t="shared" si="96"/>
+        <v>43083.587556052364</v>
       </c>
       <c r="AB191" s="4">
         <f t="shared" si="86"/>
-        <v>17807426.644000001</v>
+        <v>49288.774000000005</v>
       </c>
       <c r="AC191" s="4">
         <f>SUM($AB$5:AB191)</f>
-        <v>189032710.89399996</v>
+        <v>1858090.3539999998</v>
       </c>
       <c r="AD191">
         <f t="shared" si="87"/>
-        <v>10.399998295812434</v>
+        <v>2.7249408970551641</v>
       </c>
       <c r="AE191">
         <f t="shared" si="88"/>
@@ -49303,7 +49304,7 @@
         <v>188</v>
       </c>
       <c r="L192" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4925</v>
       </c>
       <c r="M192" s="1">
@@ -49327,7 +49328,7 @@
         <v>208820</v>
       </c>
       <c r="R192">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="S192" s="1">
@@ -49352,25 +49353,25 @@
         <f t="shared" si="84"/>
         <v>0.28699999999999998</v>
       </c>
-      <c r="Z192">
+      <c r="Z192" s="4">
         <f t="shared" si="85"/>
-        <v>19656658.260000002</v>
-      </c>
-      <c r="AA192">
-        <f t="shared" si="76"/>
-        <v>17122524.614858393</v>
+        <v>50449.16</v>
+      </c>
+      <c r="AA192" s="4">
+        <f t="shared" si="96"/>
+        <v>43945.259307173408</v>
       </c>
       <c r="AB192" s="4">
         <f t="shared" si="86"/>
-        <v>19656659.408</v>
+        <v>50450.308000000005</v>
       </c>
       <c r="AC192" s="4">
         <f>SUM($AB$5:AB192)</f>
-        <v>208689370.30199996</v>
+        <v>1908540.6619999998</v>
       </c>
       <c r="AD192">
         <f t="shared" si="87"/>
-        <v>10.398549179682695</v>
+        <v>2.7151697920067868</v>
       </c>
       <c r="AE192">
         <f t="shared" si="88"/>
@@ -49424,7 +49425,7 @@
         <v>189</v>
       </c>
       <c r="L193" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4950</v>
       </c>
       <c r="M193" s="1">
@@ -49448,7 +49449,7 @@
         <v>210870</v>
       </c>
       <c r="R193">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.6500000000000021</v>
       </c>
       <c r="S193" s="1">
@@ -49473,25 +49474,25 @@
         <f t="shared" si="84"/>
         <v>0.28799999999999998</v>
       </c>
-      <c r="Z193">
+      <c r="Z193" s="4">
         <f t="shared" si="85"/>
-        <v>21697663.310000002</v>
-      </c>
-      <c r="AA193">
-        <f t="shared" si="76"/>
-        <v>18834777.176344234</v>
+        <v>51637.440000000002</v>
+      </c>
+      <c r="AA193" s="4">
+        <f t="shared" si="96"/>
+        <v>44824.164493316879</v>
       </c>
       <c r="AB193" s="4">
         <f t="shared" si="86"/>
-        <v>21697664.462000001</v>
+        <v>51638.592000000004</v>
       </c>
       <c r="AC193" s="4">
         <f>SUM($AB$5:AB193)</f>
-        <v>230387034.76399997</v>
+        <v>1960179.2539999997</v>
       </c>
       <c r="AD193">
         <f t="shared" si="87"/>
-        <v>10.397110514349984</v>
+        <v>2.705658466080926</v>
       </c>
       <c r="AE193">
         <f t="shared" si="88"/>
@@ -49545,7 +49546,7 @@
         <v>190</v>
       </c>
       <c r="L194" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>4975</v>
       </c>
       <c r="M194" s="1">
@@ -49569,7 +49570,7 @@
         <v>212930</v>
       </c>
       <c r="R194">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.7000000000000028</v>
       </c>
       <c r="S194" s="1">
@@ -49594,25 +49595,25 @@
         <f t="shared" si="84"/>
         <v>0.28899999999999998</v>
       </c>
-      <c r="Z194">
+      <c r="Z194" s="4">
         <f t="shared" si="85"/>
-        <v>23950302.780000001</v>
-      </c>
-      <c r="AA194">
-        <f t="shared" si="76"/>
-        <v>20718254.993978661</v>
+        <v>52853.07</v>
+      </c>
+      <c r="AA194" s="4">
+        <f t="shared" si="96"/>
+        <v>45720.647783183216</v>
       </c>
       <c r="AB194" s="4">
         <f t="shared" si="86"/>
-        <v>23950303.936000001</v>
+        <v>52854.226000000002</v>
       </c>
       <c r="AC194" s="4">
         <f>SUM($AB$5:AB194)</f>
-        <v>254337338.69999996</v>
+        <v>2013033.4799999997</v>
       </c>
       <c r="AD194">
         <f t="shared" si="87"/>
-        <v>10.395682187816604</v>
+        <v>2.6963975816060763</v>
       </c>
       <c r="AE194">
         <f t="shared" si="88"/>
@@ -49666,7 +49667,7 @@
         <v>191</v>
       </c>
       <c r="L195" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5000</v>
       </c>
       <c r="M195" s="1">
@@ -49690,7 +49691,7 @@
         <v>215000</v>
       </c>
       <c r="R195">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.7500000000000036</v>
       </c>
       <c r="S195" s="1">
@@ -49715,25 +49716,25 @@
         <f t="shared" si="84"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z195">
+      <c r="Z195" s="4">
         <f t="shared" si="85"/>
-        <v>26436493.490000002</v>
-      </c>
-      <c r="AA195">
-        <f t="shared" si="76"/>
-        <v>22790080.593376528</v>
+        <v>54096.68</v>
+      </c>
+      <c r="AA195" s="4">
+        <f t="shared" si="96"/>
+        <v>46635.060738846878</v>
       </c>
       <c r="AB195" s="4">
         <f t="shared" si="86"/>
-        <v>26436494.650000002</v>
+        <v>54097.840000000004</v>
       </c>
       <c r="AC195" s="4">
         <f>SUM($AB$5:AB195)</f>
-        <v>280773833.34999996</v>
+        <v>2067131.3199999998</v>
       </c>
       <c r="AD195">
         <f t="shared" si="87"/>
-        <v>10.394264084512892</v>
+        <v>2.6873790494532703</v>
       </c>
       <c r="AE195">
         <f t="shared" si="88"/>
@@ -49787,7 +49788,7 @@
         <v>192</v>
       </c>
       <c r="L196" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5025</v>
       </c>
       <c r="M196" s="1">
@@ -49811,7 +49812,7 @@
         <v>217080</v>
       </c>
       <c r="R196">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.8000000000000043</v>
       </c>
       <c r="S196" s="1">
@@ -49836,25 +49837,25 @@
         <f t="shared" si="84"/>
         <v>0.29099999999999998</v>
       </c>
-      <c r="Z196">
+      <c r="Z196" s="4">
         <f t="shared" si="85"/>
-        <v>29180419.310000002</v>
-      </c>
-      <c r="AA196">
-        <f t="shared" si="76"/>
-        <v>25069088.752714183</v>
+        <v>55368.880000000005</v>
+      </c>
+      <c r="AA196" s="4">
+        <f t="shared" si="96"/>
+        <v>47567.76195362382</v>
       </c>
       <c r="AB196" s="4">
         <f t="shared" si="86"/>
-        <v>29180420.474000003</v>
+        <v>55370.044000000002</v>
       </c>
       <c r="AC196" s="4">
         <f>SUM($AB$5:AB196)</f>
-        <v>309954253.82399994</v>
+        <v>2122501.3640000001</v>
       </c>
       <c r="AD196">
         <f t="shared" si="87"/>
-        <v>10.392856102664306</v>
+        <v>2.678593443207093</v>
       </c>
       <c r="AE196">
         <f t="shared" si="88"/>
@@ -49908,7 +49909,7 @@
         <v>193</v>
       </c>
       <c r="L197" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5050</v>
       </c>
       <c r="M197" s="1">
@@ -49932,7 +49933,7 @@
         <v>219170</v>
       </c>
       <c r="R197">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.850000000000005</v>
       </c>
       <c r="S197" s="1">
@@ -49957,25 +49958,25 @@
         <f t="shared" si="84"/>
         <v>0.29199999999999998</v>
       </c>
-      <c r="Z197">
+      <c r="Z197" s="4">
         <f t="shared" si="85"/>
-        <v>32208765.350000001</v>
-      </c>
-      <c r="AA197">
-        <f t="shared" si="76"/>
-        <v>27575997.727985606</v>
+        <v>56670.33</v>
+      </c>
+      <c r="AA197" s="4">
+        <f t="shared" si="96"/>
+        <v>48519.1171926963</v>
       </c>
       <c r="AB197" s="4">
         <f t="shared" si="86"/>
-        <v>32208766.518000003</v>
+        <v>56671.498</v>
       </c>
       <c r="AC197" s="4">
         <f>SUM($AB$5:AB197)</f>
-        <v>342163020.34199995</v>
+        <v>2179172.8620000002</v>
       </c>
       <c r="AD197">
         <f t="shared" si="87"/>
-        <v>10.391458133137602</v>
+        <v>2.6700335255944805</v>
       </c>
       <c r="AE197">
         <f t="shared" si="88"/>
@@ -50029,7 +50030,7 @@
         <v>194</v>
       </c>
       <c r="L198" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5075</v>
       </c>
       <c r="M198" s="1">
@@ -50053,7 +50054,7 @@
         <v>221270</v>
       </c>
       <c r="R198">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.9000000000000057</v>
       </c>
       <c r="S198" s="1">
@@ -50078,25 +50079,25 @@
         <f t="shared" si="84"/>
         <v>0.29299999999999998</v>
       </c>
-      <c r="Z198">
+      <c r="Z198" s="4">
         <f t="shared" si="85"/>
-        <v>35550976.390000001</v>
-      </c>
-      <c r="AA198">
-        <f t="shared" si="76"/>
-        <v>30333597.600784171</v>
+        <v>58001.700000000004</v>
+      </c>
+      <c r="AA198" s="4">
+        <f t="shared" si="96"/>
+        <v>49489.499536550225</v>
       </c>
       <c r="AB198" s="4">
         <f t="shared" si="86"/>
-        <v>35550977.561999999</v>
+        <v>58002.872000000003</v>
       </c>
       <c r="AC198" s="4">
         <f>SUM($AB$5:AB198)</f>
-        <v>377713997.90399992</v>
+        <v>2237175.7340000002</v>
       </c>
       <c r="AD198">
         <f t="shared" si="87"/>
-        <v>10.390070068491312</v>
+        <v>2.6616921039832575</v>
       </c>
       <c r="AE198">
         <f t="shared" si="88"/>
@@ -50150,7 +50151,7 @@
         <v>195</v>
       </c>
       <c r="L199" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5100</v>
       </c>
       <c r="M199" s="1">
@@ -50174,7 +50175,7 @@
         <v>223380</v>
       </c>
       <c r="R199">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.9500000000000064</v>
       </c>
       <c r="S199" s="1">
@@ -50199,25 +50200,25 @@
         <f t="shared" si="84"/>
         <v>0.29399999999999998</v>
       </c>
-      <c r="Z199">
+      <c r="Z199" s="4">
         <f t="shared" si="85"/>
-        <v>39239541.979999997</v>
-      </c>
-      <c r="AA199">
-        <f t="shared" si="76"/>
-        <v>33366957.460862592</v>
+        <v>59363.65</v>
+      </c>
+      <c r="AA199" s="4">
+        <f t="shared" si="96"/>
+        <v>50479.289527281231</v>
       </c>
       <c r="AB199" s="4">
         <f t="shared" si="86"/>
-        <v>39239543.155999996</v>
+        <v>59364.826000000001</v>
       </c>
       <c r="AC199" s="4">
         <f>SUM($AB$5:AB199)</f>
-        <v>416953541.05999994</v>
+        <v>2296540.56</v>
       </c>
       <c r="AD199">
         <f t="shared" si="87"/>
-        <v>10.388691807491119</v>
+        <v>2.6535611439811855</v>
       </c>
       <c r="AE199">
         <f t="shared" si="88"/>
@@ -50271,7 +50272,7 @@
         <v>196</v>
       </c>
       <c r="L200" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5125</v>
       </c>
       <c r="M200" s="1">
@@ -50295,7 +50296,7 @@
         <v>225500</v>
       </c>
       <c r="R200">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>10.000000000000007</v>
       </c>
       <c r="S200" s="1">
@@ -50320,25 +50321,25 @@
         <f t="shared" si="84"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="Z200">
+      <c r="Z200" s="4">
         <f t="shared" si="85"/>
-        <v>43310310.909999996</v>
-      </c>
-      <c r="AA200">
-        <f t="shared" si="76"/>
-        <v>36703653.306948856</v>
+        <v>60756.880000000005</v>
+      </c>
+      <c r="AA200" s="4">
+        <f t="shared" si="96"/>
+        <v>51488.87531782686</v>
       </c>
       <c r="AB200" s="4">
         <f t="shared" si="86"/>
-        <v>43310312.089999996</v>
+        <v>60758.060000000005</v>
       </c>
       <c r="AC200" s="4">
         <f>SUM($AB$5:AB200)</f>
-        <v>460263853.14999992</v>
+        <v>2357298.62</v>
       </c>
       <c r="AD200">
         <f t="shared" si="87"/>
-        <v>10.387323244669982</v>
+        <v>2.6456340923497583</v>
       </c>
       <c r="AE200">
         <f t="shared" si="88"/>
@@ -50392,7 +50393,7 @@
         <v>197</v>
       </c>
       <c r="L201" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5150</v>
       </c>
       <c r="M201" s="1">
@@ -50416,7 +50417,7 @@
         <v>227630</v>
       </c>
       <c r="R201">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>10.050000000000008</v>
       </c>
       <c r="S201" s="1">
@@ -50441,25 +50442,25 @@
         <f t="shared" si="84"/>
         <v>0.29599999999999999</v>
       </c>
-      <c r="Z201">
+      <c r="Z201" s="4">
         <f t="shared" si="85"/>
-        <v>47802838.189999998</v>
-      </c>
-      <c r="AA201">
-        <f t="shared" si="76"/>
-        <v>40374018.737643749</v>
+        <v>62182.090000000004</v>
+      </c>
+      <c r="AA201" s="4">
+        <f t="shared" si="96"/>
+        <v>52518.652824183395</v>
       </c>
       <c r="AB201" s="4">
         <f t="shared" si="86"/>
-        <v>47802839.373999998</v>
+        <v>62183.274000000005</v>
       </c>
       <c r="AC201" s="4">
         <f>SUM($AB$5:AB201)</f>
-        <v>508066692.52399993</v>
+        <v>2419481.8940000003</v>
       </c>
       <c r="AD201">
         <f t="shared" si="87"/>
-        <v>10.385964278281284</v>
+        <v>2.6379039750169713</v>
       </c>
       <c r="AE201">
         <f t="shared" si="88"/>
@@ -50513,7 +50514,7 @@
         <v>198</v>
       </c>
       <c r="L202" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5175</v>
       </c>
       <c r="M202" s="1">
@@ -50537,7 +50538,7 @@
         <v>229770</v>
       </c>
       <c r="R202">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>10.100000000000009</v>
       </c>
       <c r="S202" s="1">
@@ -50562,25 +50563,25 @@
         <f t="shared" si="84"/>
         <v>0.29699999999999999</v>
       </c>
-      <c r="Z202">
+      <c r="Z202" s="4">
         <f t="shared" si="85"/>
-        <v>52760767.809999995</v>
-      </c>
-      <c r="AA202">
-        <f t="shared" si="76"/>
-        <v>44411420.711408131</v>
+        <v>63640.01</v>
+      </c>
+      <c r="AA202" s="4">
+        <f t="shared" si="96"/>
+        <v>53569.025880667061</v>
       </c>
       <c r="AB202" s="4">
         <f t="shared" si="86"/>
-        <v>52760768.997999996</v>
+        <v>63641.198000000004</v>
       </c>
       <c r="AC202" s="4">
         <f>SUM($AB$5:AB202)</f>
-        <v>560827461.52199996</v>
+        <v>2483123.0920000002</v>
       </c>
       <c r="AD202">
         <f t="shared" si="87"/>
-        <v>10.384614810290428</v>
+        <v>2.6303647139423418</v>
       </c>
       <c r="AE202">
         <f t="shared" si="88"/>
@@ -50634,7 +50635,7 @@
         <v>199</v>
       </c>
       <c r="L203" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5200</v>
       </c>
       <c r="M203" s="1">
@@ -50658,7 +50659,7 @@
         <v>231920</v>
       </c>
       <c r="R203">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>10.150000000000009</v>
       </c>
       <c r="S203" s="1">
@@ -50683,25 +50684,25 @@
         <f t="shared" si="84"/>
         <v>0.29799999999999999</v>
       </c>
-      <c r="Z203">
+      <c r="Z203" s="4">
         <f t="shared" si="85"/>
-        <v>58232254.960000001</v>
-      </c>
-      <c r="AA203">
-        <f t="shared" si="76"/>
-        <v>48852562.882548951</v>
+        <v>65131.37</v>
+      </c>
+      <c r="AA203" s="4">
+        <f t="shared" si="96"/>
+        <v>54640.4063982804</v>
       </c>
       <c r="AB203" s="4">
         <f t="shared" si="86"/>
-        <v>58232256.152000003</v>
+        <v>65132.562000000005</v>
       </c>
       <c r="AC203" s="4">
         <f>SUM($AB$5:AB203)</f>
-        <v>619059717.67399991</v>
+        <v>2548255.6540000001</v>
       </c>
       <c r="AD203">
         <f t="shared" si="87"/>
-        <v>10.383274740856397</v>
+        <v>2.6230097980176938</v>
       </c>
       <c r="AE203">
         <f t="shared" si="88"/>
@@ -50755,7 +50756,7 @@
         <v>200</v>
       </c>
       <c r="L204" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5225</v>
       </c>
       <c r="M204" s="1">
@@ -50779,7 +50780,7 @@
         <v>234080</v>
       </c>
       <c r="R204">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>10.20000000000001</v>
       </c>
       <c r="S204" s="1">
@@ -50804,25 +50805,25 @@
         <f t="shared" si="84"/>
         <v>0.29899999999999999</v>
       </c>
-      <c r="Z204">
+      <c r="Z204" s="4">
         <f t="shared" si="85"/>
-        <v>64270431.850000001</v>
-      </c>
-      <c r="AA204">
-        <f t="shared" si="76"/>
-        <v>53737819.270803854</v>
+        <v>66656.929999999993</v>
+      </c>
+      <c r="AA204" s="4">
+        <f t="shared" si="96"/>
+        <v>55733.214526246011</v>
       </c>
       <c r="AB204" s="4">
         <f t="shared" si="86"/>
-        <v>64270433.046000004</v>
+        <v>66658.125999999989</v>
       </c>
       <c r="AC204" s="4">
         <f>SUM($AB$5:AB204)</f>
-        <v>683330150.71999991</v>
+        <v>2614913.7800000003</v>
       </c>
       <c r="AD204">
         <f t="shared" si="87"/>
-        <v>10.381943972624166</v>
+        <v>2.6158335367711958</v>
       </c>
       <c r="AE204">
         <f t="shared" si="88"/>

--- a/Assets/06.Table/FoxFire.xlsx
+++ b/Assets/06.Table/FoxFire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD8D231-2C4B-4FFE-9B18-E5C01D817F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E33D27-C3D7-4E6B-8ADC-3DDACBFE9D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxFire" sheetId="2" r:id="rId1"/>
@@ -663,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
-  <dimension ref="A1:I750"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="E531" sqref="E531"/>
+    <sheetView tabSelected="1" topLeftCell="A972" workbookViewId="0">
+      <selection activeCell="O992" sqref="O992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24843,7 +24843,7 @@
         <v>143</v>
       </c>
       <c r="C712">
-        <f t="shared" ref="C712:C750" si="22">C707</f>
+        <f t="shared" ref="C712:C775" si="22">C707</f>
         <v>1</v>
       </c>
       <c r="D712">
@@ -24975,7 +24975,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <f t="shared" ref="B716:B750" si="23">B711+1</f>
+        <f t="shared" ref="B716:B779" si="23">B711+1</f>
         <v>144</v>
       </c>
       <c r="C716">
@@ -26158,6 +26158,8506 @@
       <c r="I750" s="1">
         <f>IF(C750=1,VLOOKUP(FoxFire!B750,balance!$AF:$AJ,2,FALSE),IF(C750=2,VLOOKUP(B750,balance!$AF:$AJ,3,FALSE),IF(C750=3,VLOOKUP(B750,balance!$AF:$AJ,4,FALSE),IF(C750=4,VLOOKUP(B750,balance!$AF:$AJ,5,FALSE),IF(C750=5,VLOOKUP(B750,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
         <v>1515000000000</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>749</v>
+      </c>
+      <c r="B751">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="C751">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="D751">
+        <v>9026</v>
+      </c>
+      <c r="E751" s="1">
+        <f>IF(C751=1,VLOOKUP(B751,balance!$K:$P,2,FALSE),IF(C751=2,VLOOKUP(B751,balance!$K:$P,3,FALSE),IF(C751=3,VLOOKUP(B751,balance!$K:$P,4,FALSE),IF(C751=4,VLOOKUP(B751,balance!$K:$P,5,FALSE),IF(C751=5,VLOOKUP(B751-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>122430</v>
+      </c>
+      <c r="F751">
+        <v>53</v>
+      </c>
+      <c r="G751">
+        <f>IF(C751=1,VLOOKUP(FoxFire!B751,balance!$U:$Z,2,FALSE),IF(C751=2,VLOOKUP(B751,balance!$U:$Z,3,FALSE),IF(C751=3,VLOOKUP(B751,balance!$U:$Z,4,FALSE),IF(C751=4,VLOOKUP(B751,balance!$U:$Z,5,FALSE),IF(C751=5,VLOOKUP(B751-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>206.2362</v>
+      </c>
+      <c r="H751">
+        <v>2</v>
+      </c>
+      <c r="I751" s="1">
+        <f>IF(C751=1,VLOOKUP(FoxFire!B751,balance!$AF:$AJ,2,FALSE),IF(C751=2,VLOOKUP(B751,balance!$AF:$AJ,3,FALSE),IF(C751=3,VLOOKUP(B751,balance!$AF:$AJ,4,FALSE),IF(C751=4,VLOOKUP(B751,balance!$AF:$AJ,5,FALSE),IF(C751=5,VLOOKUP(B751,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6120000000000</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>750</v>
+      </c>
+      <c r="B752">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="C752">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D752">
+        <v>9026</v>
+      </c>
+      <c r="E752" s="1">
+        <f>IF(C752=1,VLOOKUP(B752,balance!$K:$P,2,FALSE),IF(C752=2,VLOOKUP(B752,balance!$K:$P,3,FALSE),IF(C752=3,VLOOKUP(B752,balance!$K:$P,4,FALSE),IF(C752=4,VLOOKUP(B752,balance!$K:$P,5,FALSE),IF(C752=5,VLOOKUP(B752-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4000</v>
+      </c>
+      <c r="F752">
+        <v>53</v>
+      </c>
+      <c r="G752">
+        <f>IF(C752=1,VLOOKUP(FoxFire!B752,balance!$U:$Z,2,FALSE),IF(C752=2,VLOOKUP(B752,balance!$U:$Z,3,FALSE),IF(C752=3,VLOOKUP(B752,balance!$U:$Z,4,FALSE),IF(C752=4,VLOOKUP(B752,balance!$U:$Z,5,FALSE),IF(C752=5,VLOOKUP(B752-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H752">
+        <v>2</v>
+      </c>
+      <c r="I752" s="1">
+        <f>IF(C752=1,VLOOKUP(FoxFire!B752,balance!$AF:$AJ,2,FALSE),IF(C752=2,VLOOKUP(B752,balance!$AF:$AJ,3,FALSE),IF(C752=3,VLOOKUP(B752,balance!$AF:$AJ,4,FALSE),IF(C752=4,VLOOKUP(B752,balance!$AF:$AJ,5,FALSE),IF(C752=5,VLOOKUP(B752,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1530000000000</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>751</v>
+      </c>
+      <c r="B753">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="C753">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="D753">
+        <v>9026</v>
+      </c>
+      <c r="E753" s="1">
+        <f>IF(C753=1,VLOOKUP(B753,balance!$K:$P,2,FALSE),IF(C753=2,VLOOKUP(B753,balance!$K:$P,3,FALSE),IF(C753=3,VLOOKUP(B753,balance!$K:$P,4,FALSE),IF(C753=4,VLOOKUP(B753,balance!$K:$P,5,FALSE),IF(C753=5,VLOOKUP(B753-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4000</v>
+      </c>
+      <c r="F753">
+        <v>53</v>
+      </c>
+      <c r="G753">
+        <f>IF(C753=1,VLOOKUP(FoxFire!B753,balance!$U:$Z,2,FALSE),IF(C753=2,VLOOKUP(B753,balance!$U:$Z,3,FALSE),IF(C753=3,VLOOKUP(B753,balance!$U:$Z,4,FALSE),IF(C753=4,VLOOKUP(B753,balance!$U:$Z,5,FALSE),IF(C753=5,VLOOKUP(B753-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H753">
+        <v>2</v>
+      </c>
+      <c r="I753" s="1">
+        <f>IF(C753=1,VLOOKUP(FoxFire!B753,balance!$AF:$AJ,2,FALSE),IF(C753=2,VLOOKUP(B753,balance!$AF:$AJ,3,FALSE),IF(C753=3,VLOOKUP(B753,balance!$AF:$AJ,4,FALSE),IF(C753=4,VLOOKUP(B753,balance!$AF:$AJ,5,FALSE),IF(C753=5,VLOOKUP(B753,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1530000000000</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>752</v>
+      </c>
+      <c r="B754">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="C754">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="D754">
+        <v>9026</v>
+      </c>
+      <c r="E754" s="1">
+        <f>IF(C754=1,VLOOKUP(B754,balance!$K:$P,2,FALSE),IF(C754=2,VLOOKUP(B754,balance!$K:$P,3,FALSE),IF(C754=3,VLOOKUP(B754,balance!$K:$P,4,FALSE),IF(C754=4,VLOOKUP(B754,balance!$K:$P,5,FALSE),IF(C754=5,VLOOKUP(B754-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4000</v>
+      </c>
+      <c r="F754">
+        <v>53</v>
+      </c>
+      <c r="G754">
+        <f>IF(C754=1,VLOOKUP(FoxFire!B754,balance!$U:$Z,2,FALSE),IF(C754=2,VLOOKUP(B754,balance!$U:$Z,3,FALSE),IF(C754=3,VLOOKUP(B754,balance!$U:$Z,4,FALSE),IF(C754=4,VLOOKUP(B754,balance!$U:$Z,5,FALSE),IF(C754=5,VLOOKUP(B754-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H754">
+        <v>2</v>
+      </c>
+      <c r="I754" s="1">
+        <f>IF(C754=1,VLOOKUP(FoxFire!B754,balance!$AF:$AJ,2,FALSE),IF(C754=2,VLOOKUP(B754,balance!$AF:$AJ,3,FALSE),IF(C754=3,VLOOKUP(B754,balance!$AF:$AJ,4,FALSE),IF(C754=4,VLOOKUP(B754,balance!$AF:$AJ,5,FALSE),IF(C754=5,VLOOKUP(B754,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1530000000000</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>753</v>
+      </c>
+      <c r="B755">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="C755">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="D755">
+        <v>9026</v>
+      </c>
+      <c r="E755" s="1">
+        <f>IF(C755=1,VLOOKUP(B755,balance!$K:$P,2,FALSE),IF(C755=2,VLOOKUP(B755,balance!$K:$P,3,FALSE),IF(C755=3,VLOOKUP(B755,balance!$K:$P,4,FALSE),IF(C755=4,VLOOKUP(B755,balance!$K:$P,5,FALSE),IF(C755=5,VLOOKUP(B755-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4000</v>
+      </c>
+      <c r="F755">
+        <v>53</v>
+      </c>
+      <c r="G755">
+        <f>IF(C755=1,VLOOKUP(FoxFire!B755,balance!$U:$Z,2,FALSE),IF(C755=2,VLOOKUP(B755,balance!$U:$Z,3,FALSE),IF(C755=3,VLOOKUP(B755,balance!$U:$Z,4,FALSE),IF(C755=4,VLOOKUP(B755,balance!$U:$Z,5,FALSE),IF(C755=5,VLOOKUP(B755-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H755">
+        <v>2</v>
+      </c>
+      <c r="I755" s="1">
+        <f>IF(C755=1,VLOOKUP(FoxFire!B755,balance!$AF:$AJ,2,FALSE),IF(C755=2,VLOOKUP(B755,balance!$AF:$AJ,3,FALSE),IF(C755=3,VLOOKUP(B755,balance!$AF:$AJ,4,FALSE),IF(C755=4,VLOOKUP(B755,balance!$AF:$AJ,5,FALSE),IF(C755=5,VLOOKUP(B755,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1530000000000</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>754</v>
+      </c>
+      <c r="B756">
+        <f t="shared" si="23"/>
+        <v>152</v>
+      </c>
+      <c r="C756">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="D756">
+        <v>9026</v>
+      </c>
+      <c r="E756" s="1">
+        <f>IF(C756=1,VLOOKUP(B756,balance!$K:$P,2,FALSE),IF(C756=2,VLOOKUP(B756,balance!$K:$P,3,FALSE),IF(C756=3,VLOOKUP(B756,balance!$K:$P,4,FALSE),IF(C756=4,VLOOKUP(B756,balance!$K:$P,5,FALSE),IF(C756=5,VLOOKUP(B756-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>124000</v>
+      </c>
+      <c r="F756">
+        <v>53</v>
+      </c>
+      <c r="G756">
+        <f>IF(C756=1,VLOOKUP(FoxFire!B756,balance!$U:$Z,2,FALSE),IF(C756=2,VLOOKUP(B756,balance!$U:$Z,3,FALSE),IF(C756=3,VLOOKUP(B756,balance!$U:$Z,4,FALSE),IF(C756=4,VLOOKUP(B756,balance!$U:$Z,5,FALSE),IF(C756=5,VLOOKUP(B756-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>211.20579999999998</v>
+      </c>
+      <c r="H756">
+        <v>2</v>
+      </c>
+      <c r="I756" s="1">
+        <f>IF(C756=1,VLOOKUP(FoxFire!B756,balance!$AF:$AJ,2,FALSE),IF(C756=2,VLOOKUP(B756,balance!$AF:$AJ,3,FALSE),IF(C756=3,VLOOKUP(B756,balance!$AF:$AJ,4,FALSE),IF(C756=4,VLOOKUP(B756,balance!$AF:$AJ,5,FALSE),IF(C756=5,VLOOKUP(B756,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6180000000000</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>755</v>
+      </c>
+      <c r="B757">
+        <f t="shared" si="23"/>
+        <v>152</v>
+      </c>
+      <c r="C757">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D757">
+        <v>9026</v>
+      </c>
+      <c r="E757" s="1">
+        <f>IF(C757=1,VLOOKUP(B757,balance!$K:$P,2,FALSE),IF(C757=2,VLOOKUP(B757,balance!$K:$P,3,FALSE),IF(C757=3,VLOOKUP(B757,balance!$K:$P,4,FALSE),IF(C757=4,VLOOKUP(B757,balance!$K:$P,5,FALSE),IF(C757=5,VLOOKUP(B757-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4025</v>
+      </c>
+      <c r="F757">
+        <v>53</v>
+      </c>
+      <c r="G757">
+        <f>IF(C757=1,VLOOKUP(FoxFire!B757,balance!$U:$Z,2,FALSE),IF(C757=2,VLOOKUP(B757,balance!$U:$Z,3,FALSE),IF(C757=3,VLOOKUP(B757,balance!$U:$Z,4,FALSE),IF(C757=4,VLOOKUP(B757,balance!$U:$Z,5,FALSE),IF(C757=5,VLOOKUP(B757-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="H757">
+        <v>2</v>
+      </c>
+      <c r="I757" s="1">
+        <f>IF(C757=1,VLOOKUP(FoxFire!B757,balance!$AF:$AJ,2,FALSE),IF(C757=2,VLOOKUP(B757,balance!$AF:$AJ,3,FALSE),IF(C757=3,VLOOKUP(B757,balance!$AF:$AJ,4,FALSE),IF(C757=4,VLOOKUP(B757,balance!$AF:$AJ,5,FALSE),IF(C757=5,VLOOKUP(B757,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1545000000000</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>756</v>
+      </c>
+      <c r="B758">
+        <f t="shared" si="23"/>
+        <v>152</v>
+      </c>
+      <c r="C758">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="D758">
+        <v>9026</v>
+      </c>
+      <c r="E758" s="1">
+        <f>IF(C758=1,VLOOKUP(B758,balance!$K:$P,2,FALSE),IF(C758=2,VLOOKUP(B758,balance!$K:$P,3,FALSE),IF(C758=3,VLOOKUP(B758,balance!$K:$P,4,FALSE),IF(C758=4,VLOOKUP(B758,balance!$K:$P,5,FALSE),IF(C758=5,VLOOKUP(B758-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4025</v>
+      </c>
+      <c r="F758">
+        <v>53</v>
+      </c>
+      <c r="G758">
+        <f>IF(C758=1,VLOOKUP(FoxFire!B758,balance!$U:$Z,2,FALSE),IF(C758=2,VLOOKUP(B758,balance!$U:$Z,3,FALSE),IF(C758=3,VLOOKUP(B758,balance!$U:$Z,4,FALSE),IF(C758=4,VLOOKUP(B758,balance!$U:$Z,5,FALSE),IF(C758=5,VLOOKUP(B758-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="H758">
+        <v>2</v>
+      </c>
+      <c r="I758" s="1">
+        <f>IF(C758=1,VLOOKUP(FoxFire!B758,balance!$AF:$AJ,2,FALSE),IF(C758=2,VLOOKUP(B758,balance!$AF:$AJ,3,FALSE),IF(C758=3,VLOOKUP(B758,balance!$AF:$AJ,4,FALSE),IF(C758=4,VLOOKUP(B758,balance!$AF:$AJ,5,FALSE),IF(C758=5,VLOOKUP(B758,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1545000000000</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>757</v>
+      </c>
+      <c r="B759">
+        <f t="shared" si="23"/>
+        <v>152</v>
+      </c>
+      <c r="C759">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="D759">
+        <v>9026</v>
+      </c>
+      <c r="E759" s="1">
+        <f>IF(C759=1,VLOOKUP(B759,balance!$K:$P,2,FALSE),IF(C759=2,VLOOKUP(B759,balance!$K:$P,3,FALSE),IF(C759=3,VLOOKUP(B759,balance!$K:$P,4,FALSE),IF(C759=4,VLOOKUP(B759,balance!$K:$P,5,FALSE),IF(C759=5,VLOOKUP(B759-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4025</v>
+      </c>
+      <c r="F759">
+        <v>53</v>
+      </c>
+      <c r="G759">
+        <f>IF(C759=1,VLOOKUP(FoxFire!B759,balance!$U:$Z,2,FALSE),IF(C759=2,VLOOKUP(B759,balance!$U:$Z,3,FALSE),IF(C759=3,VLOOKUP(B759,balance!$U:$Z,4,FALSE),IF(C759=4,VLOOKUP(B759,balance!$U:$Z,5,FALSE),IF(C759=5,VLOOKUP(B759-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="H759">
+        <v>2</v>
+      </c>
+      <c r="I759" s="1">
+        <f>IF(C759=1,VLOOKUP(FoxFire!B759,balance!$AF:$AJ,2,FALSE),IF(C759=2,VLOOKUP(B759,balance!$AF:$AJ,3,FALSE),IF(C759=3,VLOOKUP(B759,balance!$AF:$AJ,4,FALSE),IF(C759=4,VLOOKUP(B759,balance!$AF:$AJ,5,FALSE),IF(C759=5,VLOOKUP(B759,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1545000000000</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>758</v>
+      </c>
+      <c r="B760">
+        <f t="shared" si="23"/>
+        <v>152</v>
+      </c>
+      <c r="C760">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="D760">
+        <v>9026</v>
+      </c>
+      <c r="E760" s="1">
+        <f>IF(C760=1,VLOOKUP(B760,balance!$K:$P,2,FALSE),IF(C760=2,VLOOKUP(B760,balance!$K:$P,3,FALSE),IF(C760=3,VLOOKUP(B760,balance!$K:$P,4,FALSE),IF(C760=4,VLOOKUP(B760,balance!$K:$P,5,FALSE),IF(C760=5,VLOOKUP(B760-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4025</v>
+      </c>
+      <c r="F760">
+        <v>53</v>
+      </c>
+      <c r="G760">
+        <f>IF(C760=1,VLOOKUP(FoxFire!B760,balance!$U:$Z,2,FALSE),IF(C760=2,VLOOKUP(B760,balance!$U:$Z,3,FALSE),IF(C760=3,VLOOKUP(B760,balance!$U:$Z,4,FALSE),IF(C760=4,VLOOKUP(B760,balance!$U:$Z,5,FALSE),IF(C760=5,VLOOKUP(B760-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="H760">
+        <v>2</v>
+      </c>
+      <c r="I760" s="1">
+        <f>IF(C760=1,VLOOKUP(FoxFire!B760,balance!$AF:$AJ,2,FALSE),IF(C760=2,VLOOKUP(B760,balance!$AF:$AJ,3,FALSE),IF(C760=3,VLOOKUP(B760,balance!$AF:$AJ,4,FALSE),IF(C760=4,VLOOKUP(B760,balance!$AF:$AJ,5,FALSE),IF(C760=5,VLOOKUP(B760,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1545000000000</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>759</v>
+      </c>
+      <c r="B761">
+        <f t="shared" si="23"/>
+        <v>153</v>
+      </c>
+      <c r="C761">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="D761">
+        <v>9026</v>
+      </c>
+      <c r="E761" s="1">
+        <f>IF(C761=1,VLOOKUP(B761,balance!$K:$P,2,FALSE),IF(C761=2,VLOOKUP(B761,balance!$K:$P,3,FALSE),IF(C761=3,VLOOKUP(B761,balance!$K:$P,4,FALSE),IF(C761=4,VLOOKUP(B761,balance!$K:$P,5,FALSE),IF(C761=5,VLOOKUP(B761-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>125580</v>
+      </c>
+      <c r="F761">
+        <v>53</v>
+      </c>
+      <c r="G761">
+        <f>IF(C761=1,VLOOKUP(FoxFire!B761,balance!$U:$Z,2,FALSE),IF(C761=2,VLOOKUP(B761,balance!$U:$Z,3,FALSE),IF(C761=3,VLOOKUP(B761,balance!$U:$Z,4,FALSE),IF(C761=4,VLOOKUP(B761,balance!$U:$Z,5,FALSE),IF(C761=5,VLOOKUP(B761-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>216.29159999999999</v>
+      </c>
+      <c r="H761">
+        <v>2</v>
+      </c>
+      <c r="I761" s="1">
+        <f>IF(C761=1,VLOOKUP(FoxFire!B761,balance!$AF:$AJ,2,FALSE),IF(C761=2,VLOOKUP(B761,balance!$AF:$AJ,3,FALSE),IF(C761=3,VLOOKUP(B761,balance!$AF:$AJ,4,FALSE),IF(C761=4,VLOOKUP(B761,balance!$AF:$AJ,5,FALSE),IF(C761=5,VLOOKUP(B761,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6240000000000</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>760</v>
+      </c>
+      <c r="B762">
+        <f t="shared" si="23"/>
+        <v>153</v>
+      </c>
+      <c r="C762">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D762">
+        <v>9026</v>
+      </c>
+      <c r="E762" s="1">
+        <f>IF(C762=1,VLOOKUP(B762,balance!$K:$P,2,FALSE),IF(C762=2,VLOOKUP(B762,balance!$K:$P,3,FALSE),IF(C762=3,VLOOKUP(B762,balance!$K:$P,4,FALSE),IF(C762=4,VLOOKUP(B762,balance!$K:$P,5,FALSE),IF(C762=5,VLOOKUP(B762-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4050</v>
+      </c>
+      <c r="F762">
+        <v>53</v>
+      </c>
+      <c r="G762">
+        <f>IF(C762=1,VLOOKUP(FoxFire!B762,balance!$U:$Z,2,FALSE),IF(C762=2,VLOOKUP(B762,balance!$U:$Z,3,FALSE),IF(C762=3,VLOOKUP(B762,balance!$U:$Z,4,FALSE),IF(C762=4,VLOOKUP(B762,balance!$U:$Z,5,FALSE),IF(C762=5,VLOOKUP(B762-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="H762">
+        <v>2</v>
+      </c>
+      <c r="I762" s="1">
+        <f>IF(C762=1,VLOOKUP(FoxFire!B762,balance!$AF:$AJ,2,FALSE),IF(C762=2,VLOOKUP(B762,balance!$AF:$AJ,3,FALSE),IF(C762=3,VLOOKUP(B762,balance!$AF:$AJ,4,FALSE),IF(C762=4,VLOOKUP(B762,balance!$AF:$AJ,5,FALSE),IF(C762=5,VLOOKUP(B762,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1560000000000</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>761</v>
+      </c>
+      <c r="B763">
+        <f t="shared" si="23"/>
+        <v>153</v>
+      </c>
+      <c r="C763">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="D763">
+        <v>9026</v>
+      </c>
+      <c r="E763" s="1">
+        <f>IF(C763=1,VLOOKUP(B763,balance!$K:$P,2,FALSE),IF(C763=2,VLOOKUP(B763,balance!$K:$P,3,FALSE),IF(C763=3,VLOOKUP(B763,balance!$K:$P,4,FALSE),IF(C763=4,VLOOKUP(B763,balance!$K:$P,5,FALSE),IF(C763=5,VLOOKUP(B763-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4050</v>
+      </c>
+      <c r="F763">
+        <v>53</v>
+      </c>
+      <c r="G763">
+        <f>IF(C763=1,VLOOKUP(FoxFire!B763,balance!$U:$Z,2,FALSE),IF(C763=2,VLOOKUP(B763,balance!$U:$Z,3,FALSE),IF(C763=3,VLOOKUP(B763,balance!$U:$Z,4,FALSE),IF(C763=4,VLOOKUP(B763,balance!$U:$Z,5,FALSE),IF(C763=5,VLOOKUP(B763-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="H763">
+        <v>2</v>
+      </c>
+      <c r="I763" s="1">
+        <f>IF(C763=1,VLOOKUP(FoxFire!B763,balance!$AF:$AJ,2,FALSE),IF(C763=2,VLOOKUP(B763,balance!$AF:$AJ,3,FALSE),IF(C763=3,VLOOKUP(B763,balance!$AF:$AJ,4,FALSE),IF(C763=4,VLOOKUP(B763,balance!$AF:$AJ,5,FALSE),IF(C763=5,VLOOKUP(B763,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1560000000000</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>762</v>
+      </c>
+      <c r="B764">
+        <f t="shared" si="23"/>
+        <v>153</v>
+      </c>
+      <c r="C764">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="D764">
+        <v>9026</v>
+      </c>
+      <c r="E764" s="1">
+        <f>IF(C764=1,VLOOKUP(B764,balance!$K:$P,2,FALSE),IF(C764=2,VLOOKUP(B764,balance!$K:$P,3,FALSE),IF(C764=3,VLOOKUP(B764,balance!$K:$P,4,FALSE),IF(C764=4,VLOOKUP(B764,balance!$K:$P,5,FALSE),IF(C764=5,VLOOKUP(B764-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4050</v>
+      </c>
+      <c r="F764">
+        <v>53</v>
+      </c>
+      <c r="G764">
+        <f>IF(C764=1,VLOOKUP(FoxFire!B764,balance!$U:$Z,2,FALSE),IF(C764=2,VLOOKUP(B764,balance!$U:$Z,3,FALSE),IF(C764=3,VLOOKUP(B764,balance!$U:$Z,4,FALSE),IF(C764=4,VLOOKUP(B764,balance!$U:$Z,5,FALSE),IF(C764=5,VLOOKUP(B764-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="H764">
+        <v>2</v>
+      </c>
+      <c r="I764" s="1">
+        <f>IF(C764=1,VLOOKUP(FoxFire!B764,balance!$AF:$AJ,2,FALSE),IF(C764=2,VLOOKUP(B764,balance!$AF:$AJ,3,FALSE),IF(C764=3,VLOOKUP(B764,balance!$AF:$AJ,4,FALSE),IF(C764=4,VLOOKUP(B764,balance!$AF:$AJ,5,FALSE),IF(C764=5,VLOOKUP(B764,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1560000000000</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>763</v>
+      </c>
+      <c r="B765">
+        <f t="shared" si="23"/>
+        <v>153</v>
+      </c>
+      <c r="C765">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="D765">
+        <v>9026</v>
+      </c>
+      <c r="E765" s="1">
+        <f>IF(C765=1,VLOOKUP(B765,balance!$K:$P,2,FALSE),IF(C765=2,VLOOKUP(B765,balance!$K:$P,3,FALSE),IF(C765=3,VLOOKUP(B765,balance!$K:$P,4,FALSE),IF(C765=4,VLOOKUP(B765,balance!$K:$P,5,FALSE),IF(C765=5,VLOOKUP(B765-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4050</v>
+      </c>
+      <c r="F765">
+        <v>53</v>
+      </c>
+      <c r="G765">
+        <f>IF(C765=1,VLOOKUP(FoxFire!B765,balance!$U:$Z,2,FALSE),IF(C765=2,VLOOKUP(B765,balance!$U:$Z,3,FALSE),IF(C765=3,VLOOKUP(B765,balance!$U:$Z,4,FALSE),IF(C765=4,VLOOKUP(B765,balance!$U:$Z,5,FALSE),IF(C765=5,VLOOKUP(B765-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="H765">
+        <v>2</v>
+      </c>
+      <c r="I765" s="1">
+        <f>IF(C765=1,VLOOKUP(FoxFire!B765,balance!$AF:$AJ,2,FALSE),IF(C765=2,VLOOKUP(B765,balance!$AF:$AJ,3,FALSE),IF(C765=3,VLOOKUP(B765,balance!$AF:$AJ,4,FALSE),IF(C765=4,VLOOKUP(B765,balance!$AF:$AJ,5,FALSE),IF(C765=5,VLOOKUP(B765,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1560000000000</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>764</v>
+      </c>
+      <c r="B766">
+        <f t="shared" si="23"/>
+        <v>154</v>
+      </c>
+      <c r="C766">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="D766">
+        <v>9026</v>
+      </c>
+      <c r="E766" s="1">
+        <f>IF(C766=1,VLOOKUP(B766,balance!$K:$P,2,FALSE),IF(C766=2,VLOOKUP(B766,balance!$K:$P,3,FALSE),IF(C766=3,VLOOKUP(B766,balance!$K:$P,4,FALSE),IF(C766=4,VLOOKUP(B766,balance!$K:$P,5,FALSE),IF(C766=5,VLOOKUP(B766-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>127170</v>
+      </c>
+      <c r="F766">
+        <v>53</v>
+      </c>
+      <c r="G766">
+        <f>IF(C766=1,VLOOKUP(FoxFire!B766,balance!$U:$Z,2,FALSE),IF(C766=2,VLOOKUP(B766,balance!$U:$Z,3,FALSE),IF(C766=3,VLOOKUP(B766,balance!$U:$Z,4,FALSE),IF(C766=4,VLOOKUP(B766,balance!$U:$Z,5,FALSE),IF(C766=5,VLOOKUP(B766-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>221.49639999999999</v>
+      </c>
+      <c r="H766">
+        <v>2</v>
+      </c>
+      <c r="I766" s="1">
+        <f>IF(C766=1,VLOOKUP(FoxFire!B766,balance!$AF:$AJ,2,FALSE),IF(C766=2,VLOOKUP(B766,balance!$AF:$AJ,3,FALSE),IF(C766=3,VLOOKUP(B766,balance!$AF:$AJ,4,FALSE),IF(C766=4,VLOOKUP(B766,balance!$AF:$AJ,5,FALSE),IF(C766=5,VLOOKUP(B766,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6300000000000</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>765</v>
+      </c>
+      <c r="B767">
+        <f t="shared" si="23"/>
+        <v>154</v>
+      </c>
+      <c r="C767">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D767">
+        <v>9026</v>
+      </c>
+      <c r="E767" s="1">
+        <f>IF(C767=1,VLOOKUP(B767,balance!$K:$P,2,FALSE),IF(C767=2,VLOOKUP(B767,balance!$K:$P,3,FALSE),IF(C767=3,VLOOKUP(B767,balance!$K:$P,4,FALSE),IF(C767=4,VLOOKUP(B767,balance!$K:$P,5,FALSE),IF(C767=5,VLOOKUP(B767-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4075</v>
+      </c>
+      <c r="F767">
+        <v>53</v>
+      </c>
+      <c r="G767">
+        <f>IF(C767=1,VLOOKUP(FoxFire!B767,balance!$U:$Z,2,FALSE),IF(C767=2,VLOOKUP(B767,balance!$U:$Z,3,FALSE),IF(C767=3,VLOOKUP(B767,balance!$U:$Z,4,FALSE),IF(C767=4,VLOOKUP(B767,balance!$U:$Z,5,FALSE),IF(C767=5,VLOOKUP(B767-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767" s="1">
+        <f>IF(C767=1,VLOOKUP(FoxFire!B767,balance!$AF:$AJ,2,FALSE),IF(C767=2,VLOOKUP(B767,balance!$AF:$AJ,3,FALSE),IF(C767=3,VLOOKUP(B767,balance!$AF:$AJ,4,FALSE),IF(C767=4,VLOOKUP(B767,balance!$AF:$AJ,5,FALSE),IF(C767=5,VLOOKUP(B767,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1575000000000</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>766</v>
+      </c>
+      <c r="B768">
+        <f t="shared" si="23"/>
+        <v>154</v>
+      </c>
+      <c r="C768">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="D768">
+        <v>9026</v>
+      </c>
+      <c r="E768" s="1">
+        <f>IF(C768=1,VLOOKUP(B768,balance!$K:$P,2,FALSE),IF(C768=2,VLOOKUP(B768,balance!$K:$P,3,FALSE),IF(C768=3,VLOOKUP(B768,balance!$K:$P,4,FALSE),IF(C768=4,VLOOKUP(B768,balance!$K:$P,5,FALSE),IF(C768=5,VLOOKUP(B768-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4075</v>
+      </c>
+      <c r="F768">
+        <v>53</v>
+      </c>
+      <c r="G768">
+        <f>IF(C768=1,VLOOKUP(FoxFire!B768,balance!$U:$Z,2,FALSE),IF(C768=2,VLOOKUP(B768,balance!$U:$Z,3,FALSE),IF(C768=3,VLOOKUP(B768,balance!$U:$Z,4,FALSE),IF(C768=4,VLOOKUP(B768,balance!$U:$Z,5,FALSE),IF(C768=5,VLOOKUP(B768-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="H768">
+        <v>2</v>
+      </c>
+      <c r="I768" s="1">
+        <f>IF(C768=1,VLOOKUP(FoxFire!B768,balance!$AF:$AJ,2,FALSE),IF(C768=2,VLOOKUP(B768,balance!$AF:$AJ,3,FALSE),IF(C768=3,VLOOKUP(B768,balance!$AF:$AJ,4,FALSE),IF(C768=4,VLOOKUP(B768,balance!$AF:$AJ,5,FALSE),IF(C768=5,VLOOKUP(B768,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1575000000000</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>767</v>
+      </c>
+      <c r="B769">
+        <f t="shared" si="23"/>
+        <v>154</v>
+      </c>
+      <c r="C769">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="D769">
+        <v>9026</v>
+      </c>
+      <c r="E769" s="1">
+        <f>IF(C769=1,VLOOKUP(B769,balance!$K:$P,2,FALSE),IF(C769=2,VLOOKUP(B769,balance!$K:$P,3,FALSE),IF(C769=3,VLOOKUP(B769,balance!$K:$P,4,FALSE),IF(C769=4,VLOOKUP(B769,balance!$K:$P,5,FALSE),IF(C769=5,VLOOKUP(B769-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4075</v>
+      </c>
+      <c r="F769">
+        <v>53</v>
+      </c>
+      <c r="G769">
+        <f>IF(C769=1,VLOOKUP(FoxFire!B769,balance!$U:$Z,2,FALSE),IF(C769=2,VLOOKUP(B769,balance!$U:$Z,3,FALSE),IF(C769=3,VLOOKUP(B769,balance!$U:$Z,4,FALSE),IF(C769=4,VLOOKUP(B769,balance!$U:$Z,5,FALSE),IF(C769=5,VLOOKUP(B769-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="H769">
+        <v>2</v>
+      </c>
+      <c r="I769" s="1">
+        <f>IF(C769=1,VLOOKUP(FoxFire!B769,balance!$AF:$AJ,2,FALSE),IF(C769=2,VLOOKUP(B769,balance!$AF:$AJ,3,FALSE),IF(C769=3,VLOOKUP(B769,balance!$AF:$AJ,4,FALSE),IF(C769=4,VLOOKUP(B769,balance!$AF:$AJ,5,FALSE),IF(C769=5,VLOOKUP(B769,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1575000000000</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>768</v>
+      </c>
+      <c r="B770">
+        <f t="shared" si="23"/>
+        <v>154</v>
+      </c>
+      <c r="C770">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="D770">
+        <v>9026</v>
+      </c>
+      <c r="E770" s="1">
+        <f>IF(C770=1,VLOOKUP(B770,balance!$K:$P,2,FALSE),IF(C770=2,VLOOKUP(B770,balance!$K:$P,3,FALSE),IF(C770=3,VLOOKUP(B770,balance!$K:$P,4,FALSE),IF(C770=4,VLOOKUP(B770,balance!$K:$P,5,FALSE),IF(C770=5,VLOOKUP(B770-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4075</v>
+      </c>
+      <c r="F770">
+        <v>53</v>
+      </c>
+      <c r="G770">
+        <f>IF(C770=1,VLOOKUP(FoxFire!B770,balance!$U:$Z,2,FALSE),IF(C770=2,VLOOKUP(B770,balance!$U:$Z,3,FALSE),IF(C770=3,VLOOKUP(B770,balance!$U:$Z,4,FALSE),IF(C770=4,VLOOKUP(B770,balance!$U:$Z,5,FALSE),IF(C770=5,VLOOKUP(B770-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770" s="1">
+        <f>IF(C770=1,VLOOKUP(FoxFire!B770,balance!$AF:$AJ,2,FALSE),IF(C770=2,VLOOKUP(B770,balance!$AF:$AJ,3,FALSE),IF(C770=3,VLOOKUP(B770,balance!$AF:$AJ,4,FALSE),IF(C770=4,VLOOKUP(B770,balance!$AF:$AJ,5,FALSE),IF(C770=5,VLOOKUP(B770,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1575000000000</v>
+      </c>
+    </row>
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>769</v>
+      </c>
+      <c r="B771">
+        <f t="shared" si="23"/>
+        <v>155</v>
+      </c>
+      <c r="C771">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="D771">
+        <v>9026</v>
+      </c>
+      <c r="E771" s="1">
+        <f>IF(C771=1,VLOOKUP(B771,balance!$K:$P,2,FALSE),IF(C771=2,VLOOKUP(B771,balance!$K:$P,3,FALSE),IF(C771=3,VLOOKUP(B771,balance!$K:$P,4,FALSE),IF(C771=4,VLOOKUP(B771,balance!$K:$P,5,FALSE),IF(C771=5,VLOOKUP(B771-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>128770</v>
+      </c>
+      <c r="F771">
+        <v>53</v>
+      </c>
+      <c r="G771">
+        <f>IF(C771=1,VLOOKUP(FoxFire!B771,balance!$U:$Z,2,FALSE),IF(C771=2,VLOOKUP(B771,balance!$U:$Z,3,FALSE),IF(C771=3,VLOOKUP(B771,balance!$U:$Z,4,FALSE),IF(C771=4,VLOOKUP(B771,balance!$U:$Z,5,FALSE),IF(C771=5,VLOOKUP(B771-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>226.8228</v>
+      </c>
+      <c r="H771">
+        <v>2</v>
+      </c>
+      <c r="I771" s="1">
+        <f>IF(C771=1,VLOOKUP(FoxFire!B771,balance!$AF:$AJ,2,FALSE),IF(C771=2,VLOOKUP(B771,balance!$AF:$AJ,3,FALSE),IF(C771=3,VLOOKUP(B771,balance!$AF:$AJ,4,FALSE),IF(C771=4,VLOOKUP(B771,balance!$AF:$AJ,5,FALSE),IF(C771=5,VLOOKUP(B771,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6360000000000</v>
+      </c>
+    </row>
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>770</v>
+      </c>
+      <c r="B772">
+        <f t="shared" si="23"/>
+        <v>155</v>
+      </c>
+      <c r="C772">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D772">
+        <v>9026</v>
+      </c>
+      <c r="E772" s="1">
+        <f>IF(C772=1,VLOOKUP(B772,balance!$K:$P,2,FALSE),IF(C772=2,VLOOKUP(B772,balance!$K:$P,3,FALSE),IF(C772=3,VLOOKUP(B772,balance!$K:$P,4,FALSE),IF(C772=4,VLOOKUP(B772,balance!$K:$P,5,FALSE),IF(C772=5,VLOOKUP(B772-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4100</v>
+      </c>
+      <c r="F772">
+        <v>53</v>
+      </c>
+      <c r="G772">
+        <f>IF(C772=1,VLOOKUP(FoxFire!B772,balance!$U:$Z,2,FALSE),IF(C772=2,VLOOKUP(B772,balance!$U:$Z,3,FALSE),IF(C772=3,VLOOKUP(B772,balance!$U:$Z,4,FALSE),IF(C772=4,VLOOKUP(B772,balance!$U:$Z,5,FALSE),IF(C772=5,VLOOKUP(B772-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="H772">
+        <v>2</v>
+      </c>
+      <c r="I772" s="1">
+        <f>IF(C772=1,VLOOKUP(FoxFire!B772,balance!$AF:$AJ,2,FALSE),IF(C772=2,VLOOKUP(B772,balance!$AF:$AJ,3,FALSE),IF(C772=3,VLOOKUP(B772,balance!$AF:$AJ,4,FALSE),IF(C772=4,VLOOKUP(B772,balance!$AF:$AJ,5,FALSE),IF(C772=5,VLOOKUP(B772,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1590000000000</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>771</v>
+      </c>
+      <c r="B773">
+        <f t="shared" si="23"/>
+        <v>155</v>
+      </c>
+      <c r="C773">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="D773">
+        <v>9026</v>
+      </c>
+      <c r="E773" s="1">
+        <f>IF(C773=1,VLOOKUP(B773,balance!$K:$P,2,FALSE),IF(C773=2,VLOOKUP(B773,balance!$K:$P,3,FALSE),IF(C773=3,VLOOKUP(B773,balance!$K:$P,4,FALSE),IF(C773=4,VLOOKUP(B773,balance!$K:$P,5,FALSE),IF(C773=5,VLOOKUP(B773-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4100</v>
+      </c>
+      <c r="F773">
+        <v>53</v>
+      </c>
+      <c r="G773">
+        <f>IF(C773=1,VLOOKUP(FoxFire!B773,balance!$U:$Z,2,FALSE),IF(C773=2,VLOOKUP(B773,balance!$U:$Z,3,FALSE),IF(C773=3,VLOOKUP(B773,balance!$U:$Z,4,FALSE),IF(C773=4,VLOOKUP(B773,balance!$U:$Z,5,FALSE),IF(C773=5,VLOOKUP(B773-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="H773">
+        <v>2</v>
+      </c>
+      <c r="I773" s="1">
+        <f>IF(C773=1,VLOOKUP(FoxFire!B773,balance!$AF:$AJ,2,FALSE),IF(C773=2,VLOOKUP(B773,balance!$AF:$AJ,3,FALSE),IF(C773=3,VLOOKUP(B773,balance!$AF:$AJ,4,FALSE),IF(C773=4,VLOOKUP(B773,balance!$AF:$AJ,5,FALSE),IF(C773=5,VLOOKUP(B773,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1590000000000</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>772</v>
+      </c>
+      <c r="B774">
+        <f t="shared" si="23"/>
+        <v>155</v>
+      </c>
+      <c r="C774">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="D774">
+        <v>9026</v>
+      </c>
+      <c r="E774" s="1">
+        <f>IF(C774=1,VLOOKUP(B774,balance!$K:$P,2,FALSE),IF(C774=2,VLOOKUP(B774,balance!$K:$P,3,FALSE),IF(C774=3,VLOOKUP(B774,balance!$K:$P,4,FALSE),IF(C774=4,VLOOKUP(B774,balance!$K:$P,5,FALSE),IF(C774=5,VLOOKUP(B774-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4100</v>
+      </c>
+      <c r="F774">
+        <v>53</v>
+      </c>
+      <c r="G774">
+        <f>IF(C774=1,VLOOKUP(FoxFire!B774,balance!$U:$Z,2,FALSE),IF(C774=2,VLOOKUP(B774,balance!$U:$Z,3,FALSE),IF(C774=3,VLOOKUP(B774,balance!$U:$Z,4,FALSE),IF(C774=4,VLOOKUP(B774,balance!$U:$Z,5,FALSE),IF(C774=5,VLOOKUP(B774-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="H774">
+        <v>2</v>
+      </c>
+      <c r="I774" s="1">
+        <f>IF(C774=1,VLOOKUP(FoxFire!B774,balance!$AF:$AJ,2,FALSE),IF(C774=2,VLOOKUP(B774,balance!$AF:$AJ,3,FALSE),IF(C774=3,VLOOKUP(B774,balance!$AF:$AJ,4,FALSE),IF(C774=4,VLOOKUP(B774,balance!$AF:$AJ,5,FALSE),IF(C774=5,VLOOKUP(B774,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1590000000000</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>773</v>
+      </c>
+      <c r="B775">
+        <f t="shared" si="23"/>
+        <v>155</v>
+      </c>
+      <c r="C775">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="D775">
+        <v>9026</v>
+      </c>
+      <c r="E775" s="1">
+        <f>IF(C775=1,VLOOKUP(B775,balance!$K:$P,2,FALSE),IF(C775=2,VLOOKUP(B775,balance!$K:$P,3,FALSE),IF(C775=3,VLOOKUP(B775,balance!$K:$P,4,FALSE),IF(C775=4,VLOOKUP(B775,balance!$K:$P,5,FALSE),IF(C775=5,VLOOKUP(B775-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4100</v>
+      </c>
+      <c r="F775">
+        <v>53</v>
+      </c>
+      <c r="G775">
+        <f>IF(C775=1,VLOOKUP(FoxFire!B775,balance!$U:$Z,2,FALSE),IF(C775=2,VLOOKUP(B775,balance!$U:$Z,3,FALSE),IF(C775=3,VLOOKUP(B775,balance!$U:$Z,4,FALSE),IF(C775=4,VLOOKUP(B775,balance!$U:$Z,5,FALSE),IF(C775=5,VLOOKUP(B775-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="H775">
+        <v>2</v>
+      </c>
+      <c r="I775" s="1">
+        <f>IF(C775=1,VLOOKUP(FoxFire!B775,balance!$AF:$AJ,2,FALSE),IF(C775=2,VLOOKUP(B775,balance!$AF:$AJ,3,FALSE),IF(C775=3,VLOOKUP(B775,balance!$AF:$AJ,4,FALSE),IF(C775=4,VLOOKUP(B775,balance!$AF:$AJ,5,FALSE),IF(C775=5,VLOOKUP(B775,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1590000000000</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>774</v>
+      </c>
+      <c r="B776">
+        <f t="shared" si="23"/>
+        <v>156</v>
+      </c>
+      <c r="C776">
+        <f t="shared" ref="C776:C839" si="24">C771</f>
+        <v>5</v>
+      </c>
+      <c r="D776">
+        <v>9026</v>
+      </c>
+      <c r="E776" s="1">
+        <f>IF(C776=1,VLOOKUP(B776,balance!$K:$P,2,FALSE),IF(C776=2,VLOOKUP(B776,balance!$K:$P,3,FALSE),IF(C776=3,VLOOKUP(B776,balance!$K:$P,4,FALSE),IF(C776=4,VLOOKUP(B776,balance!$K:$P,5,FALSE),IF(C776=5,VLOOKUP(B776-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>130380</v>
+      </c>
+      <c r="F776">
+        <v>53</v>
+      </c>
+      <c r="G776">
+        <f>IF(C776=1,VLOOKUP(FoxFire!B776,balance!$U:$Z,2,FALSE),IF(C776=2,VLOOKUP(B776,balance!$U:$Z,3,FALSE),IF(C776=3,VLOOKUP(B776,balance!$U:$Z,4,FALSE),IF(C776=4,VLOOKUP(B776,balance!$U:$Z,5,FALSE),IF(C776=5,VLOOKUP(B776-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>232.27379999999997</v>
+      </c>
+      <c r="H776">
+        <v>2</v>
+      </c>
+      <c r="I776" s="1">
+        <f>IF(C776=1,VLOOKUP(FoxFire!B776,balance!$AF:$AJ,2,FALSE),IF(C776=2,VLOOKUP(B776,balance!$AF:$AJ,3,FALSE),IF(C776=3,VLOOKUP(B776,balance!$AF:$AJ,4,FALSE),IF(C776=4,VLOOKUP(B776,balance!$AF:$AJ,5,FALSE),IF(C776=5,VLOOKUP(B776,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6420000000000</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>775</v>
+      </c>
+      <c r="B777">
+        <f t="shared" si="23"/>
+        <v>156</v>
+      </c>
+      <c r="C777">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D777">
+        <v>9026</v>
+      </c>
+      <c r="E777" s="1">
+        <f>IF(C777=1,VLOOKUP(B777,balance!$K:$P,2,FALSE),IF(C777=2,VLOOKUP(B777,balance!$K:$P,3,FALSE),IF(C777=3,VLOOKUP(B777,balance!$K:$P,4,FALSE),IF(C777=4,VLOOKUP(B777,balance!$K:$P,5,FALSE),IF(C777=5,VLOOKUP(B777-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4125</v>
+      </c>
+      <c r="F777">
+        <v>53</v>
+      </c>
+      <c r="G777">
+        <f>IF(C777=1,VLOOKUP(FoxFire!B777,balance!$U:$Z,2,FALSE),IF(C777=2,VLOOKUP(B777,balance!$U:$Z,3,FALSE),IF(C777=3,VLOOKUP(B777,balance!$U:$Z,4,FALSE),IF(C777=4,VLOOKUP(B777,balance!$U:$Z,5,FALSE),IF(C777=5,VLOOKUP(B777-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="H777">
+        <v>2</v>
+      </c>
+      <c r="I777" s="1">
+        <f>IF(C777=1,VLOOKUP(FoxFire!B777,balance!$AF:$AJ,2,FALSE),IF(C777=2,VLOOKUP(B777,balance!$AF:$AJ,3,FALSE),IF(C777=3,VLOOKUP(B777,balance!$AF:$AJ,4,FALSE),IF(C777=4,VLOOKUP(B777,balance!$AF:$AJ,5,FALSE),IF(C777=5,VLOOKUP(B777,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1605000000000</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>776</v>
+      </c>
+      <c r="B778">
+        <f t="shared" si="23"/>
+        <v>156</v>
+      </c>
+      <c r="C778">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D778">
+        <v>9026</v>
+      </c>
+      <c r="E778" s="1">
+        <f>IF(C778=1,VLOOKUP(B778,balance!$K:$P,2,FALSE),IF(C778=2,VLOOKUP(B778,balance!$K:$P,3,FALSE),IF(C778=3,VLOOKUP(B778,balance!$K:$P,4,FALSE),IF(C778=4,VLOOKUP(B778,balance!$K:$P,5,FALSE),IF(C778=5,VLOOKUP(B778-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4125</v>
+      </c>
+      <c r="F778">
+        <v>53</v>
+      </c>
+      <c r="G778">
+        <f>IF(C778=1,VLOOKUP(FoxFire!B778,balance!$U:$Z,2,FALSE),IF(C778=2,VLOOKUP(B778,balance!$U:$Z,3,FALSE),IF(C778=3,VLOOKUP(B778,balance!$U:$Z,4,FALSE),IF(C778=4,VLOOKUP(B778,balance!$U:$Z,5,FALSE),IF(C778=5,VLOOKUP(B778-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="H778">
+        <v>2</v>
+      </c>
+      <c r="I778" s="1">
+        <f>IF(C778=1,VLOOKUP(FoxFire!B778,balance!$AF:$AJ,2,FALSE),IF(C778=2,VLOOKUP(B778,balance!$AF:$AJ,3,FALSE),IF(C778=3,VLOOKUP(B778,balance!$AF:$AJ,4,FALSE),IF(C778=4,VLOOKUP(B778,balance!$AF:$AJ,5,FALSE),IF(C778=5,VLOOKUP(B778,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1605000000000</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>777</v>
+      </c>
+      <c r="B779">
+        <f t="shared" si="23"/>
+        <v>156</v>
+      </c>
+      <c r="C779">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D779">
+        <v>9026</v>
+      </c>
+      <c r="E779" s="1">
+        <f>IF(C779=1,VLOOKUP(B779,balance!$K:$P,2,FALSE),IF(C779=2,VLOOKUP(B779,balance!$K:$P,3,FALSE),IF(C779=3,VLOOKUP(B779,balance!$K:$P,4,FALSE),IF(C779=4,VLOOKUP(B779,balance!$K:$P,5,FALSE),IF(C779=5,VLOOKUP(B779-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4125</v>
+      </c>
+      <c r="F779">
+        <v>53</v>
+      </c>
+      <c r="G779">
+        <f>IF(C779=1,VLOOKUP(FoxFire!B779,balance!$U:$Z,2,FALSE),IF(C779=2,VLOOKUP(B779,balance!$U:$Z,3,FALSE),IF(C779=3,VLOOKUP(B779,balance!$U:$Z,4,FALSE),IF(C779=4,VLOOKUP(B779,balance!$U:$Z,5,FALSE),IF(C779=5,VLOOKUP(B779-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="H779">
+        <v>2</v>
+      </c>
+      <c r="I779" s="1">
+        <f>IF(C779=1,VLOOKUP(FoxFire!B779,balance!$AF:$AJ,2,FALSE),IF(C779=2,VLOOKUP(B779,balance!$AF:$AJ,3,FALSE),IF(C779=3,VLOOKUP(B779,balance!$AF:$AJ,4,FALSE),IF(C779=4,VLOOKUP(B779,balance!$AF:$AJ,5,FALSE),IF(C779=5,VLOOKUP(B779,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1605000000000</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>778</v>
+      </c>
+      <c r="B780">
+        <f t="shared" ref="B780:B843" si="25">B775+1</f>
+        <v>156</v>
+      </c>
+      <c r="C780">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D780">
+        <v>9026</v>
+      </c>
+      <c r="E780" s="1">
+        <f>IF(C780=1,VLOOKUP(B780,balance!$K:$P,2,FALSE),IF(C780=2,VLOOKUP(B780,balance!$K:$P,3,FALSE),IF(C780=3,VLOOKUP(B780,balance!$K:$P,4,FALSE),IF(C780=4,VLOOKUP(B780,balance!$K:$P,5,FALSE),IF(C780=5,VLOOKUP(B780-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4125</v>
+      </c>
+      <c r="F780">
+        <v>53</v>
+      </c>
+      <c r="G780">
+        <f>IF(C780=1,VLOOKUP(FoxFire!B780,balance!$U:$Z,2,FALSE),IF(C780=2,VLOOKUP(B780,balance!$U:$Z,3,FALSE),IF(C780=3,VLOOKUP(B780,balance!$U:$Z,4,FALSE),IF(C780=4,VLOOKUP(B780,balance!$U:$Z,5,FALSE),IF(C780=5,VLOOKUP(B780-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="H780">
+        <v>2</v>
+      </c>
+      <c r="I780" s="1">
+        <f>IF(C780=1,VLOOKUP(FoxFire!B780,balance!$AF:$AJ,2,FALSE),IF(C780=2,VLOOKUP(B780,balance!$AF:$AJ,3,FALSE),IF(C780=3,VLOOKUP(B780,balance!$AF:$AJ,4,FALSE),IF(C780=4,VLOOKUP(B780,balance!$AF:$AJ,5,FALSE),IF(C780=5,VLOOKUP(B780,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1605000000000</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>779</v>
+      </c>
+      <c r="B781">
+        <f t="shared" si="25"/>
+        <v>157</v>
+      </c>
+      <c r="C781">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D781">
+        <v>9026</v>
+      </c>
+      <c r="E781" s="1">
+        <f>IF(C781=1,VLOOKUP(B781,balance!$K:$P,2,FALSE),IF(C781=2,VLOOKUP(B781,balance!$K:$P,3,FALSE),IF(C781=3,VLOOKUP(B781,balance!$K:$P,4,FALSE),IF(C781=4,VLOOKUP(B781,balance!$K:$P,5,FALSE),IF(C781=5,VLOOKUP(B781-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>132000</v>
+      </c>
+      <c r="F781">
+        <v>53</v>
+      </c>
+      <c r="G781">
+        <f>IF(C781=1,VLOOKUP(FoxFire!B781,balance!$U:$Z,2,FALSE),IF(C781=2,VLOOKUP(B781,balance!$U:$Z,3,FALSE),IF(C781=3,VLOOKUP(B781,balance!$U:$Z,4,FALSE),IF(C781=4,VLOOKUP(B781,balance!$U:$Z,5,FALSE),IF(C781=5,VLOOKUP(B781-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>237.85199999999998</v>
+      </c>
+      <c r="H781">
+        <v>2</v>
+      </c>
+      <c r="I781" s="1">
+        <f>IF(C781=1,VLOOKUP(FoxFire!B781,balance!$AF:$AJ,2,FALSE),IF(C781=2,VLOOKUP(B781,balance!$AF:$AJ,3,FALSE),IF(C781=3,VLOOKUP(B781,balance!$AF:$AJ,4,FALSE),IF(C781=4,VLOOKUP(B781,balance!$AF:$AJ,5,FALSE),IF(C781=5,VLOOKUP(B781,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6480000000000</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>780</v>
+      </c>
+      <c r="B782">
+        <f t="shared" si="25"/>
+        <v>157</v>
+      </c>
+      <c r="C782">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D782">
+        <v>9026</v>
+      </c>
+      <c r="E782" s="1">
+        <f>IF(C782=1,VLOOKUP(B782,balance!$K:$P,2,FALSE),IF(C782=2,VLOOKUP(B782,balance!$K:$P,3,FALSE),IF(C782=3,VLOOKUP(B782,balance!$K:$P,4,FALSE),IF(C782=4,VLOOKUP(B782,balance!$K:$P,5,FALSE),IF(C782=5,VLOOKUP(B782-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4150</v>
+      </c>
+      <c r="F782">
+        <v>53</v>
+      </c>
+      <c r="G782">
+        <f>IF(C782=1,VLOOKUP(FoxFire!B782,balance!$U:$Z,2,FALSE),IF(C782=2,VLOOKUP(B782,balance!$U:$Z,3,FALSE),IF(C782=3,VLOOKUP(B782,balance!$U:$Z,4,FALSE),IF(C782=4,VLOOKUP(B782,balance!$U:$Z,5,FALSE),IF(C782=5,VLOOKUP(B782-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="H782">
+        <v>2</v>
+      </c>
+      <c r="I782" s="1">
+        <f>IF(C782=1,VLOOKUP(FoxFire!B782,balance!$AF:$AJ,2,FALSE),IF(C782=2,VLOOKUP(B782,balance!$AF:$AJ,3,FALSE),IF(C782=3,VLOOKUP(B782,balance!$AF:$AJ,4,FALSE),IF(C782=4,VLOOKUP(B782,balance!$AF:$AJ,5,FALSE),IF(C782=5,VLOOKUP(B782,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1620000000000</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>781</v>
+      </c>
+      <c r="B783">
+        <f t="shared" si="25"/>
+        <v>157</v>
+      </c>
+      <c r="C783">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D783">
+        <v>9026</v>
+      </c>
+      <c r="E783" s="1">
+        <f>IF(C783=1,VLOOKUP(B783,balance!$K:$P,2,FALSE),IF(C783=2,VLOOKUP(B783,balance!$K:$P,3,FALSE),IF(C783=3,VLOOKUP(B783,balance!$K:$P,4,FALSE),IF(C783=4,VLOOKUP(B783,balance!$K:$P,5,FALSE),IF(C783=5,VLOOKUP(B783-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4150</v>
+      </c>
+      <c r="F783">
+        <v>53</v>
+      </c>
+      <c r="G783">
+        <f>IF(C783=1,VLOOKUP(FoxFire!B783,balance!$U:$Z,2,FALSE),IF(C783=2,VLOOKUP(B783,balance!$U:$Z,3,FALSE),IF(C783=3,VLOOKUP(B783,balance!$U:$Z,4,FALSE),IF(C783=4,VLOOKUP(B783,balance!$U:$Z,5,FALSE),IF(C783=5,VLOOKUP(B783-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="H783">
+        <v>2</v>
+      </c>
+      <c r="I783" s="1">
+        <f>IF(C783=1,VLOOKUP(FoxFire!B783,balance!$AF:$AJ,2,FALSE),IF(C783=2,VLOOKUP(B783,balance!$AF:$AJ,3,FALSE),IF(C783=3,VLOOKUP(B783,balance!$AF:$AJ,4,FALSE),IF(C783=4,VLOOKUP(B783,balance!$AF:$AJ,5,FALSE),IF(C783=5,VLOOKUP(B783,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1620000000000</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>782</v>
+      </c>
+      <c r="B784">
+        <f t="shared" si="25"/>
+        <v>157</v>
+      </c>
+      <c r="C784">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D784">
+        <v>9026</v>
+      </c>
+      <c r="E784" s="1">
+        <f>IF(C784=1,VLOOKUP(B784,balance!$K:$P,2,FALSE),IF(C784=2,VLOOKUP(B784,balance!$K:$P,3,FALSE),IF(C784=3,VLOOKUP(B784,balance!$K:$P,4,FALSE),IF(C784=4,VLOOKUP(B784,balance!$K:$P,5,FALSE),IF(C784=5,VLOOKUP(B784-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4150</v>
+      </c>
+      <c r="F784">
+        <v>53</v>
+      </c>
+      <c r="G784">
+        <f>IF(C784=1,VLOOKUP(FoxFire!B784,balance!$U:$Z,2,FALSE),IF(C784=2,VLOOKUP(B784,balance!$U:$Z,3,FALSE),IF(C784=3,VLOOKUP(B784,balance!$U:$Z,4,FALSE),IF(C784=4,VLOOKUP(B784,balance!$U:$Z,5,FALSE),IF(C784=5,VLOOKUP(B784-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="H784">
+        <v>2</v>
+      </c>
+      <c r="I784" s="1">
+        <f>IF(C784=1,VLOOKUP(FoxFire!B784,balance!$AF:$AJ,2,FALSE),IF(C784=2,VLOOKUP(B784,balance!$AF:$AJ,3,FALSE),IF(C784=3,VLOOKUP(B784,balance!$AF:$AJ,4,FALSE),IF(C784=4,VLOOKUP(B784,balance!$AF:$AJ,5,FALSE),IF(C784=5,VLOOKUP(B784,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1620000000000</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>783</v>
+      </c>
+      <c r="B785">
+        <f t="shared" si="25"/>
+        <v>157</v>
+      </c>
+      <c r="C785">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D785">
+        <v>9026</v>
+      </c>
+      <c r="E785" s="1">
+        <f>IF(C785=1,VLOOKUP(B785,balance!$K:$P,2,FALSE),IF(C785=2,VLOOKUP(B785,balance!$K:$P,3,FALSE),IF(C785=3,VLOOKUP(B785,balance!$K:$P,4,FALSE),IF(C785=4,VLOOKUP(B785,balance!$K:$P,5,FALSE),IF(C785=5,VLOOKUP(B785-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4150</v>
+      </c>
+      <c r="F785">
+        <v>53</v>
+      </c>
+      <c r="G785">
+        <f>IF(C785=1,VLOOKUP(FoxFire!B785,balance!$U:$Z,2,FALSE),IF(C785=2,VLOOKUP(B785,balance!$U:$Z,3,FALSE),IF(C785=3,VLOOKUP(B785,balance!$U:$Z,4,FALSE),IF(C785=4,VLOOKUP(B785,balance!$U:$Z,5,FALSE),IF(C785=5,VLOOKUP(B785-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="H785">
+        <v>2</v>
+      </c>
+      <c r="I785" s="1">
+        <f>IF(C785=1,VLOOKUP(FoxFire!B785,balance!$AF:$AJ,2,FALSE),IF(C785=2,VLOOKUP(B785,balance!$AF:$AJ,3,FALSE),IF(C785=3,VLOOKUP(B785,balance!$AF:$AJ,4,FALSE),IF(C785=4,VLOOKUP(B785,balance!$AF:$AJ,5,FALSE),IF(C785=5,VLOOKUP(B785,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1620000000000</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>784</v>
+      </c>
+      <c r="B786">
+        <f t="shared" si="25"/>
+        <v>158</v>
+      </c>
+      <c r="C786">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D786">
+        <v>9026</v>
+      </c>
+      <c r="E786" s="1">
+        <f>IF(C786=1,VLOOKUP(B786,balance!$K:$P,2,FALSE),IF(C786=2,VLOOKUP(B786,balance!$K:$P,3,FALSE),IF(C786=3,VLOOKUP(B786,balance!$K:$P,4,FALSE),IF(C786=4,VLOOKUP(B786,balance!$K:$P,5,FALSE),IF(C786=5,VLOOKUP(B786-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>133630</v>
+      </c>
+      <c r="F786">
+        <v>53</v>
+      </c>
+      <c r="G786">
+        <f>IF(C786=1,VLOOKUP(FoxFire!B786,balance!$U:$Z,2,FALSE),IF(C786=2,VLOOKUP(B786,balance!$U:$Z,3,FALSE),IF(C786=3,VLOOKUP(B786,balance!$U:$Z,4,FALSE),IF(C786=4,VLOOKUP(B786,balance!$U:$Z,5,FALSE),IF(C786=5,VLOOKUP(B786-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>243.56039999999996</v>
+      </c>
+      <c r="H786">
+        <v>2</v>
+      </c>
+      <c r="I786" s="1">
+        <f>IF(C786=1,VLOOKUP(FoxFire!B786,balance!$AF:$AJ,2,FALSE),IF(C786=2,VLOOKUP(B786,balance!$AF:$AJ,3,FALSE),IF(C786=3,VLOOKUP(B786,balance!$AF:$AJ,4,FALSE),IF(C786=4,VLOOKUP(B786,balance!$AF:$AJ,5,FALSE),IF(C786=5,VLOOKUP(B786,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6540000000000</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>785</v>
+      </c>
+      <c r="B787">
+        <f t="shared" si="25"/>
+        <v>158</v>
+      </c>
+      <c r="C787">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D787">
+        <v>9026</v>
+      </c>
+      <c r="E787" s="1">
+        <f>IF(C787=1,VLOOKUP(B787,balance!$K:$P,2,FALSE),IF(C787=2,VLOOKUP(B787,balance!$K:$P,3,FALSE),IF(C787=3,VLOOKUP(B787,balance!$K:$P,4,FALSE),IF(C787=4,VLOOKUP(B787,balance!$K:$P,5,FALSE),IF(C787=5,VLOOKUP(B787-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4175</v>
+      </c>
+      <c r="F787">
+        <v>53</v>
+      </c>
+      <c r="G787">
+        <f>IF(C787=1,VLOOKUP(FoxFire!B787,balance!$U:$Z,2,FALSE),IF(C787=2,VLOOKUP(B787,balance!$U:$Z,3,FALSE),IF(C787=3,VLOOKUP(B787,balance!$U:$Z,4,FALSE),IF(C787=4,VLOOKUP(B787,balance!$U:$Z,5,FALSE),IF(C787=5,VLOOKUP(B787-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5700000000000002E-3</v>
+      </c>
+      <c r="H787">
+        <v>2</v>
+      </c>
+      <c r="I787" s="1">
+        <f>IF(C787=1,VLOOKUP(FoxFire!B787,balance!$AF:$AJ,2,FALSE),IF(C787=2,VLOOKUP(B787,balance!$AF:$AJ,3,FALSE),IF(C787=3,VLOOKUP(B787,balance!$AF:$AJ,4,FALSE),IF(C787=4,VLOOKUP(B787,balance!$AF:$AJ,5,FALSE),IF(C787=5,VLOOKUP(B787,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1635000000000</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>786</v>
+      </c>
+      <c r="B788">
+        <f t="shared" si="25"/>
+        <v>158</v>
+      </c>
+      <c r="C788">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D788">
+        <v>9026</v>
+      </c>
+      <c r="E788" s="1">
+        <f>IF(C788=1,VLOOKUP(B788,balance!$K:$P,2,FALSE),IF(C788=2,VLOOKUP(B788,balance!$K:$P,3,FALSE),IF(C788=3,VLOOKUP(B788,balance!$K:$P,4,FALSE),IF(C788=4,VLOOKUP(B788,balance!$K:$P,5,FALSE),IF(C788=5,VLOOKUP(B788-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4175</v>
+      </c>
+      <c r="F788">
+        <v>53</v>
+      </c>
+      <c r="G788">
+        <f>IF(C788=1,VLOOKUP(FoxFire!B788,balance!$U:$Z,2,FALSE),IF(C788=2,VLOOKUP(B788,balance!$U:$Z,3,FALSE),IF(C788=3,VLOOKUP(B788,balance!$U:$Z,4,FALSE),IF(C788=4,VLOOKUP(B788,balance!$U:$Z,5,FALSE),IF(C788=5,VLOOKUP(B788-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5700000000000002E-3</v>
+      </c>
+      <c r="H788">
+        <v>2</v>
+      </c>
+      <c r="I788" s="1">
+        <f>IF(C788=1,VLOOKUP(FoxFire!B788,balance!$AF:$AJ,2,FALSE),IF(C788=2,VLOOKUP(B788,balance!$AF:$AJ,3,FALSE),IF(C788=3,VLOOKUP(B788,balance!$AF:$AJ,4,FALSE),IF(C788=4,VLOOKUP(B788,balance!$AF:$AJ,5,FALSE),IF(C788=5,VLOOKUP(B788,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1635000000000</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>787</v>
+      </c>
+      <c r="B789">
+        <f t="shared" si="25"/>
+        <v>158</v>
+      </c>
+      <c r="C789">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D789">
+        <v>9026</v>
+      </c>
+      <c r="E789" s="1">
+        <f>IF(C789=1,VLOOKUP(B789,balance!$K:$P,2,FALSE),IF(C789=2,VLOOKUP(B789,balance!$K:$P,3,FALSE),IF(C789=3,VLOOKUP(B789,balance!$K:$P,4,FALSE),IF(C789=4,VLOOKUP(B789,balance!$K:$P,5,FALSE),IF(C789=5,VLOOKUP(B789-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4175</v>
+      </c>
+      <c r="F789">
+        <v>53</v>
+      </c>
+      <c r="G789">
+        <f>IF(C789=1,VLOOKUP(FoxFire!B789,balance!$U:$Z,2,FALSE),IF(C789=2,VLOOKUP(B789,balance!$U:$Z,3,FALSE),IF(C789=3,VLOOKUP(B789,balance!$U:$Z,4,FALSE),IF(C789=4,VLOOKUP(B789,balance!$U:$Z,5,FALSE),IF(C789=5,VLOOKUP(B789-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5700000000000002E-3</v>
+      </c>
+      <c r="H789">
+        <v>2</v>
+      </c>
+      <c r="I789" s="1">
+        <f>IF(C789=1,VLOOKUP(FoxFire!B789,balance!$AF:$AJ,2,FALSE),IF(C789=2,VLOOKUP(B789,balance!$AF:$AJ,3,FALSE),IF(C789=3,VLOOKUP(B789,balance!$AF:$AJ,4,FALSE),IF(C789=4,VLOOKUP(B789,balance!$AF:$AJ,5,FALSE),IF(C789=5,VLOOKUP(B789,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1635000000000</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>788</v>
+      </c>
+      <c r="B790">
+        <f t="shared" si="25"/>
+        <v>158</v>
+      </c>
+      <c r="C790">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D790">
+        <v>9026</v>
+      </c>
+      <c r="E790" s="1">
+        <f>IF(C790=1,VLOOKUP(B790,balance!$K:$P,2,FALSE),IF(C790=2,VLOOKUP(B790,balance!$K:$P,3,FALSE),IF(C790=3,VLOOKUP(B790,balance!$K:$P,4,FALSE),IF(C790=4,VLOOKUP(B790,balance!$K:$P,5,FALSE),IF(C790=5,VLOOKUP(B790-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4175</v>
+      </c>
+      <c r="F790">
+        <v>53</v>
+      </c>
+      <c r="G790">
+        <f>IF(C790=1,VLOOKUP(FoxFire!B790,balance!$U:$Z,2,FALSE),IF(C790=2,VLOOKUP(B790,balance!$U:$Z,3,FALSE),IF(C790=3,VLOOKUP(B790,balance!$U:$Z,4,FALSE),IF(C790=4,VLOOKUP(B790,balance!$U:$Z,5,FALSE),IF(C790=5,VLOOKUP(B790-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5700000000000002E-3</v>
+      </c>
+      <c r="H790">
+        <v>2</v>
+      </c>
+      <c r="I790" s="1">
+        <f>IF(C790=1,VLOOKUP(FoxFire!B790,balance!$AF:$AJ,2,FALSE),IF(C790=2,VLOOKUP(B790,balance!$AF:$AJ,3,FALSE),IF(C790=3,VLOOKUP(B790,balance!$AF:$AJ,4,FALSE),IF(C790=4,VLOOKUP(B790,balance!$AF:$AJ,5,FALSE),IF(C790=5,VLOOKUP(B790,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1635000000000</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>789</v>
+      </c>
+      <c r="B791">
+        <f t="shared" si="25"/>
+        <v>159</v>
+      </c>
+      <c r="C791">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D791">
+        <v>9026</v>
+      </c>
+      <c r="E791" s="1">
+        <f>IF(C791=1,VLOOKUP(B791,balance!$K:$P,2,FALSE),IF(C791=2,VLOOKUP(B791,balance!$K:$P,3,FALSE),IF(C791=3,VLOOKUP(B791,balance!$K:$P,4,FALSE),IF(C791=4,VLOOKUP(B791,balance!$K:$P,5,FALSE),IF(C791=5,VLOOKUP(B791-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>135270</v>
+      </c>
+      <c r="F791">
+        <v>53</v>
+      </c>
+      <c r="G791">
+        <f>IF(C791=1,VLOOKUP(FoxFire!B791,balance!$U:$Z,2,FALSE),IF(C791=2,VLOOKUP(B791,balance!$U:$Z,3,FALSE),IF(C791=3,VLOOKUP(B791,balance!$U:$Z,4,FALSE),IF(C791=4,VLOOKUP(B791,balance!$U:$Z,5,FALSE),IF(C791=5,VLOOKUP(B791-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>249.40209999999999</v>
+      </c>
+      <c r="H791">
+        <v>2</v>
+      </c>
+      <c r="I791" s="1">
+        <f>IF(C791=1,VLOOKUP(FoxFire!B791,balance!$AF:$AJ,2,FALSE),IF(C791=2,VLOOKUP(B791,balance!$AF:$AJ,3,FALSE),IF(C791=3,VLOOKUP(B791,balance!$AF:$AJ,4,FALSE),IF(C791=4,VLOOKUP(B791,balance!$AF:$AJ,5,FALSE),IF(C791=5,VLOOKUP(B791,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6600000000000</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>790</v>
+      </c>
+      <c r="B792">
+        <f t="shared" si="25"/>
+        <v>159</v>
+      </c>
+      <c r="C792">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D792">
+        <v>9026</v>
+      </c>
+      <c r="E792" s="1">
+        <f>IF(C792=1,VLOOKUP(B792,balance!$K:$P,2,FALSE),IF(C792=2,VLOOKUP(B792,balance!$K:$P,3,FALSE),IF(C792=3,VLOOKUP(B792,balance!$K:$P,4,FALSE),IF(C792=4,VLOOKUP(B792,balance!$K:$P,5,FALSE),IF(C792=5,VLOOKUP(B792-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4200</v>
+      </c>
+      <c r="F792">
+        <v>53</v>
+      </c>
+      <c r="G792">
+        <f>IF(C792=1,VLOOKUP(FoxFire!B792,balance!$U:$Z,2,FALSE),IF(C792=2,VLOOKUP(B792,balance!$U:$Z,3,FALSE),IF(C792=3,VLOOKUP(B792,balance!$U:$Z,4,FALSE),IF(C792=4,VLOOKUP(B792,balance!$U:$Z,5,FALSE),IF(C792=5,VLOOKUP(B792-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5800000000000003E-3</v>
+      </c>
+      <c r="H792">
+        <v>2</v>
+      </c>
+      <c r="I792" s="1">
+        <f>IF(C792=1,VLOOKUP(FoxFire!B792,balance!$AF:$AJ,2,FALSE),IF(C792=2,VLOOKUP(B792,balance!$AF:$AJ,3,FALSE),IF(C792=3,VLOOKUP(B792,balance!$AF:$AJ,4,FALSE),IF(C792=4,VLOOKUP(B792,balance!$AF:$AJ,5,FALSE),IF(C792=5,VLOOKUP(B792,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1650000000000</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>791</v>
+      </c>
+      <c r="B793">
+        <f t="shared" si="25"/>
+        <v>159</v>
+      </c>
+      <c r="C793">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D793">
+        <v>9026</v>
+      </c>
+      <c r="E793" s="1">
+        <f>IF(C793=1,VLOOKUP(B793,balance!$K:$P,2,FALSE),IF(C793=2,VLOOKUP(B793,balance!$K:$P,3,FALSE),IF(C793=3,VLOOKUP(B793,balance!$K:$P,4,FALSE),IF(C793=4,VLOOKUP(B793,balance!$K:$P,5,FALSE),IF(C793=5,VLOOKUP(B793-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4200</v>
+      </c>
+      <c r="F793">
+        <v>53</v>
+      </c>
+      <c r="G793">
+        <f>IF(C793=1,VLOOKUP(FoxFire!B793,balance!$U:$Z,2,FALSE),IF(C793=2,VLOOKUP(B793,balance!$U:$Z,3,FALSE),IF(C793=3,VLOOKUP(B793,balance!$U:$Z,4,FALSE),IF(C793=4,VLOOKUP(B793,balance!$U:$Z,5,FALSE),IF(C793=5,VLOOKUP(B793-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5800000000000003E-3</v>
+      </c>
+      <c r="H793">
+        <v>2</v>
+      </c>
+      <c r="I793" s="1">
+        <f>IF(C793=1,VLOOKUP(FoxFire!B793,balance!$AF:$AJ,2,FALSE),IF(C793=2,VLOOKUP(B793,balance!$AF:$AJ,3,FALSE),IF(C793=3,VLOOKUP(B793,balance!$AF:$AJ,4,FALSE),IF(C793=4,VLOOKUP(B793,balance!$AF:$AJ,5,FALSE),IF(C793=5,VLOOKUP(B793,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1650000000000</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>792</v>
+      </c>
+      <c r="B794">
+        <f t="shared" si="25"/>
+        <v>159</v>
+      </c>
+      <c r="C794">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D794">
+        <v>9026</v>
+      </c>
+      <c r="E794" s="1">
+        <f>IF(C794=1,VLOOKUP(B794,balance!$K:$P,2,FALSE),IF(C794=2,VLOOKUP(B794,balance!$K:$P,3,FALSE),IF(C794=3,VLOOKUP(B794,balance!$K:$P,4,FALSE),IF(C794=4,VLOOKUP(B794,balance!$K:$P,5,FALSE),IF(C794=5,VLOOKUP(B794-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4200</v>
+      </c>
+      <c r="F794">
+        <v>53</v>
+      </c>
+      <c r="G794">
+        <f>IF(C794=1,VLOOKUP(FoxFire!B794,balance!$U:$Z,2,FALSE),IF(C794=2,VLOOKUP(B794,balance!$U:$Z,3,FALSE),IF(C794=3,VLOOKUP(B794,balance!$U:$Z,4,FALSE),IF(C794=4,VLOOKUP(B794,balance!$U:$Z,5,FALSE),IF(C794=5,VLOOKUP(B794-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5800000000000003E-3</v>
+      </c>
+      <c r="H794">
+        <v>2</v>
+      </c>
+      <c r="I794" s="1">
+        <f>IF(C794=1,VLOOKUP(FoxFire!B794,balance!$AF:$AJ,2,FALSE),IF(C794=2,VLOOKUP(B794,balance!$AF:$AJ,3,FALSE),IF(C794=3,VLOOKUP(B794,balance!$AF:$AJ,4,FALSE),IF(C794=4,VLOOKUP(B794,balance!$AF:$AJ,5,FALSE),IF(C794=5,VLOOKUP(B794,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1650000000000</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795">
+        <f t="shared" si="25"/>
+        <v>159</v>
+      </c>
+      <c r="C795">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D795">
+        <v>9026</v>
+      </c>
+      <c r="E795" s="1">
+        <f>IF(C795=1,VLOOKUP(B795,balance!$K:$P,2,FALSE),IF(C795=2,VLOOKUP(B795,balance!$K:$P,3,FALSE),IF(C795=3,VLOOKUP(B795,balance!$K:$P,4,FALSE),IF(C795=4,VLOOKUP(B795,balance!$K:$P,5,FALSE),IF(C795=5,VLOOKUP(B795-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4200</v>
+      </c>
+      <c r="F795">
+        <v>53</v>
+      </c>
+      <c r="G795">
+        <f>IF(C795=1,VLOOKUP(FoxFire!B795,balance!$U:$Z,2,FALSE),IF(C795=2,VLOOKUP(B795,balance!$U:$Z,3,FALSE),IF(C795=3,VLOOKUP(B795,balance!$U:$Z,4,FALSE),IF(C795=4,VLOOKUP(B795,balance!$U:$Z,5,FALSE),IF(C795=5,VLOOKUP(B795-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5800000000000003E-3</v>
+      </c>
+      <c r="H795">
+        <v>2</v>
+      </c>
+      <c r="I795" s="1">
+        <f>IF(C795=1,VLOOKUP(FoxFire!B795,balance!$AF:$AJ,2,FALSE),IF(C795=2,VLOOKUP(B795,balance!$AF:$AJ,3,FALSE),IF(C795=3,VLOOKUP(B795,balance!$AF:$AJ,4,FALSE),IF(C795=4,VLOOKUP(B795,balance!$AF:$AJ,5,FALSE),IF(C795=5,VLOOKUP(B795,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1650000000000</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="C796">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D796">
+        <v>9026</v>
+      </c>
+      <c r="E796" s="1">
+        <f>IF(C796=1,VLOOKUP(B796,balance!$K:$P,2,FALSE),IF(C796=2,VLOOKUP(B796,balance!$K:$P,3,FALSE),IF(C796=3,VLOOKUP(B796,balance!$K:$P,4,FALSE),IF(C796=4,VLOOKUP(B796,balance!$K:$P,5,FALSE),IF(C796=5,VLOOKUP(B796-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>136920</v>
+      </c>
+      <c r="F796">
+        <v>53</v>
+      </c>
+      <c r="G796">
+        <f>IF(C796=1,VLOOKUP(FoxFire!B796,balance!$U:$Z,2,FALSE),IF(C796=2,VLOOKUP(B796,balance!$U:$Z,3,FALSE),IF(C796=3,VLOOKUP(B796,balance!$U:$Z,4,FALSE),IF(C796=4,VLOOKUP(B796,balance!$U:$Z,5,FALSE),IF(C796=5,VLOOKUP(B796-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>255.38</v>
+      </c>
+      <c r="H796">
+        <v>2</v>
+      </c>
+      <c r="I796" s="1">
+        <f>IF(C796=1,VLOOKUP(FoxFire!B796,balance!$AF:$AJ,2,FALSE),IF(C796=2,VLOOKUP(B796,balance!$AF:$AJ,3,FALSE),IF(C796=3,VLOOKUP(B796,balance!$AF:$AJ,4,FALSE),IF(C796=4,VLOOKUP(B796,balance!$AF:$AJ,5,FALSE),IF(C796=5,VLOOKUP(B796,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6660000000000</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>795</v>
+      </c>
+      <c r="B797">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="C797">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D797">
+        <v>9026</v>
+      </c>
+      <c r="E797" s="1">
+        <f>IF(C797=1,VLOOKUP(B797,balance!$K:$P,2,FALSE),IF(C797=2,VLOOKUP(B797,balance!$K:$P,3,FALSE),IF(C797=3,VLOOKUP(B797,balance!$K:$P,4,FALSE),IF(C797=4,VLOOKUP(B797,balance!$K:$P,5,FALSE),IF(C797=5,VLOOKUP(B797-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4225</v>
+      </c>
+      <c r="F797">
+        <v>53</v>
+      </c>
+      <c r="G797">
+        <f>IF(C797=1,VLOOKUP(FoxFire!B797,balance!$U:$Z,2,FALSE),IF(C797=2,VLOOKUP(B797,balance!$U:$Z,3,FALSE),IF(C797=3,VLOOKUP(B797,balance!$U:$Z,4,FALSE),IF(C797=4,VLOOKUP(B797,balance!$U:$Z,5,FALSE),IF(C797=5,VLOOKUP(B797-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5900000000000003E-3</v>
+      </c>
+      <c r="H797">
+        <v>2</v>
+      </c>
+      <c r="I797" s="1">
+        <f>IF(C797=1,VLOOKUP(FoxFire!B797,balance!$AF:$AJ,2,FALSE),IF(C797=2,VLOOKUP(B797,balance!$AF:$AJ,3,FALSE),IF(C797=3,VLOOKUP(B797,balance!$AF:$AJ,4,FALSE),IF(C797=4,VLOOKUP(B797,balance!$AF:$AJ,5,FALSE),IF(C797=5,VLOOKUP(B797,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1665000000000</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>796</v>
+      </c>
+      <c r="B798">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="C798">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D798">
+        <v>9026</v>
+      </c>
+      <c r="E798" s="1">
+        <f>IF(C798=1,VLOOKUP(B798,balance!$K:$P,2,FALSE),IF(C798=2,VLOOKUP(B798,balance!$K:$P,3,FALSE),IF(C798=3,VLOOKUP(B798,balance!$K:$P,4,FALSE),IF(C798=4,VLOOKUP(B798,balance!$K:$P,5,FALSE),IF(C798=5,VLOOKUP(B798-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4225</v>
+      </c>
+      <c r="F798">
+        <v>53</v>
+      </c>
+      <c r="G798">
+        <f>IF(C798=1,VLOOKUP(FoxFire!B798,balance!$U:$Z,2,FALSE),IF(C798=2,VLOOKUP(B798,balance!$U:$Z,3,FALSE),IF(C798=3,VLOOKUP(B798,balance!$U:$Z,4,FALSE),IF(C798=4,VLOOKUP(B798,balance!$U:$Z,5,FALSE),IF(C798=5,VLOOKUP(B798-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5900000000000003E-3</v>
+      </c>
+      <c r="H798">
+        <v>2</v>
+      </c>
+      <c r="I798" s="1">
+        <f>IF(C798=1,VLOOKUP(FoxFire!B798,balance!$AF:$AJ,2,FALSE),IF(C798=2,VLOOKUP(B798,balance!$AF:$AJ,3,FALSE),IF(C798=3,VLOOKUP(B798,balance!$AF:$AJ,4,FALSE),IF(C798=4,VLOOKUP(B798,balance!$AF:$AJ,5,FALSE),IF(C798=5,VLOOKUP(B798,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1665000000000</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>797</v>
+      </c>
+      <c r="B799">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="C799">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D799">
+        <v>9026</v>
+      </c>
+      <c r="E799" s="1">
+        <f>IF(C799=1,VLOOKUP(B799,balance!$K:$P,2,FALSE),IF(C799=2,VLOOKUP(B799,balance!$K:$P,3,FALSE),IF(C799=3,VLOOKUP(B799,balance!$K:$P,4,FALSE),IF(C799=4,VLOOKUP(B799,balance!$K:$P,5,FALSE),IF(C799=5,VLOOKUP(B799-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4225</v>
+      </c>
+      <c r="F799">
+        <v>53</v>
+      </c>
+      <c r="G799">
+        <f>IF(C799=1,VLOOKUP(FoxFire!B799,balance!$U:$Z,2,FALSE),IF(C799=2,VLOOKUP(B799,balance!$U:$Z,3,FALSE),IF(C799=3,VLOOKUP(B799,balance!$U:$Z,4,FALSE),IF(C799=4,VLOOKUP(B799,balance!$U:$Z,5,FALSE),IF(C799=5,VLOOKUP(B799-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5900000000000003E-3</v>
+      </c>
+      <c r="H799">
+        <v>2</v>
+      </c>
+      <c r="I799" s="1">
+        <f>IF(C799=1,VLOOKUP(FoxFire!B799,balance!$AF:$AJ,2,FALSE),IF(C799=2,VLOOKUP(B799,balance!$AF:$AJ,3,FALSE),IF(C799=3,VLOOKUP(B799,balance!$AF:$AJ,4,FALSE),IF(C799=4,VLOOKUP(B799,balance!$AF:$AJ,5,FALSE),IF(C799=5,VLOOKUP(B799,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1665000000000</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>798</v>
+      </c>
+      <c r="B800">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="C800">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D800">
+        <v>9026</v>
+      </c>
+      <c r="E800" s="1">
+        <f>IF(C800=1,VLOOKUP(B800,balance!$K:$P,2,FALSE),IF(C800=2,VLOOKUP(B800,balance!$K:$P,3,FALSE),IF(C800=3,VLOOKUP(B800,balance!$K:$P,4,FALSE),IF(C800=4,VLOOKUP(B800,balance!$K:$P,5,FALSE),IF(C800=5,VLOOKUP(B800-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4225</v>
+      </c>
+      <c r="F800">
+        <v>53</v>
+      </c>
+      <c r="G800">
+        <f>IF(C800=1,VLOOKUP(FoxFire!B800,balance!$U:$Z,2,FALSE),IF(C800=2,VLOOKUP(B800,balance!$U:$Z,3,FALSE),IF(C800=3,VLOOKUP(B800,balance!$U:$Z,4,FALSE),IF(C800=4,VLOOKUP(B800,balance!$U:$Z,5,FALSE),IF(C800=5,VLOOKUP(B800-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5900000000000003E-3</v>
+      </c>
+      <c r="H800">
+        <v>2</v>
+      </c>
+      <c r="I800" s="1">
+        <f>IF(C800=1,VLOOKUP(FoxFire!B800,balance!$AF:$AJ,2,FALSE),IF(C800=2,VLOOKUP(B800,balance!$AF:$AJ,3,FALSE),IF(C800=3,VLOOKUP(B800,balance!$AF:$AJ,4,FALSE),IF(C800=4,VLOOKUP(B800,balance!$AF:$AJ,5,FALSE),IF(C800=5,VLOOKUP(B800,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1665000000000</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>799</v>
+      </c>
+      <c r="B801">
+        <f t="shared" si="25"/>
+        <v>161</v>
+      </c>
+      <c r="C801">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D801">
+        <v>9026</v>
+      </c>
+      <c r="E801" s="1">
+        <f>IF(C801=1,VLOOKUP(B801,balance!$K:$P,2,FALSE),IF(C801=2,VLOOKUP(B801,balance!$K:$P,3,FALSE),IF(C801=3,VLOOKUP(B801,balance!$K:$P,4,FALSE),IF(C801=4,VLOOKUP(B801,balance!$K:$P,5,FALSE),IF(C801=5,VLOOKUP(B801-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>138580</v>
+      </c>
+      <c r="F801">
+        <v>53</v>
+      </c>
+      <c r="G801">
+        <f>IF(C801=1,VLOOKUP(FoxFire!B801,balance!$U:$Z,2,FALSE),IF(C801=2,VLOOKUP(B801,balance!$U:$Z,3,FALSE),IF(C801=3,VLOOKUP(B801,balance!$U:$Z,4,FALSE),IF(C801=4,VLOOKUP(B801,balance!$U:$Z,5,FALSE),IF(C801=5,VLOOKUP(B801-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>261.49719999999996</v>
+      </c>
+      <c r="H801">
+        <v>2</v>
+      </c>
+      <c r="I801" s="1">
+        <f>IF(C801=1,VLOOKUP(FoxFire!B801,balance!$AF:$AJ,2,FALSE),IF(C801=2,VLOOKUP(B801,balance!$AF:$AJ,3,FALSE),IF(C801=3,VLOOKUP(B801,balance!$AF:$AJ,4,FALSE),IF(C801=4,VLOOKUP(B801,balance!$AF:$AJ,5,FALSE),IF(C801=5,VLOOKUP(B801,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6720000000000</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>800</v>
+      </c>
+      <c r="B802">
+        <f t="shared" si="25"/>
+        <v>161</v>
+      </c>
+      <c r="C802">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D802">
+        <v>9026</v>
+      </c>
+      <c r="E802" s="1">
+        <f>IF(C802=1,VLOOKUP(B802,balance!$K:$P,2,FALSE),IF(C802=2,VLOOKUP(B802,balance!$K:$P,3,FALSE),IF(C802=3,VLOOKUP(B802,balance!$K:$P,4,FALSE),IF(C802=4,VLOOKUP(B802,balance!$K:$P,5,FALSE),IF(C802=5,VLOOKUP(B802-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4250</v>
+      </c>
+      <c r="F802">
+        <v>53</v>
+      </c>
+      <c r="G802">
+        <f>IF(C802=1,VLOOKUP(FoxFire!B802,balance!$U:$Z,2,FALSE),IF(C802=2,VLOOKUP(B802,balance!$U:$Z,3,FALSE),IF(C802=3,VLOOKUP(B802,balance!$U:$Z,4,FALSE),IF(C802=4,VLOOKUP(B802,balance!$U:$Z,5,FALSE),IF(C802=5,VLOOKUP(B802-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H802">
+        <v>2</v>
+      </c>
+      <c r="I802" s="1">
+        <f>IF(C802=1,VLOOKUP(FoxFire!B802,balance!$AF:$AJ,2,FALSE),IF(C802=2,VLOOKUP(B802,balance!$AF:$AJ,3,FALSE),IF(C802=3,VLOOKUP(B802,balance!$AF:$AJ,4,FALSE),IF(C802=4,VLOOKUP(B802,balance!$AF:$AJ,5,FALSE),IF(C802=5,VLOOKUP(B802,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1680000000000</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>801</v>
+      </c>
+      <c r="B803">
+        <f t="shared" si="25"/>
+        <v>161</v>
+      </c>
+      <c r="C803">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D803">
+        <v>9026</v>
+      </c>
+      <c r="E803" s="1">
+        <f>IF(C803=1,VLOOKUP(B803,balance!$K:$P,2,FALSE),IF(C803=2,VLOOKUP(B803,balance!$K:$P,3,FALSE),IF(C803=3,VLOOKUP(B803,balance!$K:$P,4,FALSE),IF(C803=4,VLOOKUP(B803,balance!$K:$P,5,FALSE),IF(C803=5,VLOOKUP(B803-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4250</v>
+      </c>
+      <c r="F803">
+        <v>53</v>
+      </c>
+      <c r="G803">
+        <f>IF(C803=1,VLOOKUP(FoxFire!B803,balance!$U:$Z,2,FALSE),IF(C803=2,VLOOKUP(B803,balance!$U:$Z,3,FALSE),IF(C803=3,VLOOKUP(B803,balance!$U:$Z,4,FALSE),IF(C803=4,VLOOKUP(B803,balance!$U:$Z,5,FALSE),IF(C803=5,VLOOKUP(B803-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H803">
+        <v>2</v>
+      </c>
+      <c r="I803" s="1">
+        <f>IF(C803=1,VLOOKUP(FoxFire!B803,balance!$AF:$AJ,2,FALSE),IF(C803=2,VLOOKUP(B803,balance!$AF:$AJ,3,FALSE),IF(C803=3,VLOOKUP(B803,balance!$AF:$AJ,4,FALSE),IF(C803=4,VLOOKUP(B803,balance!$AF:$AJ,5,FALSE),IF(C803=5,VLOOKUP(B803,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1680000000000</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804">
+        <f t="shared" si="25"/>
+        <v>161</v>
+      </c>
+      <c r="C804">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D804">
+        <v>9026</v>
+      </c>
+      <c r="E804" s="1">
+        <f>IF(C804=1,VLOOKUP(B804,balance!$K:$P,2,FALSE),IF(C804=2,VLOOKUP(B804,balance!$K:$P,3,FALSE),IF(C804=3,VLOOKUP(B804,balance!$K:$P,4,FALSE),IF(C804=4,VLOOKUP(B804,balance!$K:$P,5,FALSE),IF(C804=5,VLOOKUP(B804-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4250</v>
+      </c>
+      <c r="F804">
+        <v>53</v>
+      </c>
+      <c r="G804">
+        <f>IF(C804=1,VLOOKUP(FoxFire!B804,balance!$U:$Z,2,FALSE),IF(C804=2,VLOOKUP(B804,balance!$U:$Z,3,FALSE),IF(C804=3,VLOOKUP(B804,balance!$U:$Z,4,FALSE),IF(C804=4,VLOOKUP(B804,balance!$U:$Z,5,FALSE),IF(C804=5,VLOOKUP(B804-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H804">
+        <v>2</v>
+      </c>
+      <c r="I804" s="1">
+        <f>IF(C804=1,VLOOKUP(FoxFire!B804,balance!$AF:$AJ,2,FALSE),IF(C804=2,VLOOKUP(B804,balance!$AF:$AJ,3,FALSE),IF(C804=3,VLOOKUP(B804,balance!$AF:$AJ,4,FALSE),IF(C804=4,VLOOKUP(B804,balance!$AF:$AJ,5,FALSE),IF(C804=5,VLOOKUP(B804,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1680000000000</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805">
+        <f t="shared" si="25"/>
+        <v>161</v>
+      </c>
+      <c r="C805">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D805">
+        <v>9026</v>
+      </c>
+      <c r="E805" s="1">
+        <f>IF(C805=1,VLOOKUP(B805,balance!$K:$P,2,FALSE),IF(C805=2,VLOOKUP(B805,balance!$K:$P,3,FALSE),IF(C805=3,VLOOKUP(B805,balance!$K:$P,4,FALSE),IF(C805=4,VLOOKUP(B805,balance!$K:$P,5,FALSE),IF(C805=5,VLOOKUP(B805-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4250</v>
+      </c>
+      <c r="F805">
+        <v>53</v>
+      </c>
+      <c r="G805">
+        <f>IF(C805=1,VLOOKUP(FoxFire!B805,balance!$U:$Z,2,FALSE),IF(C805=2,VLOOKUP(B805,balance!$U:$Z,3,FALSE),IF(C805=3,VLOOKUP(B805,balance!$U:$Z,4,FALSE),IF(C805=4,VLOOKUP(B805,balance!$U:$Z,5,FALSE),IF(C805=5,VLOOKUP(B805-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H805">
+        <v>2</v>
+      </c>
+      <c r="I805" s="1">
+        <f>IF(C805=1,VLOOKUP(FoxFire!B805,balance!$AF:$AJ,2,FALSE),IF(C805=2,VLOOKUP(B805,balance!$AF:$AJ,3,FALSE),IF(C805=3,VLOOKUP(B805,balance!$AF:$AJ,4,FALSE),IF(C805=4,VLOOKUP(B805,balance!$AF:$AJ,5,FALSE),IF(C805=5,VLOOKUP(B805,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1680000000000</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>804</v>
+      </c>
+      <c r="B806">
+        <f t="shared" si="25"/>
+        <v>162</v>
+      </c>
+      <c r="C806">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D806">
+        <v>9026</v>
+      </c>
+      <c r="E806" s="1">
+        <f>IF(C806=1,VLOOKUP(B806,balance!$K:$P,2,FALSE),IF(C806=2,VLOOKUP(B806,balance!$K:$P,3,FALSE),IF(C806=3,VLOOKUP(B806,balance!$K:$P,4,FALSE),IF(C806=4,VLOOKUP(B806,balance!$K:$P,5,FALSE),IF(C806=5,VLOOKUP(B806-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>140250</v>
+      </c>
+      <c r="F806">
+        <v>53</v>
+      </c>
+      <c r="G806">
+        <f>IF(C806=1,VLOOKUP(FoxFire!B806,balance!$U:$Z,2,FALSE),IF(C806=2,VLOOKUP(B806,balance!$U:$Z,3,FALSE),IF(C806=3,VLOOKUP(B806,balance!$U:$Z,4,FALSE),IF(C806=4,VLOOKUP(B806,balance!$U:$Z,5,FALSE),IF(C806=5,VLOOKUP(B806-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>267.75699999999995</v>
+      </c>
+      <c r="H806">
+        <v>2</v>
+      </c>
+      <c r="I806" s="1">
+        <f>IF(C806=1,VLOOKUP(FoxFire!B806,balance!$AF:$AJ,2,FALSE),IF(C806=2,VLOOKUP(B806,balance!$AF:$AJ,3,FALSE),IF(C806=3,VLOOKUP(B806,balance!$AF:$AJ,4,FALSE),IF(C806=4,VLOOKUP(B806,balance!$AF:$AJ,5,FALSE),IF(C806=5,VLOOKUP(B806,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6780000000000</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807">
+        <f t="shared" si="25"/>
+        <v>162</v>
+      </c>
+      <c r="C807">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D807">
+        <v>9026</v>
+      </c>
+      <c r="E807" s="1">
+        <f>IF(C807=1,VLOOKUP(B807,balance!$K:$P,2,FALSE),IF(C807=2,VLOOKUP(B807,balance!$K:$P,3,FALSE),IF(C807=3,VLOOKUP(B807,balance!$K:$P,4,FALSE),IF(C807=4,VLOOKUP(B807,balance!$K:$P,5,FALSE),IF(C807=5,VLOOKUP(B807-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4275</v>
+      </c>
+      <c r="F807">
+        <v>53</v>
+      </c>
+      <c r="G807">
+        <f>IF(C807=1,VLOOKUP(FoxFire!B807,balance!$U:$Z,2,FALSE),IF(C807=2,VLOOKUP(B807,balance!$U:$Z,3,FALSE),IF(C807=3,VLOOKUP(B807,balance!$U:$Z,4,FALSE),IF(C807=4,VLOOKUP(B807,balance!$U:$Z,5,FALSE),IF(C807=5,VLOOKUP(B807-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="H807">
+        <v>2</v>
+      </c>
+      <c r="I807" s="1">
+        <f>IF(C807=1,VLOOKUP(FoxFire!B807,balance!$AF:$AJ,2,FALSE),IF(C807=2,VLOOKUP(B807,balance!$AF:$AJ,3,FALSE),IF(C807=3,VLOOKUP(B807,balance!$AF:$AJ,4,FALSE),IF(C807=4,VLOOKUP(B807,balance!$AF:$AJ,5,FALSE),IF(C807=5,VLOOKUP(B807,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1695000000000</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>806</v>
+      </c>
+      <c r="B808">
+        <f t="shared" si="25"/>
+        <v>162</v>
+      </c>
+      <c r="C808">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D808">
+        <v>9026</v>
+      </c>
+      <c r="E808" s="1">
+        <f>IF(C808=1,VLOOKUP(B808,balance!$K:$P,2,FALSE),IF(C808=2,VLOOKUP(B808,balance!$K:$P,3,FALSE),IF(C808=3,VLOOKUP(B808,balance!$K:$P,4,FALSE),IF(C808=4,VLOOKUP(B808,balance!$K:$P,5,FALSE),IF(C808=5,VLOOKUP(B808-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4275</v>
+      </c>
+      <c r="F808">
+        <v>53</v>
+      </c>
+      <c r="G808">
+        <f>IF(C808=1,VLOOKUP(FoxFire!B808,balance!$U:$Z,2,FALSE),IF(C808=2,VLOOKUP(B808,balance!$U:$Z,3,FALSE),IF(C808=3,VLOOKUP(B808,balance!$U:$Z,4,FALSE),IF(C808=4,VLOOKUP(B808,balance!$U:$Z,5,FALSE),IF(C808=5,VLOOKUP(B808-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="H808">
+        <v>2</v>
+      </c>
+      <c r="I808" s="1">
+        <f>IF(C808=1,VLOOKUP(FoxFire!B808,balance!$AF:$AJ,2,FALSE),IF(C808=2,VLOOKUP(B808,balance!$AF:$AJ,3,FALSE),IF(C808=3,VLOOKUP(B808,balance!$AF:$AJ,4,FALSE),IF(C808=4,VLOOKUP(B808,balance!$AF:$AJ,5,FALSE),IF(C808=5,VLOOKUP(B808,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1695000000000</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>807</v>
+      </c>
+      <c r="B809">
+        <f t="shared" si="25"/>
+        <v>162</v>
+      </c>
+      <c r="C809">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D809">
+        <v>9026</v>
+      </c>
+      <c r="E809" s="1">
+        <f>IF(C809=1,VLOOKUP(B809,balance!$K:$P,2,FALSE),IF(C809=2,VLOOKUP(B809,balance!$K:$P,3,FALSE),IF(C809=3,VLOOKUP(B809,balance!$K:$P,4,FALSE),IF(C809=4,VLOOKUP(B809,balance!$K:$P,5,FALSE),IF(C809=5,VLOOKUP(B809-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4275</v>
+      </c>
+      <c r="F809">
+        <v>53</v>
+      </c>
+      <c r="G809">
+        <f>IF(C809=1,VLOOKUP(FoxFire!B809,balance!$U:$Z,2,FALSE),IF(C809=2,VLOOKUP(B809,balance!$U:$Z,3,FALSE),IF(C809=3,VLOOKUP(B809,balance!$U:$Z,4,FALSE),IF(C809=4,VLOOKUP(B809,balance!$U:$Z,5,FALSE),IF(C809=5,VLOOKUP(B809-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="H809">
+        <v>2</v>
+      </c>
+      <c r="I809" s="1">
+        <f>IF(C809=1,VLOOKUP(FoxFire!B809,balance!$AF:$AJ,2,FALSE),IF(C809=2,VLOOKUP(B809,balance!$AF:$AJ,3,FALSE),IF(C809=3,VLOOKUP(B809,balance!$AF:$AJ,4,FALSE),IF(C809=4,VLOOKUP(B809,balance!$AF:$AJ,5,FALSE),IF(C809=5,VLOOKUP(B809,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1695000000000</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810">
+        <f t="shared" si="25"/>
+        <v>162</v>
+      </c>
+      <c r="C810">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D810">
+        <v>9026</v>
+      </c>
+      <c r="E810" s="1">
+        <f>IF(C810=1,VLOOKUP(B810,balance!$K:$P,2,FALSE),IF(C810=2,VLOOKUP(B810,balance!$K:$P,3,FALSE),IF(C810=3,VLOOKUP(B810,balance!$K:$P,4,FALSE),IF(C810=4,VLOOKUP(B810,balance!$K:$P,5,FALSE),IF(C810=5,VLOOKUP(B810-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4275</v>
+      </c>
+      <c r="F810">
+        <v>53</v>
+      </c>
+      <c r="G810">
+        <f>IF(C810=1,VLOOKUP(FoxFire!B810,balance!$U:$Z,2,FALSE),IF(C810=2,VLOOKUP(B810,balance!$U:$Z,3,FALSE),IF(C810=3,VLOOKUP(B810,balance!$U:$Z,4,FALSE),IF(C810=4,VLOOKUP(B810,balance!$U:$Z,5,FALSE),IF(C810=5,VLOOKUP(B810-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="H810">
+        <v>2</v>
+      </c>
+      <c r="I810" s="1">
+        <f>IF(C810=1,VLOOKUP(FoxFire!B810,balance!$AF:$AJ,2,FALSE),IF(C810=2,VLOOKUP(B810,balance!$AF:$AJ,3,FALSE),IF(C810=3,VLOOKUP(B810,balance!$AF:$AJ,4,FALSE),IF(C810=4,VLOOKUP(B810,balance!$AF:$AJ,5,FALSE),IF(C810=5,VLOOKUP(B810,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1695000000000</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>809</v>
+      </c>
+      <c r="B811">
+        <f t="shared" si="25"/>
+        <v>163</v>
+      </c>
+      <c r="C811">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D811">
+        <v>9026</v>
+      </c>
+      <c r="E811" s="1">
+        <f>IF(C811=1,VLOOKUP(B811,balance!$K:$P,2,FALSE),IF(C811=2,VLOOKUP(B811,balance!$K:$P,3,FALSE),IF(C811=3,VLOOKUP(B811,balance!$K:$P,4,FALSE),IF(C811=4,VLOOKUP(B811,balance!$K:$P,5,FALSE),IF(C811=5,VLOOKUP(B811-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>141930</v>
+      </c>
+      <c r="F811">
+        <v>53</v>
+      </c>
+      <c r="G811">
+        <f>IF(C811=1,VLOOKUP(FoxFire!B811,balance!$U:$Z,2,FALSE),IF(C811=2,VLOOKUP(B811,balance!$U:$Z,3,FALSE),IF(C811=3,VLOOKUP(B811,balance!$U:$Z,4,FALSE),IF(C811=4,VLOOKUP(B811,balance!$U:$Z,5,FALSE),IF(C811=5,VLOOKUP(B811-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>274.1626</v>
+      </c>
+      <c r="H811">
+        <v>2</v>
+      </c>
+      <c r="I811" s="1">
+        <f>IF(C811=1,VLOOKUP(FoxFire!B811,balance!$AF:$AJ,2,FALSE),IF(C811=2,VLOOKUP(B811,balance!$AF:$AJ,3,FALSE),IF(C811=3,VLOOKUP(B811,balance!$AF:$AJ,4,FALSE),IF(C811=4,VLOOKUP(B811,balance!$AF:$AJ,5,FALSE),IF(C811=5,VLOOKUP(B811,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6840000000000</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812">
+        <f t="shared" si="25"/>
+        <v>163</v>
+      </c>
+      <c r="C812">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D812">
+        <v>9026</v>
+      </c>
+      <c r="E812" s="1">
+        <f>IF(C812=1,VLOOKUP(B812,balance!$K:$P,2,FALSE),IF(C812=2,VLOOKUP(B812,balance!$K:$P,3,FALSE),IF(C812=3,VLOOKUP(B812,balance!$K:$P,4,FALSE),IF(C812=4,VLOOKUP(B812,balance!$K:$P,5,FALSE),IF(C812=5,VLOOKUP(B812-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4300</v>
+      </c>
+      <c r="F812">
+        <v>53</v>
+      </c>
+      <c r="G812">
+        <f>IF(C812=1,VLOOKUP(FoxFire!B812,balance!$U:$Z,2,FALSE),IF(C812=2,VLOOKUP(B812,balance!$U:$Z,3,FALSE),IF(C812=3,VLOOKUP(B812,balance!$U:$Z,4,FALSE),IF(C812=4,VLOOKUP(B812,balance!$U:$Z,5,FALSE),IF(C812=5,VLOOKUP(B812-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="H812">
+        <v>2</v>
+      </c>
+      <c r="I812" s="1">
+        <f>IF(C812=1,VLOOKUP(FoxFire!B812,balance!$AF:$AJ,2,FALSE),IF(C812=2,VLOOKUP(B812,balance!$AF:$AJ,3,FALSE),IF(C812=3,VLOOKUP(B812,balance!$AF:$AJ,4,FALSE),IF(C812=4,VLOOKUP(B812,balance!$AF:$AJ,5,FALSE),IF(C812=5,VLOOKUP(B812,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1710000000000</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813">
+        <f t="shared" si="25"/>
+        <v>163</v>
+      </c>
+      <c r="C813">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D813">
+        <v>9026</v>
+      </c>
+      <c r="E813" s="1">
+        <f>IF(C813=1,VLOOKUP(B813,balance!$K:$P,2,FALSE),IF(C813=2,VLOOKUP(B813,balance!$K:$P,3,FALSE),IF(C813=3,VLOOKUP(B813,balance!$K:$P,4,FALSE),IF(C813=4,VLOOKUP(B813,balance!$K:$P,5,FALSE),IF(C813=5,VLOOKUP(B813-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4300</v>
+      </c>
+      <c r="F813">
+        <v>53</v>
+      </c>
+      <c r="G813">
+        <f>IF(C813=1,VLOOKUP(FoxFire!B813,balance!$U:$Z,2,FALSE),IF(C813=2,VLOOKUP(B813,balance!$U:$Z,3,FALSE),IF(C813=3,VLOOKUP(B813,balance!$U:$Z,4,FALSE),IF(C813=4,VLOOKUP(B813,balance!$U:$Z,5,FALSE),IF(C813=5,VLOOKUP(B813-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="H813">
+        <v>2</v>
+      </c>
+      <c r="I813" s="1">
+        <f>IF(C813=1,VLOOKUP(FoxFire!B813,balance!$AF:$AJ,2,FALSE),IF(C813=2,VLOOKUP(B813,balance!$AF:$AJ,3,FALSE),IF(C813=3,VLOOKUP(B813,balance!$AF:$AJ,4,FALSE),IF(C813=4,VLOOKUP(B813,balance!$AF:$AJ,5,FALSE),IF(C813=5,VLOOKUP(B813,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1710000000000</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814">
+        <f t="shared" si="25"/>
+        <v>163</v>
+      </c>
+      <c r="C814">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D814">
+        <v>9026</v>
+      </c>
+      <c r="E814" s="1">
+        <f>IF(C814=1,VLOOKUP(B814,balance!$K:$P,2,FALSE),IF(C814=2,VLOOKUP(B814,balance!$K:$P,3,FALSE),IF(C814=3,VLOOKUP(B814,balance!$K:$P,4,FALSE),IF(C814=4,VLOOKUP(B814,balance!$K:$P,5,FALSE),IF(C814=5,VLOOKUP(B814-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4300</v>
+      </c>
+      <c r="F814">
+        <v>53</v>
+      </c>
+      <c r="G814">
+        <f>IF(C814=1,VLOOKUP(FoxFire!B814,balance!$U:$Z,2,FALSE),IF(C814=2,VLOOKUP(B814,balance!$U:$Z,3,FALSE),IF(C814=3,VLOOKUP(B814,balance!$U:$Z,4,FALSE),IF(C814=4,VLOOKUP(B814,balance!$U:$Z,5,FALSE),IF(C814=5,VLOOKUP(B814-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="H814">
+        <v>2</v>
+      </c>
+      <c r="I814" s="1">
+        <f>IF(C814=1,VLOOKUP(FoxFire!B814,balance!$AF:$AJ,2,FALSE),IF(C814=2,VLOOKUP(B814,balance!$AF:$AJ,3,FALSE),IF(C814=3,VLOOKUP(B814,balance!$AF:$AJ,4,FALSE),IF(C814=4,VLOOKUP(B814,balance!$AF:$AJ,5,FALSE),IF(C814=5,VLOOKUP(B814,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1710000000000</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>813</v>
+      </c>
+      <c r="B815">
+        <f t="shared" si="25"/>
+        <v>163</v>
+      </c>
+      <c r="C815">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D815">
+        <v>9026</v>
+      </c>
+      <c r="E815" s="1">
+        <f>IF(C815=1,VLOOKUP(B815,balance!$K:$P,2,FALSE),IF(C815=2,VLOOKUP(B815,balance!$K:$P,3,FALSE),IF(C815=3,VLOOKUP(B815,balance!$K:$P,4,FALSE),IF(C815=4,VLOOKUP(B815,balance!$K:$P,5,FALSE),IF(C815=5,VLOOKUP(B815-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4300</v>
+      </c>
+      <c r="F815">
+        <v>53</v>
+      </c>
+      <c r="G815">
+        <f>IF(C815=1,VLOOKUP(FoxFire!B815,balance!$U:$Z,2,FALSE),IF(C815=2,VLOOKUP(B815,balance!$U:$Z,3,FALSE),IF(C815=3,VLOOKUP(B815,balance!$U:$Z,4,FALSE),IF(C815=4,VLOOKUP(B815,balance!$U:$Z,5,FALSE),IF(C815=5,VLOOKUP(B815-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="H815">
+        <v>2</v>
+      </c>
+      <c r="I815" s="1">
+        <f>IF(C815=1,VLOOKUP(FoxFire!B815,balance!$AF:$AJ,2,FALSE),IF(C815=2,VLOOKUP(B815,balance!$AF:$AJ,3,FALSE),IF(C815=3,VLOOKUP(B815,balance!$AF:$AJ,4,FALSE),IF(C815=4,VLOOKUP(B815,balance!$AF:$AJ,5,FALSE),IF(C815=5,VLOOKUP(B815,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1710000000000</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816">
+        <f t="shared" si="25"/>
+        <v>164</v>
+      </c>
+      <c r="C816">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D816">
+        <v>9026</v>
+      </c>
+      <c r="E816" s="1">
+        <f>IF(C816=1,VLOOKUP(B816,balance!$K:$P,2,FALSE),IF(C816=2,VLOOKUP(B816,balance!$K:$P,3,FALSE),IF(C816=3,VLOOKUP(B816,balance!$K:$P,4,FALSE),IF(C816=4,VLOOKUP(B816,balance!$K:$P,5,FALSE),IF(C816=5,VLOOKUP(B816-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>143620</v>
+      </c>
+      <c r="F816">
+        <v>53</v>
+      </c>
+      <c r="G816">
+        <f>IF(C816=1,VLOOKUP(FoxFire!B816,balance!$U:$Z,2,FALSE),IF(C816=2,VLOOKUP(B816,balance!$U:$Z,3,FALSE),IF(C816=3,VLOOKUP(B816,balance!$U:$Z,4,FALSE),IF(C816=4,VLOOKUP(B816,balance!$U:$Z,5,FALSE),IF(C816=5,VLOOKUP(B816-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>280.71719999999999</v>
+      </c>
+      <c r="H816">
+        <v>2</v>
+      </c>
+      <c r="I816" s="1">
+        <f>IF(C816=1,VLOOKUP(FoxFire!B816,balance!$AF:$AJ,2,FALSE),IF(C816=2,VLOOKUP(B816,balance!$AF:$AJ,3,FALSE),IF(C816=3,VLOOKUP(B816,balance!$AF:$AJ,4,FALSE),IF(C816=4,VLOOKUP(B816,balance!$AF:$AJ,5,FALSE),IF(C816=5,VLOOKUP(B816,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6900000000000</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817">
+        <f t="shared" si="25"/>
+        <v>164</v>
+      </c>
+      <c r="C817">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D817">
+        <v>9026</v>
+      </c>
+      <c r="E817" s="1">
+        <f>IF(C817=1,VLOOKUP(B817,balance!$K:$P,2,FALSE),IF(C817=2,VLOOKUP(B817,balance!$K:$P,3,FALSE),IF(C817=3,VLOOKUP(B817,balance!$K:$P,4,FALSE),IF(C817=4,VLOOKUP(B817,balance!$K:$P,5,FALSE),IF(C817=5,VLOOKUP(B817-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4325</v>
+      </c>
+      <c r="F817">
+        <v>53</v>
+      </c>
+      <c r="G817">
+        <f>IF(C817=1,VLOOKUP(FoxFire!B817,balance!$U:$Z,2,FALSE),IF(C817=2,VLOOKUP(B817,balance!$U:$Z,3,FALSE),IF(C817=3,VLOOKUP(B817,balance!$U:$Z,4,FALSE),IF(C817=4,VLOOKUP(B817,balance!$U:$Z,5,FALSE),IF(C817=5,VLOOKUP(B817-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.63E-3</v>
+      </c>
+      <c r="H817">
+        <v>2</v>
+      </c>
+      <c r="I817" s="1">
+        <f>IF(C817=1,VLOOKUP(FoxFire!B817,balance!$AF:$AJ,2,FALSE),IF(C817=2,VLOOKUP(B817,balance!$AF:$AJ,3,FALSE),IF(C817=3,VLOOKUP(B817,balance!$AF:$AJ,4,FALSE),IF(C817=4,VLOOKUP(B817,balance!$AF:$AJ,5,FALSE),IF(C817=5,VLOOKUP(B817,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1725000000000</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818">
+        <f t="shared" si="25"/>
+        <v>164</v>
+      </c>
+      <c r="C818">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D818">
+        <v>9026</v>
+      </c>
+      <c r="E818" s="1">
+        <f>IF(C818=1,VLOOKUP(B818,balance!$K:$P,2,FALSE),IF(C818=2,VLOOKUP(B818,balance!$K:$P,3,FALSE),IF(C818=3,VLOOKUP(B818,balance!$K:$P,4,FALSE),IF(C818=4,VLOOKUP(B818,balance!$K:$P,5,FALSE),IF(C818=5,VLOOKUP(B818-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4325</v>
+      </c>
+      <c r="F818">
+        <v>53</v>
+      </c>
+      <c r="G818">
+        <f>IF(C818=1,VLOOKUP(FoxFire!B818,balance!$U:$Z,2,FALSE),IF(C818=2,VLOOKUP(B818,balance!$U:$Z,3,FALSE),IF(C818=3,VLOOKUP(B818,balance!$U:$Z,4,FALSE),IF(C818=4,VLOOKUP(B818,balance!$U:$Z,5,FALSE),IF(C818=5,VLOOKUP(B818-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.63E-3</v>
+      </c>
+      <c r="H818">
+        <v>2</v>
+      </c>
+      <c r="I818" s="1">
+        <f>IF(C818=1,VLOOKUP(FoxFire!B818,balance!$AF:$AJ,2,FALSE),IF(C818=2,VLOOKUP(B818,balance!$AF:$AJ,3,FALSE),IF(C818=3,VLOOKUP(B818,balance!$AF:$AJ,4,FALSE),IF(C818=4,VLOOKUP(B818,balance!$AF:$AJ,5,FALSE),IF(C818=5,VLOOKUP(B818,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1725000000000</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819">
+        <f t="shared" si="25"/>
+        <v>164</v>
+      </c>
+      <c r="C819">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D819">
+        <v>9026</v>
+      </c>
+      <c r="E819" s="1">
+        <f>IF(C819=1,VLOOKUP(B819,balance!$K:$P,2,FALSE),IF(C819=2,VLOOKUP(B819,balance!$K:$P,3,FALSE),IF(C819=3,VLOOKUP(B819,balance!$K:$P,4,FALSE),IF(C819=4,VLOOKUP(B819,balance!$K:$P,5,FALSE),IF(C819=5,VLOOKUP(B819-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4325</v>
+      </c>
+      <c r="F819">
+        <v>53</v>
+      </c>
+      <c r="G819">
+        <f>IF(C819=1,VLOOKUP(FoxFire!B819,balance!$U:$Z,2,FALSE),IF(C819=2,VLOOKUP(B819,balance!$U:$Z,3,FALSE),IF(C819=3,VLOOKUP(B819,balance!$U:$Z,4,FALSE),IF(C819=4,VLOOKUP(B819,balance!$U:$Z,5,FALSE),IF(C819=5,VLOOKUP(B819-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.63E-3</v>
+      </c>
+      <c r="H819">
+        <v>2</v>
+      </c>
+      <c r="I819" s="1">
+        <f>IF(C819=1,VLOOKUP(FoxFire!B819,balance!$AF:$AJ,2,FALSE),IF(C819=2,VLOOKUP(B819,balance!$AF:$AJ,3,FALSE),IF(C819=3,VLOOKUP(B819,balance!$AF:$AJ,4,FALSE),IF(C819=4,VLOOKUP(B819,balance!$AF:$AJ,5,FALSE),IF(C819=5,VLOOKUP(B819,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1725000000000</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820">
+        <f t="shared" si="25"/>
+        <v>164</v>
+      </c>
+      <c r="C820">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D820">
+        <v>9026</v>
+      </c>
+      <c r="E820" s="1">
+        <f>IF(C820=1,VLOOKUP(B820,balance!$K:$P,2,FALSE),IF(C820=2,VLOOKUP(B820,balance!$K:$P,3,FALSE),IF(C820=3,VLOOKUP(B820,balance!$K:$P,4,FALSE),IF(C820=4,VLOOKUP(B820,balance!$K:$P,5,FALSE),IF(C820=5,VLOOKUP(B820-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4325</v>
+      </c>
+      <c r="F820">
+        <v>53</v>
+      </c>
+      <c r="G820">
+        <f>IF(C820=1,VLOOKUP(FoxFire!B820,balance!$U:$Z,2,FALSE),IF(C820=2,VLOOKUP(B820,balance!$U:$Z,3,FALSE),IF(C820=3,VLOOKUP(B820,balance!$U:$Z,4,FALSE),IF(C820=4,VLOOKUP(B820,balance!$U:$Z,5,FALSE),IF(C820=5,VLOOKUP(B820-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.63E-3</v>
+      </c>
+      <c r="H820">
+        <v>2</v>
+      </c>
+      <c r="I820" s="1">
+        <f>IF(C820=1,VLOOKUP(FoxFire!B820,balance!$AF:$AJ,2,FALSE),IF(C820=2,VLOOKUP(B820,balance!$AF:$AJ,3,FALSE),IF(C820=3,VLOOKUP(B820,balance!$AF:$AJ,4,FALSE),IF(C820=4,VLOOKUP(B820,balance!$AF:$AJ,5,FALSE),IF(C820=5,VLOOKUP(B820,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1725000000000</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>819</v>
+      </c>
+      <c r="B821">
+        <f t="shared" si="25"/>
+        <v>165</v>
+      </c>
+      <c r="C821">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D821">
+        <v>9026</v>
+      </c>
+      <c r="E821" s="1">
+        <f>IF(C821=1,VLOOKUP(B821,balance!$K:$P,2,FALSE),IF(C821=2,VLOOKUP(B821,balance!$K:$P,3,FALSE),IF(C821=3,VLOOKUP(B821,balance!$K:$P,4,FALSE),IF(C821=4,VLOOKUP(B821,balance!$K:$P,5,FALSE),IF(C821=5,VLOOKUP(B821-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>145320</v>
+      </c>
+      <c r="F821">
+        <v>53</v>
+      </c>
+      <c r="G821">
+        <f>IF(C821=1,VLOOKUP(FoxFire!B821,balance!$U:$Z,2,FALSE),IF(C821=2,VLOOKUP(B821,balance!$U:$Z,3,FALSE),IF(C821=3,VLOOKUP(B821,balance!$U:$Z,4,FALSE),IF(C821=4,VLOOKUP(B821,balance!$U:$Z,5,FALSE),IF(C821=5,VLOOKUP(B821-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>287.42449999999997</v>
+      </c>
+      <c r="H821">
+        <v>2</v>
+      </c>
+      <c r="I821" s="1">
+        <f>IF(C821=1,VLOOKUP(FoxFire!B821,balance!$AF:$AJ,2,FALSE),IF(C821=2,VLOOKUP(B821,balance!$AF:$AJ,3,FALSE),IF(C821=3,VLOOKUP(B821,balance!$AF:$AJ,4,FALSE),IF(C821=4,VLOOKUP(B821,balance!$AF:$AJ,5,FALSE),IF(C821=5,VLOOKUP(B821,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>6960000000000</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>820</v>
+      </c>
+      <c r="B822">
+        <f t="shared" si="25"/>
+        <v>165</v>
+      </c>
+      <c r="C822">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D822">
+        <v>9026</v>
+      </c>
+      <c r="E822" s="1">
+        <f>IF(C822=1,VLOOKUP(B822,balance!$K:$P,2,FALSE),IF(C822=2,VLOOKUP(B822,balance!$K:$P,3,FALSE),IF(C822=3,VLOOKUP(B822,balance!$K:$P,4,FALSE),IF(C822=4,VLOOKUP(B822,balance!$K:$P,5,FALSE),IF(C822=5,VLOOKUP(B822-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4350</v>
+      </c>
+      <c r="F822">
+        <v>53</v>
+      </c>
+      <c r="G822">
+        <f>IF(C822=1,VLOOKUP(FoxFire!B822,balance!$U:$Z,2,FALSE),IF(C822=2,VLOOKUP(B822,balance!$U:$Z,3,FALSE),IF(C822=3,VLOOKUP(B822,balance!$U:$Z,4,FALSE),IF(C822=4,VLOOKUP(B822,balance!$U:$Z,5,FALSE),IF(C822=5,VLOOKUP(B822-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.64E-3</v>
+      </c>
+      <c r="H822">
+        <v>2</v>
+      </c>
+      <c r="I822" s="1">
+        <f>IF(C822=1,VLOOKUP(FoxFire!B822,balance!$AF:$AJ,2,FALSE),IF(C822=2,VLOOKUP(B822,balance!$AF:$AJ,3,FALSE),IF(C822=3,VLOOKUP(B822,balance!$AF:$AJ,4,FALSE),IF(C822=4,VLOOKUP(B822,balance!$AF:$AJ,5,FALSE),IF(C822=5,VLOOKUP(B822,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1740000000000</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>821</v>
+      </c>
+      <c r="B823">
+        <f t="shared" si="25"/>
+        <v>165</v>
+      </c>
+      <c r="C823">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D823">
+        <v>9026</v>
+      </c>
+      <c r="E823" s="1">
+        <f>IF(C823=1,VLOOKUP(B823,balance!$K:$P,2,FALSE),IF(C823=2,VLOOKUP(B823,balance!$K:$P,3,FALSE),IF(C823=3,VLOOKUP(B823,balance!$K:$P,4,FALSE),IF(C823=4,VLOOKUP(B823,balance!$K:$P,5,FALSE),IF(C823=5,VLOOKUP(B823-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4350</v>
+      </c>
+      <c r="F823">
+        <v>53</v>
+      </c>
+      <c r="G823">
+        <f>IF(C823=1,VLOOKUP(FoxFire!B823,balance!$U:$Z,2,FALSE),IF(C823=2,VLOOKUP(B823,balance!$U:$Z,3,FALSE),IF(C823=3,VLOOKUP(B823,balance!$U:$Z,4,FALSE),IF(C823=4,VLOOKUP(B823,balance!$U:$Z,5,FALSE),IF(C823=5,VLOOKUP(B823-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.64E-3</v>
+      </c>
+      <c r="H823">
+        <v>2</v>
+      </c>
+      <c r="I823" s="1">
+        <f>IF(C823=1,VLOOKUP(FoxFire!B823,balance!$AF:$AJ,2,FALSE),IF(C823=2,VLOOKUP(B823,balance!$AF:$AJ,3,FALSE),IF(C823=3,VLOOKUP(B823,balance!$AF:$AJ,4,FALSE),IF(C823=4,VLOOKUP(B823,balance!$AF:$AJ,5,FALSE),IF(C823=5,VLOOKUP(B823,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1740000000000</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>822</v>
+      </c>
+      <c r="B824">
+        <f t="shared" si="25"/>
+        <v>165</v>
+      </c>
+      <c r="C824">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D824">
+        <v>9026</v>
+      </c>
+      <c r="E824" s="1">
+        <f>IF(C824=1,VLOOKUP(B824,balance!$K:$P,2,FALSE),IF(C824=2,VLOOKUP(B824,balance!$K:$P,3,FALSE),IF(C824=3,VLOOKUP(B824,balance!$K:$P,4,FALSE),IF(C824=4,VLOOKUP(B824,balance!$K:$P,5,FALSE),IF(C824=5,VLOOKUP(B824-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4350</v>
+      </c>
+      <c r="F824">
+        <v>53</v>
+      </c>
+      <c r="G824">
+        <f>IF(C824=1,VLOOKUP(FoxFire!B824,balance!$U:$Z,2,FALSE),IF(C824=2,VLOOKUP(B824,balance!$U:$Z,3,FALSE),IF(C824=3,VLOOKUP(B824,balance!$U:$Z,4,FALSE),IF(C824=4,VLOOKUP(B824,balance!$U:$Z,5,FALSE),IF(C824=5,VLOOKUP(B824-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.64E-3</v>
+      </c>
+      <c r="H824">
+        <v>2</v>
+      </c>
+      <c r="I824" s="1">
+        <f>IF(C824=1,VLOOKUP(FoxFire!B824,balance!$AF:$AJ,2,FALSE),IF(C824=2,VLOOKUP(B824,balance!$AF:$AJ,3,FALSE),IF(C824=3,VLOOKUP(B824,balance!$AF:$AJ,4,FALSE),IF(C824=4,VLOOKUP(B824,balance!$AF:$AJ,5,FALSE),IF(C824=5,VLOOKUP(B824,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1740000000000</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>823</v>
+      </c>
+      <c r="B825">
+        <f t="shared" si="25"/>
+        <v>165</v>
+      </c>
+      <c r="C825">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D825">
+        <v>9026</v>
+      </c>
+      <c r="E825" s="1">
+        <f>IF(C825=1,VLOOKUP(B825,balance!$K:$P,2,FALSE),IF(C825=2,VLOOKUP(B825,balance!$K:$P,3,FALSE),IF(C825=3,VLOOKUP(B825,balance!$K:$P,4,FALSE),IF(C825=4,VLOOKUP(B825,balance!$K:$P,5,FALSE),IF(C825=5,VLOOKUP(B825-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4350</v>
+      </c>
+      <c r="F825">
+        <v>53</v>
+      </c>
+      <c r="G825">
+        <f>IF(C825=1,VLOOKUP(FoxFire!B825,balance!$U:$Z,2,FALSE),IF(C825=2,VLOOKUP(B825,balance!$U:$Z,3,FALSE),IF(C825=3,VLOOKUP(B825,balance!$U:$Z,4,FALSE),IF(C825=4,VLOOKUP(B825,balance!$U:$Z,5,FALSE),IF(C825=5,VLOOKUP(B825-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.64E-3</v>
+      </c>
+      <c r="H825">
+        <v>2</v>
+      </c>
+      <c r="I825" s="1">
+        <f>IF(C825=1,VLOOKUP(FoxFire!B825,balance!$AF:$AJ,2,FALSE),IF(C825=2,VLOOKUP(B825,balance!$AF:$AJ,3,FALSE),IF(C825=3,VLOOKUP(B825,balance!$AF:$AJ,4,FALSE),IF(C825=4,VLOOKUP(B825,balance!$AF:$AJ,5,FALSE),IF(C825=5,VLOOKUP(B825,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1740000000000</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>824</v>
+      </c>
+      <c r="B826">
+        <f t="shared" si="25"/>
+        <v>166</v>
+      </c>
+      <c r="C826">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D826">
+        <v>9026</v>
+      </c>
+      <c r="E826" s="1">
+        <f>IF(C826=1,VLOOKUP(B826,balance!$K:$P,2,FALSE),IF(C826=2,VLOOKUP(B826,balance!$K:$P,3,FALSE),IF(C826=3,VLOOKUP(B826,balance!$K:$P,4,FALSE),IF(C826=4,VLOOKUP(B826,balance!$K:$P,5,FALSE),IF(C826=5,VLOOKUP(B826-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>147030</v>
+      </c>
+      <c r="F826">
+        <v>53</v>
+      </c>
+      <c r="G826">
+        <f>IF(C826=1,VLOOKUP(FoxFire!B826,balance!$U:$Z,2,FALSE),IF(C826=2,VLOOKUP(B826,balance!$U:$Z,3,FALSE),IF(C826=3,VLOOKUP(B826,balance!$U:$Z,4,FALSE),IF(C826=4,VLOOKUP(B826,balance!$U:$Z,5,FALSE),IF(C826=5,VLOOKUP(B826-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>294.28769999999997</v>
+      </c>
+      <c r="H826">
+        <v>2</v>
+      </c>
+      <c r="I826" s="1">
+        <f>IF(C826=1,VLOOKUP(FoxFire!B826,balance!$AF:$AJ,2,FALSE),IF(C826=2,VLOOKUP(B826,balance!$AF:$AJ,3,FALSE),IF(C826=3,VLOOKUP(B826,balance!$AF:$AJ,4,FALSE),IF(C826=4,VLOOKUP(B826,balance!$AF:$AJ,5,FALSE),IF(C826=5,VLOOKUP(B826,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7020000000000</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>825</v>
+      </c>
+      <c r="B827">
+        <f t="shared" si="25"/>
+        <v>166</v>
+      </c>
+      <c r="C827">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D827">
+        <v>9026</v>
+      </c>
+      <c r="E827" s="1">
+        <f>IF(C827=1,VLOOKUP(B827,balance!$K:$P,2,FALSE),IF(C827=2,VLOOKUP(B827,balance!$K:$P,3,FALSE),IF(C827=3,VLOOKUP(B827,balance!$K:$P,4,FALSE),IF(C827=4,VLOOKUP(B827,balance!$K:$P,5,FALSE),IF(C827=5,VLOOKUP(B827-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4375</v>
+      </c>
+      <c r="F827">
+        <v>53</v>
+      </c>
+      <c r="G827">
+        <f>IF(C827=1,VLOOKUP(FoxFire!B827,balance!$U:$Z,2,FALSE),IF(C827=2,VLOOKUP(B827,balance!$U:$Z,3,FALSE),IF(C827=3,VLOOKUP(B827,balance!$U:$Z,4,FALSE),IF(C827=4,VLOOKUP(B827,balance!$U:$Z,5,FALSE),IF(C827=5,VLOOKUP(B827-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.65E-3</v>
+      </c>
+      <c r="H827">
+        <v>2</v>
+      </c>
+      <c r="I827" s="1">
+        <f>IF(C827=1,VLOOKUP(FoxFire!B827,balance!$AF:$AJ,2,FALSE),IF(C827=2,VLOOKUP(B827,balance!$AF:$AJ,3,FALSE),IF(C827=3,VLOOKUP(B827,balance!$AF:$AJ,4,FALSE),IF(C827=4,VLOOKUP(B827,balance!$AF:$AJ,5,FALSE),IF(C827=5,VLOOKUP(B827,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1755000000000</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>826</v>
+      </c>
+      <c r="B828">
+        <f t="shared" si="25"/>
+        <v>166</v>
+      </c>
+      <c r="C828">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D828">
+        <v>9026</v>
+      </c>
+      <c r="E828" s="1">
+        <f>IF(C828=1,VLOOKUP(B828,balance!$K:$P,2,FALSE),IF(C828=2,VLOOKUP(B828,balance!$K:$P,3,FALSE),IF(C828=3,VLOOKUP(B828,balance!$K:$P,4,FALSE),IF(C828=4,VLOOKUP(B828,balance!$K:$P,5,FALSE),IF(C828=5,VLOOKUP(B828-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4375</v>
+      </c>
+      <c r="F828">
+        <v>53</v>
+      </c>
+      <c r="G828">
+        <f>IF(C828=1,VLOOKUP(FoxFire!B828,balance!$U:$Z,2,FALSE),IF(C828=2,VLOOKUP(B828,balance!$U:$Z,3,FALSE),IF(C828=3,VLOOKUP(B828,balance!$U:$Z,4,FALSE),IF(C828=4,VLOOKUP(B828,balance!$U:$Z,5,FALSE),IF(C828=5,VLOOKUP(B828-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.65E-3</v>
+      </c>
+      <c r="H828">
+        <v>2</v>
+      </c>
+      <c r="I828" s="1">
+        <f>IF(C828=1,VLOOKUP(FoxFire!B828,balance!$AF:$AJ,2,FALSE),IF(C828=2,VLOOKUP(B828,balance!$AF:$AJ,3,FALSE),IF(C828=3,VLOOKUP(B828,balance!$AF:$AJ,4,FALSE),IF(C828=4,VLOOKUP(B828,balance!$AF:$AJ,5,FALSE),IF(C828=5,VLOOKUP(B828,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1755000000000</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>827</v>
+      </c>
+      <c r="B829">
+        <f t="shared" si="25"/>
+        <v>166</v>
+      </c>
+      <c r="C829">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D829">
+        <v>9026</v>
+      </c>
+      <c r="E829" s="1">
+        <f>IF(C829=1,VLOOKUP(B829,balance!$K:$P,2,FALSE),IF(C829=2,VLOOKUP(B829,balance!$K:$P,3,FALSE),IF(C829=3,VLOOKUP(B829,balance!$K:$P,4,FALSE),IF(C829=4,VLOOKUP(B829,balance!$K:$P,5,FALSE),IF(C829=5,VLOOKUP(B829-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4375</v>
+      </c>
+      <c r="F829">
+        <v>53</v>
+      </c>
+      <c r="G829">
+        <f>IF(C829=1,VLOOKUP(FoxFire!B829,balance!$U:$Z,2,FALSE),IF(C829=2,VLOOKUP(B829,balance!$U:$Z,3,FALSE),IF(C829=3,VLOOKUP(B829,balance!$U:$Z,4,FALSE),IF(C829=4,VLOOKUP(B829,balance!$U:$Z,5,FALSE),IF(C829=5,VLOOKUP(B829-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.65E-3</v>
+      </c>
+      <c r="H829">
+        <v>2</v>
+      </c>
+      <c r="I829" s="1">
+        <f>IF(C829=1,VLOOKUP(FoxFire!B829,balance!$AF:$AJ,2,FALSE),IF(C829=2,VLOOKUP(B829,balance!$AF:$AJ,3,FALSE),IF(C829=3,VLOOKUP(B829,balance!$AF:$AJ,4,FALSE),IF(C829=4,VLOOKUP(B829,balance!$AF:$AJ,5,FALSE),IF(C829=5,VLOOKUP(B829,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1755000000000</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>828</v>
+      </c>
+      <c r="B830">
+        <f t="shared" si="25"/>
+        <v>166</v>
+      </c>
+      <c r="C830">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D830">
+        <v>9026</v>
+      </c>
+      <c r="E830" s="1">
+        <f>IF(C830=1,VLOOKUP(B830,balance!$K:$P,2,FALSE),IF(C830=2,VLOOKUP(B830,balance!$K:$P,3,FALSE),IF(C830=3,VLOOKUP(B830,balance!$K:$P,4,FALSE),IF(C830=4,VLOOKUP(B830,balance!$K:$P,5,FALSE),IF(C830=5,VLOOKUP(B830-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4375</v>
+      </c>
+      <c r="F830">
+        <v>53</v>
+      </c>
+      <c r="G830">
+        <f>IF(C830=1,VLOOKUP(FoxFire!B830,balance!$U:$Z,2,FALSE),IF(C830=2,VLOOKUP(B830,balance!$U:$Z,3,FALSE),IF(C830=3,VLOOKUP(B830,balance!$U:$Z,4,FALSE),IF(C830=4,VLOOKUP(B830,balance!$U:$Z,5,FALSE),IF(C830=5,VLOOKUP(B830-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.65E-3</v>
+      </c>
+      <c r="H830">
+        <v>2</v>
+      </c>
+      <c r="I830" s="1">
+        <f>IF(C830=1,VLOOKUP(FoxFire!B830,balance!$AF:$AJ,2,FALSE),IF(C830=2,VLOOKUP(B830,balance!$AF:$AJ,3,FALSE),IF(C830=3,VLOOKUP(B830,balance!$AF:$AJ,4,FALSE),IF(C830=4,VLOOKUP(B830,balance!$AF:$AJ,5,FALSE),IF(C830=5,VLOOKUP(B830,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1755000000000</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>829</v>
+      </c>
+      <c r="B831">
+        <f t="shared" si="25"/>
+        <v>167</v>
+      </c>
+      <c r="C831">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D831">
+        <v>9026</v>
+      </c>
+      <c r="E831" s="1">
+        <f>IF(C831=1,VLOOKUP(B831,balance!$K:$P,2,FALSE),IF(C831=2,VLOOKUP(B831,balance!$K:$P,3,FALSE),IF(C831=3,VLOOKUP(B831,balance!$K:$P,4,FALSE),IF(C831=4,VLOOKUP(B831,balance!$K:$P,5,FALSE),IF(C831=5,VLOOKUP(B831-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>148750</v>
+      </c>
+      <c r="F831">
+        <v>53</v>
+      </c>
+      <c r="G831">
+        <f>IF(C831=1,VLOOKUP(FoxFire!B831,balance!$U:$Z,2,FALSE),IF(C831=2,VLOOKUP(B831,balance!$U:$Z,3,FALSE),IF(C831=3,VLOOKUP(B831,balance!$U:$Z,4,FALSE),IF(C831=4,VLOOKUP(B831,balance!$U:$Z,5,FALSE),IF(C831=5,VLOOKUP(B831-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>301.31039999999996</v>
+      </c>
+      <c r="H831">
+        <v>2</v>
+      </c>
+      <c r="I831" s="1">
+        <f>IF(C831=1,VLOOKUP(FoxFire!B831,balance!$AF:$AJ,2,FALSE),IF(C831=2,VLOOKUP(B831,balance!$AF:$AJ,3,FALSE),IF(C831=3,VLOOKUP(B831,balance!$AF:$AJ,4,FALSE),IF(C831=4,VLOOKUP(B831,balance!$AF:$AJ,5,FALSE),IF(C831=5,VLOOKUP(B831,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7080000000000</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>830</v>
+      </c>
+      <c r="B832">
+        <f t="shared" si="25"/>
+        <v>167</v>
+      </c>
+      <c r="C832">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D832">
+        <v>9026</v>
+      </c>
+      <c r="E832" s="1">
+        <f>IF(C832=1,VLOOKUP(B832,balance!$K:$P,2,FALSE),IF(C832=2,VLOOKUP(B832,balance!$K:$P,3,FALSE),IF(C832=3,VLOOKUP(B832,balance!$K:$P,4,FALSE),IF(C832=4,VLOOKUP(B832,balance!$K:$P,5,FALSE),IF(C832=5,VLOOKUP(B832-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4400</v>
+      </c>
+      <c r="F832">
+        <v>53</v>
+      </c>
+      <c r="G832">
+        <f>IF(C832=1,VLOOKUP(FoxFire!B832,balance!$U:$Z,2,FALSE),IF(C832=2,VLOOKUP(B832,balance!$U:$Z,3,FALSE),IF(C832=3,VLOOKUP(B832,balance!$U:$Z,4,FALSE),IF(C832=4,VLOOKUP(B832,balance!$U:$Z,5,FALSE),IF(C832=5,VLOOKUP(B832-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.66E-3</v>
+      </c>
+      <c r="H832">
+        <v>2</v>
+      </c>
+      <c r="I832" s="1">
+        <f>IF(C832=1,VLOOKUP(FoxFire!B832,balance!$AF:$AJ,2,FALSE),IF(C832=2,VLOOKUP(B832,balance!$AF:$AJ,3,FALSE),IF(C832=3,VLOOKUP(B832,balance!$AF:$AJ,4,FALSE),IF(C832=4,VLOOKUP(B832,balance!$AF:$AJ,5,FALSE),IF(C832=5,VLOOKUP(B832,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1770000000000</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>831</v>
+      </c>
+      <c r="B833">
+        <f t="shared" si="25"/>
+        <v>167</v>
+      </c>
+      <c r="C833">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D833">
+        <v>9026</v>
+      </c>
+      <c r="E833" s="1">
+        <f>IF(C833=1,VLOOKUP(B833,balance!$K:$P,2,FALSE),IF(C833=2,VLOOKUP(B833,balance!$K:$P,3,FALSE),IF(C833=3,VLOOKUP(B833,balance!$K:$P,4,FALSE),IF(C833=4,VLOOKUP(B833,balance!$K:$P,5,FALSE),IF(C833=5,VLOOKUP(B833-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4400</v>
+      </c>
+      <c r="F833">
+        <v>53</v>
+      </c>
+      <c r="G833">
+        <f>IF(C833=1,VLOOKUP(FoxFire!B833,balance!$U:$Z,2,FALSE),IF(C833=2,VLOOKUP(B833,balance!$U:$Z,3,FALSE),IF(C833=3,VLOOKUP(B833,balance!$U:$Z,4,FALSE),IF(C833=4,VLOOKUP(B833,balance!$U:$Z,5,FALSE),IF(C833=5,VLOOKUP(B833-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.66E-3</v>
+      </c>
+      <c r="H833">
+        <v>2</v>
+      </c>
+      <c r="I833" s="1">
+        <f>IF(C833=1,VLOOKUP(FoxFire!B833,balance!$AF:$AJ,2,FALSE),IF(C833=2,VLOOKUP(B833,balance!$AF:$AJ,3,FALSE),IF(C833=3,VLOOKUP(B833,balance!$AF:$AJ,4,FALSE),IF(C833=4,VLOOKUP(B833,balance!$AF:$AJ,5,FALSE),IF(C833=5,VLOOKUP(B833,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1770000000000</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>832</v>
+      </c>
+      <c r="B834">
+        <f t="shared" si="25"/>
+        <v>167</v>
+      </c>
+      <c r="C834">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D834">
+        <v>9026</v>
+      </c>
+      <c r="E834" s="1">
+        <f>IF(C834=1,VLOOKUP(B834,balance!$K:$P,2,FALSE),IF(C834=2,VLOOKUP(B834,balance!$K:$P,3,FALSE),IF(C834=3,VLOOKUP(B834,balance!$K:$P,4,FALSE),IF(C834=4,VLOOKUP(B834,balance!$K:$P,5,FALSE),IF(C834=5,VLOOKUP(B834-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4400</v>
+      </c>
+      <c r="F834">
+        <v>53</v>
+      </c>
+      <c r="G834">
+        <f>IF(C834=1,VLOOKUP(FoxFire!B834,balance!$U:$Z,2,FALSE),IF(C834=2,VLOOKUP(B834,balance!$U:$Z,3,FALSE),IF(C834=3,VLOOKUP(B834,balance!$U:$Z,4,FALSE),IF(C834=4,VLOOKUP(B834,balance!$U:$Z,5,FALSE),IF(C834=5,VLOOKUP(B834-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.66E-3</v>
+      </c>
+      <c r="H834">
+        <v>2</v>
+      </c>
+      <c r="I834" s="1">
+        <f>IF(C834=1,VLOOKUP(FoxFire!B834,balance!$AF:$AJ,2,FALSE),IF(C834=2,VLOOKUP(B834,balance!$AF:$AJ,3,FALSE),IF(C834=3,VLOOKUP(B834,balance!$AF:$AJ,4,FALSE),IF(C834=4,VLOOKUP(B834,balance!$AF:$AJ,5,FALSE),IF(C834=5,VLOOKUP(B834,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1770000000000</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835">
+        <f t="shared" si="25"/>
+        <v>167</v>
+      </c>
+      <c r="C835">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D835">
+        <v>9026</v>
+      </c>
+      <c r="E835" s="1">
+        <f>IF(C835=1,VLOOKUP(B835,balance!$K:$P,2,FALSE),IF(C835=2,VLOOKUP(B835,balance!$K:$P,3,FALSE),IF(C835=3,VLOOKUP(B835,balance!$K:$P,4,FALSE),IF(C835=4,VLOOKUP(B835,balance!$K:$P,5,FALSE),IF(C835=5,VLOOKUP(B835-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4400</v>
+      </c>
+      <c r="F835">
+        <v>53</v>
+      </c>
+      <c r="G835">
+        <f>IF(C835=1,VLOOKUP(FoxFire!B835,balance!$U:$Z,2,FALSE),IF(C835=2,VLOOKUP(B835,balance!$U:$Z,3,FALSE),IF(C835=3,VLOOKUP(B835,balance!$U:$Z,4,FALSE),IF(C835=4,VLOOKUP(B835,balance!$U:$Z,5,FALSE),IF(C835=5,VLOOKUP(B835-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.66E-3</v>
+      </c>
+      <c r="H835">
+        <v>2</v>
+      </c>
+      <c r="I835" s="1">
+        <f>IF(C835=1,VLOOKUP(FoxFire!B835,balance!$AF:$AJ,2,FALSE),IF(C835=2,VLOOKUP(B835,balance!$AF:$AJ,3,FALSE),IF(C835=3,VLOOKUP(B835,balance!$AF:$AJ,4,FALSE),IF(C835=4,VLOOKUP(B835,balance!$AF:$AJ,5,FALSE),IF(C835=5,VLOOKUP(B835,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1770000000000</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836">
+        <f t="shared" si="25"/>
+        <v>168</v>
+      </c>
+      <c r="C836">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D836">
+        <v>9026</v>
+      </c>
+      <c r="E836" s="1">
+        <f>IF(C836=1,VLOOKUP(B836,balance!$K:$P,2,FALSE),IF(C836=2,VLOOKUP(B836,balance!$K:$P,3,FALSE),IF(C836=3,VLOOKUP(B836,balance!$K:$P,4,FALSE),IF(C836=4,VLOOKUP(B836,balance!$K:$P,5,FALSE),IF(C836=5,VLOOKUP(B836-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>150480</v>
+      </c>
+      <c r="F836">
+        <v>53</v>
+      </c>
+      <c r="G836">
+        <f>IF(C836=1,VLOOKUP(FoxFire!B836,balance!$U:$Z,2,FALSE),IF(C836=2,VLOOKUP(B836,balance!$U:$Z,3,FALSE),IF(C836=3,VLOOKUP(B836,balance!$U:$Z,4,FALSE),IF(C836=4,VLOOKUP(B836,balance!$U:$Z,5,FALSE),IF(C836=5,VLOOKUP(B836-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>308.49639999999999</v>
+      </c>
+      <c r="H836">
+        <v>2</v>
+      </c>
+      <c r="I836" s="1">
+        <f>IF(C836=1,VLOOKUP(FoxFire!B836,balance!$AF:$AJ,2,FALSE),IF(C836=2,VLOOKUP(B836,balance!$AF:$AJ,3,FALSE),IF(C836=3,VLOOKUP(B836,balance!$AF:$AJ,4,FALSE),IF(C836=4,VLOOKUP(B836,balance!$AF:$AJ,5,FALSE),IF(C836=5,VLOOKUP(B836,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7140000000000</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837">
+        <f t="shared" si="25"/>
+        <v>168</v>
+      </c>
+      <c r="C837">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D837">
+        <v>9026</v>
+      </c>
+      <c r="E837" s="1">
+        <f>IF(C837=1,VLOOKUP(B837,balance!$K:$P,2,FALSE),IF(C837=2,VLOOKUP(B837,balance!$K:$P,3,FALSE),IF(C837=3,VLOOKUP(B837,balance!$K:$P,4,FALSE),IF(C837=4,VLOOKUP(B837,balance!$K:$P,5,FALSE),IF(C837=5,VLOOKUP(B837-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4425</v>
+      </c>
+      <c r="F837">
+        <v>53</v>
+      </c>
+      <c r="G837">
+        <f>IF(C837=1,VLOOKUP(FoxFire!B837,balance!$U:$Z,2,FALSE),IF(C837=2,VLOOKUP(B837,balance!$U:$Z,3,FALSE),IF(C837=3,VLOOKUP(B837,balance!$U:$Z,4,FALSE),IF(C837=4,VLOOKUP(B837,balance!$U:$Z,5,FALSE),IF(C837=5,VLOOKUP(B837-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="H837">
+        <v>2</v>
+      </c>
+      <c r="I837" s="1">
+        <f>IF(C837=1,VLOOKUP(FoxFire!B837,balance!$AF:$AJ,2,FALSE),IF(C837=2,VLOOKUP(B837,balance!$AF:$AJ,3,FALSE),IF(C837=3,VLOOKUP(B837,balance!$AF:$AJ,4,FALSE),IF(C837=4,VLOOKUP(B837,balance!$AF:$AJ,5,FALSE),IF(C837=5,VLOOKUP(B837,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1785000000000</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>836</v>
+      </c>
+      <c r="B838">
+        <f t="shared" si="25"/>
+        <v>168</v>
+      </c>
+      <c r="C838">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D838">
+        <v>9026</v>
+      </c>
+      <c r="E838" s="1">
+        <f>IF(C838=1,VLOOKUP(B838,balance!$K:$P,2,FALSE),IF(C838=2,VLOOKUP(B838,balance!$K:$P,3,FALSE),IF(C838=3,VLOOKUP(B838,balance!$K:$P,4,FALSE),IF(C838=4,VLOOKUP(B838,balance!$K:$P,5,FALSE),IF(C838=5,VLOOKUP(B838-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4425</v>
+      </c>
+      <c r="F838">
+        <v>53</v>
+      </c>
+      <c r="G838">
+        <f>IF(C838=1,VLOOKUP(FoxFire!B838,balance!$U:$Z,2,FALSE),IF(C838=2,VLOOKUP(B838,balance!$U:$Z,3,FALSE),IF(C838=3,VLOOKUP(B838,balance!$U:$Z,4,FALSE),IF(C838=4,VLOOKUP(B838,balance!$U:$Z,5,FALSE),IF(C838=5,VLOOKUP(B838-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="H838">
+        <v>2</v>
+      </c>
+      <c r="I838" s="1">
+        <f>IF(C838=1,VLOOKUP(FoxFire!B838,balance!$AF:$AJ,2,FALSE),IF(C838=2,VLOOKUP(B838,balance!$AF:$AJ,3,FALSE),IF(C838=3,VLOOKUP(B838,balance!$AF:$AJ,4,FALSE),IF(C838=4,VLOOKUP(B838,balance!$AF:$AJ,5,FALSE),IF(C838=5,VLOOKUP(B838,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1785000000000</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839">
+        <f t="shared" si="25"/>
+        <v>168</v>
+      </c>
+      <c r="C839">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D839">
+        <v>9026</v>
+      </c>
+      <c r="E839" s="1">
+        <f>IF(C839=1,VLOOKUP(B839,balance!$K:$P,2,FALSE),IF(C839=2,VLOOKUP(B839,balance!$K:$P,3,FALSE),IF(C839=3,VLOOKUP(B839,balance!$K:$P,4,FALSE),IF(C839=4,VLOOKUP(B839,balance!$K:$P,5,FALSE),IF(C839=5,VLOOKUP(B839-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4425</v>
+      </c>
+      <c r="F839">
+        <v>53</v>
+      </c>
+      <c r="G839">
+        <f>IF(C839=1,VLOOKUP(FoxFire!B839,balance!$U:$Z,2,FALSE),IF(C839=2,VLOOKUP(B839,balance!$U:$Z,3,FALSE),IF(C839=3,VLOOKUP(B839,balance!$U:$Z,4,FALSE),IF(C839=4,VLOOKUP(B839,balance!$U:$Z,5,FALSE),IF(C839=5,VLOOKUP(B839-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="H839">
+        <v>2</v>
+      </c>
+      <c r="I839" s="1">
+        <f>IF(C839=1,VLOOKUP(FoxFire!B839,balance!$AF:$AJ,2,FALSE),IF(C839=2,VLOOKUP(B839,balance!$AF:$AJ,3,FALSE),IF(C839=3,VLOOKUP(B839,balance!$AF:$AJ,4,FALSE),IF(C839=4,VLOOKUP(B839,balance!$AF:$AJ,5,FALSE),IF(C839=5,VLOOKUP(B839,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1785000000000</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840">
+        <f t="shared" si="25"/>
+        <v>168</v>
+      </c>
+      <c r="C840">
+        <f t="shared" ref="C840:C903" si="26">C835</f>
+        <v>4</v>
+      </c>
+      <c r="D840">
+        <v>9026</v>
+      </c>
+      <c r="E840" s="1">
+        <f>IF(C840=1,VLOOKUP(B840,balance!$K:$P,2,FALSE),IF(C840=2,VLOOKUP(B840,balance!$K:$P,3,FALSE),IF(C840=3,VLOOKUP(B840,balance!$K:$P,4,FALSE),IF(C840=4,VLOOKUP(B840,balance!$K:$P,5,FALSE),IF(C840=5,VLOOKUP(B840-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4425</v>
+      </c>
+      <c r="F840">
+        <v>53</v>
+      </c>
+      <c r="G840">
+        <f>IF(C840=1,VLOOKUP(FoxFire!B840,balance!$U:$Z,2,FALSE),IF(C840=2,VLOOKUP(B840,balance!$U:$Z,3,FALSE),IF(C840=3,VLOOKUP(B840,balance!$U:$Z,4,FALSE),IF(C840=4,VLOOKUP(B840,balance!$U:$Z,5,FALSE),IF(C840=5,VLOOKUP(B840-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="H840">
+        <v>2</v>
+      </c>
+      <c r="I840" s="1">
+        <f>IF(C840=1,VLOOKUP(FoxFire!B840,balance!$AF:$AJ,2,FALSE),IF(C840=2,VLOOKUP(B840,balance!$AF:$AJ,3,FALSE),IF(C840=3,VLOOKUP(B840,balance!$AF:$AJ,4,FALSE),IF(C840=4,VLOOKUP(B840,balance!$AF:$AJ,5,FALSE),IF(C840=5,VLOOKUP(B840,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1785000000000</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>839</v>
+      </c>
+      <c r="B841">
+        <f t="shared" si="25"/>
+        <v>169</v>
+      </c>
+      <c r="C841">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D841">
+        <v>9026</v>
+      </c>
+      <c r="E841" s="1">
+        <f>IF(C841=1,VLOOKUP(B841,balance!$K:$P,2,FALSE),IF(C841=2,VLOOKUP(B841,balance!$K:$P,3,FALSE),IF(C841=3,VLOOKUP(B841,balance!$K:$P,4,FALSE),IF(C841=4,VLOOKUP(B841,balance!$K:$P,5,FALSE),IF(C841=5,VLOOKUP(B841-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>152220</v>
+      </c>
+      <c r="F841">
+        <v>53</v>
+      </c>
+      <c r="G841">
+        <f>IF(C841=1,VLOOKUP(FoxFire!B841,balance!$U:$Z,2,FALSE),IF(C841=2,VLOOKUP(B841,balance!$U:$Z,3,FALSE),IF(C841=3,VLOOKUP(B841,balance!$U:$Z,4,FALSE),IF(C841=4,VLOOKUP(B841,balance!$U:$Z,5,FALSE),IF(C841=5,VLOOKUP(B841-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>315.84929999999997</v>
+      </c>
+      <c r="H841">
+        <v>2</v>
+      </c>
+      <c r="I841" s="1">
+        <f>IF(C841=1,VLOOKUP(FoxFire!B841,balance!$AF:$AJ,2,FALSE),IF(C841=2,VLOOKUP(B841,balance!$AF:$AJ,3,FALSE),IF(C841=3,VLOOKUP(B841,balance!$AF:$AJ,4,FALSE),IF(C841=4,VLOOKUP(B841,balance!$AF:$AJ,5,FALSE),IF(C841=5,VLOOKUP(B841,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7200000000000</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842">
+        <f t="shared" si="25"/>
+        <v>169</v>
+      </c>
+      <c r="C842">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D842">
+        <v>9026</v>
+      </c>
+      <c r="E842" s="1">
+        <f>IF(C842=1,VLOOKUP(B842,balance!$K:$P,2,FALSE),IF(C842=2,VLOOKUP(B842,balance!$K:$P,3,FALSE),IF(C842=3,VLOOKUP(B842,balance!$K:$P,4,FALSE),IF(C842=4,VLOOKUP(B842,balance!$K:$P,5,FALSE),IF(C842=5,VLOOKUP(B842-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4450</v>
+      </c>
+      <c r="F842">
+        <v>53</v>
+      </c>
+      <c r="G842">
+        <f>IF(C842=1,VLOOKUP(FoxFire!B842,balance!$U:$Z,2,FALSE),IF(C842=2,VLOOKUP(B842,balance!$U:$Z,3,FALSE),IF(C842=3,VLOOKUP(B842,balance!$U:$Z,4,FALSE),IF(C842=4,VLOOKUP(B842,balance!$U:$Z,5,FALSE),IF(C842=5,VLOOKUP(B842-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="H842">
+        <v>2</v>
+      </c>
+      <c r="I842" s="1">
+        <f>IF(C842=1,VLOOKUP(FoxFire!B842,balance!$AF:$AJ,2,FALSE),IF(C842=2,VLOOKUP(B842,balance!$AF:$AJ,3,FALSE),IF(C842=3,VLOOKUP(B842,balance!$AF:$AJ,4,FALSE),IF(C842=4,VLOOKUP(B842,balance!$AF:$AJ,5,FALSE),IF(C842=5,VLOOKUP(B842,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1800000000000</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843">
+        <f t="shared" si="25"/>
+        <v>169</v>
+      </c>
+      <c r="C843">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D843">
+        <v>9026</v>
+      </c>
+      <c r="E843" s="1">
+        <f>IF(C843=1,VLOOKUP(B843,balance!$K:$P,2,FALSE),IF(C843=2,VLOOKUP(B843,balance!$K:$P,3,FALSE),IF(C843=3,VLOOKUP(B843,balance!$K:$P,4,FALSE),IF(C843=4,VLOOKUP(B843,balance!$K:$P,5,FALSE),IF(C843=5,VLOOKUP(B843-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4450</v>
+      </c>
+      <c r="F843">
+        <v>53</v>
+      </c>
+      <c r="G843">
+        <f>IF(C843=1,VLOOKUP(FoxFire!B843,balance!$U:$Z,2,FALSE),IF(C843=2,VLOOKUP(B843,balance!$U:$Z,3,FALSE),IF(C843=3,VLOOKUP(B843,balance!$U:$Z,4,FALSE),IF(C843=4,VLOOKUP(B843,balance!$U:$Z,5,FALSE),IF(C843=5,VLOOKUP(B843-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="H843">
+        <v>2</v>
+      </c>
+      <c r="I843" s="1">
+        <f>IF(C843=1,VLOOKUP(FoxFire!B843,balance!$AF:$AJ,2,FALSE),IF(C843=2,VLOOKUP(B843,balance!$AF:$AJ,3,FALSE),IF(C843=3,VLOOKUP(B843,balance!$AF:$AJ,4,FALSE),IF(C843=4,VLOOKUP(B843,balance!$AF:$AJ,5,FALSE),IF(C843=5,VLOOKUP(B843,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1800000000000</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>842</v>
+      </c>
+      <c r="B844">
+        <f t="shared" ref="B844:B907" si="27">B839+1</f>
+        <v>169</v>
+      </c>
+      <c r="C844">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D844">
+        <v>9026</v>
+      </c>
+      <c r="E844" s="1">
+        <f>IF(C844=1,VLOOKUP(B844,balance!$K:$P,2,FALSE),IF(C844=2,VLOOKUP(B844,balance!$K:$P,3,FALSE),IF(C844=3,VLOOKUP(B844,balance!$K:$P,4,FALSE),IF(C844=4,VLOOKUP(B844,balance!$K:$P,5,FALSE),IF(C844=5,VLOOKUP(B844-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4450</v>
+      </c>
+      <c r="F844">
+        <v>53</v>
+      </c>
+      <c r="G844">
+        <f>IF(C844=1,VLOOKUP(FoxFire!B844,balance!$U:$Z,2,FALSE),IF(C844=2,VLOOKUP(B844,balance!$U:$Z,3,FALSE),IF(C844=3,VLOOKUP(B844,balance!$U:$Z,4,FALSE),IF(C844=4,VLOOKUP(B844,balance!$U:$Z,5,FALSE),IF(C844=5,VLOOKUP(B844-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="H844">
+        <v>2</v>
+      </c>
+      <c r="I844" s="1">
+        <f>IF(C844=1,VLOOKUP(FoxFire!B844,balance!$AF:$AJ,2,FALSE),IF(C844=2,VLOOKUP(B844,balance!$AF:$AJ,3,FALSE),IF(C844=3,VLOOKUP(B844,balance!$AF:$AJ,4,FALSE),IF(C844=4,VLOOKUP(B844,balance!$AF:$AJ,5,FALSE),IF(C844=5,VLOOKUP(B844,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1800000000000</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845">
+        <f t="shared" si="27"/>
+        <v>169</v>
+      </c>
+      <c r="C845">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D845">
+        <v>9026</v>
+      </c>
+      <c r="E845" s="1">
+        <f>IF(C845=1,VLOOKUP(B845,balance!$K:$P,2,FALSE),IF(C845=2,VLOOKUP(B845,balance!$K:$P,3,FALSE),IF(C845=3,VLOOKUP(B845,balance!$K:$P,4,FALSE),IF(C845=4,VLOOKUP(B845,balance!$K:$P,5,FALSE),IF(C845=5,VLOOKUP(B845-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4450</v>
+      </c>
+      <c r="F845">
+        <v>53</v>
+      </c>
+      <c r="G845">
+        <f>IF(C845=1,VLOOKUP(FoxFire!B845,balance!$U:$Z,2,FALSE),IF(C845=2,VLOOKUP(B845,balance!$U:$Z,3,FALSE),IF(C845=3,VLOOKUP(B845,balance!$U:$Z,4,FALSE),IF(C845=4,VLOOKUP(B845,balance!$U:$Z,5,FALSE),IF(C845=5,VLOOKUP(B845-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="H845">
+        <v>2</v>
+      </c>
+      <c r="I845" s="1">
+        <f>IF(C845=1,VLOOKUP(FoxFire!B845,balance!$AF:$AJ,2,FALSE),IF(C845=2,VLOOKUP(B845,balance!$AF:$AJ,3,FALSE),IF(C845=3,VLOOKUP(B845,balance!$AF:$AJ,4,FALSE),IF(C845=4,VLOOKUP(B845,balance!$AF:$AJ,5,FALSE),IF(C845=5,VLOOKUP(B845,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1800000000000</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>844</v>
+      </c>
+      <c r="B846">
+        <f t="shared" si="27"/>
+        <v>170</v>
+      </c>
+      <c r="C846">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D846">
+        <v>9026</v>
+      </c>
+      <c r="E846" s="1">
+        <f>IF(C846=1,VLOOKUP(B846,balance!$K:$P,2,FALSE),IF(C846=2,VLOOKUP(B846,balance!$K:$P,3,FALSE),IF(C846=3,VLOOKUP(B846,balance!$K:$P,4,FALSE),IF(C846=4,VLOOKUP(B846,balance!$K:$P,5,FALSE),IF(C846=5,VLOOKUP(B846-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>153970</v>
+      </c>
+      <c r="F846">
+        <v>53</v>
+      </c>
+      <c r="G846">
+        <f>IF(C846=1,VLOOKUP(FoxFire!B846,balance!$U:$Z,2,FALSE),IF(C846=2,VLOOKUP(B846,balance!$U:$Z,3,FALSE),IF(C846=3,VLOOKUP(B846,balance!$U:$Z,4,FALSE),IF(C846=4,VLOOKUP(B846,balance!$U:$Z,5,FALSE),IF(C846=5,VLOOKUP(B846-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>323.37289999999996</v>
+      </c>
+      <c r="H846">
+        <v>2</v>
+      </c>
+      <c r="I846" s="1">
+        <f>IF(C846=1,VLOOKUP(FoxFire!B846,balance!$AF:$AJ,2,FALSE),IF(C846=2,VLOOKUP(B846,balance!$AF:$AJ,3,FALSE),IF(C846=3,VLOOKUP(B846,balance!$AF:$AJ,4,FALSE),IF(C846=4,VLOOKUP(B846,balance!$AF:$AJ,5,FALSE),IF(C846=5,VLOOKUP(B846,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7260000000000</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847">
+        <f t="shared" si="27"/>
+        <v>170</v>
+      </c>
+      <c r="C847">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D847">
+        <v>9026</v>
+      </c>
+      <c r="E847" s="1">
+        <f>IF(C847=1,VLOOKUP(B847,balance!$K:$P,2,FALSE),IF(C847=2,VLOOKUP(B847,balance!$K:$P,3,FALSE),IF(C847=3,VLOOKUP(B847,balance!$K:$P,4,FALSE),IF(C847=4,VLOOKUP(B847,balance!$K:$P,5,FALSE),IF(C847=5,VLOOKUP(B847-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4475</v>
+      </c>
+      <c r="F847">
+        <v>53</v>
+      </c>
+      <c r="G847">
+        <f>IF(C847=1,VLOOKUP(FoxFire!B847,balance!$U:$Z,2,FALSE),IF(C847=2,VLOOKUP(B847,balance!$U:$Z,3,FALSE),IF(C847=3,VLOOKUP(B847,balance!$U:$Z,4,FALSE),IF(C847=4,VLOOKUP(B847,balance!$U:$Z,5,FALSE),IF(C847=5,VLOOKUP(B847-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="H847">
+        <v>2</v>
+      </c>
+      <c r="I847" s="1">
+        <f>IF(C847=1,VLOOKUP(FoxFire!B847,balance!$AF:$AJ,2,FALSE),IF(C847=2,VLOOKUP(B847,balance!$AF:$AJ,3,FALSE),IF(C847=3,VLOOKUP(B847,balance!$AF:$AJ,4,FALSE),IF(C847=4,VLOOKUP(B847,balance!$AF:$AJ,5,FALSE),IF(C847=5,VLOOKUP(B847,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1815000000000</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848">
+        <f t="shared" si="27"/>
+        <v>170</v>
+      </c>
+      <c r="C848">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D848">
+        <v>9026</v>
+      </c>
+      <c r="E848" s="1">
+        <f>IF(C848=1,VLOOKUP(B848,balance!$K:$P,2,FALSE),IF(C848=2,VLOOKUP(B848,balance!$K:$P,3,FALSE),IF(C848=3,VLOOKUP(B848,balance!$K:$P,4,FALSE),IF(C848=4,VLOOKUP(B848,balance!$K:$P,5,FALSE),IF(C848=5,VLOOKUP(B848-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4475</v>
+      </c>
+      <c r="F848">
+        <v>53</v>
+      </c>
+      <c r="G848">
+        <f>IF(C848=1,VLOOKUP(FoxFire!B848,balance!$U:$Z,2,FALSE),IF(C848=2,VLOOKUP(B848,balance!$U:$Z,3,FALSE),IF(C848=3,VLOOKUP(B848,balance!$U:$Z,4,FALSE),IF(C848=4,VLOOKUP(B848,balance!$U:$Z,5,FALSE),IF(C848=5,VLOOKUP(B848-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="H848">
+        <v>2</v>
+      </c>
+      <c r="I848" s="1">
+        <f>IF(C848=1,VLOOKUP(FoxFire!B848,balance!$AF:$AJ,2,FALSE),IF(C848=2,VLOOKUP(B848,balance!$AF:$AJ,3,FALSE),IF(C848=3,VLOOKUP(B848,balance!$AF:$AJ,4,FALSE),IF(C848=4,VLOOKUP(B848,balance!$AF:$AJ,5,FALSE),IF(C848=5,VLOOKUP(B848,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1815000000000</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849">
+        <f t="shared" si="27"/>
+        <v>170</v>
+      </c>
+      <c r="C849">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D849">
+        <v>9026</v>
+      </c>
+      <c r="E849" s="1">
+        <f>IF(C849=1,VLOOKUP(B849,balance!$K:$P,2,FALSE),IF(C849=2,VLOOKUP(B849,balance!$K:$P,3,FALSE),IF(C849=3,VLOOKUP(B849,balance!$K:$P,4,FALSE),IF(C849=4,VLOOKUP(B849,balance!$K:$P,5,FALSE),IF(C849=5,VLOOKUP(B849-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4475</v>
+      </c>
+      <c r="F849">
+        <v>53</v>
+      </c>
+      <c r="G849">
+        <f>IF(C849=1,VLOOKUP(FoxFire!B849,balance!$U:$Z,2,FALSE),IF(C849=2,VLOOKUP(B849,balance!$U:$Z,3,FALSE),IF(C849=3,VLOOKUP(B849,balance!$U:$Z,4,FALSE),IF(C849=4,VLOOKUP(B849,balance!$U:$Z,5,FALSE),IF(C849=5,VLOOKUP(B849-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="H849">
+        <v>2</v>
+      </c>
+      <c r="I849" s="1">
+        <f>IF(C849=1,VLOOKUP(FoxFire!B849,balance!$AF:$AJ,2,FALSE),IF(C849=2,VLOOKUP(B849,balance!$AF:$AJ,3,FALSE),IF(C849=3,VLOOKUP(B849,balance!$AF:$AJ,4,FALSE),IF(C849=4,VLOOKUP(B849,balance!$AF:$AJ,5,FALSE),IF(C849=5,VLOOKUP(B849,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1815000000000</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>848</v>
+      </c>
+      <c r="B850">
+        <f t="shared" si="27"/>
+        <v>170</v>
+      </c>
+      <c r="C850">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D850">
+        <v>9026</v>
+      </c>
+      <c r="E850" s="1">
+        <f>IF(C850=1,VLOOKUP(B850,balance!$K:$P,2,FALSE),IF(C850=2,VLOOKUP(B850,balance!$K:$P,3,FALSE),IF(C850=3,VLOOKUP(B850,balance!$K:$P,4,FALSE),IF(C850=4,VLOOKUP(B850,balance!$K:$P,5,FALSE),IF(C850=5,VLOOKUP(B850-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4475</v>
+      </c>
+      <c r="F850">
+        <v>53</v>
+      </c>
+      <c r="G850">
+        <f>IF(C850=1,VLOOKUP(FoxFire!B850,balance!$U:$Z,2,FALSE),IF(C850=2,VLOOKUP(B850,balance!$U:$Z,3,FALSE),IF(C850=3,VLOOKUP(B850,balance!$U:$Z,4,FALSE),IF(C850=4,VLOOKUP(B850,balance!$U:$Z,5,FALSE),IF(C850=5,VLOOKUP(B850-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="H850">
+        <v>2</v>
+      </c>
+      <c r="I850" s="1">
+        <f>IF(C850=1,VLOOKUP(FoxFire!B850,balance!$AF:$AJ,2,FALSE),IF(C850=2,VLOOKUP(B850,balance!$AF:$AJ,3,FALSE),IF(C850=3,VLOOKUP(B850,balance!$AF:$AJ,4,FALSE),IF(C850=4,VLOOKUP(B850,balance!$AF:$AJ,5,FALSE),IF(C850=5,VLOOKUP(B850,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1815000000000</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851">
+        <f t="shared" si="27"/>
+        <v>171</v>
+      </c>
+      <c r="C851">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D851">
+        <v>9026</v>
+      </c>
+      <c r="E851" s="1">
+        <f>IF(C851=1,VLOOKUP(B851,balance!$K:$P,2,FALSE),IF(C851=2,VLOOKUP(B851,balance!$K:$P,3,FALSE),IF(C851=3,VLOOKUP(B851,balance!$K:$P,4,FALSE),IF(C851=4,VLOOKUP(B851,balance!$K:$P,5,FALSE),IF(C851=5,VLOOKUP(B851-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>155730</v>
+      </c>
+      <c r="F851">
+        <v>53</v>
+      </c>
+      <c r="G851">
+        <f>IF(C851=1,VLOOKUP(FoxFire!B851,balance!$U:$Z,2,FALSE),IF(C851=2,VLOOKUP(B851,balance!$U:$Z,3,FALSE),IF(C851=3,VLOOKUP(B851,balance!$U:$Z,4,FALSE),IF(C851=4,VLOOKUP(B851,balance!$U:$Z,5,FALSE),IF(C851=5,VLOOKUP(B851-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>331.0711</v>
+      </c>
+      <c r="H851">
+        <v>2</v>
+      </c>
+      <c r="I851" s="1">
+        <f>IF(C851=1,VLOOKUP(FoxFire!B851,balance!$AF:$AJ,2,FALSE),IF(C851=2,VLOOKUP(B851,balance!$AF:$AJ,3,FALSE),IF(C851=3,VLOOKUP(B851,balance!$AF:$AJ,4,FALSE),IF(C851=4,VLOOKUP(B851,balance!$AF:$AJ,5,FALSE),IF(C851=5,VLOOKUP(B851,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7320000000000</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>850</v>
+      </c>
+      <c r="B852">
+        <f t="shared" si="27"/>
+        <v>171</v>
+      </c>
+      <c r="C852">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D852">
+        <v>9026</v>
+      </c>
+      <c r="E852" s="1">
+        <f>IF(C852=1,VLOOKUP(B852,balance!$K:$P,2,FALSE),IF(C852=2,VLOOKUP(B852,balance!$K:$P,3,FALSE),IF(C852=3,VLOOKUP(B852,balance!$K:$P,4,FALSE),IF(C852=4,VLOOKUP(B852,balance!$K:$P,5,FALSE),IF(C852=5,VLOOKUP(B852-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4500</v>
+      </c>
+      <c r="F852">
+        <v>53</v>
+      </c>
+      <c r="G852">
+        <f>IF(C852=1,VLOOKUP(FoxFire!B852,balance!$U:$Z,2,FALSE),IF(C852=2,VLOOKUP(B852,balance!$U:$Z,3,FALSE),IF(C852=3,VLOOKUP(B852,balance!$U:$Z,4,FALSE),IF(C852=4,VLOOKUP(B852,balance!$U:$Z,5,FALSE),IF(C852=5,VLOOKUP(B852-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H852">
+        <v>2</v>
+      </c>
+      <c r="I852" s="1">
+        <f>IF(C852=1,VLOOKUP(FoxFire!B852,balance!$AF:$AJ,2,FALSE),IF(C852=2,VLOOKUP(B852,balance!$AF:$AJ,3,FALSE),IF(C852=3,VLOOKUP(B852,balance!$AF:$AJ,4,FALSE),IF(C852=4,VLOOKUP(B852,balance!$AF:$AJ,5,FALSE),IF(C852=5,VLOOKUP(B852,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1830000000000</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>851</v>
+      </c>
+      <c r="B853">
+        <f t="shared" si="27"/>
+        <v>171</v>
+      </c>
+      <c r="C853">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D853">
+        <v>9026</v>
+      </c>
+      <c r="E853" s="1">
+        <f>IF(C853=1,VLOOKUP(B853,balance!$K:$P,2,FALSE),IF(C853=2,VLOOKUP(B853,balance!$K:$P,3,FALSE),IF(C853=3,VLOOKUP(B853,balance!$K:$P,4,FALSE),IF(C853=4,VLOOKUP(B853,balance!$K:$P,5,FALSE),IF(C853=5,VLOOKUP(B853-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4500</v>
+      </c>
+      <c r="F853">
+        <v>53</v>
+      </c>
+      <c r="G853">
+        <f>IF(C853=1,VLOOKUP(FoxFire!B853,balance!$U:$Z,2,FALSE),IF(C853=2,VLOOKUP(B853,balance!$U:$Z,3,FALSE),IF(C853=3,VLOOKUP(B853,balance!$U:$Z,4,FALSE),IF(C853=4,VLOOKUP(B853,balance!$U:$Z,5,FALSE),IF(C853=5,VLOOKUP(B853-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H853">
+        <v>2</v>
+      </c>
+      <c r="I853" s="1">
+        <f>IF(C853=1,VLOOKUP(FoxFire!B853,balance!$AF:$AJ,2,FALSE),IF(C853=2,VLOOKUP(B853,balance!$AF:$AJ,3,FALSE),IF(C853=3,VLOOKUP(B853,balance!$AF:$AJ,4,FALSE),IF(C853=4,VLOOKUP(B853,balance!$AF:$AJ,5,FALSE),IF(C853=5,VLOOKUP(B853,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1830000000000</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>852</v>
+      </c>
+      <c r="B854">
+        <f t="shared" si="27"/>
+        <v>171</v>
+      </c>
+      <c r="C854">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D854">
+        <v>9026</v>
+      </c>
+      <c r="E854" s="1">
+        <f>IF(C854=1,VLOOKUP(B854,balance!$K:$P,2,FALSE),IF(C854=2,VLOOKUP(B854,balance!$K:$P,3,FALSE),IF(C854=3,VLOOKUP(B854,balance!$K:$P,4,FALSE),IF(C854=4,VLOOKUP(B854,balance!$K:$P,5,FALSE),IF(C854=5,VLOOKUP(B854-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4500</v>
+      </c>
+      <c r="F854">
+        <v>53</v>
+      </c>
+      <c r="G854">
+        <f>IF(C854=1,VLOOKUP(FoxFire!B854,balance!$U:$Z,2,FALSE),IF(C854=2,VLOOKUP(B854,balance!$U:$Z,3,FALSE),IF(C854=3,VLOOKUP(B854,balance!$U:$Z,4,FALSE),IF(C854=4,VLOOKUP(B854,balance!$U:$Z,5,FALSE),IF(C854=5,VLOOKUP(B854-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H854">
+        <v>2</v>
+      </c>
+      <c r="I854" s="1">
+        <f>IF(C854=1,VLOOKUP(FoxFire!B854,balance!$AF:$AJ,2,FALSE),IF(C854=2,VLOOKUP(B854,balance!$AF:$AJ,3,FALSE),IF(C854=3,VLOOKUP(B854,balance!$AF:$AJ,4,FALSE),IF(C854=4,VLOOKUP(B854,balance!$AF:$AJ,5,FALSE),IF(C854=5,VLOOKUP(B854,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1830000000000</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>853</v>
+      </c>
+      <c r="B855">
+        <f t="shared" si="27"/>
+        <v>171</v>
+      </c>
+      <c r="C855">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D855">
+        <v>9026</v>
+      </c>
+      <c r="E855" s="1">
+        <f>IF(C855=1,VLOOKUP(B855,balance!$K:$P,2,FALSE),IF(C855=2,VLOOKUP(B855,balance!$K:$P,3,FALSE),IF(C855=3,VLOOKUP(B855,balance!$K:$P,4,FALSE),IF(C855=4,VLOOKUP(B855,balance!$K:$P,5,FALSE),IF(C855=5,VLOOKUP(B855-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4500</v>
+      </c>
+      <c r="F855">
+        <v>53</v>
+      </c>
+      <c r="G855">
+        <f>IF(C855=1,VLOOKUP(FoxFire!B855,balance!$U:$Z,2,FALSE),IF(C855=2,VLOOKUP(B855,balance!$U:$Z,3,FALSE),IF(C855=3,VLOOKUP(B855,balance!$U:$Z,4,FALSE),IF(C855=4,VLOOKUP(B855,balance!$U:$Z,5,FALSE),IF(C855=5,VLOOKUP(B855-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H855">
+        <v>2</v>
+      </c>
+      <c r="I855" s="1">
+        <f>IF(C855=1,VLOOKUP(FoxFire!B855,balance!$AF:$AJ,2,FALSE),IF(C855=2,VLOOKUP(B855,balance!$AF:$AJ,3,FALSE),IF(C855=3,VLOOKUP(B855,balance!$AF:$AJ,4,FALSE),IF(C855=4,VLOOKUP(B855,balance!$AF:$AJ,5,FALSE),IF(C855=5,VLOOKUP(B855,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1830000000000</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856">
+        <f t="shared" si="27"/>
+        <v>172</v>
+      </c>
+      <c r="C856">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D856">
+        <v>9026</v>
+      </c>
+      <c r="E856" s="1">
+        <f>IF(C856=1,VLOOKUP(B856,balance!$K:$P,2,FALSE),IF(C856=2,VLOOKUP(B856,balance!$K:$P,3,FALSE),IF(C856=3,VLOOKUP(B856,balance!$K:$P,4,FALSE),IF(C856=4,VLOOKUP(B856,balance!$K:$P,5,FALSE),IF(C856=5,VLOOKUP(B856-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>157500</v>
+      </c>
+      <c r="F856">
+        <v>53</v>
+      </c>
+      <c r="G856">
+        <f>IF(C856=1,VLOOKUP(FoxFire!B856,balance!$U:$Z,2,FALSE),IF(C856=2,VLOOKUP(B856,balance!$U:$Z,3,FALSE),IF(C856=3,VLOOKUP(B856,balance!$U:$Z,4,FALSE),IF(C856=4,VLOOKUP(B856,balance!$U:$Z,5,FALSE),IF(C856=5,VLOOKUP(B856-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>338.9479</v>
+      </c>
+      <c r="H856">
+        <v>2</v>
+      </c>
+      <c r="I856" s="1">
+        <f>IF(C856=1,VLOOKUP(FoxFire!B856,balance!$AF:$AJ,2,FALSE),IF(C856=2,VLOOKUP(B856,balance!$AF:$AJ,3,FALSE),IF(C856=3,VLOOKUP(B856,balance!$AF:$AJ,4,FALSE),IF(C856=4,VLOOKUP(B856,balance!$AF:$AJ,5,FALSE),IF(C856=5,VLOOKUP(B856,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7380000000000</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>855</v>
+      </c>
+      <c r="B857">
+        <f t="shared" si="27"/>
+        <v>172</v>
+      </c>
+      <c r="C857">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D857">
+        <v>9026</v>
+      </c>
+      <c r="E857" s="1">
+        <f>IF(C857=1,VLOOKUP(B857,balance!$K:$P,2,FALSE),IF(C857=2,VLOOKUP(B857,balance!$K:$P,3,FALSE),IF(C857=3,VLOOKUP(B857,balance!$K:$P,4,FALSE),IF(C857=4,VLOOKUP(B857,balance!$K:$P,5,FALSE),IF(C857=5,VLOOKUP(B857-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4525</v>
+      </c>
+      <c r="F857">
+        <v>53</v>
+      </c>
+      <c r="G857">
+        <f>IF(C857=1,VLOOKUP(FoxFire!B857,balance!$U:$Z,2,FALSE),IF(C857=2,VLOOKUP(B857,balance!$U:$Z,3,FALSE),IF(C857=3,VLOOKUP(B857,balance!$U:$Z,4,FALSE),IF(C857=4,VLOOKUP(B857,balance!$U:$Z,5,FALSE),IF(C857=5,VLOOKUP(B857-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="H857">
+        <v>2</v>
+      </c>
+      <c r="I857" s="1">
+        <f>IF(C857=1,VLOOKUP(FoxFire!B857,balance!$AF:$AJ,2,FALSE),IF(C857=2,VLOOKUP(B857,balance!$AF:$AJ,3,FALSE),IF(C857=3,VLOOKUP(B857,balance!$AF:$AJ,4,FALSE),IF(C857=4,VLOOKUP(B857,balance!$AF:$AJ,5,FALSE),IF(C857=5,VLOOKUP(B857,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1845000000000</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>856</v>
+      </c>
+      <c r="B858">
+        <f t="shared" si="27"/>
+        <v>172</v>
+      </c>
+      <c r="C858">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D858">
+        <v>9026</v>
+      </c>
+      <c r="E858" s="1">
+        <f>IF(C858=1,VLOOKUP(B858,balance!$K:$P,2,FALSE),IF(C858=2,VLOOKUP(B858,balance!$K:$P,3,FALSE),IF(C858=3,VLOOKUP(B858,balance!$K:$P,4,FALSE),IF(C858=4,VLOOKUP(B858,balance!$K:$P,5,FALSE),IF(C858=5,VLOOKUP(B858-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4525</v>
+      </c>
+      <c r="F858">
+        <v>53</v>
+      </c>
+      <c r="G858">
+        <f>IF(C858=1,VLOOKUP(FoxFire!B858,balance!$U:$Z,2,FALSE),IF(C858=2,VLOOKUP(B858,balance!$U:$Z,3,FALSE),IF(C858=3,VLOOKUP(B858,balance!$U:$Z,4,FALSE),IF(C858=4,VLOOKUP(B858,balance!$U:$Z,5,FALSE),IF(C858=5,VLOOKUP(B858-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="H858">
+        <v>2</v>
+      </c>
+      <c r="I858" s="1">
+        <f>IF(C858=1,VLOOKUP(FoxFire!B858,balance!$AF:$AJ,2,FALSE),IF(C858=2,VLOOKUP(B858,balance!$AF:$AJ,3,FALSE),IF(C858=3,VLOOKUP(B858,balance!$AF:$AJ,4,FALSE),IF(C858=4,VLOOKUP(B858,balance!$AF:$AJ,5,FALSE),IF(C858=5,VLOOKUP(B858,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1845000000000</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>857</v>
+      </c>
+      <c r="B859">
+        <f t="shared" si="27"/>
+        <v>172</v>
+      </c>
+      <c r="C859">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D859">
+        <v>9026</v>
+      </c>
+      <c r="E859" s="1">
+        <f>IF(C859=1,VLOOKUP(B859,balance!$K:$P,2,FALSE),IF(C859=2,VLOOKUP(B859,balance!$K:$P,3,FALSE),IF(C859=3,VLOOKUP(B859,balance!$K:$P,4,FALSE),IF(C859=4,VLOOKUP(B859,balance!$K:$P,5,FALSE),IF(C859=5,VLOOKUP(B859-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4525</v>
+      </c>
+      <c r="F859">
+        <v>53</v>
+      </c>
+      <c r="G859">
+        <f>IF(C859=1,VLOOKUP(FoxFire!B859,balance!$U:$Z,2,FALSE),IF(C859=2,VLOOKUP(B859,balance!$U:$Z,3,FALSE),IF(C859=3,VLOOKUP(B859,balance!$U:$Z,4,FALSE),IF(C859=4,VLOOKUP(B859,balance!$U:$Z,5,FALSE),IF(C859=5,VLOOKUP(B859-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="H859">
+        <v>2</v>
+      </c>
+      <c r="I859" s="1">
+        <f>IF(C859=1,VLOOKUP(FoxFire!B859,balance!$AF:$AJ,2,FALSE),IF(C859=2,VLOOKUP(B859,balance!$AF:$AJ,3,FALSE),IF(C859=3,VLOOKUP(B859,balance!$AF:$AJ,4,FALSE),IF(C859=4,VLOOKUP(B859,balance!$AF:$AJ,5,FALSE),IF(C859=5,VLOOKUP(B859,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1845000000000</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>858</v>
+      </c>
+      <c r="B860">
+        <f t="shared" si="27"/>
+        <v>172</v>
+      </c>
+      <c r="C860">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D860">
+        <v>9026</v>
+      </c>
+      <c r="E860" s="1">
+        <f>IF(C860=1,VLOOKUP(B860,balance!$K:$P,2,FALSE),IF(C860=2,VLOOKUP(B860,balance!$K:$P,3,FALSE),IF(C860=3,VLOOKUP(B860,balance!$K:$P,4,FALSE),IF(C860=4,VLOOKUP(B860,balance!$K:$P,5,FALSE),IF(C860=5,VLOOKUP(B860-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4525</v>
+      </c>
+      <c r="F860">
+        <v>53</v>
+      </c>
+      <c r="G860">
+        <f>IF(C860=1,VLOOKUP(FoxFire!B860,balance!$U:$Z,2,FALSE),IF(C860=2,VLOOKUP(B860,balance!$U:$Z,3,FALSE),IF(C860=3,VLOOKUP(B860,balance!$U:$Z,4,FALSE),IF(C860=4,VLOOKUP(B860,balance!$U:$Z,5,FALSE),IF(C860=5,VLOOKUP(B860-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="H860">
+        <v>2</v>
+      </c>
+      <c r="I860" s="1">
+        <f>IF(C860=1,VLOOKUP(FoxFire!B860,balance!$AF:$AJ,2,FALSE),IF(C860=2,VLOOKUP(B860,balance!$AF:$AJ,3,FALSE),IF(C860=3,VLOOKUP(B860,balance!$AF:$AJ,4,FALSE),IF(C860=4,VLOOKUP(B860,balance!$AF:$AJ,5,FALSE),IF(C860=5,VLOOKUP(B860,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1845000000000</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>859</v>
+      </c>
+      <c r="B861">
+        <f t="shared" si="27"/>
+        <v>173</v>
+      </c>
+      <c r="C861">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D861">
+        <v>9026</v>
+      </c>
+      <c r="E861" s="1">
+        <f>IF(C861=1,VLOOKUP(B861,balance!$K:$P,2,FALSE),IF(C861=2,VLOOKUP(B861,balance!$K:$P,3,FALSE),IF(C861=3,VLOOKUP(B861,balance!$K:$P,4,FALSE),IF(C861=4,VLOOKUP(B861,balance!$K:$P,5,FALSE),IF(C861=5,VLOOKUP(B861-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>159280</v>
+      </c>
+      <c r="F861">
+        <v>53</v>
+      </c>
+      <c r="G861">
+        <f>IF(C861=1,VLOOKUP(FoxFire!B861,balance!$U:$Z,2,FALSE),IF(C861=2,VLOOKUP(B861,balance!$U:$Z,3,FALSE),IF(C861=3,VLOOKUP(B861,balance!$U:$Z,4,FALSE),IF(C861=4,VLOOKUP(B861,balance!$U:$Z,5,FALSE),IF(C861=5,VLOOKUP(B861-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>347.00730000000004</v>
+      </c>
+      <c r="H861">
+        <v>2</v>
+      </c>
+      <c r="I861" s="1">
+        <f>IF(C861=1,VLOOKUP(FoxFire!B861,balance!$AF:$AJ,2,FALSE),IF(C861=2,VLOOKUP(B861,balance!$AF:$AJ,3,FALSE),IF(C861=3,VLOOKUP(B861,balance!$AF:$AJ,4,FALSE),IF(C861=4,VLOOKUP(B861,balance!$AF:$AJ,5,FALSE),IF(C861=5,VLOOKUP(B861,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7440000000000</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>860</v>
+      </c>
+      <c r="B862">
+        <f t="shared" si="27"/>
+        <v>173</v>
+      </c>
+      <c r="C862">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D862">
+        <v>9026</v>
+      </c>
+      <c r="E862" s="1">
+        <f>IF(C862=1,VLOOKUP(B862,balance!$K:$P,2,FALSE),IF(C862=2,VLOOKUP(B862,balance!$K:$P,3,FALSE),IF(C862=3,VLOOKUP(B862,balance!$K:$P,4,FALSE),IF(C862=4,VLOOKUP(B862,balance!$K:$P,5,FALSE),IF(C862=5,VLOOKUP(B862-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4550</v>
+      </c>
+      <c r="F862">
+        <v>53</v>
+      </c>
+      <c r="G862">
+        <f>IF(C862=1,VLOOKUP(FoxFire!B862,balance!$U:$Z,2,FALSE),IF(C862=2,VLOOKUP(B862,balance!$U:$Z,3,FALSE),IF(C862=3,VLOOKUP(B862,balance!$U:$Z,4,FALSE),IF(C862=4,VLOOKUP(B862,balance!$U:$Z,5,FALSE),IF(C862=5,VLOOKUP(B862-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="H862">
+        <v>2</v>
+      </c>
+      <c r="I862" s="1">
+        <f>IF(C862=1,VLOOKUP(FoxFire!B862,balance!$AF:$AJ,2,FALSE),IF(C862=2,VLOOKUP(B862,balance!$AF:$AJ,3,FALSE),IF(C862=3,VLOOKUP(B862,balance!$AF:$AJ,4,FALSE),IF(C862=4,VLOOKUP(B862,balance!$AF:$AJ,5,FALSE),IF(C862=5,VLOOKUP(B862,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1860000000000</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863">
+        <f t="shared" si="27"/>
+        <v>173</v>
+      </c>
+      <c r="C863">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D863">
+        <v>9026</v>
+      </c>
+      <c r="E863" s="1">
+        <f>IF(C863=1,VLOOKUP(B863,balance!$K:$P,2,FALSE),IF(C863=2,VLOOKUP(B863,balance!$K:$P,3,FALSE),IF(C863=3,VLOOKUP(B863,balance!$K:$P,4,FALSE),IF(C863=4,VLOOKUP(B863,balance!$K:$P,5,FALSE),IF(C863=5,VLOOKUP(B863-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4550</v>
+      </c>
+      <c r="F863">
+        <v>53</v>
+      </c>
+      <c r="G863">
+        <f>IF(C863=1,VLOOKUP(FoxFire!B863,balance!$U:$Z,2,FALSE),IF(C863=2,VLOOKUP(B863,balance!$U:$Z,3,FALSE),IF(C863=3,VLOOKUP(B863,balance!$U:$Z,4,FALSE),IF(C863=4,VLOOKUP(B863,balance!$U:$Z,5,FALSE),IF(C863=5,VLOOKUP(B863-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="H863">
+        <v>2</v>
+      </c>
+      <c r="I863" s="1">
+        <f>IF(C863=1,VLOOKUP(FoxFire!B863,balance!$AF:$AJ,2,FALSE),IF(C863=2,VLOOKUP(B863,balance!$AF:$AJ,3,FALSE),IF(C863=3,VLOOKUP(B863,balance!$AF:$AJ,4,FALSE),IF(C863=4,VLOOKUP(B863,balance!$AF:$AJ,5,FALSE),IF(C863=5,VLOOKUP(B863,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1860000000000</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>862</v>
+      </c>
+      <c r="B864">
+        <f t="shared" si="27"/>
+        <v>173</v>
+      </c>
+      <c r="C864">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D864">
+        <v>9026</v>
+      </c>
+      <c r="E864" s="1">
+        <f>IF(C864=1,VLOOKUP(B864,balance!$K:$P,2,FALSE),IF(C864=2,VLOOKUP(B864,balance!$K:$P,3,FALSE),IF(C864=3,VLOOKUP(B864,balance!$K:$P,4,FALSE),IF(C864=4,VLOOKUP(B864,balance!$K:$P,5,FALSE),IF(C864=5,VLOOKUP(B864-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4550</v>
+      </c>
+      <c r="F864">
+        <v>53</v>
+      </c>
+      <c r="G864">
+        <f>IF(C864=1,VLOOKUP(FoxFire!B864,balance!$U:$Z,2,FALSE),IF(C864=2,VLOOKUP(B864,balance!$U:$Z,3,FALSE),IF(C864=3,VLOOKUP(B864,balance!$U:$Z,4,FALSE),IF(C864=4,VLOOKUP(B864,balance!$U:$Z,5,FALSE),IF(C864=5,VLOOKUP(B864-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="H864">
+        <v>2</v>
+      </c>
+      <c r="I864" s="1">
+        <f>IF(C864=1,VLOOKUP(FoxFire!B864,balance!$AF:$AJ,2,FALSE),IF(C864=2,VLOOKUP(B864,balance!$AF:$AJ,3,FALSE),IF(C864=3,VLOOKUP(B864,balance!$AF:$AJ,4,FALSE),IF(C864=4,VLOOKUP(B864,balance!$AF:$AJ,5,FALSE),IF(C864=5,VLOOKUP(B864,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1860000000000</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865">
+        <f t="shared" si="27"/>
+        <v>173</v>
+      </c>
+      <c r="C865">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D865">
+        <v>9026</v>
+      </c>
+      <c r="E865" s="1">
+        <f>IF(C865=1,VLOOKUP(B865,balance!$K:$P,2,FALSE),IF(C865=2,VLOOKUP(B865,balance!$K:$P,3,FALSE),IF(C865=3,VLOOKUP(B865,balance!$K:$P,4,FALSE),IF(C865=4,VLOOKUP(B865,balance!$K:$P,5,FALSE),IF(C865=5,VLOOKUP(B865-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4550</v>
+      </c>
+      <c r="F865">
+        <v>53</v>
+      </c>
+      <c r="G865">
+        <f>IF(C865=1,VLOOKUP(FoxFire!B865,balance!$U:$Z,2,FALSE),IF(C865=2,VLOOKUP(B865,balance!$U:$Z,3,FALSE),IF(C865=3,VLOOKUP(B865,balance!$U:$Z,4,FALSE),IF(C865=4,VLOOKUP(B865,balance!$U:$Z,5,FALSE),IF(C865=5,VLOOKUP(B865-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="H865">
+        <v>2</v>
+      </c>
+      <c r="I865" s="1">
+        <f>IF(C865=1,VLOOKUP(FoxFire!B865,balance!$AF:$AJ,2,FALSE),IF(C865=2,VLOOKUP(B865,balance!$AF:$AJ,3,FALSE),IF(C865=3,VLOOKUP(B865,balance!$AF:$AJ,4,FALSE),IF(C865=4,VLOOKUP(B865,balance!$AF:$AJ,5,FALSE),IF(C865=5,VLOOKUP(B865,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1860000000000</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866">
+        <f t="shared" si="27"/>
+        <v>174</v>
+      </c>
+      <c r="C866">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D866">
+        <v>9026</v>
+      </c>
+      <c r="E866" s="1">
+        <f>IF(C866=1,VLOOKUP(B866,balance!$K:$P,2,FALSE),IF(C866=2,VLOOKUP(B866,balance!$K:$P,3,FALSE),IF(C866=3,VLOOKUP(B866,balance!$K:$P,4,FALSE),IF(C866=4,VLOOKUP(B866,balance!$K:$P,5,FALSE),IF(C866=5,VLOOKUP(B866-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>161070</v>
+      </c>
+      <c r="F866">
+        <v>53</v>
+      </c>
+      <c r="G866">
+        <f>IF(C866=1,VLOOKUP(FoxFire!B866,balance!$U:$Z,2,FALSE),IF(C866=2,VLOOKUP(B866,balance!$U:$Z,3,FALSE),IF(C866=3,VLOOKUP(B866,balance!$U:$Z,4,FALSE),IF(C866=4,VLOOKUP(B866,balance!$U:$Z,5,FALSE),IF(C866=5,VLOOKUP(B866-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>355.25349999999997</v>
+      </c>
+      <c r="H866">
+        <v>2</v>
+      </c>
+      <c r="I866" s="1">
+        <f>IF(C866=1,VLOOKUP(FoxFire!B866,balance!$AF:$AJ,2,FALSE),IF(C866=2,VLOOKUP(B866,balance!$AF:$AJ,3,FALSE),IF(C866=3,VLOOKUP(B866,balance!$AF:$AJ,4,FALSE),IF(C866=4,VLOOKUP(B866,balance!$AF:$AJ,5,FALSE),IF(C866=5,VLOOKUP(B866,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867">
+        <f t="shared" si="27"/>
+        <v>174</v>
+      </c>
+      <c r="C867">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D867">
+        <v>9026</v>
+      </c>
+      <c r="E867" s="1">
+        <f>IF(C867=1,VLOOKUP(B867,balance!$K:$P,2,FALSE),IF(C867=2,VLOOKUP(B867,balance!$K:$P,3,FALSE),IF(C867=3,VLOOKUP(B867,balance!$K:$P,4,FALSE),IF(C867=4,VLOOKUP(B867,balance!$K:$P,5,FALSE),IF(C867=5,VLOOKUP(B867-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4575</v>
+      </c>
+      <c r="F867">
+        <v>53</v>
+      </c>
+      <c r="G867">
+        <f>IF(C867=1,VLOOKUP(FoxFire!B867,balance!$U:$Z,2,FALSE),IF(C867=2,VLOOKUP(B867,balance!$U:$Z,3,FALSE),IF(C867=3,VLOOKUP(B867,balance!$U:$Z,4,FALSE),IF(C867=4,VLOOKUP(B867,balance!$U:$Z,5,FALSE),IF(C867=5,VLOOKUP(B867-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7300000000000002E-3</v>
+      </c>
+      <c r="H867">
+        <v>2</v>
+      </c>
+      <c r="I867" s="1">
+        <f>IF(C867=1,VLOOKUP(FoxFire!B867,balance!$AF:$AJ,2,FALSE),IF(C867=2,VLOOKUP(B867,balance!$AF:$AJ,3,FALSE),IF(C867=3,VLOOKUP(B867,balance!$AF:$AJ,4,FALSE),IF(C867=4,VLOOKUP(B867,balance!$AF:$AJ,5,FALSE),IF(C867=5,VLOOKUP(B867,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1875000000000</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868">
+        <f t="shared" si="27"/>
+        <v>174</v>
+      </c>
+      <c r="C868">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D868">
+        <v>9026</v>
+      </c>
+      <c r="E868" s="1">
+        <f>IF(C868=1,VLOOKUP(B868,balance!$K:$P,2,FALSE),IF(C868=2,VLOOKUP(B868,balance!$K:$P,3,FALSE),IF(C868=3,VLOOKUP(B868,balance!$K:$P,4,FALSE),IF(C868=4,VLOOKUP(B868,balance!$K:$P,5,FALSE),IF(C868=5,VLOOKUP(B868-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4575</v>
+      </c>
+      <c r="F868">
+        <v>53</v>
+      </c>
+      <c r="G868">
+        <f>IF(C868=1,VLOOKUP(FoxFire!B868,balance!$U:$Z,2,FALSE),IF(C868=2,VLOOKUP(B868,balance!$U:$Z,3,FALSE),IF(C868=3,VLOOKUP(B868,balance!$U:$Z,4,FALSE),IF(C868=4,VLOOKUP(B868,balance!$U:$Z,5,FALSE),IF(C868=5,VLOOKUP(B868-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7300000000000002E-3</v>
+      </c>
+      <c r="H868">
+        <v>2</v>
+      </c>
+      <c r="I868" s="1">
+        <f>IF(C868=1,VLOOKUP(FoxFire!B868,balance!$AF:$AJ,2,FALSE),IF(C868=2,VLOOKUP(B868,balance!$AF:$AJ,3,FALSE),IF(C868=3,VLOOKUP(B868,balance!$AF:$AJ,4,FALSE),IF(C868=4,VLOOKUP(B868,balance!$AF:$AJ,5,FALSE),IF(C868=5,VLOOKUP(B868,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1875000000000</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869">
+        <f t="shared" si="27"/>
+        <v>174</v>
+      </c>
+      <c r="C869">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D869">
+        <v>9026</v>
+      </c>
+      <c r="E869" s="1">
+        <f>IF(C869=1,VLOOKUP(B869,balance!$K:$P,2,FALSE),IF(C869=2,VLOOKUP(B869,balance!$K:$P,3,FALSE),IF(C869=3,VLOOKUP(B869,balance!$K:$P,4,FALSE),IF(C869=4,VLOOKUP(B869,balance!$K:$P,5,FALSE),IF(C869=5,VLOOKUP(B869-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4575</v>
+      </c>
+      <c r="F869">
+        <v>53</v>
+      </c>
+      <c r="G869">
+        <f>IF(C869=1,VLOOKUP(FoxFire!B869,balance!$U:$Z,2,FALSE),IF(C869=2,VLOOKUP(B869,balance!$U:$Z,3,FALSE),IF(C869=3,VLOOKUP(B869,balance!$U:$Z,4,FALSE),IF(C869=4,VLOOKUP(B869,balance!$U:$Z,5,FALSE),IF(C869=5,VLOOKUP(B869-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7300000000000002E-3</v>
+      </c>
+      <c r="H869">
+        <v>2</v>
+      </c>
+      <c r="I869" s="1">
+        <f>IF(C869=1,VLOOKUP(FoxFire!B869,balance!$AF:$AJ,2,FALSE),IF(C869=2,VLOOKUP(B869,balance!$AF:$AJ,3,FALSE),IF(C869=3,VLOOKUP(B869,balance!$AF:$AJ,4,FALSE),IF(C869=4,VLOOKUP(B869,balance!$AF:$AJ,5,FALSE),IF(C869=5,VLOOKUP(B869,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1875000000000</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870">
+        <f t="shared" si="27"/>
+        <v>174</v>
+      </c>
+      <c r="C870">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D870">
+        <v>9026</v>
+      </c>
+      <c r="E870" s="1">
+        <f>IF(C870=1,VLOOKUP(B870,balance!$K:$P,2,FALSE),IF(C870=2,VLOOKUP(B870,balance!$K:$P,3,FALSE),IF(C870=3,VLOOKUP(B870,balance!$K:$P,4,FALSE),IF(C870=4,VLOOKUP(B870,balance!$K:$P,5,FALSE),IF(C870=5,VLOOKUP(B870-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4575</v>
+      </c>
+      <c r="F870">
+        <v>53</v>
+      </c>
+      <c r="G870">
+        <f>IF(C870=1,VLOOKUP(FoxFire!B870,balance!$U:$Z,2,FALSE),IF(C870=2,VLOOKUP(B870,balance!$U:$Z,3,FALSE),IF(C870=3,VLOOKUP(B870,balance!$U:$Z,4,FALSE),IF(C870=4,VLOOKUP(B870,balance!$U:$Z,5,FALSE),IF(C870=5,VLOOKUP(B870-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7300000000000002E-3</v>
+      </c>
+      <c r="H870">
+        <v>2</v>
+      </c>
+      <c r="I870" s="1">
+        <f>IF(C870=1,VLOOKUP(FoxFire!B870,balance!$AF:$AJ,2,FALSE),IF(C870=2,VLOOKUP(B870,balance!$AF:$AJ,3,FALSE),IF(C870=3,VLOOKUP(B870,balance!$AF:$AJ,4,FALSE),IF(C870=4,VLOOKUP(B870,balance!$AF:$AJ,5,FALSE),IF(C870=5,VLOOKUP(B870,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1875000000000</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871">
+        <f t="shared" si="27"/>
+        <v>175</v>
+      </c>
+      <c r="C871">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D871">
+        <v>9026</v>
+      </c>
+      <c r="E871" s="1">
+        <f>IF(C871=1,VLOOKUP(B871,balance!$K:$P,2,FALSE),IF(C871=2,VLOOKUP(B871,balance!$K:$P,3,FALSE),IF(C871=3,VLOOKUP(B871,balance!$K:$P,4,FALSE),IF(C871=4,VLOOKUP(B871,balance!$K:$P,5,FALSE),IF(C871=5,VLOOKUP(B871-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>162870</v>
+      </c>
+      <c r="F871">
+        <v>53</v>
+      </c>
+      <c r="G871">
+        <f>IF(C871=1,VLOOKUP(FoxFire!B871,balance!$U:$Z,2,FALSE),IF(C871=2,VLOOKUP(B871,balance!$U:$Z,3,FALSE),IF(C871=3,VLOOKUP(B871,balance!$U:$Z,4,FALSE),IF(C871=4,VLOOKUP(B871,balance!$U:$Z,5,FALSE),IF(C871=5,VLOOKUP(B871-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>363.69080000000002</v>
+      </c>
+      <c r="H871">
+        <v>2</v>
+      </c>
+      <c r="I871" s="1">
+        <f>IF(C871=1,VLOOKUP(FoxFire!B871,balance!$AF:$AJ,2,FALSE),IF(C871=2,VLOOKUP(B871,balance!$AF:$AJ,3,FALSE),IF(C871=3,VLOOKUP(B871,balance!$AF:$AJ,4,FALSE),IF(C871=4,VLOOKUP(B871,balance!$AF:$AJ,5,FALSE),IF(C871=5,VLOOKUP(B871,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7560000000000</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>870</v>
+      </c>
+      <c r="B872">
+        <f t="shared" si="27"/>
+        <v>175</v>
+      </c>
+      <c r="C872">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D872">
+        <v>9026</v>
+      </c>
+      <c r="E872" s="1">
+        <f>IF(C872=1,VLOOKUP(B872,balance!$K:$P,2,FALSE),IF(C872=2,VLOOKUP(B872,balance!$K:$P,3,FALSE),IF(C872=3,VLOOKUP(B872,balance!$K:$P,4,FALSE),IF(C872=4,VLOOKUP(B872,balance!$K:$P,5,FALSE),IF(C872=5,VLOOKUP(B872-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4600</v>
+      </c>
+      <c r="F872">
+        <v>53</v>
+      </c>
+      <c r="G872">
+        <f>IF(C872=1,VLOOKUP(FoxFire!B872,balance!$U:$Z,2,FALSE),IF(C872=2,VLOOKUP(B872,balance!$U:$Z,3,FALSE),IF(C872=3,VLOOKUP(B872,balance!$U:$Z,4,FALSE),IF(C872=4,VLOOKUP(B872,balance!$U:$Z,5,FALSE),IF(C872=5,VLOOKUP(B872-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7400000000000002E-3</v>
+      </c>
+      <c r="H872">
+        <v>2</v>
+      </c>
+      <c r="I872" s="1">
+        <f>IF(C872=1,VLOOKUP(FoxFire!B872,balance!$AF:$AJ,2,FALSE),IF(C872=2,VLOOKUP(B872,balance!$AF:$AJ,3,FALSE),IF(C872=3,VLOOKUP(B872,balance!$AF:$AJ,4,FALSE),IF(C872=4,VLOOKUP(B872,balance!$AF:$AJ,5,FALSE),IF(C872=5,VLOOKUP(B872,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1890000000000</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873">
+        <f t="shared" si="27"/>
+        <v>175</v>
+      </c>
+      <c r="C873">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D873">
+        <v>9026</v>
+      </c>
+      <c r="E873" s="1">
+        <f>IF(C873=1,VLOOKUP(B873,balance!$K:$P,2,FALSE),IF(C873=2,VLOOKUP(B873,balance!$K:$P,3,FALSE),IF(C873=3,VLOOKUP(B873,balance!$K:$P,4,FALSE),IF(C873=4,VLOOKUP(B873,balance!$K:$P,5,FALSE),IF(C873=5,VLOOKUP(B873-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4600</v>
+      </c>
+      <c r="F873">
+        <v>53</v>
+      </c>
+      <c r="G873">
+        <f>IF(C873=1,VLOOKUP(FoxFire!B873,balance!$U:$Z,2,FALSE),IF(C873=2,VLOOKUP(B873,balance!$U:$Z,3,FALSE),IF(C873=3,VLOOKUP(B873,balance!$U:$Z,4,FALSE),IF(C873=4,VLOOKUP(B873,balance!$U:$Z,5,FALSE),IF(C873=5,VLOOKUP(B873-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7400000000000002E-3</v>
+      </c>
+      <c r="H873">
+        <v>2</v>
+      </c>
+      <c r="I873" s="1">
+        <f>IF(C873=1,VLOOKUP(FoxFire!B873,balance!$AF:$AJ,2,FALSE),IF(C873=2,VLOOKUP(B873,balance!$AF:$AJ,3,FALSE),IF(C873=3,VLOOKUP(B873,balance!$AF:$AJ,4,FALSE),IF(C873=4,VLOOKUP(B873,balance!$AF:$AJ,5,FALSE),IF(C873=5,VLOOKUP(B873,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1890000000000</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874">
+        <f t="shared" si="27"/>
+        <v>175</v>
+      </c>
+      <c r="C874">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D874">
+        <v>9026</v>
+      </c>
+      <c r="E874" s="1">
+        <f>IF(C874=1,VLOOKUP(B874,balance!$K:$P,2,FALSE),IF(C874=2,VLOOKUP(B874,balance!$K:$P,3,FALSE),IF(C874=3,VLOOKUP(B874,balance!$K:$P,4,FALSE),IF(C874=4,VLOOKUP(B874,balance!$K:$P,5,FALSE),IF(C874=5,VLOOKUP(B874-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4600</v>
+      </c>
+      <c r="F874">
+        <v>53</v>
+      </c>
+      <c r="G874">
+        <f>IF(C874=1,VLOOKUP(FoxFire!B874,balance!$U:$Z,2,FALSE),IF(C874=2,VLOOKUP(B874,balance!$U:$Z,3,FALSE),IF(C874=3,VLOOKUP(B874,balance!$U:$Z,4,FALSE),IF(C874=4,VLOOKUP(B874,balance!$U:$Z,5,FALSE),IF(C874=5,VLOOKUP(B874-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7400000000000002E-3</v>
+      </c>
+      <c r="H874">
+        <v>2</v>
+      </c>
+      <c r="I874" s="1">
+        <f>IF(C874=1,VLOOKUP(FoxFire!B874,balance!$AF:$AJ,2,FALSE),IF(C874=2,VLOOKUP(B874,balance!$AF:$AJ,3,FALSE),IF(C874=3,VLOOKUP(B874,balance!$AF:$AJ,4,FALSE),IF(C874=4,VLOOKUP(B874,balance!$AF:$AJ,5,FALSE),IF(C874=5,VLOOKUP(B874,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1890000000000</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>873</v>
+      </c>
+      <c r="B875">
+        <f t="shared" si="27"/>
+        <v>175</v>
+      </c>
+      <c r="C875">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D875">
+        <v>9026</v>
+      </c>
+      <c r="E875" s="1">
+        <f>IF(C875=1,VLOOKUP(B875,balance!$K:$P,2,FALSE),IF(C875=2,VLOOKUP(B875,balance!$K:$P,3,FALSE),IF(C875=3,VLOOKUP(B875,balance!$K:$P,4,FALSE),IF(C875=4,VLOOKUP(B875,balance!$K:$P,5,FALSE),IF(C875=5,VLOOKUP(B875-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4600</v>
+      </c>
+      <c r="F875">
+        <v>53</v>
+      </c>
+      <c r="G875">
+        <f>IF(C875=1,VLOOKUP(FoxFire!B875,balance!$U:$Z,2,FALSE),IF(C875=2,VLOOKUP(B875,balance!$U:$Z,3,FALSE),IF(C875=3,VLOOKUP(B875,balance!$U:$Z,4,FALSE),IF(C875=4,VLOOKUP(B875,balance!$U:$Z,5,FALSE),IF(C875=5,VLOOKUP(B875-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7400000000000002E-3</v>
+      </c>
+      <c r="H875">
+        <v>2</v>
+      </c>
+      <c r="I875" s="1">
+        <f>IF(C875=1,VLOOKUP(FoxFire!B875,balance!$AF:$AJ,2,FALSE),IF(C875=2,VLOOKUP(B875,balance!$AF:$AJ,3,FALSE),IF(C875=3,VLOOKUP(B875,balance!$AF:$AJ,4,FALSE),IF(C875=4,VLOOKUP(B875,balance!$AF:$AJ,5,FALSE),IF(C875=5,VLOOKUP(B875,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1890000000000</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>874</v>
+      </c>
+      <c r="B876">
+        <f t="shared" si="27"/>
+        <v>176</v>
+      </c>
+      <c r="C876">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D876">
+        <v>9026</v>
+      </c>
+      <c r="E876" s="1">
+        <f>IF(C876=1,VLOOKUP(B876,balance!$K:$P,2,FALSE),IF(C876=2,VLOOKUP(B876,balance!$K:$P,3,FALSE),IF(C876=3,VLOOKUP(B876,balance!$K:$P,4,FALSE),IF(C876=4,VLOOKUP(B876,balance!$K:$P,5,FALSE),IF(C876=5,VLOOKUP(B876-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>164680</v>
+      </c>
+      <c r="F876">
+        <v>53</v>
+      </c>
+      <c r="G876">
+        <f>IF(C876=1,VLOOKUP(FoxFire!B876,balance!$U:$Z,2,FALSE),IF(C876=2,VLOOKUP(B876,balance!$U:$Z,3,FALSE),IF(C876=3,VLOOKUP(B876,balance!$U:$Z,4,FALSE),IF(C876=4,VLOOKUP(B876,balance!$U:$Z,5,FALSE),IF(C876=5,VLOOKUP(B876-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>372.32349999999997</v>
+      </c>
+      <c r="H876">
+        <v>2</v>
+      </c>
+      <c r="I876" s="1">
+        <f>IF(C876=1,VLOOKUP(FoxFire!B876,balance!$AF:$AJ,2,FALSE),IF(C876=2,VLOOKUP(B876,balance!$AF:$AJ,3,FALSE),IF(C876=3,VLOOKUP(B876,balance!$AF:$AJ,4,FALSE),IF(C876=4,VLOOKUP(B876,balance!$AF:$AJ,5,FALSE),IF(C876=5,VLOOKUP(B876,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7620000000000</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>875</v>
+      </c>
+      <c r="B877">
+        <f t="shared" si="27"/>
+        <v>176</v>
+      </c>
+      <c r="C877">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D877">
+        <v>9026</v>
+      </c>
+      <c r="E877" s="1">
+        <f>IF(C877=1,VLOOKUP(B877,balance!$K:$P,2,FALSE),IF(C877=2,VLOOKUP(B877,balance!$K:$P,3,FALSE),IF(C877=3,VLOOKUP(B877,balance!$K:$P,4,FALSE),IF(C877=4,VLOOKUP(B877,balance!$K:$P,5,FALSE),IF(C877=5,VLOOKUP(B877-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4625</v>
+      </c>
+      <c r="F877">
+        <v>53</v>
+      </c>
+      <c r="G877">
+        <f>IF(C877=1,VLOOKUP(FoxFire!B877,balance!$U:$Z,2,FALSE),IF(C877=2,VLOOKUP(B877,balance!$U:$Z,3,FALSE),IF(C877=3,VLOOKUP(B877,balance!$U:$Z,4,FALSE),IF(C877=4,VLOOKUP(B877,balance!$U:$Z,5,FALSE),IF(C877=5,VLOOKUP(B877-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7500000000000003E-3</v>
+      </c>
+      <c r="H877">
+        <v>2</v>
+      </c>
+      <c r="I877" s="1">
+        <f>IF(C877=1,VLOOKUP(FoxFire!B877,balance!$AF:$AJ,2,FALSE),IF(C877=2,VLOOKUP(B877,balance!$AF:$AJ,3,FALSE),IF(C877=3,VLOOKUP(B877,balance!$AF:$AJ,4,FALSE),IF(C877=4,VLOOKUP(B877,balance!$AF:$AJ,5,FALSE),IF(C877=5,VLOOKUP(B877,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1905000000000</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878">
+        <f t="shared" si="27"/>
+        <v>176</v>
+      </c>
+      <c r="C878">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D878">
+        <v>9026</v>
+      </c>
+      <c r="E878" s="1">
+        <f>IF(C878=1,VLOOKUP(B878,balance!$K:$P,2,FALSE),IF(C878=2,VLOOKUP(B878,balance!$K:$P,3,FALSE),IF(C878=3,VLOOKUP(B878,balance!$K:$P,4,FALSE),IF(C878=4,VLOOKUP(B878,balance!$K:$P,5,FALSE),IF(C878=5,VLOOKUP(B878-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4625</v>
+      </c>
+      <c r="F878">
+        <v>53</v>
+      </c>
+      <c r="G878">
+        <f>IF(C878=1,VLOOKUP(FoxFire!B878,balance!$U:$Z,2,FALSE),IF(C878=2,VLOOKUP(B878,balance!$U:$Z,3,FALSE),IF(C878=3,VLOOKUP(B878,balance!$U:$Z,4,FALSE),IF(C878=4,VLOOKUP(B878,balance!$U:$Z,5,FALSE),IF(C878=5,VLOOKUP(B878-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7500000000000003E-3</v>
+      </c>
+      <c r="H878">
+        <v>2</v>
+      </c>
+      <c r="I878" s="1">
+        <f>IF(C878=1,VLOOKUP(FoxFire!B878,balance!$AF:$AJ,2,FALSE),IF(C878=2,VLOOKUP(B878,balance!$AF:$AJ,3,FALSE),IF(C878=3,VLOOKUP(B878,balance!$AF:$AJ,4,FALSE),IF(C878=4,VLOOKUP(B878,balance!$AF:$AJ,5,FALSE),IF(C878=5,VLOOKUP(B878,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1905000000000</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879">
+        <f t="shared" si="27"/>
+        <v>176</v>
+      </c>
+      <c r="C879">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D879">
+        <v>9026</v>
+      </c>
+      <c r="E879" s="1">
+        <f>IF(C879=1,VLOOKUP(B879,balance!$K:$P,2,FALSE),IF(C879=2,VLOOKUP(B879,balance!$K:$P,3,FALSE),IF(C879=3,VLOOKUP(B879,balance!$K:$P,4,FALSE),IF(C879=4,VLOOKUP(B879,balance!$K:$P,5,FALSE),IF(C879=5,VLOOKUP(B879-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4625</v>
+      </c>
+      <c r="F879">
+        <v>53</v>
+      </c>
+      <c r="G879">
+        <f>IF(C879=1,VLOOKUP(FoxFire!B879,balance!$U:$Z,2,FALSE),IF(C879=2,VLOOKUP(B879,balance!$U:$Z,3,FALSE),IF(C879=3,VLOOKUP(B879,balance!$U:$Z,4,FALSE),IF(C879=4,VLOOKUP(B879,balance!$U:$Z,5,FALSE),IF(C879=5,VLOOKUP(B879-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7500000000000003E-3</v>
+      </c>
+      <c r="H879">
+        <v>2</v>
+      </c>
+      <c r="I879" s="1">
+        <f>IF(C879=1,VLOOKUP(FoxFire!B879,balance!$AF:$AJ,2,FALSE),IF(C879=2,VLOOKUP(B879,balance!$AF:$AJ,3,FALSE),IF(C879=3,VLOOKUP(B879,balance!$AF:$AJ,4,FALSE),IF(C879=4,VLOOKUP(B879,balance!$AF:$AJ,5,FALSE),IF(C879=5,VLOOKUP(B879,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1905000000000</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880">
+        <f t="shared" si="27"/>
+        <v>176</v>
+      </c>
+      <c r="C880">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D880">
+        <v>9026</v>
+      </c>
+      <c r="E880" s="1">
+        <f>IF(C880=1,VLOOKUP(B880,balance!$K:$P,2,FALSE),IF(C880=2,VLOOKUP(B880,balance!$K:$P,3,FALSE),IF(C880=3,VLOOKUP(B880,balance!$K:$P,4,FALSE),IF(C880=4,VLOOKUP(B880,balance!$K:$P,5,FALSE),IF(C880=5,VLOOKUP(B880-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4625</v>
+      </c>
+      <c r="F880">
+        <v>53</v>
+      </c>
+      <c r="G880">
+        <f>IF(C880=1,VLOOKUP(FoxFire!B880,balance!$U:$Z,2,FALSE),IF(C880=2,VLOOKUP(B880,balance!$U:$Z,3,FALSE),IF(C880=3,VLOOKUP(B880,balance!$U:$Z,4,FALSE),IF(C880=4,VLOOKUP(B880,balance!$U:$Z,5,FALSE),IF(C880=5,VLOOKUP(B880-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7500000000000003E-3</v>
+      </c>
+      <c r="H880">
+        <v>2</v>
+      </c>
+      <c r="I880" s="1">
+        <f>IF(C880=1,VLOOKUP(FoxFire!B880,balance!$AF:$AJ,2,FALSE),IF(C880=2,VLOOKUP(B880,balance!$AF:$AJ,3,FALSE),IF(C880=3,VLOOKUP(B880,balance!$AF:$AJ,4,FALSE),IF(C880=4,VLOOKUP(B880,balance!$AF:$AJ,5,FALSE),IF(C880=5,VLOOKUP(B880,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1905000000000</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>879</v>
+      </c>
+      <c r="B881">
+        <f t="shared" si="27"/>
+        <v>177</v>
+      </c>
+      <c r="C881">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D881">
+        <v>9026</v>
+      </c>
+      <c r="E881" s="1">
+        <f>IF(C881=1,VLOOKUP(B881,balance!$K:$P,2,FALSE),IF(C881=2,VLOOKUP(B881,balance!$K:$P,3,FALSE),IF(C881=3,VLOOKUP(B881,balance!$K:$P,4,FALSE),IF(C881=4,VLOOKUP(B881,balance!$K:$P,5,FALSE),IF(C881=5,VLOOKUP(B881-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>166500</v>
+      </c>
+      <c r="F881">
+        <v>53</v>
+      </c>
+      <c r="G881">
+        <f>IF(C881=1,VLOOKUP(FoxFire!B881,balance!$U:$Z,2,FALSE),IF(C881=2,VLOOKUP(B881,balance!$U:$Z,3,FALSE),IF(C881=3,VLOOKUP(B881,balance!$U:$Z,4,FALSE),IF(C881=4,VLOOKUP(B881,balance!$U:$Z,5,FALSE),IF(C881=5,VLOOKUP(B881-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>381.15600000000001</v>
+      </c>
+      <c r="H881">
+        <v>2</v>
+      </c>
+      <c r="I881" s="1">
+        <f>IF(C881=1,VLOOKUP(FoxFire!B881,balance!$AF:$AJ,2,FALSE),IF(C881=2,VLOOKUP(B881,balance!$AF:$AJ,3,FALSE),IF(C881=3,VLOOKUP(B881,balance!$AF:$AJ,4,FALSE),IF(C881=4,VLOOKUP(B881,balance!$AF:$AJ,5,FALSE),IF(C881=5,VLOOKUP(B881,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7680000000000</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882">
+        <f t="shared" si="27"/>
+        <v>177</v>
+      </c>
+      <c r="C882">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D882">
+        <v>9026</v>
+      </c>
+      <c r="E882" s="1">
+        <f>IF(C882=1,VLOOKUP(B882,balance!$K:$P,2,FALSE),IF(C882=2,VLOOKUP(B882,balance!$K:$P,3,FALSE),IF(C882=3,VLOOKUP(B882,balance!$K:$P,4,FALSE),IF(C882=4,VLOOKUP(B882,balance!$K:$P,5,FALSE),IF(C882=5,VLOOKUP(B882-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4650</v>
+      </c>
+      <c r="F882">
+        <v>53</v>
+      </c>
+      <c r="G882">
+        <f>IF(C882=1,VLOOKUP(FoxFire!B882,balance!$U:$Z,2,FALSE),IF(C882=2,VLOOKUP(B882,balance!$U:$Z,3,FALSE),IF(C882=3,VLOOKUP(B882,balance!$U:$Z,4,FALSE),IF(C882=4,VLOOKUP(B882,balance!$U:$Z,5,FALSE),IF(C882=5,VLOOKUP(B882-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7600000000000003E-3</v>
+      </c>
+      <c r="H882">
+        <v>2</v>
+      </c>
+      <c r="I882" s="1">
+        <f>IF(C882=1,VLOOKUP(FoxFire!B882,balance!$AF:$AJ,2,FALSE),IF(C882=2,VLOOKUP(B882,balance!$AF:$AJ,3,FALSE),IF(C882=3,VLOOKUP(B882,balance!$AF:$AJ,4,FALSE),IF(C882=4,VLOOKUP(B882,balance!$AF:$AJ,5,FALSE),IF(C882=5,VLOOKUP(B882,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1920000000000</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883">
+        <f t="shared" si="27"/>
+        <v>177</v>
+      </c>
+      <c r="C883">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D883">
+        <v>9026</v>
+      </c>
+      <c r="E883" s="1">
+        <f>IF(C883=1,VLOOKUP(B883,balance!$K:$P,2,FALSE),IF(C883=2,VLOOKUP(B883,balance!$K:$P,3,FALSE),IF(C883=3,VLOOKUP(B883,balance!$K:$P,4,FALSE),IF(C883=4,VLOOKUP(B883,balance!$K:$P,5,FALSE),IF(C883=5,VLOOKUP(B883-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4650</v>
+      </c>
+      <c r="F883">
+        <v>53</v>
+      </c>
+      <c r="G883">
+        <f>IF(C883=1,VLOOKUP(FoxFire!B883,balance!$U:$Z,2,FALSE),IF(C883=2,VLOOKUP(B883,balance!$U:$Z,3,FALSE),IF(C883=3,VLOOKUP(B883,balance!$U:$Z,4,FALSE),IF(C883=4,VLOOKUP(B883,balance!$U:$Z,5,FALSE),IF(C883=5,VLOOKUP(B883-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7600000000000003E-3</v>
+      </c>
+      <c r="H883">
+        <v>2</v>
+      </c>
+      <c r="I883" s="1">
+        <f>IF(C883=1,VLOOKUP(FoxFire!B883,balance!$AF:$AJ,2,FALSE),IF(C883=2,VLOOKUP(B883,balance!$AF:$AJ,3,FALSE),IF(C883=3,VLOOKUP(B883,balance!$AF:$AJ,4,FALSE),IF(C883=4,VLOOKUP(B883,balance!$AF:$AJ,5,FALSE),IF(C883=5,VLOOKUP(B883,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1920000000000</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>882</v>
+      </c>
+      <c r="B884">
+        <f t="shared" si="27"/>
+        <v>177</v>
+      </c>
+      <c r="C884">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D884">
+        <v>9026</v>
+      </c>
+      <c r="E884" s="1">
+        <f>IF(C884=1,VLOOKUP(B884,balance!$K:$P,2,FALSE),IF(C884=2,VLOOKUP(B884,balance!$K:$P,3,FALSE),IF(C884=3,VLOOKUP(B884,balance!$K:$P,4,FALSE),IF(C884=4,VLOOKUP(B884,balance!$K:$P,5,FALSE),IF(C884=5,VLOOKUP(B884-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4650</v>
+      </c>
+      <c r="F884">
+        <v>53</v>
+      </c>
+      <c r="G884">
+        <f>IF(C884=1,VLOOKUP(FoxFire!B884,balance!$U:$Z,2,FALSE),IF(C884=2,VLOOKUP(B884,balance!$U:$Z,3,FALSE),IF(C884=3,VLOOKUP(B884,balance!$U:$Z,4,FALSE),IF(C884=4,VLOOKUP(B884,balance!$U:$Z,5,FALSE),IF(C884=5,VLOOKUP(B884-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7600000000000003E-3</v>
+      </c>
+      <c r="H884">
+        <v>2</v>
+      </c>
+      <c r="I884" s="1">
+        <f>IF(C884=1,VLOOKUP(FoxFire!B884,balance!$AF:$AJ,2,FALSE),IF(C884=2,VLOOKUP(B884,balance!$AF:$AJ,3,FALSE),IF(C884=3,VLOOKUP(B884,balance!$AF:$AJ,4,FALSE),IF(C884=4,VLOOKUP(B884,balance!$AF:$AJ,5,FALSE),IF(C884=5,VLOOKUP(B884,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1920000000000</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>883</v>
+      </c>
+      <c r="B885">
+        <f t="shared" si="27"/>
+        <v>177</v>
+      </c>
+      <c r="C885">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D885">
+        <v>9026</v>
+      </c>
+      <c r="E885" s="1">
+        <f>IF(C885=1,VLOOKUP(B885,balance!$K:$P,2,FALSE),IF(C885=2,VLOOKUP(B885,balance!$K:$P,3,FALSE),IF(C885=3,VLOOKUP(B885,balance!$K:$P,4,FALSE),IF(C885=4,VLOOKUP(B885,balance!$K:$P,5,FALSE),IF(C885=5,VLOOKUP(B885-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4650</v>
+      </c>
+      <c r="F885">
+        <v>53</v>
+      </c>
+      <c r="G885">
+        <f>IF(C885=1,VLOOKUP(FoxFire!B885,balance!$U:$Z,2,FALSE),IF(C885=2,VLOOKUP(B885,balance!$U:$Z,3,FALSE),IF(C885=3,VLOOKUP(B885,balance!$U:$Z,4,FALSE),IF(C885=4,VLOOKUP(B885,balance!$U:$Z,5,FALSE),IF(C885=5,VLOOKUP(B885-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7600000000000003E-3</v>
+      </c>
+      <c r="H885">
+        <v>2</v>
+      </c>
+      <c r="I885" s="1">
+        <f>IF(C885=1,VLOOKUP(FoxFire!B885,balance!$AF:$AJ,2,FALSE),IF(C885=2,VLOOKUP(B885,balance!$AF:$AJ,3,FALSE),IF(C885=3,VLOOKUP(B885,balance!$AF:$AJ,4,FALSE),IF(C885=4,VLOOKUP(B885,balance!$AF:$AJ,5,FALSE),IF(C885=5,VLOOKUP(B885,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1920000000000</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>884</v>
+      </c>
+      <c r="B886">
+        <f t="shared" si="27"/>
+        <v>178</v>
+      </c>
+      <c r="C886">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D886">
+        <v>9026</v>
+      </c>
+      <c r="E886" s="1">
+        <f>IF(C886=1,VLOOKUP(B886,balance!$K:$P,2,FALSE),IF(C886=2,VLOOKUP(B886,balance!$K:$P,3,FALSE),IF(C886=3,VLOOKUP(B886,balance!$K:$P,4,FALSE),IF(C886=4,VLOOKUP(B886,balance!$K:$P,5,FALSE),IF(C886=5,VLOOKUP(B886-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>168330</v>
+      </c>
+      <c r="F886">
+        <v>53</v>
+      </c>
+      <c r="G886">
+        <f>IF(C886=1,VLOOKUP(FoxFire!B886,balance!$U:$Z,2,FALSE),IF(C886=2,VLOOKUP(B886,balance!$U:$Z,3,FALSE),IF(C886=3,VLOOKUP(B886,balance!$U:$Z,4,FALSE),IF(C886=4,VLOOKUP(B886,balance!$U:$Z,5,FALSE),IF(C886=5,VLOOKUP(B886-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>390.19279999999998</v>
+      </c>
+      <c r="H886">
+        <v>2</v>
+      </c>
+      <c r="I886" s="1">
+        <f>IF(C886=1,VLOOKUP(FoxFire!B886,balance!$AF:$AJ,2,FALSE),IF(C886=2,VLOOKUP(B886,balance!$AF:$AJ,3,FALSE),IF(C886=3,VLOOKUP(B886,balance!$AF:$AJ,4,FALSE),IF(C886=4,VLOOKUP(B886,balance!$AF:$AJ,5,FALSE),IF(C886=5,VLOOKUP(B886,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7740000000000</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>885</v>
+      </c>
+      <c r="B887">
+        <f t="shared" si="27"/>
+        <v>178</v>
+      </c>
+      <c r="C887">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D887">
+        <v>9026</v>
+      </c>
+      <c r="E887" s="1">
+        <f>IF(C887=1,VLOOKUP(B887,balance!$K:$P,2,FALSE),IF(C887=2,VLOOKUP(B887,balance!$K:$P,3,FALSE),IF(C887=3,VLOOKUP(B887,balance!$K:$P,4,FALSE),IF(C887=4,VLOOKUP(B887,balance!$K:$P,5,FALSE),IF(C887=5,VLOOKUP(B887-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4675</v>
+      </c>
+      <c r="F887">
+        <v>53</v>
+      </c>
+      <c r="G887">
+        <f>IF(C887=1,VLOOKUP(FoxFire!B887,balance!$U:$Z,2,FALSE),IF(C887=2,VLOOKUP(B887,balance!$U:$Z,3,FALSE),IF(C887=3,VLOOKUP(B887,balance!$U:$Z,4,FALSE),IF(C887=4,VLOOKUP(B887,balance!$U:$Z,5,FALSE),IF(C887=5,VLOOKUP(B887-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7700000000000003E-3</v>
+      </c>
+      <c r="H887">
+        <v>2</v>
+      </c>
+      <c r="I887" s="1">
+        <f>IF(C887=1,VLOOKUP(FoxFire!B887,balance!$AF:$AJ,2,FALSE),IF(C887=2,VLOOKUP(B887,balance!$AF:$AJ,3,FALSE),IF(C887=3,VLOOKUP(B887,balance!$AF:$AJ,4,FALSE),IF(C887=4,VLOOKUP(B887,balance!$AF:$AJ,5,FALSE),IF(C887=5,VLOOKUP(B887,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1935000000000</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>886</v>
+      </c>
+      <c r="B888">
+        <f t="shared" si="27"/>
+        <v>178</v>
+      </c>
+      <c r="C888">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D888">
+        <v>9026</v>
+      </c>
+      <c r="E888" s="1">
+        <f>IF(C888=1,VLOOKUP(B888,balance!$K:$P,2,FALSE),IF(C888=2,VLOOKUP(B888,balance!$K:$P,3,FALSE),IF(C888=3,VLOOKUP(B888,balance!$K:$P,4,FALSE),IF(C888=4,VLOOKUP(B888,balance!$K:$P,5,FALSE),IF(C888=5,VLOOKUP(B888-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4675</v>
+      </c>
+      <c r="F888">
+        <v>53</v>
+      </c>
+      <c r="G888">
+        <f>IF(C888=1,VLOOKUP(FoxFire!B888,balance!$U:$Z,2,FALSE),IF(C888=2,VLOOKUP(B888,balance!$U:$Z,3,FALSE),IF(C888=3,VLOOKUP(B888,balance!$U:$Z,4,FALSE),IF(C888=4,VLOOKUP(B888,balance!$U:$Z,5,FALSE),IF(C888=5,VLOOKUP(B888-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7700000000000003E-3</v>
+      </c>
+      <c r="H888">
+        <v>2</v>
+      </c>
+      <c r="I888" s="1">
+        <f>IF(C888=1,VLOOKUP(FoxFire!B888,balance!$AF:$AJ,2,FALSE),IF(C888=2,VLOOKUP(B888,balance!$AF:$AJ,3,FALSE),IF(C888=3,VLOOKUP(B888,balance!$AF:$AJ,4,FALSE),IF(C888=4,VLOOKUP(B888,balance!$AF:$AJ,5,FALSE),IF(C888=5,VLOOKUP(B888,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1935000000000</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>887</v>
+      </c>
+      <c r="B889">
+        <f t="shared" si="27"/>
+        <v>178</v>
+      </c>
+      <c r="C889">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D889">
+        <v>9026</v>
+      </c>
+      <c r="E889" s="1">
+        <f>IF(C889=1,VLOOKUP(B889,balance!$K:$P,2,FALSE),IF(C889=2,VLOOKUP(B889,balance!$K:$P,3,FALSE),IF(C889=3,VLOOKUP(B889,balance!$K:$P,4,FALSE),IF(C889=4,VLOOKUP(B889,balance!$K:$P,5,FALSE),IF(C889=5,VLOOKUP(B889-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4675</v>
+      </c>
+      <c r="F889">
+        <v>53</v>
+      </c>
+      <c r="G889">
+        <f>IF(C889=1,VLOOKUP(FoxFire!B889,balance!$U:$Z,2,FALSE),IF(C889=2,VLOOKUP(B889,balance!$U:$Z,3,FALSE),IF(C889=3,VLOOKUP(B889,balance!$U:$Z,4,FALSE),IF(C889=4,VLOOKUP(B889,balance!$U:$Z,5,FALSE),IF(C889=5,VLOOKUP(B889-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7700000000000003E-3</v>
+      </c>
+      <c r="H889">
+        <v>2</v>
+      </c>
+      <c r="I889" s="1">
+        <f>IF(C889=1,VLOOKUP(FoxFire!B889,balance!$AF:$AJ,2,FALSE),IF(C889=2,VLOOKUP(B889,balance!$AF:$AJ,3,FALSE),IF(C889=3,VLOOKUP(B889,balance!$AF:$AJ,4,FALSE),IF(C889=4,VLOOKUP(B889,balance!$AF:$AJ,5,FALSE),IF(C889=5,VLOOKUP(B889,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1935000000000</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890">
+        <f t="shared" si="27"/>
+        <v>178</v>
+      </c>
+      <c r="C890">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D890">
+        <v>9026</v>
+      </c>
+      <c r="E890" s="1">
+        <f>IF(C890=1,VLOOKUP(B890,balance!$K:$P,2,FALSE),IF(C890=2,VLOOKUP(B890,balance!$K:$P,3,FALSE),IF(C890=3,VLOOKUP(B890,balance!$K:$P,4,FALSE),IF(C890=4,VLOOKUP(B890,balance!$K:$P,5,FALSE),IF(C890=5,VLOOKUP(B890-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4675</v>
+      </c>
+      <c r="F890">
+        <v>53</v>
+      </c>
+      <c r="G890">
+        <f>IF(C890=1,VLOOKUP(FoxFire!B890,balance!$U:$Z,2,FALSE),IF(C890=2,VLOOKUP(B890,balance!$U:$Z,3,FALSE),IF(C890=3,VLOOKUP(B890,balance!$U:$Z,4,FALSE),IF(C890=4,VLOOKUP(B890,balance!$U:$Z,5,FALSE),IF(C890=5,VLOOKUP(B890-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7700000000000003E-3</v>
+      </c>
+      <c r="H890">
+        <v>2</v>
+      </c>
+      <c r="I890" s="1">
+        <f>IF(C890=1,VLOOKUP(FoxFire!B890,balance!$AF:$AJ,2,FALSE),IF(C890=2,VLOOKUP(B890,balance!$AF:$AJ,3,FALSE),IF(C890=3,VLOOKUP(B890,balance!$AF:$AJ,4,FALSE),IF(C890=4,VLOOKUP(B890,balance!$AF:$AJ,5,FALSE),IF(C890=5,VLOOKUP(B890,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1935000000000</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891">
+        <f t="shared" si="27"/>
+        <v>179</v>
+      </c>
+      <c r="C891">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D891">
+        <v>9026</v>
+      </c>
+      <c r="E891" s="1">
+        <f>IF(C891=1,VLOOKUP(B891,balance!$K:$P,2,FALSE),IF(C891=2,VLOOKUP(B891,balance!$K:$P,3,FALSE),IF(C891=3,VLOOKUP(B891,balance!$K:$P,4,FALSE),IF(C891=4,VLOOKUP(B891,balance!$K:$P,5,FALSE),IF(C891=5,VLOOKUP(B891-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>170170</v>
+      </c>
+      <c r="F891">
+        <v>53</v>
+      </c>
+      <c r="G891">
+        <f>IF(C891=1,VLOOKUP(FoxFire!B891,balance!$U:$Z,2,FALSE),IF(C891=2,VLOOKUP(B891,balance!$U:$Z,3,FALSE),IF(C891=3,VLOOKUP(B891,balance!$U:$Z,4,FALSE),IF(C891=4,VLOOKUP(B891,balance!$U:$Z,5,FALSE),IF(C891=5,VLOOKUP(B891-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>399.43870000000004</v>
+      </c>
+      <c r="H891">
+        <v>2</v>
+      </c>
+      <c r="I891" s="1">
+        <f>IF(C891=1,VLOOKUP(FoxFire!B891,balance!$AF:$AJ,2,FALSE),IF(C891=2,VLOOKUP(B891,balance!$AF:$AJ,3,FALSE),IF(C891=3,VLOOKUP(B891,balance!$AF:$AJ,4,FALSE),IF(C891=4,VLOOKUP(B891,balance!$AF:$AJ,5,FALSE),IF(C891=5,VLOOKUP(B891,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7800000000000</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>890</v>
+      </c>
+      <c r="B892">
+        <f t="shared" si="27"/>
+        <v>179</v>
+      </c>
+      <c r="C892">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D892">
+        <v>9026</v>
+      </c>
+      <c r="E892" s="1">
+        <f>IF(C892=1,VLOOKUP(B892,balance!$K:$P,2,FALSE),IF(C892=2,VLOOKUP(B892,balance!$K:$P,3,FALSE),IF(C892=3,VLOOKUP(B892,balance!$K:$P,4,FALSE),IF(C892=4,VLOOKUP(B892,balance!$K:$P,5,FALSE),IF(C892=5,VLOOKUP(B892-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4700</v>
+      </c>
+      <c r="F892">
+        <v>53</v>
+      </c>
+      <c r="G892">
+        <f>IF(C892=1,VLOOKUP(FoxFire!B892,balance!$U:$Z,2,FALSE),IF(C892=2,VLOOKUP(B892,balance!$U:$Z,3,FALSE),IF(C892=3,VLOOKUP(B892,balance!$U:$Z,4,FALSE),IF(C892=4,VLOOKUP(B892,balance!$U:$Z,5,FALSE),IF(C892=5,VLOOKUP(B892-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7800000000000004E-3</v>
+      </c>
+      <c r="H892">
+        <v>2</v>
+      </c>
+      <c r="I892" s="1">
+        <f>IF(C892=1,VLOOKUP(FoxFire!B892,balance!$AF:$AJ,2,FALSE),IF(C892=2,VLOOKUP(B892,balance!$AF:$AJ,3,FALSE),IF(C892=3,VLOOKUP(B892,balance!$AF:$AJ,4,FALSE),IF(C892=4,VLOOKUP(B892,balance!$AF:$AJ,5,FALSE),IF(C892=5,VLOOKUP(B892,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1950000000000</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>891</v>
+      </c>
+      <c r="B893">
+        <f t="shared" si="27"/>
+        <v>179</v>
+      </c>
+      <c r="C893">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D893">
+        <v>9026</v>
+      </c>
+      <c r="E893" s="1">
+        <f>IF(C893=1,VLOOKUP(B893,balance!$K:$P,2,FALSE),IF(C893=2,VLOOKUP(B893,balance!$K:$P,3,FALSE),IF(C893=3,VLOOKUP(B893,balance!$K:$P,4,FALSE),IF(C893=4,VLOOKUP(B893,balance!$K:$P,5,FALSE),IF(C893=5,VLOOKUP(B893-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4700</v>
+      </c>
+      <c r="F893">
+        <v>53</v>
+      </c>
+      <c r="G893">
+        <f>IF(C893=1,VLOOKUP(FoxFire!B893,balance!$U:$Z,2,FALSE),IF(C893=2,VLOOKUP(B893,balance!$U:$Z,3,FALSE),IF(C893=3,VLOOKUP(B893,balance!$U:$Z,4,FALSE),IF(C893=4,VLOOKUP(B893,balance!$U:$Z,5,FALSE),IF(C893=5,VLOOKUP(B893-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7800000000000004E-3</v>
+      </c>
+      <c r="H893">
+        <v>2</v>
+      </c>
+      <c r="I893" s="1">
+        <f>IF(C893=1,VLOOKUP(FoxFire!B893,balance!$AF:$AJ,2,FALSE),IF(C893=2,VLOOKUP(B893,balance!$AF:$AJ,3,FALSE),IF(C893=3,VLOOKUP(B893,balance!$AF:$AJ,4,FALSE),IF(C893=4,VLOOKUP(B893,balance!$AF:$AJ,5,FALSE),IF(C893=5,VLOOKUP(B893,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1950000000000</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>892</v>
+      </c>
+      <c r="B894">
+        <f t="shared" si="27"/>
+        <v>179</v>
+      </c>
+      <c r="C894">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D894">
+        <v>9026</v>
+      </c>
+      <c r="E894" s="1">
+        <f>IF(C894=1,VLOOKUP(B894,balance!$K:$P,2,FALSE),IF(C894=2,VLOOKUP(B894,balance!$K:$P,3,FALSE),IF(C894=3,VLOOKUP(B894,balance!$K:$P,4,FALSE),IF(C894=4,VLOOKUP(B894,balance!$K:$P,5,FALSE),IF(C894=5,VLOOKUP(B894-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4700</v>
+      </c>
+      <c r="F894">
+        <v>53</v>
+      </c>
+      <c r="G894">
+        <f>IF(C894=1,VLOOKUP(FoxFire!B894,balance!$U:$Z,2,FALSE),IF(C894=2,VLOOKUP(B894,balance!$U:$Z,3,FALSE),IF(C894=3,VLOOKUP(B894,balance!$U:$Z,4,FALSE),IF(C894=4,VLOOKUP(B894,balance!$U:$Z,5,FALSE),IF(C894=5,VLOOKUP(B894-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7800000000000004E-3</v>
+      </c>
+      <c r="H894">
+        <v>2</v>
+      </c>
+      <c r="I894" s="1">
+        <f>IF(C894=1,VLOOKUP(FoxFire!B894,balance!$AF:$AJ,2,FALSE),IF(C894=2,VLOOKUP(B894,balance!$AF:$AJ,3,FALSE),IF(C894=3,VLOOKUP(B894,balance!$AF:$AJ,4,FALSE),IF(C894=4,VLOOKUP(B894,balance!$AF:$AJ,5,FALSE),IF(C894=5,VLOOKUP(B894,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1950000000000</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>893</v>
+      </c>
+      <c r="B895">
+        <f t="shared" si="27"/>
+        <v>179</v>
+      </c>
+      <c r="C895">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D895">
+        <v>9026</v>
+      </c>
+      <c r="E895" s="1">
+        <f>IF(C895=1,VLOOKUP(B895,balance!$K:$P,2,FALSE),IF(C895=2,VLOOKUP(B895,balance!$K:$P,3,FALSE),IF(C895=3,VLOOKUP(B895,balance!$K:$P,4,FALSE),IF(C895=4,VLOOKUP(B895,balance!$K:$P,5,FALSE),IF(C895=5,VLOOKUP(B895-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4700</v>
+      </c>
+      <c r="F895">
+        <v>53</v>
+      </c>
+      <c r="G895">
+        <f>IF(C895=1,VLOOKUP(FoxFire!B895,balance!$U:$Z,2,FALSE),IF(C895=2,VLOOKUP(B895,balance!$U:$Z,3,FALSE),IF(C895=3,VLOOKUP(B895,balance!$U:$Z,4,FALSE),IF(C895=4,VLOOKUP(B895,balance!$U:$Z,5,FALSE),IF(C895=5,VLOOKUP(B895-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7800000000000004E-3</v>
+      </c>
+      <c r="H895">
+        <v>2</v>
+      </c>
+      <c r="I895" s="1">
+        <f>IF(C895=1,VLOOKUP(FoxFire!B895,balance!$AF:$AJ,2,FALSE),IF(C895=2,VLOOKUP(B895,balance!$AF:$AJ,3,FALSE),IF(C895=3,VLOOKUP(B895,balance!$AF:$AJ,4,FALSE),IF(C895=4,VLOOKUP(B895,balance!$AF:$AJ,5,FALSE),IF(C895=5,VLOOKUP(B895,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1950000000000</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896">
+        <f t="shared" si="27"/>
+        <v>180</v>
+      </c>
+      <c r="C896">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D896">
+        <v>9026</v>
+      </c>
+      <c r="E896" s="1">
+        <f>IF(C896=1,VLOOKUP(B896,balance!$K:$P,2,FALSE),IF(C896=2,VLOOKUP(B896,balance!$K:$P,3,FALSE),IF(C896=3,VLOOKUP(B896,balance!$K:$P,4,FALSE),IF(C896=4,VLOOKUP(B896,balance!$K:$P,5,FALSE),IF(C896=5,VLOOKUP(B896-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>172020</v>
+      </c>
+      <c r="F896">
+        <v>53</v>
+      </c>
+      <c r="G896">
+        <f>IF(C896=1,VLOOKUP(FoxFire!B896,balance!$U:$Z,2,FALSE),IF(C896=2,VLOOKUP(B896,balance!$U:$Z,3,FALSE),IF(C896=3,VLOOKUP(B896,balance!$U:$Z,4,FALSE),IF(C896=4,VLOOKUP(B896,balance!$U:$Z,5,FALSE),IF(C896=5,VLOOKUP(B896-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>408.89830000000001</v>
+      </c>
+      <c r="H896">
+        <v>2</v>
+      </c>
+      <c r="I896" s="1">
+        <f>IF(C896=1,VLOOKUP(FoxFire!B896,balance!$AF:$AJ,2,FALSE),IF(C896=2,VLOOKUP(B896,balance!$AF:$AJ,3,FALSE),IF(C896=3,VLOOKUP(B896,balance!$AF:$AJ,4,FALSE),IF(C896=4,VLOOKUP(B896,balance!$AF:$AJ,5,FALSE),IF(C896=5,VLOOKUP(B896,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7860000000000</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>895</v>
+      </c>
+      <c r="B897">
+        <f t="shared" si="27"/>
+        <v>180</v>
+      </c>
+      <c r="C897">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D897">
+        <v>9026</v>
+      </c>
+      <c r="E897" s="1">
+        <f>IF(C897=1,VLOOKUP(B897,balance!$K:$P,2,FALSE),IF(C897=2,VLOOKUP(B897,balance!$K:$P,3,FALSE),IF(C897=3,VLOOKUP(B897,balance!$K:$P,4,FALSE),IF(C897=4,VLOOKUP(B897,balance!$K:$P,5,FALSE),IF(C897=5,VLOOKUP(B897-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4725</v>
+      </c>
+      <c r="F897">
+        <v>53</v>
+      </c>
+      <c r="G897">
+        <f>IF(C897=1,VLOOKUP(FoxFire!B897,balance!$U:$Z,2,FALSE),IF(C897=2,VLOOKUP(B897,balance!$U:$Z,3,FALSE),IF(C897=3,VLOOKUP(B897,balance!$U:$Z,4,FALSE),IF(C897=4,VLOOKUP(B897,balance!$U:$Z,5,FALSE),IF(C897=5,VLOOKUP(B897-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7900000000000004E-3</v>
+      </c>
+      <c r="H897">
+        <v>2</v>
+      </c>
+      <c r="I897" s="1">
+        <f>IF(C897=1,VLOOKUP(FoxFire!B897,balance!$AF:$AJ,2,FALSE),IF(C897=2,VLOOKUP(B897,balance!$AF:$AJ,3,FALSE),IF(C897=3,VLOOKUP(B897,balance!$AF:$AJ,4,FALSE),IF(C897=4,VLOOKUP(B897,balance!$AF:$AJ,5,FALSE),IF(C897=5,VLOOKUP(B897,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1965000000000</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>896</v>
+      </c>
+      <c r="B898">
+        <f t="shared" si="27"/>
+        <v>180</v>
+      </c>
+      <c r="C898">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D898">
+        <v>9026</v>
+      </c>
+      <c r="E898" s="1">
+        <f>IF(C898=1,VLOOKUP(B898,balance!$K:$P,2,FALSE),IF(C898=2,VLOOKUP(B898,balance!$K:$P,3,FALSE),IF(C898=3,VLOOKUP(B898,balance!$K:$P,4,FALSE),IF(C898=4,VLOOKUP(B898,balance!$K:$P,5,FALSE),IF(C898=5,VLOOKUP(B898-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4725</v>
+      </c>
+      <c r="F898">
+        <v>53</v>
+      </c>
+      <c r="G898">
+        <f>IF(C898=1,VLOOKUP(FoxFire!B898,balance!$U:$Z,2,FALSE),IF(C898=2,VLOOKUP(B898,balance!$U:$Z,3,FALSE),IF(C898=3,VLOOKUP(B898,balance!$U:$Z,4,FALSE),IF(C898=4,VLOOKUP(B898,balance!$U:$Z,5,FALSE),IF(C898=5,VLOOKUP(B898-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7900000000000004E-3</v>
+      </c>
+      <c r="H898">
+        <v>2</v>
+      </c>
+      <c r="I898" s="1">
+        <f>IF(C898=1,VLOOKUP(FoxFire!B898,balance!$AF:$AJ,2,FALSE),IF(C898=2,VLOOKUP(B898,balance!$AF:$AJ,3,FALSE),IF(C898=3,VLOOKUP(B898,balance!$AF:$AJ,4,FALSE),IF(C898=4,VLOOKUP(B898,balance!$AF:$AJ,5,FALSE),IF(C898=5,VLOOKUP(B898,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1965000000000</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>897</v>
+      </c>
+      <c r="B899">
+        <f t="shared" si="27"/>
+        <v>180</v>
+      </c>
+      <c r="C899">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D899">
+        <v>9026</v>
+      </c>
+      <c r="E899" s="1">
+        <f>IF(C899=1,VLOOKUP(B899,balance!$K:$P,2,FALSE),IF(C899=2,VLOOKUP(B899,balance!$K:$P,3,FALSE),IF(C899=3,VLOOKUP(B899,balance!$K:$P,4,FALSE),IF(C899=4,VLOOKUP(B899,balance!$K:$P,5,FALSE),IF(C899=5,VLOOKUP(B899-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4725</v>
+      </c>
+      <c r="F899">
+        <v>53</v>
+      </c>
+      <c r="G899">
+        <f>IF(C899=1,VLOOKUP(FoxFire!B899,balance!$U:$Z,2,FALSE),IF(C899=2,VLOOKUP(B899,balance!$U:$Z,3,FALSE),IF(C899=3,VLOOKUP(B899,balance!$U:$Z,4,FALSE),IF(C899=4,VLOOKUP(B899,balance!$U:$Z,5,FALSE),IF(C899=5,VLOOKUP(B899-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7900000000000004E-3</v>
+      </c>
+      <c r="H899">
+        <v>2</v>
+      </c>
+      <c r="I899" s="1">
+        <f>IF(C899=1,VLOOKUP(FoxFire!B899,balance!$AF:$AJ,2,FALSE),IF(C899=2,VLOOKUP(B899,balance!$AF:$AJ,3,FALSE),IF(C899=3,VLOOKUP(B899,balance!$AF:$AJ,4,FALSE),IF(C899=4,VLOOKUP(B899,balance!$AF:$AJ,5,FALSE),IF(C899=5,VLOOKUP(B899,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1965000000000</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>898</v>
+      </c>
+      <c r="B900">
+        <f t="shared" si="27"/>
+        <v>180</v>
+      </c>
+      <c r="C900">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D900">
+        <v>9026</v>
+      </c>
+      <c r="E900" s="1">
+        <f>IF(C900=1,VLOOKUP(B900,balance!$K:$P,2,FALSE),IF(C900=2,VLOOKUP(B900,balance!$K:$P,3,FALSE),IF(C900=3,VLOOKUP(B900,balance!$K:$P,4,FALSE),IF(C900=4,VLOOKUP(B900,balance!$K:$P,5,FALSE),IF(C900=5,VLOOKUP(B900-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4725</v>
+      </c>
+      <c r="F900">
+        <v>53</v>
+      </c>
+      <c r="G900">
+        <f>IF(C900=1,VLOOKUP(FoxFire!B900,balance!$U:$Z,2,FALSE),IF(C900=2,VLOOKUP(B900,balance!$U:$Z,3,FALSE),IF(C900=3,VLOOKUP(B900,balance!$U:$Z,4,FALSE),IF(C900=4,VLOOKUP(B900,balance!$U:$Z,5,FALSE),IF(C900=5,VLOOKUP(B900-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.7900000000000004E-3</v>
+      </c>
+      <c r="H900">
+        <v>2</v>
+      </c>
+      <c r="I900" s="1">
+        <f>IF(C900=1,VLOOKUP(FoxFire!B900,balance!$AF:$AJ,2,FALSE),IF(C900=2,VLOOKUP(B900,balance!$AF:$AJ,3,FALSE),IF(C900=3,VLOOKUP(B900,balance!$AF:$AJ,4,FALSE),IF(C900=4,VLOOKUP(B900,balance!$AF:$AJ,5,FALSE),IF(C900=5,VLOOKUP(B900,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1965000000000</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>899</v>
+      </c>
+      <c r="B901">
+        <f t="shared" si="27"/>
+        <v>181</v>
+      </c>
+      <c r="C901">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D901">
+        <v>9026</v>
+      </c>
+      <c r="E901" s="1">
+        <f>IF(C901=1,VLOOKUP(B901,balance!$K:$P,2,FALSE),IF(C901=2,VLOOKUP(B901,balance!$K:$P,3,FALSE),IF(C901=3,VLOOKUP(B901,balance!$K:$P,4,FALSE),IF(C901=4,VLOOKUP(B901,balance!$K:$P,5,FALSE),IF(C901=5,VLOOKUP(B901-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>173880</v>
+      </c>
+      <c r="F901">
+        <v>53</v>
+      </c>
+      <c r="G901">
+        <f>IF(C901=1,VLOOKUP(FoxFire!B901,balance!$U:$Z,2,FALSE),IF(C901=2,VLOOKUP(B901,balance!$U:$Z,3,FALSE),IF(C901=3,VLOOKUP(B901,balance!$U:$Z,4,FALSE),IF(C901=4,VLOOKUP(B901,balance!$U:$Z,5,FALSE),IF(C901=5,VLOOKUP(B901-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>418.57660000000004</v>
+      </c>
+      <c r="H901">
+        <v>2</v>
+      </c>
+      <c r="I901" s="1">
+        <f>IF(C901=1,VLOOKUP(FoxFire!B901,balance!$AF:$AJ,2,FALSE),IF(C901=2,VLOOKUP(B901,balance!$AF:$AJ,3,FALSE),IF(C901=3,VLOOKUP(B901,balance!$AF:$AJ,4,FALSE),IF(C901=4,VLOOKUP(B901,balance!$AF:$AJ,5,FALSE),IF(C901=5,VLOOKUP(B901,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7920000000000</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>900</v>
+      </c>
+      <c r="B902">
+        <f t="shared" si="27"/>
+        <v>181</v>
+      </c>
+      <c r="C902">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D902">
+        <v>9026</v>
+      </c>
+      <c r="E902" s="1">
+        <f>IF(C902=1,VLOOKUP(B902,balance!$K:$P,2,FALSE),IF(C902=2,VLOOKUP(B902,balance!$K:$P,3,FALSE),IF(C902=3,VLOOKUP(B902,balance!$K:$P,4,FALSE),IF(C902=4,VLOOKUP(B902,balance!$K:$P,5,FALSE),IF(C902=5,VLOOKUP(B902-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4750</v>
+      </c>
+      <c r="F902">
+        <v>53</v>
+      </c>
+      <c r="G902">
+        <f>IF(C902=1,VLOOKUP(FoxFire!B902,balance!$U:$Z,2,FALSE),IF(C902=2,VLOOKUP(B902,balance!$U:$Z,3,FALSE),IF(C902=3,VLOOKUP(B902,balance!$U:$Z,4,FALSE),IF(C902=4,VLOOKUP(B902,balance!$U:$Z,5,FALSE),IF(C902=5,VLOOKUP(B902-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="H902">
+        <v>2</v>
+      </c>
+      <c r="I902" s="1">
+        <f>IF(C902=1,VLOOKUP(FoxFire!B902,balance!$AF:$AJ,2,FALSE),IF(C902=2,VLOOKUP(B902,balance!$AF:$AJ,3,FALSE),IF(C902=3,VLOOKUP(B902,balance!$AF:$AJ,4,FALSE),IF(C902=4,VLOOKUP(B902,balance!$AF:$AJ,5,FALSE),IF(C902=5,VLOOKUP(B902,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1980000000000</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>901</v>
+      </c>
+      <c r="B903">
+        <f t="shared" si="27"/>
+        <v>181</v>
+      </c>
+      <c r="C903">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D903">
+        <v>9026</v>
+      </c>
+      <c r="E903" s="1">
+        <f>IF(C903=1,VLOOKUP(B903,balance!$K:$P,2,FALSE),IF(C903=2,VLOOKUP(B903,balance!$K:$P,3,FALSE),IF(C903=3,VLOOKUP(B903,balance!$K:$P,4,FALSE),IF(C903=4,VLOOKUP(B903,balance!$K:$P,5,FALSE),IF(C903=5,VLOOKUP(B903-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4750</v>
+      </c>
+      <c r="F903">
+        <v>53</v>
+      </c>
+      <c r="G903">
+        <f>IF(C903=1,VLOOKUP(FoxFire!B903,balance!$U:$Z,2,FALSE),IF(C903=2,VLOOKUP(B903,balance!$U:$Z,3,FALSE),IF(C903=3,VLOOKUP(B903,balance!$U:$Z,4,FALSE),IF(C903=4,VLOOKUP(B903,balance!$U:$Z,5,FALSE),IF(C903=5,VLOOKUP(B903-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="H903">
+        <v>2</v>
+      </c>
+      <c r="I903" s="1">
+        <f>IF(C903=1,VLOOKUP(FoxFire!B903,balance!$AF:$AJ,2,FALSE),IF(C903=2,VLOOKUP(B903,balance!$AF:$AJ,3,FALSE),IF(C903=3,VLOOKUP(B903,balance!$AF:$AJ,4,FALSE),IF(C903=4,VLOOKUP(B903,balance!$AF:$AJ,5,FALSE),IF(C903=5,VLOOKUP(B903,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1980000000000</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>902</v>
+      </c>
+      <c r="B904">
+        <f t="shared" si="27"/>
+        <v>181</v>
+      </c>
+      <c r="C904">
+        <f t="shared" ref="C904:C967" si="28">C899</f>
+        <v>3</v>
+      </c>
+      <c r="D904">
+        <v>9026</v>
+      </c>
+      <c r="E904" s="1">
+        <f>IF(C904=1,VLOOKUP(B904,balance!$K:$P,2,FALSE),IF(C904=2,VLOOKUP(B904,balance!$K:$P,3,FALSE),IF(C904=3,VLOOKUP(B904,balance!$K:$P,4,FALSE),IF(C904=4,VLOOKUP(B904,balance!$K:$P,5,FALSE),IF(C904=5,VLOOKUP(B904-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4750</v>
+      </c>
+      <c r="F904">
+        <v>53</v>
+      </c>
+      <c r="G904">
+        <f>IF(C904=1,VLOOKUP(FoxFire!B904,balance!$U:$Z,2,FALSE),IF(C904=2,VLOOKUP(B904,balance!$U:$Z,3,FALSE),IF(C904=3,VLOOKUP(B904,balance!$U:$Z,4,FALSE),IF(C904=4,VLOOKUP(B904,balance!$U:$Z,5,FALSE),IF(C904=5,VLOOKUP(B904-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="H904">
+        <v>2</v>
+      </c>
+      <c r="I904" s="1">
+        <f>IF(C904=1,VLOOKUP(FoxFire!B904,balance!$AF:$AJ,2,FALSE),IF(C904=2,VLOOKUP(B904,balance!$AF:$AJ,3,FALSE),IF(C904=3,VLOOKUP(B904,balance!$AF:$AJ,4,FALSE),IF(C904=4,VLOOKUP(B904,balance!$AF:$AJ,5,FALSE),IF(C904=5,VLOOKUP(B904,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1980000000000</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>903</v>
+      </c>
+      <c r="B905">
+        <f t="shared" si="27"/>
+        <v>181</v>
+      </c>
+      <c r="C905">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D905">
+        <v>9026</v>
+      </c>
+      <c r="E905" s="1">
+        <f>IF(C905=1,VLOOKUP(B905,balance!$K:$P,2,FALSE),IF(C905=2,VLOOKUP(B905,balance!$K:$P,3,FALSE),IF(C905=3,VLOOKUP(B905,balance!$K:$P,4,FALSE),IF(C905=4,VLOOKUP(B905,balance!$K:$P,5,FALSE),IF(C905=5,VLOOKUP(B905-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4750</v>
+      </c>
+      <c r="F905">
+        <v>53</v>
+      </c>
+      <c r="G905">
+        <f>IF(C905=1,VLOOKUP(FoxFire!B905,balance!$U:$Z,2,FALSE),IF(C905=2,VLOOKUP(B905,balance!$U:$Z,3,FALSE),IF(C905=3,VLOOKUP(B905,balance!$U:$Z,4,FALSE),IF(C905=4,VLOOKUP(B905,balance!$U:$Z,5,FALSE),IF(C905=5,VLOOKUP(B905-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="H905">
+        <v>2</v>
+      </c>
+      <c r="I905" s="1">
+        <f>IF(C905=1,VLOOKUP(FoxFire!B905,balance!$AF:$AJ,2,FALSE),IF(C905=2,VLOOKUP(B905,balance!$AF:$AJ,3,FALSE),IF(C905=3,VLOOKUP(B905,balance!$AF:$AJ,4,FALSE),IF(C905=4,VLOOKUP(B905,balance!$AF:$AJ,5,FALSE),IF(C905=5,VLOOKUP(B905,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1980000000000</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>904</v>
+      </c>
+      <c r="B906">
+        <f t="shared" si="27"/>
+        <v>182</v>
+      </c>
+      <c r="C906">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D906">
+        <v>9026</v>
+      </c>
+      <c r="E906" s="1">
+        <f>IF(C906=1,VLOOKUP(B906,balance!$K:$P,2,FALSE),IF(C906=2,VLOOKUP(B906,balance!$K:$P,3,FALSE),IF(C906=3,VLOOKUP(B906,balance!$K:$P,4,FALSE),IF(C906=4,VLOOKUP(B906,balance!$K:$P,5,FALSE),IF(C906=5,VLOOKUP(B906-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>175750</v>
+      </c>
+      <c r="F906">
+        <v>53</v>
+      </c>
+      <c r="G906">
+        <f>IF(C906=1,VLOOKUP(FoxFire!B906,balance!$U:$Z,2,FALSE),IF(C906=2,VLOOKUP(B906,balance!$U:$Z,3,FALSE),IF(C906=3,VLOOKUP(B906,balance!$U:$Z,4,FALSE),IF(C906=4,VLOOKUP(B906,balance!$U:$Z,5,FALSE),IF(C906=5,VLOOKUP(B906-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>428.47840000000002</v>
+      </c>
+      <c r="H906">
+        <v>2</v>
+      </c>
+      <c r="I906" s="1">
+        <f>IF(C906=1,VLOOKUP(FoxFire!B906,balance!$AF:$AJ,2,FALSE),IF(C906=2,VLOOKUP(B906,balance!$AF:$AJ,3,FALSE),IF(C906=3,VLOOKUP(B906,balance!$AF:$AJ,4,FALSE),IF(C906=4,VLOOKUP(B906,balance!$AF:$AJ,5,FALSE),IF(C906=5,VLOOKUP(B906,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>7980000000000</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>905</v>
+      </c>
+      <c r="B907">
+        <f t="shared" si="27"/>
+        <v>182</v>
+      </c>
+      <c r="C907">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D907">
+        <v>9026</v>
+      </c>
+      <c r="E907" s="1">
+        <f>IF(C907=1,VLOOKUP(B907,balance!$K:$P,2,FALSE),IF(C907=2,VLOOKUP(B907,balance!$K:$P,3,FALSE),IF(C907=3,VLOOKUP(B907,balance!$K:$P,4,FALSE),IF(C907=4,VLOOKUP(B907,balance!$K:$P,5,FALSE),IF(C907=5,VLOOKUP(B907-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4775</v>
+      </c>
+      <c r="F907">
+        <v>53</v>
+      </c>
+      <c r="G907">
+        <f>IF(C907=1,VLOOKUP(FoxFire!B907,balance!$U:$Z,2,FALSE),IF(C907=2,VLOOKUP(B907,balance!$U:$Z,3,FALSE),IF(C907=3,VLOOKUP(B907,balance!$U:$Z,4,FALSE),IF(C907=4,VLOOKUP(B907,balance!$U:$Z,5,FALSE),IF(C907=5,VLOOKUP(B907-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8100000000000004E-3</v>
+      </c>
+      <c r="H907">
+        <v>2</v>
+      </c>
+      <c r="I907" s="1">
+        <f>IF(C907=1,VLOOKUP(FoxFire!B907,balance!$AF:$AJ,2,FALSE),IF(C907=2,VLOOKUP(B907,balance!$AF:$AJ,3,FALSE),IF(C907=3,VLOOKUP(B907,balance!$AF:$AJ,4,FALSE),IF(C907=4,VLOOKUP(B907,balance!$AF:$AJ,5,FALSE),IF(C907=5,VLOOKUP(B907,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1995000000000</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>906</v>
+      </c>
+      <c r="B908">
+        <f t="shared" ref="B908:B971" si="29">B903+1</f>
+        <v>182</v>
+      </c>
+      <c r="C908">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D908">
+        <v>9026</v>
+      </c>
+      <c r="E908" s="1">
+        <f>IF(C908=1,VLOOKUP(B908,balance!$K:$P,2,FALSE),IF(C908=2,VLOOKUP(B908,balance!$K:$P,3,FALSE),IF(C908=3,VLOOKUP(B908,balance!$K:$P,4,FALSE),IF(C908=4,VLOOKUP(B908,balance!$K:$P,5,FALSE),IF(C908=5,VLOOKUP(B908-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4775</v>
+      </c>
+      <c r="F908">
+        <v>53</v>
+      </c>
+      <c r="G908">
+        <f>IF(C908=1,VLOOKUP(FoxFire!B908,balance!$U:$Z,2,FALSE),IF(C908=2,VLOOKUP(B908,balance!$U:$Z,3,FALSE),IF(C908=3,VLOOKUP(B908,balance!$U:$Z,4,FALSE),IF(C908=4,VLOOKUP(B908,balance!$U:$Z,5,FALSE),IF(C908=5,VLOOKUP(B908-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8100000000000004E-3</v>
+      </c>
+      <c r="H908">
+        <v>2</v>
+      </c>
+      <c r="I908" s="1">
+        <f>IF(C908=1,VLOOKUP(FoxFire!B908,balance!$AF:$AJ,2,FALSE),IF(C908=2,VLOOKUP(B908,balance!$AF:$AJ,3,FALSE),IF(C908=3,VLOOKUP(B908,balance!$AF:$AJ,4,FALSE),IF(C908=4,VLOOKUP(B908,balance!$AF:$AJ,5,FALSE),IF(C908=5,VLOOKUP(B908,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1995000000000</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>907</v>
+      </c>
+      <c r="B909">
+        <f t="shared" si="29"/>
+        <v>182</v>
+      </c>
+      <c r="C909">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D909">
+        <v>9026</v>
+      </c>
+      <c r="E909" s="1">
+        <f>IF(C909=1,VLOOKUP(B909,balance!$K:$P,2,FALSE),IF(C909=2,VLOOKUP(B909,balance!$K:$P,3,FALSE),IF(C909=3,VLOOKUP(B909,balance!$K:$P,4,FALSE),IF(C909=4,VLOOKUP(B909,balance!$K:$P,5,FALSE),IF(C909=5,VLOOKUP(B909-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4775</v>
+      </c>
+      <c r="F909">
+        <v>53</v>
+      </c>
+      <c r="G909">
+        <f>IF(C909=1,VLOOKUP(FoxFire!B909,balance!$U:$Z,2,FALSE),IF(C909=2,VLOOKUP(B909,balance!$U:$Z,3,FALSE),IF(C909=3,VLOOKUP(B909,balance!$U:$Z,4,FALSE),IF(C909=4,VLOOKUP(B909,balance!$U:$Z,5,FALSE),IF(C909=5,VLOOKUP(B909-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8100000000000004E-3</v>
+      </c>
+      <c r="H909">
+        <v>2</v>
+      </c>
+      <c r="I909" s="1">
+        <f>IF(C909=1,VLOOKUP(FoxFire!B909,balance!$AF:$AJ,2,FALSE),IF(C909=2,VLOOKUP(B909,balance!$AF:$AJ,3,FALSE),IF(C909=3,VLOOKUP(B909,balance!$AF:$AJ,4,FALSE),IF(C909=4,VLOOKUP(B909,balance!$AF:$AJ,5,FALSE),IF(C909=5,VLOOKUP(B909,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1995000000000</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>908</v>
+      </c>
+      <c r="B910">
+        <f t="shared" si="29"/>
+        <v>182</v>
+      </c>
+      <c r="C910">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D910">
+        <v>9026</v>
+      </c>
+      <c r="E910" s="1">
+        <f>IF(C910=1,VLOOKUP(B910,balance!$K:$P,2,FALSE),IF(C910=2,VLOOKUP(B910,balance!$K:$P,3,FALSE),IF(C910=3,VLOOKUP(B910,balance!$K:$P,4,FALSE),IF(C910=4,VLOOKUP(B910,balance!$K:$P,5,FALSE),IF(C910=5,VLOOKUP(B910-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4775</v>
+      </c>
+      <c r="F910">
+        <v>53</v>
+      </c>
+      <c r="G910">
+        <f>IF(C910=1,VLOOKUP(FoxFire!B910,balance!$U:$Z,2,FALSE),IF(C910=2,VLOOKUP(B910,balance!$U:$Z,3,FALSE),IF(C910=3,VLOOKUP(B910,balance!$U:$Z,4,FALSE),IF(C910=4,VLOOKUP(B910,balance!$U:$Z,5,FALSE),IF(C910=5,VLOOKUP(B910-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8100000000000004E-3</v>
+      </c>
+      <c r="H910">
+        <v>2</v>
+      </c>
+      <c r="I910" s="1">
+        <f>IF(C910=1,VLOOKUP(FoxFire!B910,balance!$AF:$AJ,2,FALSE),IF(C910=2,VLOOKUP(B910,balance!$AF:$AJ,3,FALSE),IF(C910=3,VLOOKUP(B910,balance!$AF:$AJ,4,FALSE),IF(C910=4,VLOOKUP(B910,balance!$AF:$AJ,5,FALSE),IF(C910=5,VLOOKUP(B910,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>1995000000000</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>909</v>
+      </c>
+      <c r="B911">
+        <f t="shared" si="29"/>
+        <v>183</v>
+      </c>
+      <c r="C911">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D911">
+        <v>9026</v>
+      </c>
+      <c r="E911" s="1">
+        <f>IF(C911=1,VLOOKUP(B911,balance!$K:$P,2,FALSE),IF(C911=2,VLOOKUP(B911,balance!$K:$P,3,FALSE),IF(C911=3,VLOOKUP(B911,balance!$K:$P,4,FALSE),IF(C911=4,VLOOKUP(B911,balance!$K:$P,5,FALSE),IF(C911=5,VLOOKUP(B911-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>177630</v>
+      </c>
+      <c r="F911">
+        <v>53</v>
+      </c>
+      <c r="G911">
+        <f>IF(C911=1,VLOOKUP(FoxFire!B911,balance!$U:$Z,2,FALSE),IF(C911=2,VLOOKUP(B911,balance!$U:$Z,3,FALSE),IF(C911=3,VLOOKUP(B911,balance!$U:$Z,4,FALSE),IF(C911=4,VLOOKUP(B911,balance!$U:$Z,5,FALSE),IF(C911=5,VLOOKUP(B911-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>438.60880000000003</v>
+      </c>
+      <c r="H911">
+        <v>2</v>
+      </c>
+      <c r="I911" s="1">
+        <f>IF(C911=1,VLOOKUP(FoxFire!B911,balance!$AF:$AJ,2,FALSE),IF(C911=2,VLOOKUP(B911,balance!$AF:$AJ,3,FALSE),IF(C911=3,VLOOKUP(B911,balance!$AF:$AJ,4,FALSE),IF(C911=4,VLOOKUP(B911,balance!$AF:$AJ,5,FALSE),IF(C911=5,VLOOKUP(B911,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8039999999999.999</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>910</v>
+      </c>
+      <c r="B912">
+        <f t="shared" si="29"/>
+        <v>183</v>
+      </c>
+      <c r="C912">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D912">
+        <v>9026</v>
+      </c>
+      <c r="E912" s="1">
+        <f>IF(C912=1,VLOOKUP(B912,balance!$K:$P,2,FALSE),IF(C912=2,VLOOKUP(B912,balance!$K:$P,3,FALSE),IF(C912=3,VLOOKUP(B912,balance!$K:$P,4,FALSE),IF(C912=4,VLOOKUP(B912,balance!$K:$P,5,FALSE),IF(C912=5,VLOOKUP(B912-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4800</v>
+      </c>
+      <c r="F912">
+        <v>53</v>
+      </c>
+      <c r="G912">
+        <f>IF(C912=1,VLOOKUP(FoxFire!B912,balance!$U:$Z,2,FALSE),IF(C912=2,VLOOKUP(B912,balance!$U:$Z,3,FALSE),IF(C912=3,VLOOKUP(B912,balance!$U:$Z,4,FALSE),IF(C912=4,VLOOKUP(B912,balance!$U:$Z,5,FALSE),IF(C912=5,VLOOKUP(B912-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8199999999999996E-3</v>
+      </c>
+      <c r="H912">
+        <v>2</v>
+      </c>
+      <c r="I912" s="1">
+        <f>IF(C912=1,VLOOKUP(FoxFire!B912,balance!$AF:$AJ,2,FALSE),IF(C912=2,VLOOKUP(B912,balance!$AF:$AJ,3,FALSE),IF(C912=3,VLOOKUP(B912,balance!$AF:$AJ,4,FALSE),IF(C912=4,VLOOKUP(B912,balance!$AF:$AJ,5,FALSE),IF(C912=5,VLOOKUP(B912,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2009999999999.9998</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>911</v>
+      </c>
+      <c r="B913">
+        <f t="shared" si="29"/>
+        <v>183</v>
+      </c>
+      <c r="C913">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D913">
+        <v>9026</v>
+      </c>
+      <c r="E913" s="1">
+        <f>IF(C913=1,VLOOKUP(B913,balance!$K:$P,2,FALSE),IF(C913=2,VLOOKUP(B913,balance!$K:$P,3,FALSE),IF(C913=3,VLOOKUP(B913,balance!$K:$P,4,FALSE),IF(C913=4,VLOOKUP(B913,balance!$K:$P,5,FALSE),IF(C913=5,VLOOKUP(B913-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4800</v>
+      </c>
+      <c r="F913">
+        <v>53</v>
+      </c>
+      <c r="G913">
+        <f>IF(C913=1,VLOOKUP(FoxFire!B913,balance!$U:$Z,2,FALSE),IF(C913=2,VLOOKUP(B913,balance!$U:$Z,3,FALSE),IF(C913=3,VLOOKUP(B913,balance!$U:$Z,4,FALSE),IF(C913=4,VLOOKUP(B913,balance!$U:$Z,5,FALSE),IF(C913=5,VLOOKUP(B913-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8199999999999996E-3</v>
+      </c>
+      <c r="H913">
+        <v>2</v>
+      </c>
+      <c r="I913" s="1">
+        <f>IF(C913=1,VLOOKUP(FoxFire!B913,balance!$AF:$AJ,2,FALSE),IF(C913=2,VLOOKUP(B913,balance!$AF:$AJ,3,FALSE),IF(C913=3,VLOOKUP(B913,balance!$AF:$AJ,4,FALSE),IF(C913=4,VLOOKUP(B913,balance!$AF:$AJ,5,FALSE),IF(C913=5,VLOOKUP(B913,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2009999999999.9998</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>912</v>
+      </c>
+      <c r="B914">
+        <f t="shared" si="29"/>
+        <v>183</v>
+      </c>
+      <c r="C914">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D914">
+        <v>9026</v>
+      </c>
+      <c r="E914" s="1">
+        <f>IF(C914=1,VLOOKUP(B914,balance!$K:$P,2,FALSE),IF(C914=2,VLOOKUP(B914,balance!$K:$P,3,FALSE),IF(C914=3,VLOOKUP(B914,balance!$K:$P,4,FALSE),IF(C914=4,VLOOKUP(B914,balance!$K:$P,5,FALSE),IF(C914=5,VLOOKUP(B914-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4800</v>
+      </c>
+      <c r="F914">
+        <v>53</v>
+      </c>
+      <c r="G914">
+        <f>IF(C914=1,VLOOKUP(FoxFire!B914,balance!$U:$Z,2,FALSE),IF(C914=2,VLOOKUP(B914,balance!$U:$Z,3,FALSE),IF(C914=3,VLOOKUP(B914,balance!$U:$Z,4,FALSE),IF(C914=4,VLOOKUP(B914,balance!$U:$Z,5,FALSE),IF(C914=5,VLOOKUP(B914-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8199999999999996E-3</v>
+      </c>
+      <c r="H914">
+        <v>2</v>
+      </c>
+      <c r="I914" s="1">
+        <f>IF(C914=1,VLOOKUP(FoxFire!B914,balance!$AF:$AJ,2,FALSE),IF(C914=2,VLOOKUP(B914,balance!$AF:$AJ,3,FALSE),IF(C914=3,VLOOKUP(B914,balance!$AF:$AJ,4,FALSE),IF(C914=4,VLOOKUP(B914,balance!$AF:$AJ,5,FALSE),IF(C914=5,VLOOKUP(B914,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2009999999999.9998</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>913</v>
+      </c>
+      <c r="B915">
+        <f t="shared" si="29"/>
+        <v>183</v>
+      </c>
+      <c r="C915">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D915">
+        <v>9026</v>
+      </c>
+      <c r="E915" s="1">
+        <f>IF(C915=1,VLOOKUP(B915,balance!$K:$P,2,FALSE),IF(C915=2,VLOOKUP(B915,balance!$K:$P,3,FALSE),IF(C915=3,VLOOKUP(B915,balance!$K:$P,4,FALSE),IF(C915=4,VLOOKUP(B915,balance!$K:$P,5,FALSE),IF(C915=5,VLOOKUP(B915-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4800</v>
+      </c>
+      <c r="F915">
+        <v>53</v>
+      </c>
+      <c r="G915">
+        <f>IF(C915=1,VLOOKUP(FoxFire!B915,balance!$U:$Z,2,FALSE),IF(C915=2,VLOOKUP(B915,balance!$U:$Z,3,FALSE),IF(C915=3,VLOOKUP(B915,balance!$U:$Z,4,FALSE),IF(C915=4,VLOOKUP(B915,balance!$U:$Z,5,FALSE),IF(C915=5,VLOOKUP(B915-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8199999999999996E-3</v>
+      </c>
+      <c r="H915">
+        <v>2</v>
+      </c>
+      <c r="I915" s="1">
+        <f>IF(C915=1,VLOOKUP(FoxFire!B915,balance!$AF:$AJ,2,FALSE),IF(C915=2,VLOOKUP(B915,balance!$AF:$AJ,3,FALSE),IF(C915=3,VLOOKUP(B915,balance!$AF:$AJ,4,FALSE),IF(C915=4,VLOOKUP(B915,balance!$AF:$AJ,5,FALSE),IF(C915=5,VLOOKUP(B915,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2009999999999.9998</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>914</v>
+      </c>
+      <c r="B916">
+        <f t="shared" si="29"/>
+        <v>184</v>
+      </c>
+      <c r="C916">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D916">
+        <v>9026</v>
+      </c>
+      <c r="E916" s="1">
+        <f>IF(C916=1,VLOOKUP(B916,balance!$K:$P,2,FALSE),IF(C916=2,VLOOKUP(B916,balance!$K:$P,3,FALSE),IF(C916=3,VLOOKUP(B916,balance!$K:$P,4,FALSE),IF(C916=4,VLOOKUP(B916,balance!$K:$P,5,FALSE),IF(C916=5,VLOOKUP(B916-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>179520</v>
+      </c>
+      <c r="F916">
+        <v>53</v>
+      </c>
+      <c r="G916">
+        <f>IF(C916=1,VLOOKUP(FoxFire!B916,balance!$U:$Z,2,FALSE),IF(C916=2,VLOOKUP(B916,balance!$U:$Z,3,FALSE),IF(C916=3,VLOOKUP(B916,balance!$U:$Z,4,FALSE),IF(C916=4,VLOOKUP(B916,balance!$U:$Z,5,FALSE),IF(C916=5,VLOOKUP(B916-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>448.97310000000004</v>
+      </c>
+      <c r="H916">
+        <v>2</v>
+      </c>
+      <c r="I916" s="1">
+        <f>IF(C916=1,VLOOKUP(FoxFire!B916,balance!$AF:$AJ,2,FALSE),IF(C916=2,VLOOKUP(B916,balance!$AF:$AJ,3,FALSE),IF(C916=3,VLOOKUP(B916,balance!$AF:$AJ,4,FALSE),IF(C916=4,VLOOKUP(B916,balance!$AF:$AJ,5,FALSE),IF(C916=5,VLOOKUP(B916,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8100000000000</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>915</v>
+      </c>
+      <c r="B917">
+        <f t="shared" si="29"/>
+        <v>184</v>
+      </c>
+      <c r="C917">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D917">
+        <v>9026</v>
+      </c>
+      <c r="E917" s="1">
+        <f>IF(C917=1,VLOOKUP(B917,balance!$K:$P,2,FALSE),IF(C917=2,VLOOKUP(B917,balance!$K:$P,3,FALSE),IF(C917=3,VLOOKUP(B917,balance!$K:$P,4,FALSE),IF(C917=4,VLOOKUP(B917,balance!$K:$P,5,FALSE),IF(C917=5,VLOOKUP(B917-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4825</v>
+      </c>
+      <c r="F917">
+        <v>53</v>
+      </c>
+      <c r="G917">
+        <f>IF(C917=1,VLOOKUP(FoxFire!B917,balance!$U:$Z,2,FALSE),IF(C917=2,VLOOKUP(B917,balance!$U:$Z,3,FALSE),IF(C917=3,VLOOKUP(B917,balance!$U:$Z,4,FALSE),IF(C917=4,VLOOKUP(B917,balance!$U:$Z,5,FALSE),IF(C917=5,VLOOKUP(B917-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8299999999999996E-3</v>
+      </c>
+      <c r="H917">
+        <v>2</v>
+      </c>
+      <c r="I917" s="1">
+        <f>IF(C917=1,VLOOKUP(FoxFire!B917,balance!$AF:$AJ,2,FALSE),IF(C917=2,VLOOKUP(B917,balance!$AF:$AJ,3,FALSE),IF(C917=3,VLOOKUP(B917,balance!$AF:$AJ,4,FALSE),IF(C917=4,VLOOKUP(B917,balance!$AF:$AJ,5,FALSE),IF(C917=5,VLOOKUP(B917,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2025000000000</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>916</v>
+      </c>
+      <c r="B918">
+        <f t="shared" si="29"/>
+        <v>184</v>
+      </c>
+      <c r="C918">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D918">
+        <v>9026</v>
+      </c>
+      <c r="E918" s="1">
+        <f>IF(C918=1,VLOOKUP(B918,balance!$K:$P,2,FALSE),IF(C918=2,VLOOKUP(B918,balance!$K:$P,3,FALSE),IF(C918=3,VLOOKUP(B918,balance!$K:$P,4,FALSE),IF(C918=4,VLOOKUP(B918,balance!$K:$P,5,FALSE),IF(C918=5,VLOOKUP(B918-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4825</v>
+      </c>
+      <c r="F918">
+        <v>53</v>
+      </c>
+      <c r="G918">
+        <f>IF(C918=1,VLOOKUP(FoxFire!B918,balance!$U:$Z,2,FALSE),IF(C918=2,VLOOKUP(B918,balance!$U:$Z,3,FALSE),IF(C918=3,VLOOKUP(B918,balance!$U:$Z,4,FALSE),IF(C918=4,VLOOKUP(B918,balance!$U:$Z,5,FALSE),IF(C918=5,VLOOKUP(B918-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8299999999999996E-3</v>
+      </c>
+      <c r="H918">
+        <v>2</v>
+      </c>
+      <c r="I918" s="1">
+        <f>IF(C918=1,VLOOKUP(FoxFire!B918,balance!$AF:$AJ,2,FALSE),IF(C918=2,VLOOKUP(B918,balance!$AF:$AJ,3,FALSE),IF(C918=3,VLOOKUP(B918,balance!$AF:$AJ,4,FALSE),IF(C918=4,VLOOKUP(B918,balance!$AF:$AJ,5,FALSE),IF(C918=5,VLOOKUP(B918,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2025000000000</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>917</v>
+      </c>
+      <c r="B919">
+        <f t="shared" si="29"/>
+        <v>184</v>
+      </c>
+      <c r="C919">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D919">
+        <v>9026</v>
+      </c>
+      <c r="E919" s="1">
+        <f>IF(C919=1,VLOOKUP(B919,balance!$K:$P,2,FALSE),IF(C919=2,VLOOKUP(B919,balance!$K:$P,3,FALSE),IF(C919=3,VLOOKUP(B919,balance!$K:$P,4,FALSE),IF(C919=4,VLOOKUP(B919,balance!$K:$P,5,FALSE),IF(C919=5,VLOOKUP(B919-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4825</v>
+      </c>
+      <c r="F919">
+        <v>53</v>
+      </c>
+      <c r="G919">
+        <f>IF(C919=1,VLOOKUP(FoxFire!B919,balance!$U:$Z,2,FALSE),IF(C919=2,VLOOKUP(B919,balance!$U:$Z,3,FALSE),IF(C919=3,VLOOKUP(B919,balance!$U:$Z,4,FALSE),IF(C919=4,VLOOKUP(B919,balance!$U:$Z,5,FALSE),IF(C919=5,VLOOKUP(B919-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8299999999999996E-3</v>
+      </c>
+      <c r="H919">
+        <v>2</v>
+      </c>
+      <c r="I919" s="1">
+        <f>IF(C919=1,VLOOKUP(FoxFire!B919,balance!$AF:$AJ,2,FALSE),IF(C919=2,VLOOKUP(B919,balance!$AF:$AJ,3,FALSE),IF(C919=3,VLOOKUP(B919,balance!$AF:$AJ,4,FALSE),IF(C919=4,VLOOKUP(B919,balance!$AF:$AJ,5,FALSE),IF(C919=5,VLOOKUP(B919,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2025000000000</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>918</v>
+      </c>
+      <c r="B920">
+        <f t="shared" si="29"/>
+        <v>184</v>
+      </c>
+      <c r="C920">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D920">
+        <v>9026</v>
+      </c>
+      <c r="E920" s="1">
+        <f>IF(C920=1,VLOOKUP(B920,balance!$K:$P,2,FALSE),IF(C920=2,VLOOKUP(B920,balance!$K:$P,3,FALSE),IF(C920=3,VLOOKUP(B920,balance!$K:$P,4,FALSE),IF(C920=4,VLOOKUP(B920,balance!$K:$P,5,FALSE),IF(C920=5,VLOOKUP(B920-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4825</v>
+      </c>
+      <c r="F920">
+        <v>53</v>
+      </c>
+      <c r="G920">
+        <f>IF(C920=1,VLOOKUP(FoxFire!B920,balance!$U:$Z,2,FALSE),IF(C920=2,VLOOKUP(B920,balance!$U:$Z,3,FALSE),IF(C920=3,VLOOKUP(B920,balance!$U:$Z,4,FALSE),IF(C920=4,VLOOKUP(B920,balance!$U:$Z,5,FALSE),IF(C920=5,VLOOKUP(B920-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8299999999999996E-3</v>
+      </c>
+      <c r="H920">
+        <v>2</v>
+      </c>
+      <c r="I920" s="1">
+        <f>IF(C920=1,VLOOKUP(FoxFire!B920,balance!$AF:$AJ,2,FALSE),IF(C920=2,VLOOKUP(B920,balance!$AF:$AJ,3,FALSE),IF(C920=3,VLOOKUP(B920,balance!$AF:$AJ,4,FALSE),IF(C920=4,VLOOKUP(B920,balance!$AF:$AJ,5,FALSE),IF(C920=5,VLOOKUP(B920,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2025000000000</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>919</v>
+      </c>
+      <c r="B921">
+        <f t="shared" si="29"/>
+        <v>185</v>
+      </c>
+      <c r="C921">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D921">
+        <v>9026</v>
+      </c>
+      <c r="E921" s="1">
+        <f>IF(C921=1,VLOOKUP(B921,balance!$K:$P,2,FALSE),IF(C921=2,VLOOKUP(B921,balance!$K:$P,3,FALSE),IF(C921=3,VLOOKUP(B921,balance!$K:$P,4,FALSE),IF(C921=4,VLOOKUP(B921,balance!$K:$P,5,FALSE),IF(C921=5,VLOOKUP(B921-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>181420</v>
+      </c>
+      <c r="F921">
+        <v>53</v>
+      </c>
+      <c r="G921">
+        <f>IF(C921=1,VLOOKUP(FoxFire!B921,balance!$U:$Z,2,FALSE),IF(C921=2,VLOOKUP(B921,balance!$U:$Z,3,FALSE),IF(C921=3,VLOOKUP(B921,balance!$U:$Z,4,FALSE),IF(C921=4,VLOOKUP(B921,balance!$U:$Z,5,FALSE),IF(C921=5,VLOOKUP(B921-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>459.57650000000001</v>
+      </c>
+      <c r="H921">
+        <v>2</v>
+      </c>
+      <c r="I921" s="1">
+        <f>IF(C921=1,VLOOKUP(FoxFire!B921,balance!$AF:$AJ,2,FALSE),IF(C921=2,VLOOKUP(B921,balance!$AF:$AJ,3,FALSE),IF(C921=3,VLOOKUP(B921,balance!$AF:$AJ,4,FALSE),IF(C921=4,VLOOKUP(B921,balance!$AF:$AJ,5,FALSE),IF(C921=5,VLOOKUP(B921,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8160000000000</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>920</v>
+      </c>
+      <c r="B922">
+        <f t="shared" si="29"/>
+        <v>185</v>
+      </c>
+      <c r="C922">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D922">
+        <v>9026</v>
+      </c>
+      <c r="E922" s="1">
+        <f>IF(C922=1,VLOOKUP(B922,balance!$K:$P,2,FALSE),IF(C922=2,VLOOKUP(B922,balance!$K:$P,3,FALSE),IF(C922=3,VLOOKUP(B922,balance!$K:$P,4,FALSE),IF(C922=4,VLOOKUP(B922,balance!$K:$P,5,FALSE),IF(C922=5,VLOOKUP(B922-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4850</v>
+      </c>
+      <c r="F922">
+        <v>53</v>
+      </c>
+      <c r="G922">
+        <f>IF(C922=1,VLOOKUP(FoxFire!B922,balance!$U:$Z,2,FALSE),IF(C922=2,VLOOKUP(B922,balance!$U:$Z,3,FALSE),IF(C922=3,VLOOKUP(B922,balance!$U:$Z,4,FALSE),IF(C922=4,VLOOKUP(B922,balance!$U:$Z,5,FALSE),IF(C922=5,VLOOKUP(B922-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="H922">
+        <v>2</v>
+      </c>
+      <c r="I922" s="1">
+        <f>IF(C922=1,VLOOKUP(FoxFire!B922,balance!$AF:$AJ,2,FALSE),IF(C922=2,VLOOKUP(B922,balance!$AF:$AJ,3,FALSE),IF(C922=3,VLOOKUP(B922,balance!$AF:$AJ,4,FALSE),IF(C922=4,VLOOKUP(B922,balance!$AF:$AJ,5,FALSE),IF(C922=5,VLOOKUP(B922,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2040000000000</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>921</v>
+      </c>
+      <c r="B923">
+        <f t="shared" si="29"/>
+        <v>185</v>
+      </c>
+      <c r="C923">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D923">
+        <v>9026</v>
+      </c>
+      <c r="E923" s="1">
+        <f>IF(C923=1,VLOOKUP(B923,balance!$K:$P,2,FALSE),IF(C923=2,VLOOKUP(B923,balance!$K:$P,3,FALSE),IF(C923=3,VLOOKUP(B923,balance!$K:$P,4,FALSE),IF(C923=4,VLOOKUP(B923,balance!$K:$P,5,FALSE),IF(C923=5,VLOOKUP(B923-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4850</v>
+      </c>
+      <c r="F923">
+        <v>53</v>
+      </c>
+      <c r="G923">
+        <f>IF(C923=1,VLOOKUP(FoxFire!B923,balance!$U:$Z,2,FALSE),IF(C923=2,VLOOKUP(B923,balance!$U:$Z,3,FALSE),IF(C923=3,VLOOKUP(B923,balance!$U:$Z,4,FALSE),IF(C923=4,VLOOKUP(B923,balance!$U:$Z,5,FALSE),IF(C923=5,VLOOKUP(B923-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="H923">
+        <v>2</v>
+      </c>
+      <c r="I923" s="1">
+        <f>IF(C923=1,VLOOKUP(FoxFire!B923,balance!$AF:$AJ,2,FALSE),IF(C923=2,VLOOKUP(B923,balance!$AF:$AJ,3,FALSE),IF(C923=3,VLOOKUP(B923,balance!$AF:$AJ,4,FALSE),IF(C923=4,VLOOKUP(B923,balance!$AF:$AJ,5,FALSE),IF(C923=5,VLOOKUP(B923,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2040000000000</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>922</v>
+      </c>
+      <c r="B924">
+        <f t="shared" si="29"/>
+        <v>185</v>
+      </c>
+      <c r="C924">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D924">
+        <v>9026</v>
+      </c>
+      <c r="E924" s="1">
+        <f>IF(C924=1,VLOOKUP(B924,balance!$K:$P,2,FALSE),IF(C924=2,VLOOKUP(B924,balance!$K:$P,3,FALSE),IF(C924=3,VLOOKUP(B924,balance!$K:$P,4,FALSE),IF(C924=4,VLOOKUP(B924,balance!$K:$P,5,FALSE),IF(C924=5,VLOOKUP(B924-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4850</v>
+      </c>
+      <c r="F924">
+        <v>53</v>
+      </c>
+      <c r="G924">
+        <f>IF(C924=1,VLOOKUP(FoxFire!B924,balance!$U:$Z,2,FALSE),IF(C924=2,VLOOKUP(B924,balance!$U:$Z,3,FALSE),IF(C924=3,VLOOKUP(B924,balance!$U:$Z,4,FALSE),IF(C924=4,VLOOKUP(B924,balance!$U:$Z,5,FALSE),IF(C924=5,VLOOKUP(B924-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="H924">
+        <v>2</v>
+      </c>
+      <c r="I924" s="1">
+        <f>IF(C924=1,VLOOKUP(FoxFire!B924,balance!$AF:$AJ,2,FALSE),IF(C924=2,VLOOKUP(B924,balance!$AF:$AJ,3,FALSE),IF(C924=3,VLOOKUP(B924,balance!$AF:$AJ,4,FALSE),IF(C924=4,VLOOKUP(B924,balance!$AF:$AJ,5,FALSE),IF(C924=5,VLOOKUP(B924,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2040000000000</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>923</v>
+      </c>
+      <c r="B925">
+        <f t="shared" si="29"/>
+        <v>185</v>
+      </c>
+      <c r="C925">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D925">
+        <v>9026</v>
+      </c>
+      <c r="E925" s="1">
+        <f>IF(C925=1,VLOOKUP(B925,balance!$K:$P,2,FALSE),IF(C925=2,VLOOKUP(B925,balance!$K:$P,3,FALSE),IF(C925=3,VLOOKUP(B925,balance!$K:$P,4,FALSE),IF(C925=4,VLOOKUP(B925,balance!$K:$P,5,FALSE),IF(C925=5,VLOOKUP(B925-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4850</v>
+      </c>
+      <c r="F925">
+        <v>53</v>
+      </c>
+      <c r="G925">
+        <f>IF(C925=1,VLOOKUP(FoxFire!B925,balance!$U:$Z,2,FALSE),IF(C925=2,VLOOKUP(B925,balance!$U:$Z,3,FALSE),IF(C925=3,VLOOKUP(B925,balance!$U:$Z,4,FALSE),IF(C925=4,VLOOKUP(B925,balance!$U:$Z,5,FALSE),IF(C925=5,VLOOKUP(B925-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8399999999999996E-3</v>
+      </c>
+      <c r="H925">
+        <v>2</v>
+      </c>
+      <c r="I925" s="1">
+        <f>IF(C925=1,VLOOKUP(FoxFire!B925,balance!$AF:$AJ,2,FALSE),IF(C925=2,VLOOKUP(B925,balance!$AF:$AJ,3,FALSE),IF(C925=3,VLOOKUP(B925,balance!$AF:$AJ,4,FALSE),IF(C925=4,VLOOKUP(B925,balance!$AF:$AJ,5,FALSE),IF(C925=5,VLOOKUP(B925,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2040000000000</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>924</v>
+      </c>
+      <c r="B926">
+        <f t="shared" si="29"/>
+        <v>186</v>
+      </c>
+      <c r="C926">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D926">
+        <v>9026</v>
+      </c>
+      <c r="E926" s="1">
+        <f>IF(C926=1,VLOOKUP(B926,balance!$K:$P,2,FALSE),IF(C926=2,VLOOKUP(B926,balance!$K:$P,3,FALSE),IF(C926=3,VLOOKUP(B926,balance!$K:$P,4,FALSE),IF(C926=4,VLOOKUP(B926,balance!$K:$P,5,FALSE),IF(C926=5,VLOOKUP(B926-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>183330</v>
+      </c>
+      <c r="F926">
+        <v>53</v>
+      </c>
+      <c r="G926">
+        <f>IF(C926=1,VLOOKUP(FoxFire!B926,balance!$U:$Z,2,FALSE),IF(C926=2,VLOOKUP(B926,balance!$U:$Z,3,FALSE),IF(C926=3,VLOOKUP(B926,balance!$U:$Z,4,FALSE),IF(C926=4,VLOOKUP(B926,balance!$U:$Z,5,FALSE),IF(C926=5,VLOOKUP(B926-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>470.42450000000002</v>
+      </c>
+      <c r="H926">
+        <v>2</v>
+      </c>
+      <c r="I926" s="1">
+        <f>IF(C926=1,VLOOKUP(FoxFire!B926,balance!$AF:$AJ,2,FALSE),IF(C926=2,VLOOKUP(B926,balance!$AF:$AJ,3,FALSE),IF(C926=3,VLOOKUP(B926,balance!$AF:$AJ,4,FALSE),IF(C926=4,VLOOKUP(B926,balance!$AF:$AJ,5,FALSE),IF(C926=5,VLOOKUP(B926,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8220000000000.001</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>925</v>
+      </c>
+      <c r="B927">
+        <f t="shared" si="29"/>
+        <v>186</v>
+      </c>
+      <c r="C927">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D927">
+        <v>9026</v>
+      </c>
+      <c r="E927" s="1">
+        <f>IF(C927=1,VLOOKUP(B927,balance!$K:$P,2,FALSE),IF(C927=2,VLOOKUP(B927,balance!$K:$P,3,FALSE),IF(C927=3,VLOOKUP(B927,balance!$K:$P,4,FALSE),IF(C927=4,VLOOKUP(B927,balance!$K:$P,5,FALSE),IF(C927=5,VLOOKUP(B927-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4875</v>
+      </c>
+      <c r="F927">
+        <v>53</v>
+      </c>
+      <c r="G927">
+        <f>IF(C927=1,VLOOKUP(FoxFire!B927,balance!$U:$Z,2,FALSE),IF(C927=2,VLOOKUP(B927,balance!$U:$Z,3,FALSE),IF(C927=3,VLOOKUP(B927,balance!$U:$Z,4,FALSE),IF(C927=4,VLOOKUP(B927,balance!$U:$Z,5,FALSE),IF(C927=5,VLOOKUP(B927-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8499999999999997E-3</v>
+      </c>
+      <c r="H927">
+        <v>2</v>
+      </c>
+      <c r="I927" s="1">
+        <f>IF(C927=1,VLOOKUP(FoxFire!B927,balance!$AF:$AJ,2,FALSE),IF(C927=2,VLOOKUP(B927,balance!$AF:$AJ,3,FALSE),IF(C927=3,VLOOKUP(B927,balance!$AF:$AJ,4,FALSE),IF(C927=4,VLOOKUP(B927,balance!$AF:$AJ,5,FALSE),IF(C927=5,VLOOKUP(B927,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2055000000000.0002</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>926</v>
+      </c>
+      <c r="B928">
+        <f t="shared" si="29"/>
+        <v>186</v>
+      </c>
+      <c r="C928">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D928">
+        <v>9026</v>
+      </c>
+      <c r="E928" s="1">
+        <f>IF(C928=1,VLOOKUP(B928,balance!$K:$P,2,FALSE),IF(C928=2,VLOOKUP(B928,balance!$K:$P,3,FALSE),IF(C928=3,VLOOKUP(B928,balance!$K:$P,4,FALSE),IF(C928=4,VLOOKUP(B928,balance!$K:$P,5,FALSE),IF(C928=5,VLOOKUP(B928-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4875</v>
+      </c>
+      <c r="F928">
+        <v>53</v>
+      </c>
+      <c r="G928">
+        <f>IF(C928=1,VLOOKUP(FoxFire!B928,balance!$U:$Z,2,FALSE),IF(C928=2,VLOOKUP(B928,balance!$U:$Z,3,FALSE),IF(C928=3,VLOOKUP(B928,balance!$U:$Z,4,FALSE),IF(C928=4,VLOOKUP(B928,balance!$U:$Z,5,FALSE),IF(C928=5,VLOOKUP(B928-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8499999999999997E-3</v>
+      </c>
+      <c r="H928">
+        <v>2</v>
+      </c>
+      <c r="I928" s="1">
+        <f>IF(C928=1,VLOOKUP(FoxFire!B928,balance!$AF:$AJ,2,FALSE),IF(C928=2,VLOOKUP(B928,balance!$AF:$AJ,3,FALSE),IF(C928=3,VLOOKUP(B928,balance!$AF:$AJ,4,FALSE),IF(C928=4,VLOOKUP(B928,balance!$AF:$AJ,5,FALSE),IF(C928=5,VLOOKUP(B928,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2055000000000.0002</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>927</v>
+      </c>
+      <c r="B929">
+        <f t="shared" si="29"/>
+        <v>186</v>
+      </c>
+      <c r="C929">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D929">
+        <v>9026</v>
+      </c>
+      <c r="E929" s="1">
+        <f>IF(C929=1,VLOOKUP(B929,balance!$K:$P,2,FALSE),IF(C929=2,VLOOKUP(B929,balance!$K:$P,3,FALSE),IF(C929=3,VLOOKUP(B929,balance!$K:$P,4,FALSE),IF(C929=4,VLOOKUP(B929,balance!$K:$P,5,FALSE),IF(C929=5,VLOOKUP(B929-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4875</v>
+      </c>
+      <c r="F929">
+        <v>53</v>
+      </c>
+      <c r="G929">
+        <f>IF(C929=1,VLOOKUP(FoxFire!B929,balance!$U:$Z,2,FALSE),IF(C929=2,VLOOKUP(B929,balance!$U:$Z,3,FALSE),IF(C929=3,VLOOKUP(B929,balance!$U:$Z,4,FALSE),IF(C929=4,VLOOKUP(B929,balance!$U:$Z,5,FALSE),IF(C929=5,VLOOKUP(B929-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8499999999999997E-3</v>
+      </c>
+      <c r="H929">
+        <v>2</v>
+      </c>
+      <c r="I929" s="1">
+        <f>IF(C929=1,VLOOKUP(FoxFire!B929,balance!$AF:$AJ,2,FALSE),IF(C929=2,VLOOKUP(B929,balance!$AF:$AJ,3,FALSE),IF(C929=3,VLOOKUP(B929,balance!$AF:$AJ,4,FALSE),IF(C929=4,VLOOKUP(B929,balance!$AF:$AJ,5,FALSE),IF(C929=5,VLOOKUP(B929,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2055000000000.0002</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>928</v>
+      </c>
+      <c r="B930">
+        <f t="shared" si="29"/>
+        <v>186</v>
+      </c>
+      <c r="C930">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D930">
+        <v>9026</v>
+      </c>
+      <c r="E930" s="1">
+        <f>IF(C930=1,VLOOKUP(B930,balance!$K:$P,2,FALSE),IF(C930=2,VLOOKUP(B930,balance!$K:$P,3,FALSE),IF(C930=3,VLOOKUP(B930,balance!$K:$P,4,FALSE),IF(C930=4,VLOOKUP(B930,balance!$K:$P,5,FALSE),IF(C930=5,VLOOKUP(B930-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4875</v>
+      </c>
+      <c r="F930">
+        <v>53</v>
+      </c>
+      <c r="G930">
+        <f>IF(C930=1,VLOOKUP(FoxFire!B930,balance!$U:$Z,2,FALSE),IF(C930=2,VLOOKUP(B930,balance!$U:$Z,3,FALSE),IF(C930=3,VLOOKUP(B930,balance!$U:$Z,4,FALSE),IF(C930=4,VLOOKUP(B930,balance!$U:$Z,5,FALSE),IF(C930=5,VLOOKUP(B930-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8499999999999997E-3</v>
+      </c>
+      <c r="H930">
+        <v>2</v>
+      </c>
+      <c r="I930" s="1">
+        <f>IF(C930=1,VLOOKUP(FoxFire!B930,balance!$AF:$AJ,2,FALSE),IF(C930=2,VLOOKUP(B930,balance!$AF:$AJ,3,FALSE),IF(C930=3,VLOOKUP(B930,balance!$AF:$AJ,4,FALSE),IF(C930=4,VLOOKUP(B930,balance!$AF:$AJ,5,FALSE),IF(C930=5,VLOOKUP(B930,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2055000000000.0002</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>929</v>
+      </c>
+      <c r="B931">
+        <f t="shared" si="29"/>
+        <v>187</v>
+      </c>
+      <c r="C931">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D931">
+        <v>9026</v>
+      </c>
+      <c r="E931" s="1">
+        <f>IF(C931=1,VLOOKUP(B931,balance!$K:$P,2,FALSE),IF(C931=2,VLOOKUP(B931,balance!$K:$P,3,FALSE),IF(C931=3,VLOOKUP(B931,balance!$K:$P,4,FALSE),IF(C931=4,VLOOKUP(B931,balance!$K:$P,5,FALSE),IF(C931=5,VLOOKUP(B931-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>185250</v>
+      </c>
+      <c r="F931">
+        <v>53</v>
+      </c>
+      <c r="G931">
+        <f>IF(C931=1,VLOOKUP(FoxFire!B931,balance!$U:$Z,2,FALSE),IF(C931=2,VLOOKUP(B931,balance!$U:$Z,3,FALSE),IF(C931=3,VLOOKUP(B931,balance!$U:$Z,4,FALSE),IF(C931=4,VLOOKUP(B931,balance!$U:$Z,5,FALSE),IF(C931=5,VLOOKUP(B931-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>481.52249999999998</v>
+      </c>
+      <c r="H931">
+        <v>2</v>
+      </c>
+      <c r="I931" s="1">
+        <f>IF(C931=1,VLOOKUP(FoxFire!B931,balance!$AF:$AJ,2,FALSE),IF(C931=2,VLOOKUP(B931,balance!$AF:$AJ,3,FALSE),IF(C931=3,VLOOKUP(B931,balance!$AF:$AJ,4,FALSE),IF(C931=4,VLOOKUP(B931,balance!$AF:$AJ,5,FALSE),IF(C931=5,VLOOKUP(B931,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8279999999999.999</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>930</v>
+      </c>
+      <c r="B932">
+        <f t="shared" si="29"/>
+        <v>187</v>
+      </c>
+      <c r="C932">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D932">
+        <v>9026</v>
+      </c>
+      <c r="E932" s="1">
+        <f>IF(C932=1,VLOOKUP(B932,balance!$K:$P,2,FALSE),IF(C932=2,VLOOKUP(B932,balance!$K:$P,3,FALSE),IF(C932=3,VLOOKUP(B932,balance!$K:$P,4,FALSE),IF(C932=4,VLOOKUP(B932,balance!$K:$P,5,FALSE),IF(C932=5,VLOOKUP(B932-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4900</v>
+      </c>
+      <c r="F932">
+        <v>53</v>
+      </c>
+      <c r="G932">
+        <f>IF(C932=1,VLOOKUP(FoxFire!B932,balance!$U:$Z,2,FALSE),IF(C932=2,VLOOKUP(B932,balance!$U:$Z,3,FALSE),IF(C932=3,VLOOKUP(B932,balance!$U:$Z,4,FALSE),IF(C932=4,VLOOKUP(B932,balance!$U:$Z,5,FALSE),IF(C932=5,VLOOKUP(B932-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8599999999999997E-3</v>
+      </c>
+      <c r="H932">
+        <v>2</v>
+      </c>
+      <c r="I932" s="1">
+        <f>IF(C932=1,VLOOKUP(FoxFire!B932,balance!$AF:$AJ,2,FALSE),IF(C932=2,VLOOKUP(B932,balance!$AF:$AJ,3,FALSE),IF(C932=3,VLOOKUP(B932,balance!$AF:$AJ,4,FALSE),IF(C932=4,VLOOKUP(B932,balance!$AF:$AJ,5,FALSE),IF(C932=5,VLOOKUP(B932,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2069999999999.9998</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>931</v>
+      </c>
+      <c r="B933">
+        <f t="shared" si="29"/>
+        <v>187</v>
+      </c>
+      <c r="C933">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D933">
+        <v>9026</v>
+      </c>
+      <c r="E933" s="1">
+        <f>IF(C933=1,VLOOKUP(B933,balance!$K:$P,2,FALSE),IF(C933=2,VLOOKUP(B933,balance!$K:$P,3,FALSE),IF(C933=3,VLOOKUP(B933,balance!$K:$P,4,FALSE),IF(C933=4,VLOOKUP(B933,balance!$K:$P,5,FALSE),IF(C933=5,VLOOKUP(B933-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4900</v>
+      </c>
+      <c r="F933">
+        <v>53</v>
+      </c>
+      <c r="G933">
+        <f>IF(C933=1,VLOOKUP(FoxFire!B933,balance!$U:$Z,2,FALSE),IF(C933=2,VLOOKUP(B933,balance!$U:$Z,3,FALSE),IF(C933=3,VLOOKUP(B933,balance!$U:$Z,4,FALSE),IF(C933=4,VLOOKUP(B933,balance!$U:$Z,5,FALSE),IF(C933=5,VLOOKUP(B933-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8599999999999997E-3</v>
+      </c>
+      <c r="H933">
+        <v>2</v>
+      </c>
+      <c r="I933" s="1">
+        <f>IF(C933=1,VLOOKUP(FoxFire!B933,balance!$AF:$AJ,2,FALSE),IF(C933=2,VLOOKUP(B933,balance!$AF:$AJ,3,FALSE),IF(C933=3,VLOOKUP(B933,balance!$AF:$AJ,4,FALSE),IF(C933=4,VLOOKUP(B933,balance!$AF:$AJ,5,FALSE),IF(C933=5,VLOOKUP(B933,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2069999999999.9998</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>932</v>
+      </c>
+      <c r="B934">
+        <f t="shared" si="29"/>
+        <v>187</v>
+      </c>
+      <c r="C934">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D934">
+        <v>9026</v>
+      </c>
+      <c r="E934" s="1">
+        <f>IF(C934=1,VLOOKUP(B934,balance!$K:$P,2,FALSE),IF(C934=2,VLOOKUP(B934,balance!$K:$P,3,FALSE),IF(C934=3,VLOOKUP(B934,balance!$K:$P,4,FALSE),IF(C934=4,VLOOKUP(B934,balance!$K:$P,5,FALSE),IF(C934=5,VLOOKUP(B934-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4900</v>
+      </c>
+      <c r="F934">
+        <v>53</v>
+      </c>
+      <c r="G934">
+        <f>IF(C934=1,VLOOKUP(FoxFire!B934,balance!$U:$Z,2,FALSE),IF(C934=2,VLOOKUP(B934,balance!$U:$Z,3,FALSE),IF(C934=3,VLOOKUP(B934,balance!$U:$Z,4,FALSE),IF(C934=4,VLOOKUP(B934,balance!$U:$Z,5,FALSE),IF(C934=5,VLOOKUP(B934-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8599999999999997E-3</v>
+      </c>
+      <c r="H934">
+        <v>2</v>
+      </c>
+      <c r="I934" s="1">
+        <f>IF(C934=1,VLOOKUP(FoxFire!B934,balance!$AF:$AJ,2,FALSE),IF(C934=2,VLOOKUP(B934,balance!$AF:$AJ,3,FALSE),IF(C934=3,VLOOKUP(B934,balance!$AF:$AJ,4,FALSE),IF(C934=4,VLOOKUP(B934,balance!$AF:$AJ,5,FALSE),IF(C934=5,VLOOKUP(B934,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2069999999999.9998</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>933</v>
+      </c>
+      <c r="B935">
+        <f t="shared" si="29"/>
+        <v>187</v>
+      </c>
+      <c r="C935">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D935">
+        <v>9026</v>
+      </c>
+      <c r="E935" s="1">
+        <f>IF(C935=1,VLOOKUP(B935,balance!$K:$P,2,FALSE),IF(C935=2,VLOOKUP(B935,balance!$K:$P,3,FALSE),IF(C935=3,VLOOKUP(B935,balance!$K:$P,4,FALSE),IF(C935=4,VLOOKUP(B935,balance!$K:$P,5,FALSE),IF(C935=5,VLOOKUP(B935-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4900</v>
+      </c>
+      <c r="F935">
+        <v>53</v>
+      </c>
+      <c r="G935">
+        <f>IF(C935=1,VLOOKUP(FoxFire!B935,balance!$U:$Z,2,FALSE),IF(C935=2,VLOOKUP(B935,balance!$U:$Z,3,FALSE),IF(C935=3,VLOOKUP(B935,balance!$U:$Z,4,FALSE),IF(C935=4,VLOOKUP(B935,balance!$U:$Z,5,FALSE),IF(C935=5,VLOOKUP(B935-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8599999999999997E-3</v>
+      </c>
+      <c r="H935">
+        <v>2</v>
+      </c>
+      <c r="I935" s="1">
+        <f>IF(C935=1,VLOOKUP(FoxFire!B935,balance!$AF:$AJ,2,FALSE),IF(C935=2,VLOOKUP(B935,balance!$AF:$AJ,3,FALSE),IF(C935=3,VLOOKUP(B935,balance!$AF:$AJ,4,FALSE),IF(C935=4,VLOOKUP(B935,balance!$AF:$AJ,5,FALSE),IF(C935=5,VLOOKUP(B935,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2069999999999.9998</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>934</v>
+      </c>
+      <c r="B936">
+        <f t="shared" si="29"/>
+        <v>188</v>
+      </c>
+      <c r="C936">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D936">
+        <v>9026</v>
+      </c>
+      <c r="E936" s="1">
+        <f>IF(C936=1,VLOOKUP(B936,balance!$K:$P,2,FALSE),IF(C936=2,VLOOKUP(B936,balance!$K:$P,3,FALSE),IF(C936=3,VLOOKUP(B936,balance!$K:$P,4,FALSE),IF(C936=4,VLOOKUP(B936,balance!$K:$P,5,FALSE),IF(C936=5,VLOOKUP(B936-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>187180</v>
+      </c>
+      <c r="F936">
+        <v>53</v>
+      </c>
+      <c r="G936">
+        <f>IF(C936=1,VLOOKUP(FoxFire!B936,balance!$U:$Z,2,FALSE),IF(C936=2,VLOOKUP(B936,balance!$U:$Z,3,FALSE),IF(C936=3,VLOOKUP(B936,balance!$U:$Z,4,FALSE),IF(C936=4,VLOOKUP(B936,balance!$U:$Z,5,FALSE),IF(C936=5,VLOOKUP(B936-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>492.87630000000007</v>
+      </c>
+      <c r="H936">
+        <v>2</v>
+      </c>
+      <c r="I936" s="1">
+        <f>IF(C936=1,VLOOKUP(FoxFire!B936,balance!$AF:$AJ,2,FALSE),IF(C936=2,VLOOKUP(B936,balance!$AF:$AJ,3,FALSE),IF(C936=3,VLOOKUP(B936,balance!$AF:$AJ,4,FALSE),IF(C936=4,VLOOKUP(B936,balance!$AF:$AJ,5,FALSE),IF(C936=5,VLOOKUP(B936,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8340000000000</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>935</v>
+      </c>
+      <c r="B937">
+        <f t="shared" si="29"/>
+        <v>188</v>
+      </c>
+      <c r="C937">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D937">
+        <v>9026</v>
+      </c>
+      <c r="E937" s="1">
+        <f>IF(C937=1,VLOOKUP(B937,balance!$K:$P,2,FALSE),IF(C937=2,VLOOKUP(B937,balance!$K:$P,3,FALSE),IF(C937=3,VLOOKUP(B937,balance!$K:$P,4,FALSE),IF(C937=4,VLOOKUP(B937,balance!$K:$P,5,FALSE),IF(C937=5,VLOOKUP(B937-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4925</v>
+      </c>
+      <c r="F937">
+        <v>53</v>
+      </c>
+      <c r="G937">
+        <f>IF(C937=1,VLOOKUP(FoxFire!B937,balance!$U:$Z,2,FALSE),IF(C937=2,VLOOKUP(B937,balance!$U:$Z,3,FALSE),IF(C937=3,VLOOKUP(B937,balance!$U:$Z,4,FALSE),IF(C937=4,VLOOKUP(B937,balance!$U:$Z,5,FALSE),IF(C937=5,VLOOKUP(B937-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8699999999999997E-3</v>
+      </c>
+      <c r="H937">
+        <v>2</v>
+      </c>
+      <c r="I937" s="1">
+        <f>IF(C937=1,VLOOKUP(FoxFire!B937,balance!$AF:$AJ,2,FALSE),IF(C937=2,VLOOKUP(B937,balance!$AF:$AJ,3,FALSE),IF(C937=3,VLOOKUP(B937,balance!$AF:$AJ,4,FALSE),IF(C937=4,VLOOKUP(B937,balance!$AF:$AJ,5,FALSE),IF(C937=5,VLOOKUP(B937,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2085000000000</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>936</v>
+      </c>
+      <c r="B938">
+        <f t="shared" si="29"/>
+        <v>188</v>
+      </c>
+      <c r="C938">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D938">
+        <v>9026</v>
+      </c>
+      <c r="E938" s="1">
+        <f>IF(C938=1,VLOOKUP(B938,balance!$K:$P,2,FALSE),IF(C938=2,VLOOKUP(B938,balance!$K:$P,3,FALSE),IF(C938=3,VLOOKUP(B938,balance!$K:$P,4,FALSE),IF(C938=4,VLOOKUP(B938,balance!$K:$P,5,FALSE),IF(C938=5,VLOOKUP(B938-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4925</v>
+      </c>
+      <c r="F938">
+        <v>53</v>
+      </c>
+      <c r="G938">
+        <f>IF(C938=1,VLOOKUP(FoxFire!B938,balance!$U:$Z,2,FALSE),IF(C938=2,VLOOKUP(B938,balance!$U:$Z,3,FALSE),IF(C938=3,VLOOKUP(B938,balance!$U:$Z,4,FALSE),IF(C938=4,VLOOKUP(B938,balance!$U:$Z,5,FALSE),IF(C938=5,VLOOKUP(B938-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8699999999999997E-3</v>
+      </c>
+      <c r="H938">
+        <v>2</v>
+      </c>
+      <c r="I938" s="1">
+        <f>IF(C938=1,VLOOKUP(FoxFire!B938,balance!$AF:$AJ,2,FALSE),IF(C938=2,VLOOKUP(B938,balance!$AF:$AJ,3,FALSE),IF(C938=3,VLOOKUP(B938,balance!$AF:$AJ,4,FALSE),IF(C938=4,VLOOKUP(B938,balance!$AF:$AJ,5,FALSE),IF(C938=5,VLOOKUP(B938,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2085000000000</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>937</v>
+      </c>
+      <c r="B939">
+        <f t="shared" si="29"/>
+        <v>188</v>
+      </c>
+      <c r="C939">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D939">
+        <v>9026</v>
+      </c>
+      <c r="E939" s="1">
+        <f>IF(C939=1,VLOOKUP(B939,balance!$K:$P,2,FALSE),IF(C939=2,VLOOKUP(B939,balance!$K:$P,3,FALSE),IF(C939=3,VLOOKUP(B939,balance!$K:$P,4,FALSE),IF(C939=4,VLOOKUP(B939,balance!$K:$P,5,FALSE),IF(C939=5,VLOOKUP(B939-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4925</v>
+      </c>
+      <c r="F939">
+        <v>53</v>
+      </c>
+      <c r="G939">
+        <f>IF(C939=1,VLOOKUP(FoxFire!B939,balance!$U:$Z,2,FALSE),IF(C939=2,VLOOKUP(B939,balance!$U:$Z,3,FALSE),IF(C939=3,VLOOKUP(B939,balance!$U:$Z,4,FALSE),IF(C939=4,VLOOKUP(B939,balance!$U:$Z,5,FALSE),IF(C939=5,VLOOKUP(B939-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8699999999999997E-3</v>
+      </c>
+      <c r="H939">
+        <v>2</v>
+      </c>
+      <c r="I939" s="1">
+        <f>IF(C939=1,VLOOKUP(FoxFire!B939,balance!$AF:$AJ,2,FALSE),IF(C939=2,VLOOKUP(B939,balance!$AF:$AJ,3,FALSE),IF(C939=3,VLOOKUP(B939,balance!$AF:$AJ,4,FALSE),IF(C939=4,VLOOKUP(B939,balance!$AF:$AJ,5,FALSE),IF(C939=5,VLOOKUP(B939,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2085000000000</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>938</v>
+      </c>
+      <c r="B940">
+        <f t="shared" si="29"/>
+        <v>188</v>
+      </c>
+      <c r="C940">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D940">
+        <v>9026</v>
+      </c>
+      <c r="E940" s="1">
+        <f>IF(C940=1,VLOOKUP(B940,balance!$K:$P,2,FALSE),IF(C940=2,VLOOKUP(B940,balance!$K:$P,3,FALSE),IF(C940=3,VLOOKUP(B940,balance!$K:$P,4,FALSE),IF(C940=4,VLOOKUP(B940,balance!$K:$P,5,FALSE),IF(C940=5,VLOOKUP(B940-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4925</v>
+      </c>
+      <c r="F940">
+        <v>53</v>
+      </c>
+      <c r="G940">
+        <f>IF(C940=1,VLOOKUP(FoxFire!B940,balance!$U:$Z,2,FALSE),IF(C940=2,VLOOKUP(B940,balance!$U:$Z,3,FALSE),IF(C940=3,VLOOKUP(B940,balance!$U:$Z,4,FALSE),IF(C940=4,VLOOKUP(B940,balance!$U:$Z,5,FALSE),IF(C940=5,VLOOKUP(B940-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8699999999999997E-3</v>
+      </c>
+      <c r="H940">
+        <v>2</v>
+      </c>
+      <c r="I940" s="1">
+        <f>IF(C940=1,VLOOKUP(FoxFire!B940,balance!$AF:$AJ,2,FALSE),IF(C940=2,VLOOKUP(B940,balance!$AF:$AJ,3,FALSE),IF(C940=3,VLOOKUP(B940,balance!$AF:$AJ,4,FALSE),IF(C940=4,VLOOKUP(B940,balance!$AF:$AJ,5,FALSE),IF(C940=5,VLOOKUP(B940,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2085000000000</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>939</v>
+      </c>
+      <c r="B941">
+        <f t="shared" si="29"/>
+        <v>189</v>
+      </c>
+      <c r="C941">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D941">
+        <v>9026</v>
+      </c>
+      <c r="E941" s="1">
+        <f>IF(C941=1,VLOOKUP(B941,balance!$K:$P,2,FALSE),IF(C941=2,VLOOKUP(B941,balance!$K:$P,3,FALSE),IF(C941=3,VLOOKUP(B941,balance!$K:$P,4,FALSE),IF(C941=4,VLOOKUP(B941,balance!$K:$P,5,FALSE),IF(C941=5,VLOOKUP(B941-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>189120</v>
+      </c>
+      <c r="F941">
+        <v>53</v>
+      </c>
+      <c r="G941">
+        <f>IF(C941=1,VLOOKUP(FoxFire!B941,balance!$U:$Z,2,FALSE),IF(C941=2,VLOOKUP(B941,balance!$U:$Z,3,FALSE),IF(C941=3,VLOOKUP(B941,balance!$U:$Z,4,FALSE),IF(C941=4,VLOOKUP(B941,balance!$U:$Z,5,FALSE),IF(C941=5,VLOOKUP(B941-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>504.49160000000006</v>
+      </c>
+      <c r="H941">
+        <v>2</v>
+      </c>
+      <c r="I941" s="1">
+        <f>IF(C941=1,VLOOKUP(FoxFire!B941,balance!$AF:$AJ,2,FALSE),IF(C941=2,VLOOKUP(B941,balance!$AF:$AJ,3,FALSE),IF(C941=3,VLOOKUP(B941,balance!$AF:$AJ,4,FALSE),IF(C941=4,VLOOKUP(B941,balance!$AF:$AJ,5,FALSE),IF(C941=5,VLOOKUP(B941,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8400000000000</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>940</v>
+      </c>
+      <c r="B942">
+        <f t="shared" si="29"/>
+        <v>189</v>
+      </c>
+      <c r="C942">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D942">
+        <v>9026</v>
+      </c>
+      <c r="E942" s="1">
+        <f>IF(C942=1,VLOOKUP(B942,balance!$K:$P,2,FALSE),IF(C942=2,VLOOKUP(B942,balance!$K:$P,3,FALSE),IF(C942=3,VLOOKUP(B942,balance!$K:$P,4,FALSE),IF(C942=4,VLOOKUP(B942,balance!$K:$P,5,FALSE),IF(C942=5,VLOOKUP(B942-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4950</v>
+      </c>
+      <c r="F942">
+        <v>53</v>
+      </c>
+      <c r="G942">
+        <f>IF(C942=1,VLOOKUP(FoxFire!B942,balance!$U:$Z,2,FALSE),IF(C942=2,VLOOKUP(B942,balance!$U:$Z,3,FALSE),IF(C942=3,VLOOKUP(B942,balance!$U:$Z,4,FALSE),IF(C942=4,VLOOKUP(B942,balance!$U:$Z,5,FALSE),IF(C942=5,VLOOKUP(B942-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8799999999999997E-3</v>
+      </c>
+      <c r="H942">
+        <v>2</v>
+      </c>
+      <c r="I942" s="1">
+        <f>IF(C942=1,VLOOKUP(FoxFire!B942,balance!$AF:$AJ,2,FALSE),IF(C942=2,VLOOKUP(B942,balance!$AF:$AJ,3,FALSE),IF(C942=3,VLOOKUP(B942,balance!$AF:$AJ,4,FALSE),IF(C942=4,VLOOKUP(B942,balance!$AF:$AJ,5,FALSE),IF(C942=5,VLOOKUP(B942,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2100000000000</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>941</v>
+      </c>
+      <c r="B943">
+        <f t="shared" si="29"/>
+        <v>189</v>
+      </c>
+      <c r="C943">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D943">
+        <v>9026</v>
+      </c>
+      <c r="E943" s="1">
+        <f>IF(C943=1,VLOOKUP(B943,balance!$K:$P,2,FALSE),IF(C943=2,VLOOKUP(B943,balance!$K:$P,3,FALSE),IF(C943=3,VLOOKUP(B943,balance!$K:$P,4,FALSE),IF(C943=4,VLOOKUP(B943,balance!$K:$P,5,FALSE),IF(C943=5,VLOOKUP(B943-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4950</v>
+      </c>
+      <c r="F943">
+        <v>53</v>
+      </c>
+      <c r="G943">
+        <f>IF(C943=1,VLOOKUP(FoxFire!B943,balance!$U:$Z,2,FALSE),IF(C943=2,VLOOKUP(B943,balance!$U:$Z,3,FALSE),IF(C943=3,VLOOKUP(B943,balance!$U:$Z,4,FALSE),IF(C943=4,VLOOKUP(B943,balance!$U:$Z,5,FALSE),IF(C943=5,VLOOKUP(B943-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8799999999999997E-3</v>
+      </c>
+      <c r="H943">
+        <v>2</v>
+      </c>
+      <c r="I943" s="1">
+        <f>IF(C943=1,VLOOKUP(FoxFire!B943,balance!$AF:$AJ,2,FALSE),IF(C943=2,VLOOKUP(B943,balance!$AF:$AJ,3,FALSE),IF(C943=3,VLOOKUP(B943,balance!$AF:$AJ,4,FALSE),IF(C943=4,VLOOKUP(B943,balance!$AF:$AJ,5,FALSE),IF(C943=5,VLOOKUP(B943,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2100000000000</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>942</v>
+      </c>
+      <c r="B944">
+        <f t="shared" si="29"/>
+        <v>189</v>
+      </c>
+      <c r="C944">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D944">
+        <v>9026</v>
+      </c>
+      <c r="E944" s="1">
+        <f>IF(C944=1,VLOOKUP(B944,balance!$K:$P,2,FALSE),IF(C944=2,VLOOKUP(B944,balance!$K:$P,3,FALSE),IF(C944=3,VLOOKUP(B944,balance!$K:$P,4,FALSE),IF(C944=4,VLOOKUP(B944,balance!$K:$P,5,FALSE),IF(C944=5,VLOOKUP(B944-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4950</v>
+      </c>
+      <c r="F944">
+        <v>53</v>
+      </c>
+      <c r="G944">
+        <f>IF(C944=1,VLOOKUP(FoxFire!B944,balance!$U:$Z,2,FALSE),IF(C944=2,VLOOKUP(B944,balance!$U:$Z,3,FALSE),IF(C944=3,VLOOKUP(B944,balance!$U:$Z,4,FALSE),IF(C944=4,VLOOKUP(B944,balance!$U:$Z,5,FALSE),IF(C944=5,VLOOKUP(B944-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8799999999999997E-3</v>
+      </c>
+      <c r="H944">
+        <v>2</v>
+      </c>
+      <c r="I944" s="1">
+        <f>IF(C944=1,VLOOKUP(FoxFire!B944,balance!$AF:$AJ,2,FALSE),IF(C944=2,VLOOKUP(B944,balance!$AF:$AJ,3,FALSE),IF(C944=3,VLOOKUP(B944,balance!$AF:$AJ,4,FALSE),IF(C944=4,VLOOKUP(B944,balance!$AF:$AJ,5,FALSE),IF(C944=5,VLOOKUP(B944,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2100000000000</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>943</v>
+      </c>
+      <c r="B945">
+        <f t="shared" si="29"/>
+        <v>189</v>
+      </c>
+      <c r="C945">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D945">
+        <v>9026</v>
+      </c>
+      <c r="E945" s="1">
+        <f>IF(C945=1,VLOOKUP(B945,balance!$K:$P,2,FALSE),IF(C945=2,VLOOKUP(B945,balance!$K:$P,3,FALSE),IF(C945=3,VLOOKUP(B945,balance!$K:$P,4,FALSE),IF(C945=4,VLOOKUP(B945,balance!$K:$P,5,FALSE),IF(C945=5,VLOOKUP(B945-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4950</v>
+      </c>
+      <c r="F945">
+        <v>53</v>
+      </c>
+      <c r="G945">
+        <f>IF(C945=1,VLOOKUP(FoxFire!B945,balance!$U:$Z,2,FALSE),IF(C945=2,VLOOKUP(B945,balance!$U:$Z,3,FALSE),IF(C945=3,VLOOKUP(B945,balance!$U:$Z,4,FALSE),IF(C945=4,VLOOKUP(B945,balance!$U:$Z,5,FALSE),IF(C945=5,VLOOKUP(B945-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8799999999999997E-3</v>
+      </c>
+      <c r="H945">
+        <v>2</v>
+      </c>
+      <c r="I945" s="1">
+        <f>IF(C945=1,VLOOKUP(FoxFire!B945,balance!$AF:$AJ,2,FALSE),IF(C945=2,VLOOKUP(B945,balance!$AF:$AJ,3,FALSE),IF(C945=3,VLOOKUP(B945,balance!$AF:$AJ,4,FALSE),IF(C945=4,VLOOKUP(B945,balance!$AF:$AJ,5,FALSE),IF(C945=5,VLOOKUP(B945,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2100000000000</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>944</v>
+      </c>
+      <c r="B946">
+        <f t="shared" si="29"/>
+        <v>190</v>
+      </c>
+      <c r="C946">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D946">
+        <v>9026</v>
+      </c>
+      <c r="E946" s="1">
+        <f>IF(C946=1,VLOOKUP(B946,balance!$K:$P,2,FALSE),IF(C946=2,VLOOKUP(B946,balance!$K:$P,3,FALSE),IF(C946=3,VLOOKUP(B946,balance!$K:$P,4,FALSE),IF(C946=4,VLOOKUP(B946,balance!$K:$P,5,FALSE),IF(C946=5,VLOOKUP(B946-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>191070</v>
+      </c>
+      <c r="F946">
+        <v>53</v>
+      </c>
+      <c r="G946">
+        <f>IF(C946=1,VLOOKUP(FoxFire!B946,balance!$U:$Z,2,FALSE),IF(C946=2,VLOOKUP(B946,balance!$U:$Z,3,FALSE),IF(C946=3,VLOOKUP(B946,balance!$U:$Z,4,FALSE),IF(C946=4,VLOOKUP(B946,balance!$U:$Z,5,FALSE),IF(C946=5,VLOOKUP(B946-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>516.37440000000004</v>
+      </c>
+      <c r="H946">
+        <v>2</v>
+      </c>
+      <c r="I946" s="1">
+        <f>IF(C946=1,VLOOKUP(FoxFire!B946,balance!$AF:$AJ,2,FALSE),IF(C946=2,VLOOKUP(B946,balance!$AF:$AJ,3,FALSE),IF(C946=3,VLOOKUP(B946,balance!$AF:$AJ,4,FALSE),IF(C946=4,VLOOKUP(B946,balance!$AF:$AJ,5,FALSE),IF(C946=5,VLOOKUP(B946,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8460000000000.001</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>945</v>
+      </c>
+      <c r="B947">
+        <f t="shared" si="29"/>
+        <v>190</v>
+      </c>
+      <c r="C947">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D947">
+        <v>9026</v>
+      </c>
+      <c r="E947" s="1">
+        <f>IF(C947=1,VLOOKUP(B947,balance!$K:$P,2,FALSE),IF(C947=2,VLOOKUP(B947,balance!$K:$P,3,FALSE),IF(C947=3,VLOOKUP(B947,balance!$K:$P,4,FALSE),IF(C947=4,VLOOKUP(B947,balance!$K:$P,5,FALSE),IF(C947=5,VLOOKUP(B947-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4975</v>
+      </c>
+      <c r="F947">
+        <v>53</v>
+      </c>
+      <c r="G947">
+        <f>IF(C947=1,VLOOKUP(FoxFire!B947,balance!$U:$Z,2,FALSE),IF(C947=2,VLOOKUP(B947,balance!$U:$Z,3,FALSE),IF(C947=3,VLOOKUP(B947,balance!$U:$Z,4,FALSE),IF(C947=4,VLOOKUP(B947,balance!$U:$Z,5,FALSE),IF(C947=5,VLOOKUP(B947-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8899999999999998E-3</v>
+      </c>
+      <c r="H947">
+        <v>2</v>
+      </c>
+      <c r="I947" s="1">
+        <f>IF(C947=1,VLOOKUP(FoxFire!B947,balance!$AF:$AJ,2,FALSE),IF(C947=2,VLOOKUP(B947,balance!$AF:$AJ,3,FALSE),IF(C947=3,VLOOKUP(B947,balance!$AF:$AJ,4,FALSE),IF(C947=4,VLOOKUP(B947,balance!$AF:$AJ,5,FALSE),IF(C947=5,VLOOKUP(B947,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2115000000000.0002</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>946</v>
+      </c>
+      <c r="B948">
+        <f t="shared" si="29"/>
+        <v>190</v>
+      </c>
+      <c r="C948">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D948">
+        <v>9026</v>
+      </c>
+      <c r="E948" s="1">
+        <f>IF(C948=1,VLOOKUP(B948,balance!$K:$P,2,FALSE),IF(C948=2,VLOOKUP(B948,balance!$K:$P,3,FALSE),IF(C948=3,VLOOKUP(B948,balance!$K:$P,4,FALSE),IF(C948=4,VLOOKUP(B948,balance!$K:$P,5,FALSE),IF(C948=5,VLOOKUP(B948-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4975</v>
+      </c>
+      <c r="F948">
+        <v>53</v>
+      </c>
+      <c r="G948">
+        <f>IF(C948=1,VLOOKUP(FoxFire!B948,balance!$U:$Z,2,FALSE),IF(C948=2,VLOOKUP(B948,balance!$U:$Z,3,FALSE),IF(C948=3,VLOOKUP(B948,balance!$U:$Z,4,FALSE),IF(C948=4,VLOOKUP(B948,balance!$U:$Z,5,FALSE),IF(C948=5,VLOOKUP(B948-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8899999999999998E-3</v>
+      </c>
+      <c r="H948">
+        <v>2</v>
+      </c>
+      <c r="I948" s="1">
+        <f>IF(C948=1,VLOOKUP(FoxFire!B948,balance!$AF:$AJ,2,FALSE),IF(C948=2,VLOOKUP(B948,balance!$AF:$AJ,3,FALSE),IF(C948=3,VLOOKUP(B948,balance!$AF:$AJ,4,FALSE),IF(C948=4,VLOOKUP(B948,balance!$AF:$AJ,5,FALSE),IF(C948=5,VLOOKUP(B948,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2115000000000.0002</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>947</v>
+      </c>
+      <c r="B949">
+        <f t="shared" si="29"/>
+        <v>190</v>
+      </c>
+      <c r="C949">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D949">
+        <v>9026</v>
+      </c>
+      <c r="E949" s="1">
+        <f>IF(C949=1,VLOOKUP(B949,balance!$K:$P,2,FALSE),IF(C949=2,VLOOKUP(B949,balance!$K:$P,3,FALSE),IF(C949=3,VLOOKUP(B949,balance!$K:$P,4,FALSE),IF(C949=4,VLOOKUP(B949,balance!$K:$P,5,FALSE),IF(C949=5,VLOOKUP(B949-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4975</v>
+      </c>
+      <c r="F949">
+        <v>53</v>
+      </c>
+      <c r="G949">
+        <f>IF(C949=1,VLOOKUP(FoxFire!B949,balance!$U:$Z,2,FALSE),IF(C949=2,VLOOKUP(B949,balance!$U:$Z,3,FALSE),IF(C949=3,VLOOKUP(B949,balance!$U:$Z,4,FALSE),IF(C949=4,VLOOKUP(B949,balance!$U:$Z,5,FALSE),IF(C949=5,VLOOKUP(B949-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8899999999999998E-3</v>
+      </c>
+      <c r="H949">
+        <v>2</v>
+      </c>
+      <c r="I949" s="1">
+        <f>IF(C949=1,VLOOKUP(FoxFire!B949,balance!$AF:$AJ,2,FALSE),IF(C949=2,VLOOKUP(B949,balance!$AF:$AJ,3,FALSE),IF(C949=3,VLOOKUP(B949,balance!$AF:$AJ,4,FALSE),IF(C949=4,VLOOKUP(B949,balance!$AF:$AJ,5,FALSE),IF(C949=5,VLOOKUP(B949,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2115000000000.0002</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>948</v>
+      </c>
+      <c r="B950">
+        <f t="shared" si="29"/>
+        <v>190</v>
+      </c>
+      <c r="C950">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D950">
+        <v>9026</v>
+      </c>
+      <c r="E950" s="1">
+        <f>IF(C950=1,VLOOKUP(B950,balance!$K:$P,2,FALSE),IF(C950=2,VLOOKUP(B950,balance!$K:$P,3,FALSE),IF(C950=3,VLOOKUP(B950,balance!$K:$P,4,FALSE),IF(C950=4,VLOOKUP(B950,balance!$K:$P,5,FALSE),IF(C950=5,VLOOKUP(B950-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>4975</v>
+      </c>
+      <c r="F950">
+        <v>53</v>
+      </c>
+      <c r="G950">
+        <f>IF(C950=1,VLOOKUP(FoxFire!B950,balance!$U:$Z,2,FALSE),IF(C950=2,VLOOKUP(B950,balance!$U:$Z,3,FALSE),IF(C950=3,VLOOKUP(B950,balance!$U:$Z,4,FALSE),IF(C950=4,VLOOKUP(B950,balance!$U:$Z,5,FALSE),IF(C950=5,VLOOKUP(B950-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8899999999999998E-3</v>
+      </c>
+      <c r="H950">
+        <v>2</v>
+      </c>
+      <c r="I950" s="1">
+        <f>IF(C950=1,VLOOKUP(FoxFire!B950,balance!$AF:$AJ,2,FALSE),IF(C950=2,VLOOKUP(B950,balance!$AF:$AJ,3,FALSE),IF(C950=3,VLOOKUP(B950,balance!$AF:$AJ,4,FALSE),IF(C950=4,VLOOKUP(B950,balance!$AF:$AJ,5,FALSE),IF(C950=5,VLOOKUP(B950,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2115000000000.0002</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>949</v>
+      </c>
+      <c r="B951">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C951">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D951">
+        <v>9026</v>
+      </c>
+      <c r="E951" s="1">
+        <f>IF(C951=1,VLOOKUP(B951,balance!$K:$P,2,FALSE),IF(C951=2,VLOOKUP(B951,balance!$K:$P,3,FALSE),IF(C951=3,VLOOKUP(B951,balance!$K:$P,4,FALSE),IF(C951=4,VLOOKUP(B951,balance!$K:$P,5,FALSE),IF(C951=5,VLOOKUP(B951-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>193030</v>
+      </c>
+      <c r="F951">
+        <v>53</v>
+      </c>
+      <c r="G951">
+        <f>IF(C951=1,VLOOKUP(FoxFire!B951,balance!$U:$Z,2,FALSE),IF(C951=2,VLOOKUP(B951,balance!$U:$Z,3,FALSE),IF(C951=3,VLOOKUP(B951,balance!$U:$Z,4,FALSE),IF(C951=4,VLOOKUP(B951,balance!$U:$Z,5,FALSE),IF(C951=5,VLOOKUP(B951-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>528.53070000000002</v>
+      </c>
+      <c r="H951">
+        <v>2</v>
+      </c>
+      <c r="I951" s="1">
+        <f>IF(C951=1,VLOOKUP(FoxFire!B951,balance!$AF:$AJ,2,FALSE),IF(C951=2,VLOOKUP(B951,balance!$AF:$AJ,3,FALSE),IF(C951=3,VLOOKUP(B951,balance!$AF:$AJ,4,FALSE),IF(C951=4,VLOOKUP(B951,balance!$AF:$AJ,5,FALSE),IF(C951=5,VLOOKUP(B951,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8520000000000</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>950</v>
+      </c>
+      <c r="B952">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C952">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D952">
+        <v>9026</v>
+      </c>
+      <c r="E952" s="1">
+        <f>IF(C952=1,VLOOKUP(B952,balance!$K:$P,2,FALSE),IF(C952=2,VLOOKUP(B952,balance!$K:$P,3,FALSE),IF(C952=3,VLOOKUP(B952,balance!$K:$P,4,FALSE),IF(C952=4,VLOOKUP(B952,balance!$K:$P,5,FALSE),IF(C952=5,VLOOKUP(B952-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5000</v>
+      </c>
+      <c r="F952">
+        <v>53</v>
+      </c>
+      <c r="G952">
+        <f>IF(C952=1,VLOOKUP(FoxFire!B952,balance!$U:$Z,2,FALSE),IF(C952=2,VLOOKUP(B952,balance!$U:$Z,3,FALSE),IF(C952=3,VLOOKUP(B952,balance!$U:$Z,4,FALSE),IF(C952=4,VLOOKUP(B952,balance!$U:$Z,5,FALSE),IF(C952=5,VLOOKUP(B952-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H952">
+        <v>2</v>
+      </c>
+      <c r="I952" s="1">
+        <f>IF(C952=1,VLOOKUP(FoxFire!B952,balance!$AF:$AJ,2,FALSE),IF(C952=2,VLOOKUP(B952,balance!$AF:$AJ,3,FALSE),IF(C952=3,VLOOKUP(B952,balance!$AF:$AJ,4,FALSE),IF(C952=4,VLOOKUP(B952,balance!$AF:$AJ,5,FALSE),IF(C952=5,VLOOKUP(B952,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2130000000000</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>951</v>
+      </c>
+      <c r="B953">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C953">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D953">
+        <v>9026</v>
+      </c>
+      <c r="E953" s="1">
+        <f>IF(C953=1,VLOOKUP(B953,balance!$K:$P,2,FALSE),IF(C953=2,VLOOKUP(B953,balance!$K:$P,3,FALSE),IF(C953=3,VLOOKUP(B953,balance!$K:$P,4,FALSE),IF(C953=4,VLOOKUP(B953,balance!$K:$P,5,FALSE),IF(C953=5,VLOOKUP(B953-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5000</v>
+      </c>
+      <c r="F953">
+        <v>53</v>
+      </c>
+      <c r="G953">
+        <f>IF(C953=1,VLOOKUP(FoxFire!B953,balance!$U:$Z,2,FALSE),IF(C953=2,VLOOKUP(B953,balance!$U:$Z,3,FALSE),IF(C953=3,VLOOKUP(B953,balance!$U:$Z,4,FALSE),IF(C953=4,VLOOKUP(B953,balance!$U:$Z,5,FALSE),IF(C953=5,VLOOKUP(B953-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H953">
+        <v>2</v>
+      </c>
+      <c r="I953" s="1">
+        <f>IF(C953=1,VLOOKUP(FoxFire!B953,balance!$AF:$AJ,2,FALSE),IF(C953=2,VLOOKUP(B953,balance!$AF:$AJ,3,FALSE),IF(C953=3,VLOOKUP(B953,balance!$AF:$AJ,4,FALSE),IF(C953=4,VLOOKUP(B953,balance!$AF:$AJ,5,FALSE),IF(C953=5,VLOOKUP(B953,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2130000000000</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>952</v>
+      </c>
+      <c r="B954">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C954">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D954">
+        <v>9026</v>
+      </c>
+      <c r="E954" s="1">
+        <f>IF(C954=1,VLOOKUP(B954,balance!$K:$P,2,FALSE),IF(C954=2,VLOOKUP(B954,balance!$K:$P,3,FALSE),IF(C954=3,VLOOKUP(B954,balance!$K:$P,4,FALSE),IF(C954=4,VLOOKUP(B954,balance!$K:$P,5,FALSE),IF(C954=5,VLOOKUP(B954-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5000</v>
+      </c>
+      <c r="F954">
+        <v>53</v>
+      </c>
+      <c r="G954">
+        <f>IF(C954=1,VLOOKUP(FoxFire!B954,balance!$U:$Z,2,FALSE),IF(C954=2,VLOOKUP(B954,balance!$U:$Z,3,FALSE),IF(C954=3,VLOOKUP(B954,balance!$U:$Z,4,FALSE),IF(C954=4,VLOOKUP(B954,balance!$U:$Z,5,FALSE),IF(C954=5,VLOOKUP(B954-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H954">
+        <v>2</v>
+      </c>
+      <c r="I954" s="1">
+        <f>IF(C954=1,VLOOKUP(FoxFire!B954,balance!$AF:$AJ,2,FALSE),IF(C954=2,VLOOKUP(B954,balance!$AF:$AJ,3,FALSE),IF(C954=3,VLOOKUP(B954,balance!$AF:$AJ,4,FALSE),IF(C954=4,VLOOKUP(B954,balance!$AF:$AJ,5,FALSE),IF(C954=5,VLOOKUP(B954,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2130000000000</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>953</v>
+      </c>
+      <c r="B955">
+        <f t="shared" si="29"/>
+        <v>191</v>
+      </c>
+      <c r="C955">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D955">
+        <v>9026</v>
+      </c>
+      <c r="E955" s="1">
+        <f>IF(C955=1,VLOOKUP(B955,balance!$K:$P,2,FALSE),IF(C955=2,VLOOKUP(B955,balance!$K:$P,3,FALSE),IF(C955=3,VLOOKUP(B955,balance!$K:$P,4,FALSE),IF(C955=4,VLOOKUP(B955,balance!$K:$P,5,FALSE),IF(C955=5,VLOOKUP(B955-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5000</v>
+      </c>
+      <c r="F955">
+        <v>53</v>
+      </c>
+      <c r="G955">
+        <f>IF(C955=1,VLOOKUP(FoxFire!B955,balance!$U:$Z,2,FALSE),IF(C955=2,VLOOKUP(B955,balance!$U:$Z,3,FALSE),IF(C955=3,VLOOKUP(B955,balance!$U:$Z,4,FALSE),IF(C955=4,VLOOKUP(B955,balance!$U:$Z,5,FALSE),IF(C955=5,VLOOKUP(B955-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H955">
+        <v>2</v>
+      </c>
+      <c r="I955" s="1">
+        <f>IF(C955=1,VLOOKUP(FoxFire!B955,balance!$AF:$AJ,2,FALSE),IF(C955=2,VLOOKUP(B955,balance!$AF:$AJ,3,FALSE),IF(C955=3,VLOOKUP(B955,balance!$AF:$AJ,4,FALSE),IF(C955=4,VLOOKUP(B955,balance!$AF:$AJ,5,FALSE),IF(C955=5,VLOOKUP(B955,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2130000000000</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>954</v>
+      </c>
+      <c r="B956">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="C956">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D956">
+        <v>9026</v>
+      </c>
+      <c r="E956" s="1">
+        <f>IF(C956=1,VLOOKUP(B956,balance!$K:$P,2,FALSE),IF(C956=2,VLOOKUP(B956,balance!$K:$P,3,FALSE),IF(C956=3,VLOOKUP(B956,balance!$K:$P,4,FALSE),IF(C956=4,VLOOKUP(B956,balance!$K:$P,5,FALSE),IF(C956=5,VLOOKUP(B956-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>195000</v>
+      </c>
+      <c r="F956">
+        <v>53</v>
+      </c>
+      <c r="G956">
+        <f>IF(C956=1,VLOOKUP(FoxFire!B956,balance!$U:$Z,2,FALSE),IF(C956=2,VLOOKUP(B956,balance!$U:$Z,3,FALSE),IF(C956=3,VLOOKUP(B956,balance!$U:$Z,4,FALSE),IF(C956=4,VLOOKUP(B956,balance!$U:$Z,5,FALSE),IF(C956=5,VLOOKUP(B956-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>540.96680000000003</v>
+      </c>
+      <c r="H956">
+        <v>2</v>
+      </c>
+      <c r="I956" s="1">
+        <f>IF(C956=1,VLOOKUP(FoxFire!B956,balance!$AF:$AJ,2,FALSE),IF(C956=2,VLOOKUP(B956,balance!$AF:$AJ,3,FALSE),IF(C956=3,VLOOKUP(B956,balance!$AF:$AJ,4,FALSE),IF(C956=4,VLOOKUP(B956,balance!$AF:$AJ,5,FALSE),IF(C956=5,VLOOKUP(B956,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8580000000000</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>955</v>
+      </c>
+      <c r="B957">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="C957">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D957">
+        <v>9026</v>
+      </c>
+      <c r="E957" s="1">
+        <f>IF(C957=1,VLOOKUP(B957,balance!$K:$P,2,FALSE),IF(C957=2,VLOOKUP(B957,balance!$K:$P,3,FALSE),IF(C957=3,VLOOKUP(B957,balance!$K:$P,4,FALSE),IF(C957=4,VLOOKUP(B957,balance!$K:$P,5,FALSE),IF(C957=5,VLOOKUP(B957-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5025</v>
+      </c>
+      <c r="F957">
+        <v>53</v>
+      </c>
+      <c r="G957">
+        <f>IF(C957=1,VLOOKUP(FoxFire!B957,balance!$U:$Z,2,FALSE),IF(C957=2,VLOOKUP(B957,balance!$U:$Z,3,FALSE),IF(C957=3,VLOOKUP(B957,balance!$U:$Z,4,FALSE),IF(C957=4,VLOOKUP(B957,balance!$U:$Z,5,FALSE),IF(C957=5,VLOOKUP(B957-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9099999999999998E-3</v>
+      </c>
+      <c r="H957">
+        <v>2</v>
+      </c>
+      <c r="I957" s="1">
+        <f>IF(C957=1,VLOOKUP(FoxFire!B957,balance!$AF:$AJ,2,FALSE),IF(C957=2,VLOOKUP(B957,balance!$AF:$AJ,3,FALSE),IF(C957=3,VLOOKUP(B957,balance!$AF:$AJ,4,FALSE),IF(C957=4,VLOOKUP(B957,balance!$AF:$AJ,5,FALSE),IF(C957=5,VLOOKUP(B957,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2145000000000</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>956</v>
+      </c>
+      <c r="B958">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="C958">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D958">
+        <v>9026</v>
+      </c>
+      <c r="E958" s="1">
+        <f>IF(C958=1,VLOOKUP(B958,balance!$K:$P,2,FALSE),IF(C958=2,VLOOKUP(B958,balance!$K:$P,3,FALSE),IF(C958=3,VLOOKUP(B958,balance!$K:$P,4,FALSE),IF(C958=4,VLOOKUP(B958,balance!$K:$P,5,FALSE),IF(C958=5,VLOOKUP(B958-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5025</v>
+      </c>
+      <c r="F958">
+        <v>53</v>
+      </c>
+      <c r="G958">
+        <f>IF(C958=1,VLOOKUP(FoxFire!B958,balance!$U:$Z,2,FALSE),IF(C958=2,VLOOKUP(B958,balance!$U:$Z,3,FALSE),IF(C958=3,VLOOKUP(B958,balance!$U:$Z,4,FALSE),IF(C958=4,VLOOKUP(B958,balance!$U:$Z,5,FALSE),IF(C958=5,VLOOKUP(B958-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9099999999999998E-3</v>
+      </c>
+      <c r="H958">
+        <v>2</v>
+      </c>
+      <c r="I958" s="1">
+        <f>IF(C958=1,VLOOKUP(FoxFire!B958,balance!$AF:$AJ,2,FALSE),IF(C958=2,VLOOKUP(B958,balance!$AF:$AJ,3,FALSE),IF(C958=3,VLOOKUP(B958,balance!$AF:$AJ,4,FALSE),IF(C958=4,VLOOKUP(B958,balance!$AF:$AJ,5,FALSE),IF(C958=5,VLOOKUP(B958,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2145000000000</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>957</v>
+      </c>
+      <c r="B959">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="C959">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D959">
+        <v>9026</v>
+      </c>
+      <c r="E959" s="1">
+        <f>IF(C959=1,VLOOKUP(B959,balance!$K:$P,2,FALSE),IF(C959=2,VLOOKUP(B959,balance!$K:$P,3,FALSE),IF(C959=3,VLOOKUP(B959,balance!$K:$P,4,FALSE),IF(C959=4,VLOOKUP(B959,balance!$K:$P,5,FALSE),IF(C959=5,VLOOKUP(B959-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5025</v>
+      </c>
+      <c r="F959">
+        <v>53</v>
+      </c>
+      <c r="G959">
+        <f>IF(C959=1,VLOOKUP(FoxFire!B959,balance!$U:$Z,2,FALSE),IF(C959=2,VLOOKUP(B959,balance!$U:$Z,3,FALSE),IF(C959=3,VLOOKUP(B959,balance!$U:$Z,4,FALSE),IF(C959=4,VLOOKUP(B959,balance!$U:$Z,5,FALSE),IF(C959=5,VLOOKUP(B959-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9099999999999998E-3</v>
+      </c>
+      <c r="H959">
+        <v>2</v>
+      </c>
+      <c r="I959" s="1">
+        <f>IF(C959=1,VLOOKUP(FoxFire!B959,balance!$AF:$AJ,2,FALSE),IF(C959=2,VLOOKUP(B959,balance!$AF:$AJ,3,FALSE),IF(C959=3,VLOOKUP(B959,balance!$AF:$AJ,4,FALSE),IF(C959=4,VLOOKUP(B959,balance!$AF:$AJ,5,FALSE),IF(C959=5,VLOOKUP(B959,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2145000000000</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>958</v>
+      </c>
+      <c r="B960">
+        <f t="shared" si="29"/>
+        <v>192</v>
+      </c>
+      <c r="C960">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D960">
+        <v>9026</v>
+      </c>
+      <c r="E960" s="1">
+        <f>IF(C960=1,VLOOKUP(B960,balance!$K:$P,2,FALSE),IF(C960=2,VLOOKUP(B960,balance!$K:$P,3,FALSE),IF(C960=3,VLOOKUP(B960,balance!$K:$P,4,FALSE),IF(C960=4,VLOOKUP(B960,balance!$K:$P,5,FALSE),IF(C960=5,VLOOKUP(B960-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5025</v>
+      </c>
+      <c r="F960">
+        <v>53</v>
+      </c>
+      <c r="G960">
+        <f>IF(C960=1,VLOOKUP(FoxFire!B960,balance!$U:$Z,2,FALSE),IF(C960=2,VLOOKUP(B960,balance!$U:$Z,3,FALSE),IF(C960=3,VLOOKUP(B960,balance!$U:$Z,4,FALSE),IF(C960=4,VLOOKUP(B960,balance!$U:$Z,5,FALSE),IF(C960=5,VLOOKUP(B960-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9099999999999998E-3</v>
+      </c>
+      <c r="H960">
+        <v>2</v>
+      </c>
+      <c r="I960" s="1">
+        <f>IF(C960=1,VLOOKUP(FoxFire!B960,balance!$AF:$AJ,2,FALSE),IF(C960=2,VLOOKUP(B960,balance!$AF:$AJ,3,FALSE),IF(C960=3,VLOOKUP(B960,balance!$AF:$AJ,4,FALSE),IF(C960=4,VLOOKUP(B960,balance!$AF:$AJ,5,FALSE),IF(C960=5,VLOOKUP(B960,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2145000000000</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>959</v>
+      </c>
+      <c r="B961">
+        <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+      <c r="C961">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D961">
+        <v>9026</v>
+      </c>
+      <c r="E961" s="1">
+        <f>IF(C961=1,VLOOKUP(B961,balance!$K:$P,2,FALSE),IF(C961=2,VLOOKUP(B961,balance!$K:$P,3,FALSE),IF(C961=3,VLOOKUP(B961,balance!$K:$P,4,FALSE),IF(C961=4,VLOOKUP(B961,balance!$K:$P,5,FALSE),IF(C961=5,VLOOKUP(B961-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>196980</v>
+      </c>
+      <c r="F961">
+        <v>53</v>
+      </c>
+      <c r="G961">
+        <f>IF(C961=1,VLOOKUP(FoxFire!B961,balance!$U:$Z,2,FALSE),IF(C961=2,VLOOKUP(B961,balance!$U:$Z,3,FALSE),IF(C961=3,VLOOKUP(B961,balance!$U:$Z,4,FALSE),IF(C961=4,VLOOKUP(B961,balance!$U:$Z,5,FALSE),IF(C961=5,VLOOKUP(B961-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>553.68880000000001</v>
+      </c>
+      <c r="H961">
+        <v>2</v>
+      </c>
+      <c r="I961" s="1">
+        <f>IF(C961=1,VLOOKUP(FoxFire!B961,balance!$AF:$AJ,2,FALSE),IF(C961=2,VLOOKUP(B961,balance!$AF:$AJ,3,FALSE),IF(C961=3,VLOOKUP(B961,balance!$AF:$AJ,4,FALSE),IF(C961=4,VLOOKUP(B961,balance!$AF:$AJ,5,FALSE),IF(C961=5,VLOOKUP(B961,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8640000000000.001</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>960</v>
+      </c>
+      <c r="B962">
+        <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+      <c r="C962">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D962">
+        <v>9026</v>
+      </c>
+      <c r="E962" s="1">
+        <f>IF(C962=1,VLOOKUP(B962,balance!$K:$P,2,FALSE),IF(C962=2,VLOOKUP(B962,balance!$K:$P,3,FALSE),IF(C962=3,VLOOKUP(B962,balance!$K:$P,4,FALSE),IF(C962=4,VLOOKUP(B962,balance!$K:$P,5,FALSE),IF(C962=5,VLOOKUP(B962-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5050</v>
+      </c>
+      <c r="F962">
+        <v>53</v>
+      </c>
+      <c r="G962">
+        <f>IF(C962=1,VLOOKUP(FoxFire!B962,balance!$U:$Z,2,FALSE),IF(C962=2,VLOOKUP(B962,balance!$U:$Z,3,FALSE),IF(C962=3,VLOOKUP(B962,balance!$U:$Z,4,FALSE),IF(C962=4,VLOOKUP(B962,balance!$U:$Z,5,FALSE),IF(C962=5,VLOOKUP(B962-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="H962">
+        <v>2</v>
+      </c>
+      <c r="I962" s="1">
+        <f>IF(C962=1,VLOOKUP(FoxFire!B962,balance!$AF:$AJ,2,FALSE),IF(C962=2,VLOOKUP(B962,balance!$AF:$AJ,3,FALSE),IF(C962=3,VLOOKUP(B962,balance!$AF:$AJ,4,FALSE),IF(C962=4,VLOOKUP(B962,balance!$AF:$AJ,5,FALSE),IF(C962=5,VLOOKUP(B962,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2160000000000.0002</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>961</v>
+      </c>
+      <c r="B963">
+        <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+      <c r="C963">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D963">
+        <v>9026</v>
+      </c>
+      <c r="E963" s="1">
+        <f>IF(C963=1,VLOOKUP(B963,balance!$K:$P,2,FALSE),IF(C963=2,VLOOKUP(B963,balance!$K:$P,3,FALSE),IF(C963=3,VLOOKUP(B963,balance!$K:$P,4,FALSE),IF(C963=4,VLOOKUP(B963,balance!$K:$P,5,FALSE),IF(C963=5,VLOOKUP(B963-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5050</v>
+      </c>
+      <c r="F963">
+        <v>53</v>
+      </c>
+      <c r="G963">
+        <f>IF(C963=1,VLOOKUP(FoxFire!B963,balance!$U:$Z,2,FALSE),IF(C963=2,VLOOKUP(B963,balance!$U:$Z,3,FALSE),IF(C963=3,VLOOKUP(B963,balance!$U:$Z,4,FALSE),IF(C963=4,VLOOKUP(B963,balance!$U:$Z,5,FALSE),IF(C963=5,VLOOKUP(B963-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="H963">
+        <v>2</v>
+      </c>
+      <c r="I963" s="1">
+        <f>IF(C963=1,VLOOKUP(FoxFire!B963,balance!$AF:$AJ,2,FALSE),IF(C963=2,VLOOKUP(B963,balance!$AF:$AJ,3,FALSE),IF(C963=3,VLOOKUP(B963,balance!$AF:$AJ,4,FALSE),IF(C963=4,VLOOKUP(B963,balance!$AF:$AJ,5,FALSE),IF(C963=5,VLOOKUP(B963,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2160000000000.0002</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>962</v>
+      </c>
+      <c r="B964">
+        <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+      <c r="C964">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D964">
+        <v>9026</v>
+      </c>
+      <c r="E964" s="1">
+        <f>IF(C964=1,VLOOKUP(B964,balance!$K:$P,2,FALSE),IF(C964=2,VLOOKUP(B964,balance!$K:$P,3,FALSE),IF(C964=3,VLOOKUP(B964,balance!$K:$P,4,FALSE),IF(C964=4,VLOOKUP(B964,balance!$K:$P,5,FALSE),IF(C964=5,VLOOKUP(B964-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5050</v>
+      </c>
+      <c r="F964">
+        <v>53</v>
+      </c>
+      <c r="G964">
+        <f>IF(C964=1,VLOOKUP(FoxFire!B964,balance!$U:$Z,2,FALSE),IF(C964=2,VLOOKUP(B964,balance!$U:$Z,3,FALSE),IF(C964=3,VLOOKUP(B964,balance!$U:$Z,4,FALSE),IF(C964=4,VLOOKUP(B964,balance!$U:$Z,5,FALSE),IF(C964=5,VLOOKUP(B964-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="H964">
+        <v>2</v>
+      </c>
+      <c r="I964" s="1">
+        <f>IF(C964=1,VLOOKUP(FoxFire!B964,balance!$AF:$AJ,2,FALSE),IF(C964=2,VLOOKUP(B964,balance!$AF:$AJ,3,FALSE),IF(C964=3,VLOOKUP(B964,balance!$AF:$AJ,4,FALSE),IF(C964=4,VLOOKUP(B964,balance!$AF:$AJ,5,FALSE),IF(C964=5,VLOOKUP(B964,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2160000000000.0002</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>963</v>
+      </c>
+      <c r="B965">
+        <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+      <c r="C965">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D965">
+        <v>9026</v>
+      </c>
+      <c r="E965" s="1">
+        <f>IF(C965=1,VLOOKUP(B965,balance!$K:$P,2,FALSE),IF(C965=2,VLOOKUP(B965,balance!$K:$P,3,FALSE),IF(C965=3,VLOOKUP(B965,balance!$K:$P,4,FALSE),IF(C965=4,VLOOKUP(B965,balance!$K:$P,5,FALSE),IF(C965=5,VLOOKUP(B965-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5050</v>
+      </c>
+      <c r="F965">
+        <v>53</v>
+      </c>
+      <c r="G965">
+        <f>IF(C965=1,VLOOKUP(FoxFire!B965,balance!$U:$Z,2,FALSE),IF(C965=2,VLOOKUP(B965,balance!$U:$Z,3,FALSE),IF(C965=3,VLOOKUP(B965,balance!$U:$Z,4,FALSE),IF(C965=4,VLOOKUP(B965,balance!$U:$Z,5,FALSE),IF(C965=5,VLOOKUP(B965-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="H965">
+        <v>2</v>
+      </c>
+      <c r="I965" s="1">
+        <f>IF(C965=1,VLOOKUP(FoxFire!B965,balance!$AF:$AJ,2,FALSE),IF(C965=2,VLOOKUP(B965,balance!$AF:$AJ,3,FALSE),IF(C965=3,VLOOKUP(B965,balance!$AF:$AJ,4,FALSE),IF(C965=4,VLOOKUP(B965,balance!$AF:$AJ,5,FALSE),IF(C965=5,VLOOKUP(B965,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2160000000000.0002</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>964</v>
+      </c>
+      <c r="B966">
+        <f t="shared" si="29"/>
+        <v>194</v>
+      </c>
+      <c r="C966">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D966">
+        <v>9026</v>
+      </c>
+      <c r="E966" s="1">
+        <f>IF(C966=1,VLOOKUP(B966,balance!$K:$P,2,FALSE),IF(C966=2,VLOOKUP(B966,balance!$K:$P,3,FALSE),IF(C966=3,VLOOKUP(B966,balance!$K:$P,4,FALSE),IF(C966=4,VLOOKUP(B966,balance!$K:$P,5,FALSE),IF(C966=5,VLOOKUP(B966-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>198970</v>
+      </c>
+      <c r="F966">
+        <v>53</v>
+      </c>
+      <c r="G966">
+        <f>IF(C966=1,VLOOKUP(FoxFire!B966,balance!$U:$Z,2,FALSE),IF(C966=2,VLOOKUP(B966,balance!$U:$Z,3,FALSE),IF(C966=3,VLOOKUP(B966,balance!$U:$Z,4,FALSE),IF(C966=4,VLOOKUP(B966,balance!$U:$Z,5,FALSE),IF(C966=5,VLOOKUP(B966-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>566.70330000000001</v>
+      </c>
+      <c r="H966">
+        <v>2</v>
+      </c>
+      <c r="I966" s="1">
+        <f>IF(C966=1,VLOOKUP(FoxFire!B966,balance!$AF:$AJ,2,FALSE),IF(C966=2,VLOOKUP(B966,balance!$AF:$AJ,3,FALSE),IF(C966=3,VLOOKUP(B966,balance!$AF:$AJ,4,FALSE),IF(C966=4,VLOOKUP(B966,balance!$AF:$AJ,5,FALSE),IF(C966=5,VLOOKUP(B966,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8699999999999.999</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>965</v>
+      </c>
+      <c r="B967">
+        <f t="shared" si="29"/>
+        <v>194</v>
+      </c>
+      <c r="C967">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D967">
+        <v>9026</v>
+      </c>
+      <c r="E967" s="1">
+        <f>IF(C967=1,VLOOKUP(B967,balance!$K:$P,2,FALSE),IF(C967=2,VLOOKUP(B967,balance!$K:$P,3,FALSE),IF(C967=3,VLOOKUP(B967,balance!$K:$P,4,FALSE),IF(C967=4,VLOOKUP(B967,balance!$K:$P,5,FALSE),IF(C967=5,VLOOKUP(B967-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5075</v>
+      </c>
+      <c r="F967">
+        <v>53</v>
+      </c>
+      <c r="G967">
+        <f>IF(C967=1,VLOOKUP(FoxFire!B967,balance!$U:$Z,2,FALSE),IF(C967=2,VLOOKUP(B967,balance!$U:$Z,3,FALSE),IF(C967=3,VLOOKUP(B967,balance!$U:$Z,4,FALSE),IF(C967=4,VLOOKUP(B967,balance!$U:$Z,5,FALSE),IF(C967=5,VLOOKUP(B967-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="H967">
+        <v>2</v>
+      </c>
+      <c r="I967" s="1">
+        <f>IF(C967=1,VLOOKUP(FoxFire!B967,balance!$AF:$AJ,2,FALSE),IF(C967=2,VLOOKUP(B967,balance!$AF:$AJ,3,FALSE),IF(C967=3,VLOOKUP(B967,balance!$AF:$AJ,4,FALSE),IF(C967=4,VLOOKUP(B967,balance!$AF:$AJ,5,FALSE),IF(C967=5,VLOOKUP(B967,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2174999999999.9998</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>966</v>
+      </c>
+      <c r="B968">
+        <f t="shared" si="29"/>
+        <v>194</v>
+      </c>
+      <c r="C968">
+        <f t="shared" ref="C968:C1000" si="30">C963</f>
+        <v>2</v>
+      </c>
+      <c r="D968">
+        <v>9026</v>
+      </c>
+      <c r="E968" s="1">
+        <f>IF(C968=1,VLOOKUP(B968,balance!$K:$P,2,FALSE),IF(C968=2,VLOOKUP(B968,balance!$K:$P,3,FALSE),IF(C968=3,VLOOKUP(B968,balance!$K:$P,4,FALSE),IF(C968=4,VLOOKUP(B968,balance!$K:$P,5,FALSE),IF(C968=5,VLOOKUP(B968-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5075</v>
+      </c>
+      <c r="F968">
+        <v>53</v>
+      </c>
+      <c r="G968">
+        <f>IF(C968=1,VLOOKUP(FoxFire!B968,balance!$U:$Z,2,FALSE),IF(C968=2,VLOOKUP(B968,balance!$U:$Z,3,FALSE),IF(C968=3,VLOOKUP(B968,balance!$U:$Z,4,FALSE),IF(C968=4,VLOOKUP(B968,balance!$U:$Z,5,FALSE),IF(C968=5,VLOOKUP(B968-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="H968">
+        <v>2</v>
+      </c>
+      <c r="I968" s="1">
+        <f>IF(C968=1,VLOOKUP(FoxFire!B968,balance!$AF:$AJ,2,FALSE),IF(C968=2,VLOOKUP(B968,balance!$AF:$AJ,3,FALSE),IF(C968=3,VLOOKUP(B968,balance!$AF:$AJ,4,FALSE),IF(C968=4,VLOOKUP(B968,balance!$AF:$AJ,5,FALSE),IF(C968=5,VLOOKUP(B968,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2174999999999.9998</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>967</v>
+      </c>
+      <c r="B969">
+        <f t="shared" si="29"/>
+        <v>194</v>
+      </c>
+      <c r="C969">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="D969">
+        <v>9026</v>
+      </c>
+      <c r="E969" s="1">
+        <f>IF(C969=1,VLOOKUP(B969,balance!$K:$P,2,FALSE),IF(C969=2,VLOOKUP(B969,balance!$K:$P,3,FALSE),IF(C969=3,VLOOKUP(B969,balance!$K:$P,4,FALSE),IF(C969=4,VLOOKUP(B969,balance!$K:$P,5,FALSE),IF(C969=5,VLOOKUP(B969-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5075</v>
+      </c>
+      <c r="F969">
+        <v>53</v>
+      </c>
+      <c r="G969">
+        <f>IF(C969=1,VLOOKUP(FoxFire!B969,balance!$U:$Z,2,FALSE),IF(C969=2,VLOOKUP(B969,balance!$U:$Z,3,FALSE),IF(C969=3,VLOOKUP(B969,balance!$U:$Z,4,FALSE),IF(C969=4,VLOOKUP(B969,balance!$U:$Z,5,FALSE),IF(C969=5,VLOOKUP(B969-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="H969">
+        <v>2</v>
+      </c>
+      <c r="I969" s="1">
+        <f>IF(C969=1,VLOOKUP(FoxFire!B969,balance!$AF:$AJ,2,FALSE),IF(C969=2,VLOOKUP(B969,balance!$AF:$AJ,3,FALSE),IF(C969=3,VLOOKUP(B969,balance!$AF:$AJ,4,FALSE),IF(C969=4,VLOOKUP(B969,balance!$AF:$AJ,5,FALSE),IF(C969=5,VLOOKUP(B969,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2174999999999.9998</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>968</v>
+      </c>
+      <c r="B970">
+        <f t="shared" si="29"/>
+        <v>194</v>
+      </c>
+      <c r="C970">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D970">
+        <v>9026</v>
+      </c>
+      <c r="E970" s="1">
+        <f>IF(C970=1,VLOOKUP(B970,balance!$K:$P,2,FALSE),IF(C970=2,VLOOKUP(B970,balance!$K:$P,3,FALSE),IF(C970=3,VLOOKUP(B970,balance!$K:$P,4,FALSE),IF(C970=4,VLOOKUP(B970,balance!$K:$P,5,FALSE),IF(C970=5,VLOOKUP(B970-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5075</v>
+      </c>
+      <c r="F970">
+        <v>53</v>
+      </c>
+      <c r="G970">
+        <f>IF(C970=1,VLOOKUP(FoxFire!B970,balance!$U:$Z,2,FALSE),IF(C970=2,VLOOKUP(B970,balance!$U:$Z,3,FALSE),IF(C970=3,VLOOKUP(B970,balance!$U:$Z,4,FALSE),IF(C970=4,VLOOKUP(B970,balance!$U:$Z,5,FALSE),IF(C970=5,VLOOKUP(B970-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="H970">
+        <v>2</v>
+      </c>
+      <c r="I970" s="1">
+        <f>IF(C970=1,VLOOKUP(FoxFire!B970,balance!$AF:$AJ,2,FALSE),IF(C970=2,VLOOKUP(B970,balance!$AF:$AJ,3,FALSE),IF(C970=3,VLOOKUP(B970,balance!$AF:$AJ,4,FALSE),IF(C970=4,VLOOKUP(B970,balance!$AF:$AJ,5,FALSE),IF(C970=5,VLOOKUP(B970,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2174999999999.9998</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>969</v>
+      </c>
+      <c r="B971">
+        <f t="shared" si="29"/>
+        <v>195</v>
+      </c>
+      <c r="C971">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="D971">
+        <v>9026</v>
+      </c>
+      <c r="E971" s="1">
+        <f>IF(C971=1,VLOOKUP(B971,balance!$K:$P,2,FALSE),IF(C971=2,VLOOKUP(B971,balance!$K:$P,3,FALSE),IF(C971=3,VLOOKUP(B971,balance!$K:$P,4,FALSE),IF(C971=4,VLOOKUP(B971,balance!$K:$P,5,FALSE),IF(C971=5,VLOOKUP(B971-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>200970</v>
+      </c>
+      <c r="F971">
+        <v>53</v>
+      </c>
+      <c r="G971">
+        <f>IF(C971=1,VLOOKUP(FoxFire!B971,balance!$U:$Z,2,FALSE),IF(C971=2,VLOOKUP(B971,balance!$U:$Z,3,FALSE),IF(C971=3,VLOOKUP(B971,balance!$U:$Z,4,FALSE),IF(C971=4,VLOOKUP(B971,balance!$U:$Z,5,FALSE),IF(C971=5,VLOOKUP(B971-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>580.01700000000005</v>
+      </c>
+      <c r="H971">
+        <v>2</v>
+      </c>
+      <c r="I971" s="1">
+        <f>IF(C971=1,VLOOKUP(FoxFire!B971,balance!$AF:$AJ,2,FALSE),IF(C971=2,VLOOKUP(B971,balance!$AF:$AJ,3,FALSE),IF(C971=3,VLOOKUP(B971,balance!$AF:$AJ,4,FALSE),IF(C971=4,VLOOKUP(B971,balance!$AF:$AJ,5,FALSE),IF(C971=5,VLOOKUP(B971,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8760000000000</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>970</v>
+      </c>
+      <c r="B972">
+        <f t="shared" ref="B972:B1000" si="31">B967+1</f>
+        <v>195</v>
+      </c>
+      <c r="C972">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D972">
+        <v>9026</v>
+      </c>
+      <c r="E972" s="1">
+        <f>IF(C972=1,VLOOKUP(B972,balance!$K:$P,2,FALSE),IF(C972=2,VLOOKUP(B972,balance!$K:$P,3,FALSE),IF(C972=3,VLOOKUP(B972,balance!$K:$P,4,FALSE),IF(C972=4,VLOOKUP(B972,balance!$K:$P,5,FALSE),IF(C972=5,VLOOKUP(B972-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5100</v>
+      </c>
+      <c r="F972">
+        <v>53</v>
+      </c>
+      <c r="G972">
+        <f>IF(C972=1,VLOOKUP(FoxFire!B972,balance!$U:$Z,2,FALSE),IF(C972=2,VLOOKUP(B972,balance!$U:$Z,3,FALSE),IF(C972=3,VLOOKUP(B972,balance!$U:$Z,4,FALSE),IF(C972=4,VLOOKUP(B972,balance!$U:$Z,5,FALSE),IF(C972=5,VLOOKUP(B972-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="H972">
+        <v>2</v>
+      </c>
+      <c r="I972" s="1">
+        <f>IF(C972=1,VLOOKUP(FoxFire!B972,balance!$AF:$AJ,2,FALSE),IF(C972=2,VLOOKUP(B972,balance!$AF:$AJ,3,FALSE),IF(C972=3,VLOOKUP(B972,balance!$AF:$AJ,4,FALSE),IF(C972=4,VLOOKUP(B972,balance!$AF:$AJ,5,FALSE),IF(C972=5,VLOOKUP(B972,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2190000000000</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>971</v>
+      </c>
+      <c r="B973">
+        <f t="shared" si="31"/>
+        <v>195</v>
+      </c>
+      <c r="C973">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="D973">
+        <v>9026</v>
+      </c>
+      <c r="E973" s="1">
+        <f>IF(C973=1,VLOOKUP(B973,balance!$K:$P,2,FALSE),IF(C973=2,VLOOKUP(B973,balance!$K:$P,3,FALSE),IF(C973=3,VLOOKUP(B973,balance!$K:$P,4,FALSE),IF(C973=4,VLOOKUP(B973,balance!$K:$P,5,FALSE),IF(C973=5,VLOOKUP(B973-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5100</v>
+      </c>
+      <c r="F973">
+        <v>53</v>
+      </c>
+      <c r="G973">
+        <f>IF(C973=1,VLOOKUP(FoxFire!B973,balance!$U:$Z,2,FALSE),IF(C973=2,VLOOKUP(B973,balance!$U:$Z,3,FALSE),IF(C973=3,VLOOKUP(B973,balance!$U:$Z,4,FALSE),IF(C973=4,VLOOKUP(B973,balance!$U:$Z,5,FALSE),IF(C973=5,VLOOKUP(B973-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="H973">
+        <v>2</v>
+      </c>
+      <c r="I973" s="1">
+        <f>IF(C973=1,VLOOKUP(FoxFire!B973,balance!$AF:$AJ,2,FALSE),IF(C973=2,VLOOKUP(B973,balance!$AF:$AJ,3,FALSE),IF(C973=3,VLOOKUP(B973,balance!$AF:$AJ,4,FALSE),IF(C973=4,VLOOKUP(B973,balance!$AF:$AJ,5,FALSE),IF(C973=5,VLOOKUP(B973,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2190000000000</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>972</v>
+      </c>
+      <c r="B974">
+        <f t="shared" si="31"/>
+        <v>195</v>
+      </c>
+      <c r="C974">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="D974">
+        <v>9026</v>
+      </c>
+      <c r="E974" s="1">
+        <f>IF(C974=1,VLOOKUP(B974,balance!$K:$P,2,FALSE),IF(C974=2,VLOOKUP(B974,balance!$K:$P,3,FALSE),IF(C974=3,VLOOKUP(B974,balance!$K:$P,4,FALSE),IF(C974=4,VLOOKUP(B974,balance!$K:$P,5,FALSE),IF(C974=5,VLOOKUP(B974-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5100</v>
+      </c>
+      <c r="F974">
+        <v>53</v>
+      </c>
+      <c r="G974">
+        <f>IF(C974=1,VLOOKUP(FoxFire!B974,balance!$U:$Z,2,FALSE),IF(C974=2,VLOOKUP(B974,balance!$U:$Z,3,FALSE),IF(C974=3,VLOOKUP(B974,balance!$U:$Z,4,FALSE),IF(C974=4,VLOOKUP(B974,balance!$U:$Z,5,FALSE),IF(C974=5,VLOOKUP(B974-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="H974">
+        <v>2</v>
+      </c>
+      <c r="I974" s="1">
+        <f>IF(C974=1,VLOOKUP(FoxFire!B974,balance!$AF:$AJ,2,FALSE),IF(C974=2,VLOOKUP(B974,balance!$AF:$AJ,3,FALSE),IF(C974=3,VLOOKUP(B974,balance!$AF:$AJ,4,FALSE),IF(C974=4,VLOOKUP(B974,balance!$AF:$AJ,5,FALSE),IF(C974=5,VLOOKUP(B974,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2190000000000</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>973</v>
+      </c>
+      <c r="B975">
+        <f t="shared" si="31"/>
+        <v>195</v>
+      </c>
+      <c r="C975">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D975">
+        <v>9026</v>
+      </c>
+      <c r="E975" s="1">
+        <f>IF(C975=1,VLOOKUP(B975,balance!$K:$P,2,FALSE),IF(C975=2,VLOOKUP(B975,balance!$K:$P,3,FALSE),IF(C975=3,VLOOKUP(B975,balance!$K:$P,4,FALSE),IF(C975=4,VLOOKUP(B975,balance!$K:$P,5,FALSE),IF(C975=5,VLOOKUP(B975-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5100</v>
+      </c>
+      <c r="F975">
+        <v>53</v>
+      </c>
+      <c r="G975">
+        <f>IF(C975=1,VLOOKUP(FoxFire!B975,balance!$U:$Z,2,FALSE),IF(C975=2,VLOOKUP(B975,balance!$U:$Z,3,FALSE),IF(C975=3,VLOOKUP(B975,balance!$U:$Z,4,FALSE),IF(C975=4,VLOOKUP(B975,balance!$U:$Z,5,FALSE),IF(C975=5,VLOOKUP(B975-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="H975">
+        <v>2</v>
+      </c>
+      <c r="I975" s="1">
+        <f>IF(C975=1,VLOOKUP(FoxFire!B975,balance!$AF:$AJ,2,FALSE),IF(C975=2,VLOOKUP(B975,balance!$AF:$AJ,3,FALSE),IF(C975=3,VLOOKUP(B975,balance!$AF:$AJ,4,FALSE),IF(C975=4,VLOOKUP(B975,balance!$AF:$AJ,5,FALSE),IF(C975=5,VLOOKUP(B975,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2190000000000</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>974</v>
+      </c>
+      <c r="B976">
+        <f t="shared" si="31"/>
+        <v>196</v>
+      </c>
+      <c r="C976">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="D976">
+        <v>9026</v>
+      </c>
+      <c r="E976" s="1">
+        <f>IF(C976=1,VLOOKUP(B976,balance!$K:$P,2,FALSE),IF(C976=2,VLOOKUP(B976,balance!$K:$P,3,FALSE),IF(C976=3,VLOOKUP(B976,balance!$K:$P,4,FALSE),IF(C976=4,VLOOKUP(B976,balance!$K:$P,5,FALSE),IF(C976=5,VLOOKUP(B976-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>202980</v>
+      </c>
+      <c r="F976">
+        <v>53</v>
+      </c>
+      <c r="G976">
+        <f>IF(C976=1,VLOOKUP(FoxFire!B976,balance!$U:$Z,2,FALSE),IF(C976=2,VLOOKUP(B976,balance!$U:$Z,3,FALSE),IF(C976=3,VLOOKUP(B976,balance!$U:$Z,4,FALSE),IF(C976=4,VLOOKUP(B976,balance!$U:$Z,5,FALSE),IF(C976=5,VLOOKUP(B976-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>593.63650000000007</v>
+      </c>
+      <c r="H976">
+        <v>2</v>
+      </c>
+      <c r="I976" s="1">
+        <f>IF(C976=1,VLOOKUP(FoxFire!B976,balance!$AF:$AJ,2,FALSE),IF(C976=2,VLOOKUP(B976,balance!$AF:$AJ,3,FALSE),IF(C976=3,VLOOKUP(B976,balance!$AF:$AJ,4,FALSE),IF(C976=4,VLOOKUP(B976,balance!$AF:$AJ,5,FALSE),IF(C976=5,VLOOKUP(B976,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8820000000000</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>975</v>
+      </c>
+      <c r="B977">
+        <f t="shared" si="31"/>
+        <v>196</v>
+      </c>
+      <c r="C977">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D977">
+        <v>9026</v>
+      </c>
+      <c r="E977" s="1">
+        <f>IF(C977=1,VLOOKUP(B977,balance!$K:$P,2,FALSE),IF(C977=2,VLOOKUP(B977,balance!$K:$P,3,FALSE),IF(C977=3,VLOOKUP(B977,balance!$K:$P,4,FALSE),IF(C977=4,VLOOKUP(B977,balance!$K:$P,5,FALSE),IF(C977=5,VLOOKUP(B977-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5125</v>
+      </c>
+      <c r="F977">
+        <v>53</v>
+      </c>
+      <c r="G977">
+        <f>IF(C977=1,VLOOKUP(FoxFire!B977,balance!$U:$Z,2,FALSE),IF(C977=2,VLOOKUP(B977,balance!$U:$Z,3,FALSE),IF(C977=3,VLOOKUP(B977,balance!$U:$Z,4,FALSE),IF(C977=4,VLOOKUP(B977,balance!$U:$Z,5,FALSE),IF(C977=5,VLOOKUP(B977-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="H977">
+        <v>2</v>
+      </c>
+      <c r="I977" s="1">
+        <f>IF(C977=1,VLOOKUP(FoxFire!B977,balance!$AF:$AJ,2,FALSE),IF(C977=2,VLOOKUP(B977,balance!$AF:$AJ,3,FALSE),IF(C977=3,VLOOKUP(B977,balance!$AF:$AJ,4,FALSE),IF(C977=4,VLOOKUP(B977,balance!$AF:$AJ,5,FALSE),IF(C977=5,VLOOKUP(B977,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2205000000000</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>976</v>
+      </c>
+      <c r="B978">
+        <f t="shared" si="31"/>
+        <v>196</v>
+      </c>
+      <c r="C978">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="D978">
+        <v>9026</v>
+      </c>
+      <c r="E978" s="1">
+        <f>IF(C978=1,VLOOKUP(B978,balance!$K:$P,2,FALSE),IF(C978=2,VLOOKUP(B978,balance!$K:$P,3,FALSE),IF(C978=3,VLOOKUP(B978,balance!$K:$P,4,FALSE),IF(C978=4,VLOOKUP(B978,balance!$K:$P,5,FALSE),IF(C978=5,VLOOKUP(B978-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5125</v>
+      </c>
+      <c r="F978">
+        <v>53</v>
+      </c>
+      <c r="G978">
+        <f>IF(C978=1,VLOOKUP(FoxFire!B978,balance!$U:$Z,2,FALSE),IF(C978=2,VLOOKUP(B978,balance!$U:$Z,3,FALSE),IF(C978=3,VLOOKUP(B978,balance!$U:$Z,4,FALSE),IF(C978=4,VLOOKUP(B978,balance!$U:$Z,5,FALSE),IF(C978=5,VLOOKUP(B978-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="H978">
+        <v>2</v>
+      </c>
+      <c r="I978" s="1">
+        <f>IF(C978=1,VLOOKUP(FoxFire!B978,balance!$AF:$AJ,2,FALSE),IF(C978=2,VLOOKUP(B978,balance!$AF:$AJ,3,FALSE),IF(C978=3,VLOOKUP(B978,balance!$AF:$AJ,4,FALSE),IF(C978=4,VLOOKUP(B978,balance!$AF:$AJ,5,FALSE),IF(C978=5,VLOOKUP(B978,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2205000000000</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>977</v>
+      </c>
+      <c r="B979">
+        <f t="shared" si="31"/>
+        <v>196</v>
+      </c>
+      <c r="C979">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="D979">
+        <v>9026</v>
+      </c>
+      <c r="E979" s="1">
+        <f>IF(C979=1,VLOOKUP(B979,balance!$K:$P,2,FALSE),IF(C979=2,VLOOKUP(B979,balance!$K:$P,3,FALSE),IF(C979=3,VLOOKUP(B979,balance!$K:$P,4,FALSE),IF(C979=4,VLOOKUP(B979,balance!$K:$P,5,FALSE),IF(C979=5,VLOOKUP(B979-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5125</v>
+      </c>
+      <c r="F979">
+        <v>53</v>
+      </c>
+      <c r="G979">
+        <f>IF(C979=1,VLOOKUP(FoxFire!B979,balance!$U:$Z,2,FALSE),IF(C979=2,VLOOKUP(B979,balance!$U:$Z,3,FALSE),IF(C979=3,VLOOKUP(B979,balance!$U:$Z,4,FALSE),IF(C979=4,VLOOKUP(B979,balance!$U:$Z,5,FALSE),IF(C979=5,VLOOKUP(B979-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="H979">
+        <v>2</v>
+      </c>
+      <c r="I979" s="1">
+        <f>IF(C979=1,VLOOKUP(FoxFire!B979,balance!$AF:$AJ,2,FALSE),IF(C979=2,VLOOKUP(B979,balance!$AF:$AJ,3,FALSE),IF(C979=3,VLOOKUP(B979,balance!$AF:$AJ,4,FALSE),IF(C979=4,VLOOKUP(B979,balance!$AF:$AJ,5,FALSE),IF(C979=5,VLOOKUP(B979,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2205000000000</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>978</v>
+      </c>
+      <c r="B980">
+        <f t="shared" si="31"/>
+        <v>196</v>
+      </c>
+      <c r="C980">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D980">
+        <v>9026</v>
+      </c>
+      <c r="E980" s="1">
+        <f>IF(C980=1,VLOOKUP(B980,balance!$K:$P,2,FALSE),IF(C980=2,VLOOKUP(B980,balance!$K:$P,3,FALSE),IF(C980=3,VLOOKUP(B980,balance!$K:$P,4,FALSE),IF(C980=4,VLOOKUP(B980,balance!$K:$P,5,FALSE),IF(C980=5,VLOOKUP(B980-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5125</v>
+      </c>
+      <c r="F980">
+        <v>53</v>
+      </c>
+      <c r="G980">
+        <f>IF(C980=1,VLOOKUP(FoxFire!B980,balance!$U:$Z,2,FALSE),IF(C980=2,VLOOKUP(B980,balance!$U:$Z,3,FALSE),IF(C980=3,VLOOKUP(B980,balance!$U:$Z,4,FALSE),IF(C980=4,VLOOKUP(B980,balance!$U:$Z,5,FALSE),IF(C980=5,VLOOKUP(B980-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="H980">
+        <v>2</v>
+      </c>
+      <c r="I980" s="1">
+        <f>IF(C980=1,VLOOKUP(FoxFire!B980,balance!$AF:$AJ,2,FALSE),IF(C980=2,VLOOKUP(B980,balance!$AF:$AJ,3,FALSE),IF(C980=3,VLOOKUP(B980,balance!$AF:$AJ,4,FALSE),IF(C980=4,VLOOKUP(B980,balance!$AF:$AJ,5,FALSE),IF(C980=5,VLOOKUP(B980,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2205000000000</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>979</v>
+      </c>
+      <c r="B981">
+        <f t="shared" si="31"/>
+        <v>197</v>
+      </c>
+      <c r="C981">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="D981">
+        <v>9026</v>
+      </c>
+      <c r="E981" s="1">
+        <f>IF(C981=1,VLOOKUP(B981,balance!$K:$P,2,FALSE),IF(C981=2,VLOOKUP(B981,balance!$K:$P,3,FALSE),IF(C981=3,VLOOKUP(B981,balance!$K:$P,4,FALSE),IF(C981=4,VLOOKUP(B981,balance!$K:$P,5,FALSE),IF(C981=5,VLOOKUP(B981-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>205000</v>
+      </c>
+      <c r="F981">
+        <v>53</v>
+      </c>
+      <c r="G981">
+        <f>IF(C981=1,VLOOKUP(FoxFire!B981,balance!$U:$Z,2,FALSE),IF(C981=2,VLOOKUP(B981,balance!$U:$Z,3,FALSE),IF(C981=3,VLOOKUP(B981,balance!$U:$Z,4,FALSE),IF(C981=4,VLOOKUP(B981,balance!$U:$Z,5,FALSE),IF(C981=5,VLOOKUP(B981-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>607.56880000000001</v>
+      </c>
+      <c r="H981">
+        <v>2</v>
+      </c>
+      <c r="I981" s="1">
+        <f>IF(C981=1,VLOOKUP(FoxFire!B981,balance!$AF:$AJ,2,FALSE),IF(C981=2,VLOOKUP(B981,balance!$AF:$AJ,3,FALSE),IF(C981=3,VLOOKUP(B981,balance!$AF:$AJ,4,FALSE),IF(C981=4,VLOOKUP(B981,balance!$AF:$AJ,5,FALSE),IF(C981=5,VLOOKUP(B981,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8880000000000</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>980</v>
+      </c>
+      <c r="B982">
+        <f t="shared" si="31"/>
+        <v>197</v>
+      </c>
+      <c r="C982">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D982">
+        <v>9026</v>
+      </c>
+      <c r="E982" s="1">
+        <f>IF(C982=1,VLOOKUP(B982,balance!$K:$P,2,FALSE),IF(C982=2,VLOOKUP(B982,balance!$K:$P,3,FALSE),IF(C982=3,VLOOKUP(B982,balance!$K:$P,4,FALSE),IF(C982=4,VLOOKUP(B982,balance!$K:$P,5,FALSE),IF(C982=5,VLOOKUP(B982-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5150</v>
+      </c>
+      <c r="F982">
+        <v>53</v>
+      </c>
+      <c r="G982">
+        <f>IF(C982=1,VLOOKUP(FoxFire!B982,balance!$U:$Z,2,FALSE),IF(C982=2,VLOOKUP(B982,balance!$U:$Z,3,FALSE),IF(C982=3,VLOOKUP(B982,balance!$U:$Z,4,FALSE),IF(C982=4,VLOOKUP(B982,balance!$U:$Z,5,FALSE),IF(C982=5,VLOOKUP(B982-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.96E-3</v>
+      </c>
+      <c r="H982">
+        <v>2</v>
+      </c>
+      <c r="I982" s="1">
+        <f>IF(C982=1,VLOOKUP(FoxFire!B982,balance!$AF:$AJ,2,FALSE),IF(C982=2,VLOOKUP(B982,balance!$AF:$AJ,3,FALSE),IF(C982=3,VLOOKUP(B982,balance!$AF:$AJ,4,FALSE),IF(C982=4,VLOOKUP(B982,balance!$AF:$AJ,5,FALSE),IF(C982=5,VLOOKUP(B982,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2220000000000</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>981</v>
+      </c>
+      <c r="B983">
+        <f t="shared" si="31"/>
+        <v>197</v>
+      </c>
+      <c r="C983">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="D983">
+        <v>9026</v>
+      </c>
+      <c r="E983" s="1">
+        <f>IF(C983=1,VLOOKUP(B983,balance!$K:$P,2,FALSE),IF(C983=2,VLOOKUP(B983,balance!$K:$P,3,FALSE),IF(C983=3,VLOOKUP(B983,balance!$K:$P,4,FALSE),IF(C983=4,VLOOKUP(B983,balance!$K:$P,5,FALSE),IF(C983=5,VLOOKUP(B983-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5150</v>
+      </c>
+      <c r="F983">
+        <v>53</v>
+      </c>
+      <c r="G983">
+        <f>IF(C983=1,VLOOKUP(FoxFire!B983,balance!$U:$Z,2,FALSE),IF(C983=2,VLOOKUP(B983,balance!$U:$Z,3,FALSE),IF(C983=3,VLOOKUP(B983,balance!$U:$Z,4,FALSE),IF(C983=4,VLOOKUP(B983,balance!$U:$Z,5,FALSE),IF(C983=5,VLOOKUP(B983-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.96E-3</v>
+      </c>
+      <c r="H983">
+        <v>2</v>
+      </c>
+      <c r="I983" s="1">
+        <f>IF(C983=1,VLOOKUP(FoxFire!B983,balance!$AF:$AJ,2,FALSE),IF(C983=2,VLOOKUP(B983,balance!$AF:$AJ,3,FALSE),IF(C983=3,VLOOKUP(B983,balance!$AF:$AJ,4,FALSE),IF(C983=4,VLOOKUP(B983,balance!$AF:$AJ,5,FALSE),IF(C983=5,VLOOKUP(B983,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2220000000000</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>982</v>
+      </c>
+      <c r="B984">
+        <f t="shared" si="31"/>
+        <v>197</v>
+      </c>
+      <c r="C984">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="D984">
+        <v>9026</v>
+      </c>
+      <c r="E984" s="1">
+        <f>IF(C984=1,VLOOKUP(B984,balance!$K:$P,2,FALSE),IF(C984=2,VLOOKUP(B984,balance!$K:$P,3,FALSE),IF(C984=3,VLOOKUP(B984,balance!$K:$P,4,FALSE),IF(C984=4,VLOOKUP(B984,balance!$K:$P,5,FALSE),IF(C984=5,VLOOKUP(B984-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5150</v>
+      </c>
+      <c r="F984">
+        <v>53</v>
+      </c>
+      <c r="G984">
+        <f>IF(C984=1,VLOOKUP(FoxFire!B984,balance!$U:$Z,2,FALSE),IF(C984=2,VLOOKUP(B984,balance!$U:$Z,3,FALSE),IF(C984=3,VLOOKUP(B984,balance!$U:$Z,4,FALSE),IF(C984=4,VLOOKUP(B984,balance!$U:$Z,5,FALSE),IF(C984=5,VLOOKUP(B984-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.96E-3</v>
+      </c>
+      <c r="H984">
+        <v>2</v>
+      </c>
+      <c r="I984" s="1">
+        <f>IF(C984=1,VLOOKUP(FoxFire!B984,balance!$AF:$AJ,2,FALSE),IF(C984=2,VLOOKUP(B984,balance!$AF:$AJ,3,FALSE),IF(C984=3,VLOOKUP(B984,balance!$AF:$AJ,4,FALSE),IF(C984=4,VLOOKUP(B984,balance!$AF:$AJ,5,FALSE),IF(C984=5,VLOOKUP(B984,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2220000000000</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>983</v>
+      </c>
+      <c r="B985">
+        <f t="shared" si="31"/>
+        <v>197</v>
+      </c>
+      <c r="C985">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D985">
+        <v>9026</v>
+      </c>
+      <c r="E985" s="1">
+        <f>IF(C985=1,VLOOKUP(B985,balance!$K:$P,2,FALSE),IF(C985=2,VLOOKUP(B985,balance!$K:$P,3,FALSE),IF(C985=3,VLOOKUP(B985,balance!$K:$P,4,FALSE),IF(C985=4,VLOOKUP(B985,balance!$K:$P,5,FALSE),IF(C985=5,VLOOKUP(B985-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5150</v>
+      </c>
+      <c r="F985">
+        <v>53</v>
+      </c>
+      <c r="G985">
+        <f>IF(C985=1,VLOOKUP(FoxFire!B985,balance!$U:$Z,2,FALSE),IF(C985=2,VLOOKUP(B985,balance!$U:$Z,3,FALSE),IF(C985=3,VLOOKUP(B985,balance!$U:$Z,4,FALSE),IF(C985=4,VLOOKUP(B985,balance!$U:$Z,5,FALSE),IF(C985=5,VLOOKUP(B985-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.96E-3</v>
+      </c>
+      <c r="H985">
+        <v>2</v>
+      </c>
+      <c r="I985" s="1">
+        <f>IF(C985=1,VLOOKUP(FoxFire!B985,balance!$AF:$AJ,2,FALSE),IF(C985=2,VLOOKUP(B985,balance!$AF:$AJ,3,FALSE),IF(C985=3,VLOOKUP(B985,balance!$AF:$AJ,4,FALSE),IF(C985=4,VLOOKUP(B985,balance!$AF:$AJ,5,FALSE),IF(C985=5,VLOOKUP(B985,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2220000000000</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>984</v>
+      </c>
+      <c r="B986">
+        <f t="shared" si="31"/>
+        <v>198</v>
+      </c>
+      <c r="C986">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="D986">
+        <v>9026</v>
+      </c>
+      <c r="E986" s="1">
+        <f>IF(C986=1,VLOOKUP(B986,balance!$K:$P,2,FALSE),IF(C986=2,VLOOKUP(B986,balance!$K:$P,3,FALSE),IF(C986=3,VLOOKUP(B986,balance!$K:$P,4,FALSE),IF(C986=4,VLOOKUP(B986,balance!$K:$P,5,FALSE),IF(C986=5,VLOOKUP(B986-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>207030</v>
+      </c>
+      <c r="F986">
+        <v>53</v>
+      </c>
+      <c r="G986">
+        <f>IF(C986=1,VLOOKUP(FoxFire!B986,balance!$U:$Z,2,FALSE),IF(C986=2,VLOOKUP(B986,balance!$U:$Z,3,FALSE),IF(C986=3,VLOOKUP(B986,balance!$U:$Z,4,FALSE),IF(C986=4,VLOOKUP(B986,balance!$U:$Z,5,FALSE),IF(C986=5,VLOOKUP(B986-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>621.82090000000005</v>
+      </c>
+      <c r="H986">
+        <v>2</v>
+      </c>
+      <c r="I986" s="1">
+        <f>IF(C986=1,VLOOKUP(FoxFire!B986,balance!$AF:$AJ,2,FALSE),IF(C986=2,VLOOKUP(B986,balance!$AF:$AJ,3,FALSE),IF(C986=3,VLOOKUP(B986,balance!$AF:$AJ,4,FALSE),IF(C986=4,VLOOKUP(B986,balance!$AF:$AJ,5,FALSE),IF(C986=5,VLOOKUP(B986,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>8940000000000</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>985</v>
+      </c>
+      <c r="B987">
+        <f t="shared" si="31"/>
+        <v>198</v>
+      </c>
+      <c r="C987">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D987">
+        <v>9026</v>
+      </c>
+      <c r="E987" s="1">
+        <f>IF(C987=1,VLOOKUP(B987,balance!$K:$P,2,FALSE),IF(C987=2,VLOOKUP(B987,balance!$K:$P,3,FALSE),IF(C987=3,VLOOKUP(B987,balance!$K:$P,4,FALSE),IF(C987=4,VLOOKUP(B987,balance!$K:$P,5,FALSE),IF(C987=5,VLOOKUP(B987-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5175</v>
+      </c>
+      <c r="F987">
+        <v>53</v>
+      </c>
+      <c r="G987">
+        <f>IF(C987=1,VLOOKUP(FoxFire!B987,balance!$U:$Z,2,FALSE),IF(C987=2,VLOOKUP(B987,balance!$U:$Z,3,FALSE),IF(C987=3,VLOOKUP(B987,balance!$U:$Z,4,FALSE),IF(C987=4,VLOOKUP(B987,balance!$U:$Z,5,FALSE),IF(C987=5,VLOOKUP(B987-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.97E-3</v>
+      </c>
+      <c r="H987">
+        <v>2</v>
+      </c>
+      <c r="I987" s="1">
+        <f>IF(C987=1,VLOOKUP(FoxFire!B987,balance!$AF:$AJ,2,FALSE),IF(C987=2,VLOOKUP(B987,balance!$AF:$AJ,3,FALSE),IF(C987=3,VLOOKUP(B987,balance!$AF:$AJ,4,FALSE),IF(C987=4,VLOOKUP(B987,balance!$AF:$AJ,5,FALSE),IF(C987=5,VLOOKUP(B987,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2235000000000</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>986</v>
+      </c>
+      <c r="B988">
+        <f t="shared" si="31"/>
+        <v>198</v>
+      </c>
+      <c r="C988">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="D988">
+        <v>9026</v>
+      </c>
+      <c r="E988" s="1">
+        <f>IF(C988=1,VLOOKUP(B988,balance!$K:$P,2,FALSE),IF(C988=2,VLOOKUP(B988,balance!$K:$P,3,FALSE),IF(C988=3,VLOOKUP(B988,balance!$K:$P,4,FALSE),IF(C988=4,VLOOKUP(B988,balance!$K:$P,5,FALSE),IF(C988=5,VLOOKUP(B988-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5175</v>
+      </c>
+      <c r="F988">
+        <v>53</v>
+      </c>
+      <c r="G988">
+        <f>IF(C988=1,VLOOKUP(FoxFire!B988,balance!$U:$Z,2,FALSE),IF(C988=2,VLOOKUP(B988,balance!$U:$Z,3,FALSE),IF(C988=3,VLOOKUP(B988,balance!$U:$Z,4,FALSE),IF(C988=4,VLOOKUP(B988,balance!$U:$Z,5,FALSE),IF(C988=5,VLOOKUP(B988-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.97E-3</v>
+      </c>
+      <c r="H988">
+        <v>2</v>
+      </c>
+      <c r="I988" s="1">
+        <f>IF(C988=1,VLOOKUP(FoxFire!B988,balance!$AF:$AJ,2,FALSE),IF(C988=2,VLOOKUP(B988,balance!$AF:$AJ,3,FALSE),IF(C988=3,VLOOKUP(B988,balance!$AF:$AJ,4,FALSE),IF(C988=4,VLOOKUP(B988,balance!$AF:$AJ,5,FALSE),IF(C988=5,VLOOKUP(B988,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2235000000000</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>987</v>
+      </c>
+      <c r="B989">
+        <f t="shared" si="31"/>
+        <v>198</v>
+      </c>
+      <c r="C989">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="D989">
+        <v>9026</v>
+      </c>
+      <c r="E989" s="1">
+        <f>IF(C989=1,VLOOKUP(B989,balance!$K:$P,2,FALSE),IF(C989=2,VLOOKUP(B989,balance!$K:$P,3,FALSE),IF(C989=3,VLOOKUP(B989,balance!$K:$P,4,FALSE),IF(C989=4,VLOOKUP(B989,balance!$K:$P,5,FALSE),IF(C989=5,VLOOKUP(B989-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5175</v>
+      </c>
+      <c r="F989">
+        <v>53</v>
+      </c>
+      <c r="G989">
+        <f>IF(C989=1,VLOOKUP(FoxFire!B989,balance!$U:$Z,2,FALSE),IF(C989=2,VLOOKUP(B989,balance!$U:$Z,3,FALSE),IF(C989=3,VLOOKUP(B989,balance!$U:$Z,4,FALSE),IF(C989=4,VLOOKUP(B989,balance!$U:$Z,5,FALSE),IF(C989=5,VLOOKUP(B989-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.97E-3</v>
+      </c>
+      <c r="H989">
+        <v>2</v>
+      </c>
+      <c r="I989" s="1">
+        <f>IF(C989=1,VLOOKUP(FoxFire!B989,balance!$AF:$AJ,2,FALSE),IF(C989=2,VLOOKUP(B989,balance!$AF:$AJ,3,FALSE),IF(C989=3,VLOOKUP(B989,balance!$AF:$AJ,4,FALSE),IF(C989=4,VLOOKUP(B989,balance!$AF:$AJ,5,FALSE),IF(C989=5,VLOOKUP(B989,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2235000000000</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>988</v>
+      </c>
+      <c r="B990">
+        <f t="shared" si="31"/>
+        <v>198</v>
+      </c>
+      <c r="C990">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D990">
+        <v>9026</v>
+      </c>
+      <c r="E990" s="1">
+        <f>IF(C990=1,VLOOKUP(B990,balance!$K:$P,2,FALSE),IF(C990=2,VLOOKUP(B990,balance!$K:$P,3,FALSE),IF(C990=3,VLOOKUP(B990,balance!$K:$P,4,FALSE),IF(C990=4,VLOOKUP(B990,balance!$K:$P,5,FALSE),IF(C990=5,VLOOKUP(B990-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5175</v>
+      </c>
+      <c r="F990">
+        <v>53</v>
+      </c>
+      <c r="G990">
+        <f>IF(C990=1,VLOOKUP(FoxFire!B990,balance!$U:$Z,2,FALSE),IF(C990=2,VLOOKUP(B990,balance!$U:$Z,3,FALSE),IF(C990=3,VLOOKUP(B990,balance!$U:$Z,4,FALSE),IF(C990=4,VLOOKUP(B990,balance!$U:$Z,5,FALSE),IF(C990=5,VLOOKUP(B990-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.97E-3</v>
+      </c>
+      <c r="H990">
+        <v>2</v>
+      </c>
+      <c r="I990" s="1">
+        <f>IF(C990=1,VLOOKUP(FoxFire!B990,balance!$AF:$AJ,2,FALSE),IF(C990=2,VLOOKUP(B990,balance!$AF:$AJ,3,FALSE),IF(C990=3,VLOOKUP(B990,balance!$AF:$AJ,4,FALSE),IF(C990=4,VLOOKUP(B990,balance!$AF:$AJ,5,FALSE),IF(C990=5,VLOOKUP(B990,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2235000000000</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>989</v>
+      </c>
+      <c r="B991">
+        <f t="shared" si="31"/>
+        <v>199</v>
+      </c>
+      <c r="C991">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="D991">
+        <v>9026</v>
+      </c>
+      <c r="E991" s="1">
+        <f>IF(C991=1,VLOOKUP(B991,balance!$K:$P,2,FALSE),IF(C991=2,VLOOKUP(B991,balance!$K:$P,3,FALSE),IF(C991=3,VLOOKUP(B991,balance!$K:$P,4,FALSE),IF(C991=4,VLOOKUP(B991,balance!$K:$P,5,FALSE),IF(C991=5,VLOOKUP(B991-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>209070</v>
+      </c>
+      <c r="F991">
+        <v>53</v>
+      </c>
+      <c r="G991">
+        <f>IF(C991=1,VLOOKUP(FoxFire!B991,balance!$U:$Z,2,FALSE),IF(C991=2,VLOOKUP(B991,balance!$U:$Z,3,FALSE),IF(C991=3,VLOOKUP(B991,balance!$U:$Z,4,FALSE),IF(C991=4,VLOOKUP(B991,balance!$U:$Z,5,FALSE),IF(C991=5,VLOOKUP(B991-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>636.40010000000007</v>
+      </c>
+      <c r="H991">
+        <v>2</v>
+      </c>
+      <c r="I991" s="1">
+        <f>IF(C991=1,VLOOKUP(FoxFire!B991,balance!$AF:$AJ,2,FALSE),IF(C991=2,VLOOKUP(B991,balance!$AF:$AJ,3,FALSE),IF(C991=3,VLOOKUP(B991,balance!$AF:$AJ,4,FALSE),IF(C991=4,VLOOKUP(B991,balance!$AF:$AJ,5,FALSE),IF(C991=5,VLOOKUP(B991,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>990</v>
+      </c>
+      <c r="B992">
+        <f t="shared" si="31"/>
+        <v>199</v>
+      </c>
+      <c r="C992">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D992">
+        <v>9026</v>
+      </c>
+      <c r="E992" s="1">
+        <f>IF(C992=1,VLOOKUP(B992,balance!$K:$P,2,FALSE),IF(C992=2,VLOOKUP(B992,balance!$K:$P,3,FALSE),IF(C992=3,VLOOKUP(B992,balance!$K:$P,4,FALSE),IF(C992=4,VLOOKUP(B992,balance!$K:$P,5,FALSE),IF(C992=5,VLOOKUP(B992-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5200</v>
+      </c>
+      <c r="F992">
+        <v>53</v>
+      </c>
+      <c r="G992">
+        <f>IF(C992=1,VLOOKUP(FoxFire!B992,balance!$U:$Z,2,FALSE),IF(C992=2,VLOOKUP(B992,balance!$U:$Z,3,FALSE),IF(C992=3,VLOOKUP(B992,balance!$U:$Z,4,FALSE),IF(C992=4,VLOOKUP(B992,balance!$U:$Z,5,FALSE),IF(C992=5,VLOOKUP(B992-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.98E-3</v>
+      </c>
+      <c r="H992">
+        <v>2</v>
+      </c>
+      <c r="I992" s="1">
+        <f>IF(C992=1,VLOOKUP(FoxFire!B992,balance!$AF:$AJ,2,FALSE),IF(C992=2,VLOOKUP(B992,balance!$AF:$AJ,3,FALSE),IF(C992=3,VLOOKUP(B992,balance!$AF:$AJ,4,FALSE),IF(C992=4,VLOOKUP(B992,balance!$AF:$AJ,5,FALSE),IF(C992=5,VLOOKUP(B992,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2250000000000</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>991</v>
+      </c>
+      <c r="B993">
+        <f t="shared" si="31"/>
+        <v>199</v>
+      </c>
+      <c r="C993">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="D993">
+        <v>9026</v>
+      </c>
+      <c r="E993" s="1">
+        <f>IF(C993=1,VLOOKUP(B993,balance!$K:$P,2,FALSE),IF(C993=2,VLOOKUP(B993,balance!$K:$P,3,FALSE),IF(C993=3,VLOOKUP(B993,balance!$K:$P,4,FALSE),IF(C993=4,VLOOKUP(B993,balance!$K:$P,5,FALSE),IF(C993=5,VLOOKUP(B993-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5200</v>
+      </c>
+      <c r="F993">
+        <v>53</v>
+      </c>
+      <c r="G993">
+        <f>IF(C993=1,VLOOKUP(FoxFire!B993,balance!$U:$Z,2,FALSE),IF(C993=2,VLOOKUP(B993,balance!$U:$Z,3,FALSE),IF(C993=3,VLOOKUP(B993,balance!$U:$Z,4,FALSE),IF(C993=4,VLOOKUP(B993,balance!$U:$Z,5,FALSE),IF(C993=5,VLOOKUP(B993-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.98E-3</v>
+      </c>
+      <c r="H993">
+        <v>2</v>
+      </c>
+      <c r="I993" s="1">
+        <f>IF(C993=1,VLOOKUP(FoxFire!B993,balance!$AF:$AJ,2,FALSE),IF(C993=2,VLOOKUP(B993,balance!$AF:$AJ,3,FALSE),IF(C993=3,VLOOKUP(B993,balance!$AF:$AJ,4,FALSE),IF(C993=4,VLOOKUP(B993,balance!$AF:$AJ,5,FALSE),IF(C993=5,VLOOKUP(B993,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2250000000000</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>992</v>
+      </c>
+      <c r="B994">
+        <f t="shared" si="31"/>
+        <v>199</v>
+      </c>
+      <c r="C994">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="D994">
+        <v>9026</v>
+      </c>
+      <c r="E994" s="1">
+        <f>IF(C994=1,VLOOKUP(B994,balance!$K:$P,2,FALSE),IF(C994=2,VLOOKUP(B994,balance!$K:$P,3,FALSE),IF(C994=3,VLOOKUP(B994,balance!$K:$P,4,FALSE),IF(C994=4,VLOOKUP(B994,balance!$K:$P,5,FALSE),IF(C994=5,VLOOKUP(B994-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5200</v>
+      </c>
+      <c r="F994">
+        <v>53</v>
+      </c>
+      <c r="G994">
+        <f>IF(C994=1,VLOOKUP(FoxFire!B994,balance!$U:$Z,2,FALSE),IF(C994=2,VLOOKUP(B994,balance!$U:$Z,3,FALSE),IF(C994=3,VLOOKUP(B994,balance!$U:$Z,4,FALSE),IF(C994=4,VLOOKUP(B994,balance!$U:$Z,5,FALSE),IF(C994=5,VLOOKUP(B994-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.98E-3</v>
+      </c>
+      <c r="H994">
+        <v>2</v>
+      </c>
+      <c r="I994" s="1">
+        <f>IF(C994=1,VLOOKUP(FoxFire!B994,balance!$AF:$AJ,2,FALSE),IF(C994=2,VLOOKUP(B994,balance!$AF:$AJ,3,FALSE),IF(C994=3,VLOOKUP(B994,balance!$AF:$AJ,4,FALSE),IF(C994=4,VLOOKUP(B994,balance!$AF:$AJ,5,FALSE),IF(C994=5,VLOOKUP(B994,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2250000000000</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>993</v>
+      </c>
+      <c r="B995">
+        <f t="shared" si="31"/>
+        <v>199</v>
+      </c>
+      <c r="C995">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D995">
+        <v>9026</v>
+      </c>
+      <c r="E995" s="1">
+        <f>IF(C995=1,VLOOKUP(B995,balance!$K:$P,2,FALSE),IF(C995=2,VLOOKUP(B995,balance!$K:$P,3,FALSE),IF(C995=3,VLOOKUP(B995,balance!$K:$P,4,FALSE),IF(C995=4,VLOOKUP(B995,balance!$K:$P,5,FALSE),IF(C995=5,VLOOKUP(B995-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5200</v>
+      </c>
+      <c r="F995">
+        <v>53</v>
+      </c>
+      <c r="G995">
+        <f>IF(C995=1,VLOOKUP(FoxFire!B995,balance!$U:$Z,2,FALSE),IF(C995=2,VLOOKUP(B995,balance!$U:$Z,3,FALSE),IF(C995=3,VLOOKUP(B995,balance!$U:$Z,4,FALSE),IF(C995=4,VLOOKUP(B995,balance!$U:$Z,5,FALSE),IF(C995=5,VLOOKUP(B995-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.98E-3</v>
+      </c>
+      <c r="H995">
+        <v>2</v>
+      </c>
+      <c r="I995" s="1">
+        <f>IF(C995=1,VLOOKUP(FoxFire!B995,balance!$AF:$AJ,2,FALSE),IF(C995=2,VLOOKUP(B995,balance!$AF:$AJ,3,FALSE),IF(C995=3,VLOOKUP(B995,balance!$AF:$AJ,4,FALSE),IF(C995=4,VLOOKUP(B995,balance!$AF:$AJ,5,FALSE),IF(C995=5,VLOOKUP(B995,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2250000000000</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>994</v>
+      </c>
+      <c r="B996">
+        <f t="shared" si="31"/>
+        <v>200</v>
+      </c>
+      <c r="C996">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="D996">
+        <v>9026</v>
+      </c>
+      <c r="E996" s="1">
+        <f>IF(C996=1,VLOOKUP(B996,balance!$K:$P,2,FALSE),IF(C996=2,VLOOKUP(B996,balance!$K:$P,3,FALSE),IF(C996=3,VLOOKUP(B996,balance!$K:$P,4,FALSE),IF(C996=4,VLOOKUP(B996,balance!$K:$P,5,FALSE),IF(C996=5,VLOOKUP(B996-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>211120</v>
+      </c>
+      <c r="F996">
+        <v>53</v>
+      </c>
+      <c r="G996">
+        <f>IF(C996=1,VLOOKUP(FoxFire!B996,balance!$U:$Z,2,FALSE),IF(C996=2,VLOOKUP(B996,balance!$U:$Z,3,FALSE),IF(C996=3,VLOOKUP(B996,balance!$U:$Z,4,FALSE),IF(C996=4,VLOOKUP(B996,balance!$U:$Z,5,FALSE),IF(C996=5,VLOOKUP(B996-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>651.31370000000004</v>
+      </c>
+      <c r="H996">
+        <v>2</v>
+      </c>
+      <c r="I996" s="1">
+        <f>IF(C996=1,VLOOKUP(FoxFire!B996,balance!$AF:$AJ,2,FALSE),IF(C996=2,VLOOKUP(B996,balance!$AF:$AJ,3,FALSE),IF(C996=3,VLOOKUP(B996,balance!$AF:$AJ,4,FALSE),IF(C996=4,VLOOKUP(B996,balance!$AF:$AJ,5,FALSE),IF(C996=5,VLOOKUP(B996,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>9060000000000</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>995</v>
+      </c>
+      <c r="B997">
+        <f t="shared" si="31"/>
+        <v>200</v>
+      </c>
+      <c r="C997">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D997">
+        <v>9026</v>
+      </c>
+      <c r="E997" s="1">
+        <f>IF(C997=1,VLOOKUP(B997,balance!$K:$P,2,FALSE),IF(C997=2,VLOOKUP(B997,balance!$K:$P,3,FALSE),IF(C997=3,VLOOKUP(B997,balance!$K:$P,4,FALSE),IF(C997=4,VLOOKUP(B997,balance!$K:$P,5,FALSE),IF(C997=5,VLOOKUP(B997-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5225</v>
+      </c>
+      <c r="F997">
+        <v>53</v>
+      </c>
+      <c r="G997">
+        <f>IF(C997=1,VLOOKUP(FoxFire!B997,balance!$U:$Z,2,FALSE),IF(C997=2,VLOOKUP(B997,balance!$U:$Z,3,FALSE),IF(C997=3,VLOOKUP(B997,balance!$U:$Z,4,FALSE),IF(C997=4,VLOOKUP(B997,balance!$U:$Z,5,FALSE),IF(C997=5,VLOOKUP(B997-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.99E-3</v>
+      </c>
+      <c r="H997">
+        <v>2</v>
+      </c>
+      <c r="I997" s="1">
+        <f>IF(C997=1,VLOOKUP(FoxFire!B997,balance!$AF:$AJ,2,FALSE),IF(C997=2,VLOOKUP(B997,balance!$AF:$AJ,3,FALSE),IF(C997=3,VLOOKUP(B997,balance!$AF:$AJ,4,FALSE),IF(C997=4,VLOOKUP(B997,balance!$AF:$AJ,5,FALSE),IF(C997=5,VLOOKUP(B997,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2265000000000</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>996</v>
+      </c>
+      <c r="B998">
+        <f t="shared" si="31"/>
+        <v>200</v>
+      </c>
+      <c r="C998">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="D998">
+        <v>9026</v>
+      </c>
+      <c r="E998" s="1">
+        <f>IF(C998=1,VLOOKUP(B998,balance!$K:$P,2,FALSE),IF(C998=2,VLOOKUP(B998,balance!$K:$P,3,FALSE),IF(C998=3,VLOOKUP(B998,balance!$K:$P,4,FALSE),IF(C998=4,VLOOKUP(B998,balance!$K:$P,5,FALSE),IF(C998=5,VLOOKUP(B998-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5225</v>
+      </c>
+      <c r="F998">
+        <v>53</v>
+      </c>
+      <c r="G998">
+        <f>IF(C998=1,VLOOKUP(FoxFire!B998,balance!$U:$Z,2,FALSE),IF(C998=2,VLOOKUP(B998,balance!$U:$Z,3,FALSE),IF(C998=3,VLOOKUP(B998,balance!$U:$Z,4,FALSE),IF(C998=4,VLOOKUP(B998,balance!$U:$Z,5,FALSE),IF(C998=5,VLOOKUP(B998-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.99E-3</v>
+      </c>
+      <c r="H998">
+        <v>2</v>
+      </c>
+      <c r="I998" s="1">
+        <f>IF(C998=1,VLOOKUP(FoxFire!B998,balance!$AF:$AJ,2,FALSE),IF(C998=2,VLOOKUP(B998,balance!$AF:$AJ,3,FALSE),IF(C998=3,VLOOKUP(B998,balance!$AF:$AJ,4,FALSE),IF(C998=4,VLOOKUP(B998,balance!$AF:$AJ,5,FALSE),IF(C998=5,VLOOKUP(B998,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2265000000000</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>997</v>
+      </c>
+      <c r="B999">
+        <f t="shared" si="31"/>
+        <v>200</v>
+      </c>
+      <c r="C999">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="D999">
+        <v>9026</v>
+      </c>
+      <c r="E999" s="1">
+        <f>IF(C999=1,VLOOKUP(B999,balance!$K:$P,2,FALSE),IF(C999=2,VLOOKUP(B999,balance!$K:$P,3,FALSE),IF(C999=3,VLOOKUP(B999,balance!$K:$P,4,FALSE),IF(C999=4,VLOOKUP(B999,balance!$K:$P,5,FALSE),IF(C999=5,VLOOKUP(B999-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5225</v>
+      </c>
+      <c r="F999">
+        <v>53</v>
+      </c>
+      <c r="G999">
+        <f>IF(C999=1,VLOOKUP(FoxFire!B999,balance!$U:$Z,2,FALSE),IF(C999=2,VLOOKUP(B999,balance!$U:$Z,3,FALSE),IF(C999=3,VLOOKUP(B999,balance!$U:$Z,4,FALSE),IF(C999=4,VLOOKUP(B999,balance!$U:$Z,5,FALSE),IF(C999=5,VLOOKUP(B999-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.99E-3</v>
+      </c>
+      <c r="H999">
+        <v>2</v>
+      </c>
+      <c r="I999" s="1">
+        <f>IF(C999=1,VLOOKUP(FoxFire!B999,balance!$AF:$AJ,2,FALSE),IF(C999=2,VLOOKUP(B999,balance!$AF:$AJ,3,FALSE),IF(C999=3,VLOOKUP(B999,balance!$AF:$AJ,4,FALSE),IF(C999=4,VLOOKUP(B999,balance!$AF:$AJ,5,FALSE),IF(C999=5,VLOOKUP(B999,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2265000000000</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>998</v>
+      </c>
+      <c r="B1000">
+        <f t="shared" si="31"/>
+        <v>200</v>
+      </c>
+      <c r="C1000">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D1000">
+        <v>9026</v>
+      </c>
+      <c r="E1000" s="1">
+        <f>IF(C1000=1,VLOOKUP(B1000,balance!$K:$P,2,FALSE),IF(C1000=2,VLOOKUP(B1000,balance!$K:$P,3,FALSE),IF(C1000=3,VLOOKUP(B1000,balance!$K:$P,4,FALSE),IF(C1000=4,VLOOKUP(B1000,balance!$K:$P,5,FALSE),IF(C1000=5,VLOOKUP(B1000-1,balance!$K:$P,6,FALSE),0)))))</f>
+        <v>5225</v>
+      </c>
+      <c r="F1000">
+        <v>53</v>
+      </c>
+      <c r="G1000">
+        <f>IF(C1000=1,VLOOKUP(FoxFire!B1000,balance!$U:$Z,2,FALSE),IF(C1000=2,VLOOKUP(B1000,balance!$U:$Z,3,FALSE),IF(C1000=3,VLOOKUP(B1000,balance!$U:$Z,4,FALSE),IF(C1000=4,VLOOKUP(B1000,balance!$U:$Z,5,FALSE),IF(C1000=5,VLOOKUP(B1000-1,balance!$U:$Z,6,FALSE),0)))))/100</f>
+        <v>2.99E-3</v>
+      </c>
+      <c r="H1000">
+        <v>2</v>
+      </c>
+      <c r="I1000" s="1">
+        <f>IF(C1000=1,VLOOKUP(FoxFire!B1000,balance!$AF:$AJ,2,FALSE),IF(C1000=2,VLOOKUP(B1000,balance!$AF:$AJ,3,FALSE),IF(C1000=3,VLOOKUP(B1000,balance!$AF:$AJ,4,FALSE),IF(C1000=4,VLOOKUP(B1000,balance!$AF:$AJ,5,FALSE),IF(C1000=5,VLOOKUP(B1000,balance!$AF:$AK,6,FALSE),0)))))*1000000000000</f>
+        <v>2265000000000</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +34671,7 @@
   <dimension ref="A1:AQ204"/>
   <sheetViews>
     <sheetView topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="AA114" sqref="AA114"/>
     </sheetView>
@@ -38464,7 +46964,7 @@
         <v>2538.7400000000002</v>
       </c>
       <c r="AA102" s="4">
-        <f t="shared" ref="AA102:AA165" si="54">AA101*1.1+0.1</f>
+        <f t="shared" ref="AA102:AA113" si="54">AA101*1.1+0.1</f>
         <v>3221.7466106909274</v>
       </c>
       <c r="AB102" s="4">
